--- a/設計書_打刻侍/20_基本設計/02_画面定義/画面定義書/画面定義書（C001）ログイン画面.xlsx
+++ b/設計書_打刻侍/20_基本設計/02_画面定義/画面定義書/画面定義書（C001）ログイン画面.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arc100.sharepoint.com/sites/msteams_059e6f/Shared Documents/20_基本設計/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubSample\dakokusamurai-git-repository\設計書_打刻侍\20_基本設計\02_画面定義\画面定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="162" documentId="8_{A01525D1-94ED-490F-99EF-6B3673AC658D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A39192C-E8C5-4DDC-BEE4-34CBD40FE288}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C39FD21-63ED-4302-843B-E3E651BE6342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{4A5E5E11-C186-4A6D-AA7A-E61CA13D9268}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
   <si>
     <t>画面レイアウト</t>
     <rPh sb="0" eb="2">
@@ -564,6 +564,13 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>・氏名</t>
+    <rPh sb="1" eb="3">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -879,7 +886,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1036,6 +1043,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1108,9 +1130,39 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1123,42 +1175,24 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1174,18 +1208,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1195,24 +1217,14 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1227,34 +1239,26 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2143,206 +2147,206 @@
       <c r="BY1" s="1"/>
     </row>
     <row r="2" spans="1:82" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="68" t="s">
+      <c r="I2" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
-      <c r="V2" s="69"/>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="69"/>
-      <c r="Z2" s="69"/>
-      <c r="AA2" s="69"/>
-      <c r="AB2" s="69"/>
-      <c r="AC2" s="70"/>
-      <c r="AD2" s="58" t="s">
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74"/>
+      <c r="X2" s="74"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="74"/>
+      <c r="AB2" s="74"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="58"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="60" t="s">
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="AJ2" s="61"/>
-      <c r="AK2" s="61"/>
-      <c r="AL2" s="61"/>
-      <c r="AM2" s="61"/>
-      <c r="AN2" s="61"/>
-      <c r="AO2" s="61"/>
-      <c r="AP2" s="62"/>
+      <c r="AJ2" s="66"/>
+      <c r="AK2" s="66"/>
+      <c r="AL2" s="66"/>
+      <c r="AM2" s="66"/>
+      <c r="AN2" s="66"/>
+      <c r="AO2" s="66"/>
+      <c r="AP2" s="67"/>
     </row>
     <row r="3" spans="1:82" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="54"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
       <c r="E3" s="23" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
-      <c r="I3" s="71" t="s">
+      <c r="I3" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72"/>
-      <c r="W3" s="72"/>
-      <c r="X3" s="72"/>
-      <c r="Y3" s="72"/>
-      <c r="Z3" s="72"/>
-      <c r="AA3" s="72"/>
-      <c r="AB3" s="72"/>
-      <c r="AC3" s="73"/>
-      <c r="AD3" s="63" t="s">
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="77"/>
+      <c r="Y3" s="77"/>
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="64"/>
-      <c r="AI3" s="65">
+      <c r="AE3" s="68"/>
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="68"/>
+      <c r="AH3" s="69"/>
+      <c r="AI3" s="70">
         <v>45441</v>
       </c>
-      <c r="AJ3" s="66"/>
-      <c r="AK3" s="66"/>
-      <c r="AL3" s="66"/>
-      <c r="AM3" s="66"/>
-      <c r="AN3" s="66"/>
-      <c r="AO3" s="66"/>
-      <c r="AP3" s="67"/>
+      <c r="AJ3" s="71"/>
+      <c r="AK3" s="71"/>
+      <c r="AL3" s="71"/>
+      <c r="AM3" s="71"/>
+      <c r="AN3" s="71"/>
+      <c r="AO3" s="71"/>
+      <c r="AP3" s="72"/>
     </row>
     <row r="4" spans="1:82" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
       <c r="E4" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
       <c r="H4" s="22"/>
-      <c r="I4" s="68" t="s">
+      <c r="I4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="69"/>
-      <c r="W4" s="69"/>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="69"/>
-      <c r="Z4" s="69"/>
-      <c r="AA4" s="69"/>
-      <c r="AB4" s="69"/>
-      <c r="AC4" s="69"/>
-      <c r="AD4" s="69"/>
-      <c r="AE4" s="69"/>
-      <c r="AF4" s="69"/>
-      <c r="AG4" s="69"/>
-      <c r="AH4" s="69"/>
-      <c r="AI4" s="69"/>
-      <c r="AJ4" s="69"/>
-      <c r="AK4" s="69"/>
-      <c r="AL4" s="69"/>
-      <c r="AM4" s="69"/>
-      <c r="AN4" s="69"/>
-      <c r="AO4" s="69"/>
-      <c r="AP4" s="70"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="74"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="74"/>
+      <c r="X4" s="74"/>
+      <c r="Y4" s="74"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="74"/>
+      <c r="AD4" s="74"/>
+      <c r="AE4" s="74"/>
+      <c r="AF4" s="74"/>
+      <c r="AG4" s="74"/>
+      <c r="AH4" s="74"/>
+      <c r="AI4" s="74"/>
+      <c r="AJ4" s="74"/>
+      <c r="AK4" s="74"/>
+      <c r="AL4" s="74"/>
+      <c r="AM4" s="74"/>
+      <c r="AN4" s="74"/>
+      <c r="AO4" s="74"/>
+      <c r="AP4" s="75"/>
     </row>
     <row r="5" spans="1:82" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="56"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
       <c r="E5" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="22"/>
-      <c r="I5" s="68" t="s">
+      <c r="I5" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
-      <c r="W5" s="69"/>
-      <c r="X5" s="69"/>
-      <c r="Y5" s="69"/>
-      <c r="Z5" s="69"/>
-      <c r="AA5" s="69"/>
-      <c r="AB5" s="69"/>
-      <c r="AC5" s="69"/>
-      <c r="AD5" s="69"/>
-      <c r="AE5" s="69"/>
-      <c r="AF5" s="69"/>
-      <c r="AG5" s="69"/>
-      <c r="AH5" s="69"/>
-      <c r="AI5" s="69"/>
-      <c r="AJ5" s="69"/>
-      <c r="AK5" s="69"/>
-      <c r="AL5" s="69"/>
-      <c r="AM5" s="69"/>
-      <c r="AN5" s="69"/>
-      <c r="AO5" s="69"/>
-      <c r="AP5" s="70"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="74"/>
+      <c r="T5" s="74"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="74"/>
+      <c r="X5" s="74"/>
+      <c r="Y5" s="74"/>
+      <c r="Z5" s="74"/>
+      <c r="AA5" s="74"/>
+      <c r="AB5" s="74"/>
+      <c r="AC5" s="74"/>
+      <c r="AD5" s="74"/>
+      <c r="AE5" s="74"/>
+      <c r="AF5" s="74"/>
+      <c r="AG5" s="74"/>
+      <c r="AH5" s="74"/>
+      <c r="AI5" s="74"/>
+      <c r="AJ5" s="74"/>
+      <c r="AK5" s="74"/>
+      <c r="AL5" s="74"/>
+      <c r="AM5" s="74"/>
+      <c r="AN5" s="74"/>
+      <c r="AO5" s="74"/>
+      <c r="AP5" s="75"/>
       <c r="AW5" s="1"/>
       <c r="AX5" s="1"/>
     </row>
@@ -2759,76 +2763,76 @@
       <c r="BY1" s="1"/>
     </row>
     <row r="2" spans="1:77" x14ac:dyDescent="0.45">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="77" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="77" t="s">
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="77" t="s">
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="78"/>
-      <c r="W2" s="77" t="s">
+      <c r="V2" s="93"/>
+      <c r="W2" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="78"/>
-      <c r="Y2" s="77" t="s">
+      <c r="X2" s="93"/>
+      <c r="Y2" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="Z2" s="90"/>
-      <c r="AA2" s="90"/>
-      <c r="AB2" s="90"/>
-      <c r="AC2" s="90"/>
-      <c r="AD2" s="78"/>
-      <c r="AE2" s="77" t="s">
+      <c r="Z2" s="96"/>
+      <c r="AA2" s="96"/>
+      <c r="AB2" s="96"/>
+      <c r="AC2" s="96"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="AF2" s="78"/>
-      <c r="AG2" s="79" t="s">
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="AH2" s="79"/>
-      <c r="AI2" s="79"/>
-      <c r="AJ2" s="79"/>
-      <c r="AK2" s="79"/>
-      <c r="AL2" s="79"/>
-      <c r="AM2" s="79"/>
-      <c r="AN2" s="79"/>
-      <c r="AO2" s="79"/>
-      <c r="AP2" s="79"/>
-      <c r="AQ2" s="79"/>
-      <c r="AR2" s="79"/>
-      <c r="AS2" s="79"/>
-      <c r="AT2" s="79"/>
-      <c r="AU2" s="79"/>
-      <c r="AV2" s="79"/>
-      <c r="AW2" s="79"/>
-      <c r="AX2" s="79"/>
-      <c r="AY2" s="79"/>
-      <c r="AZ2" s="79"/>
-      <c r="BA2" s="79"/>
-      <c r="BB2" s="80"/>
+      <c r="AH2" s="94"/>
+      <c r="AI2" s="94"/>
+      <c r="AJ2" s="94"/>
+      <c r="AK2" s="94"/>
+      <c r="AL2" s="94"/>
+      <c r="AM2" s="94"/>
+      <c r="AN2" s="94"/>
+      <c r="AO2" s="94"/>
+      <c r="AP2" s="94"/>
+      <c r="AQ2" s="94"/>
+      <c r="AR2" s="94"/>
+      <c r="AS2" s="94"/>
+      <c r="AT2" s="94"/>
+      <c r="AU2" s="94"/>
+      <c r="AV2" s="94"/>
+      <c r="AW2" s="94"/>
+      <c r="AX2" s="94"/>
+      <c r="AY2" s="94"/>
+      <c r="AZ2" s="94"/>
+      <c r="BA2" s="94"/>
+      <c r="BB2" s="95"/>
     </row>
     <row r="3" spans="1:77" x14ac:dyDescent="0.45">
       <c r="A3" s="81" t="s">
@@ -2855,26 +2859,26 @@
       <c r="R3" s="84"/>
       <c r="S3" s="84"/>
       <c r="T3" s="85"/>
-      <c r="U3" s="74" t="s">
+      <c r="U3" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="75"/>
-      <c r="W3" s="74" t="s">
+      <c r="V3" s="80"/>
+      <c r="W3" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="74" t="s">
+      <c r="X3" s="80"/>
+      <c r="Y3" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="Z3" s="76"/>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="76"/>
-      <c r="AC3" s="76"/>
-      <c r="AD3" s="75"/>
-      <c r="AE3" s="74" t="s">
+      <c r="Z3" s="86"/>
+      <c r="AA3" s="86"/>
+      <c r="AB3" s="86"/>
+      <c r="AC3" s="86"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="AF3" s="75"/>
+      <c r="AF3" s="80"/>
       <c r="AG3" s="9"/>
       <c r="AH3" s="10"/>
       <c r="AI3" s="10"/>
@@ -2925,26 +2929,26 @@
       <c r="R4" s="84"/>
       <c r="S4" s="84"/>
       <c r="T4" s="85"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="V4" s="75"/>
-      <c r="W4" s="74" t="s">
+      <c r="V4" s="80"/>
+      <c r="W4" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="X4" s="75"/>
-      <c r="Y4" s="86" t="s">
+      <c r="X4" s="80"/>
+      <c r="Y4" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="Z4" s="87"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="87"/>
-      <c r="AC4" s="87"/>
-      <c r="AD4" s="88"/>
-      <c r="AE4" s="86">
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="90"/>
+      <c r="AD4" s="91"/>
+      <c r="AE4" s="87">
         <v>20</v>
       </c>
-      <c r="AF4" s="89"/>
+      <c r="AF4" s="88"/>
       <c r="AG4" s="9"/>
       <c r="AH4" s="10"/>
       <c r="AI4" s="10"/>
@@ -2995,26 +2999,26 @@
       <c r="R5" s="84"/>
       <c r="S5" s="84"/>
       <c r="T5" s="85"/>
-      <c r="U5" s="74" t="s">
+      <c r="U5" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="V5" s="75"/>
-      <c r="W5" s="74" t="s">
+      <c r="V5" s="80"/>
+      <c r="W5" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="X5" s="75"/>
-      <c r="Y5" s="91" t="s">
+      <c r="X5" s="80"/>
+      <c r="Y5" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="Z5" s="87"/>
-      <c r="AA5" s="87"/>
-      <c r="AB5" s="87"/>
-      <c r="AC5" s="87"/>
-      <c r="AD5" s="88"/>
-      <c r="AE5" s="86">
+      <c r="Z5" s="90"/>
+      <c r="AA5" s="90"/>
+      <c r="AB5" s="90"/>
+      <c r="AC5" s="90"/>
+      <c r="AD5" s="91"/>
+      <c r="AE5" s="87">
         <v>20</v>
       </c>
-      <c r="AF5" s="89"/>
+      <c r="AF5" s="88"/>
       <c r="AG5" s="9"/>
       <c r="AH5" s="10"/>
       <c r="AI5" s="10"/>
@@ -3065,26 +3069,26 @@
       <c r="R6" s="84"/>
       <c r="S6" s="84"/>
       <c r="T6" s="85"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="V6" s="75"/>
-      <c r="W6" s="74" t="s">
+      <c r="V6" s="80"/>
+      <c r="W6" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="X6" s="75"/>
-      <c r="Y6" s="74" t="s">
+      <c r="X6" s="80"/>
+      <c r="Y6" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="Z6" s="76"/>
-      <c r="AA6" s="76"/>
-      <c r="AB6" s="76"/>
-      <c r="AC6" s="76"/>
-      <c r="AD6" s="75"/>
-      <c r="AE6" s="74" t="s">
+      <c r="Z6" s="86"/>
+      <c r="AA6" s="86"/>
+      <c r="AB6" s="86"/>
+      <c r="AC6" s="86"/>
+      <c r="AD6" s="80"/>
+      <c r="AE6" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="AF6" s="75"/>
+      <c r="AF6" s="80"/>
       <c r="AG6" s="9"/>
       <c r="AH6" s="10"/>
       <c r="AI6" s="10"/>
@@ -3129,18 +3133,18 @@
       <c r="R7" s="84"/>
       <c r="S7" s="84"/>
       <c r="T7" s="85"/>
-      <c r="U7" s="74"/>
-      <c r="V7" s="75"/>
-      <c r="W7" s="74"/>
-      <c r="X7" s="75"/>
-      <c r="Y7" s="74"/>
-      <c r="Z7" s="76"/>
-      <c r="AA7" s="76"/>
-      <c r="AB7" s="76"/>
-      <c r="AC7" s="76"/>
-      <c r="AD7" s="75"/>
-      <c r="AE7" s="74"/>
-      <c r="AF7" s="75"/>
+      <c r="U7" s="79"/>
+      <c r="V7" s="80"/>
+      <c r="W7" s="79"/>
+      <c r="X7" s="80"/>
+      <c r="Y7" s="79"/>
+      <c r="Z7" s="86"/>
+      <c r="AA7" s="86"/>
+      <c r="AB7" s="86"/>
+      <c r="AC7" s="86"/>
+      <c r="AD7" s="80"/>
+      <c r="AE7" s="79"/>
+      <c r="AF7" s="80"/>
       <c r="AG7" s="9"/>
       <c r="AH7" s="10"/>
       <c r="AI7" s="10"/>
@@ -3185,18 +3189,18 @@
       <c r="R8" s="84"/>
       <c r="S8" s="84"/>
       <c r="T8" s="85"/>
-      <c r="U8" s="74"/>
-      <c r="V8" s="75"/>
-      <c r="W8" s="74"/>
-      <c r="X8" s="75"/>
-      <c r="Y8" s="74"/>
-      <c r="Z8" s="76"/>
-      <c r="AA8" s="76"/>
-      <c r="AB8" s="76"/>
-      <c r="AC8" s="76"/>
-      <c r="AD8" s="75"/>
-      <c r="AE8" s="74"/>
-      <c r="AF8" s="75"/>
+      <c r="U8" s="79"/>
+      <c r="V8" s="80"/>
+      <c r="W8" s="79"/>
+      <c r="X8" s="80"/>
+      <c r="Y8" s="79"/>
+      <c r="Z8" s="86"/>
+      <c r="AA8" s="86"/>
+      <c r="AB8" s="86"/>
+      <c r="AC8" s="86"/>
+      <c r="AD8" s="80"/>
+      <c r="AE8" s="79"/>
+      <c r="AF8" s="80"/>
       <c r="AG8" s="9"/>
       <c r="AH8" s="10"/>
       <c r="AI8" s="10"/>
@@ -3241,18 +3245,18 @@
       <c r="R9" s="84"/>
       <c r="S9" s="84"/>
       <c r="T9" s="85"/>
-      <c r="U9" s="74"/>
-      <c r="V9" s="75"/>
-      <c r="W9" s="74"/>
-      <c r="X9" s="75"/>
-      <c r="Y9" s="74"/>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="76"/>
-      <c r="AB9" s="76"/>
-      <c r="AC9" s="76"/>
-      <c r="AD9" s="75"/>
-      <c r="AE9" s="74"/>
-      <c r="AF9" s="75"/>
+      <c r="U9" s="79"/>
+      <c r="V9" s="80"/>
+      <c r="W9" s="79"/>
+      <c r="X9" s="80"/>
+      <c r="Y9" s="79"/>
+      <c r="Z9" s="86"/>
+      <c r="AA9" s="86"/>
+      <c r="AB9" s="86"/>
+      <c r="AC9" s="86"/>
+      <c r="AD9" s="80"/>
+      <c r="AE9" s="79"/>
+      <c r="AF9" s="80"/>
       <c r="AG9" s="9"/>
       <c r="AH9" s="10"/>
       <c r="AI9" s="10"/>
@@ -3297,18 +3301,18 @@
       <c r="R10" s="84"/>
       <c r="S10" s="84"/>
       <c r="T10" s="85"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="75"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="75"/>
-      <c r="Y10" s="74"/>
-      <c r="Z10" s="76"/>
-      <c r="AA10" s="76"/>
-      <c r="AB10" s="76"/>
-      <c r="AC10" s="76"/>
-      <c r="AD10" s="75"/>
-      <c r="AE10" s="74"/>
-      <c r="AF10" s="75"/>
+      <c r="U10" s="79"/>
+      <c r="V10" s="80"/>
+      <c r="W10" s="79"/>
+      <c r="X10" s="80"/>
+      <c r="Y10" s="79"/>
+      <c r="Z10" s="86"/>
+      <c r="AA10" s="86"/>
+      <c r="AB10" s="86"/>
+      <c r="AC10" s="86"/>
+      <c r="AD10" s="80"/>
+      <c r="AE10" s="79"/>
+      <c r="AF10" s="80"/>
       <c r="AG10" s="9"/>
       <c r="AH10" s="10"/>
       <c r="AI10" s="10"/>
@@ -3353,18 +3357,18 @@
       <c r="R11" s="84"/>
       <c r="S11" s="84"/>
       <c r="T11" s="85"/>
-      <c r="U11" s="74"/>
-      <c r="V11" s="75"/>
-      <c r="W11" s="74"/>
-      <c r="X11" s="75"/>
-      <c r="Y11" s="74"/>
-      <c r="Z11" s="76"/>
-      <c r="AA11" s="76"/>
-      <c r="AB11" s="76"/>
-      <c r="AC11" s="76"/>
-      <c r="AD11" s="75"/>
-      <c r="AE11" s="74"/>
-      <c r="AF11" s="75"/>
+      <c r="U11" s="79"/>
+      <c r="V11" s="80"/>
+      <c r="W11" s="79"/>
+      <c r="X11" s="80"/>
+      <c r="Y11" s="79"/>
+      <c r="Z11" s="86"/>
+      <c r="AA11" s="86"/>
+      <c r="AB11" s="86"/>
+      <c r="AC11" s="86"/>
+      <c r="AD11" s="80"/>
+      <c r="AE11" s="79"/>
+      <c r="AF11" s="80"/>
       <c r="AG11" s="9"/>
       <c r="AH11" s="10"/>
       <c r="AI11" s="10"/>
@@ -3409,18 +3413,18 @@
       <c r="R12" s="84"/>
       <c r="S12" s="84"/>
       <c r="T12" s="85"/>
-      <c r="U12" s="74"/>
-      <c r="V12" s="75"/>
-      <c r="W12" s="74"/>
-      <c r="X12" s="75"/>
-      <c r="Y12" s="74"/>
-      <c r="Z12" s="76"/>
-      <c r="AA12" s="76"/>
-      <c r="AB12" s="76"/>
-      <c r="AC12" s="76"/>
-      <c r="AD12" s="75"/>
-      <c r="AE12" s="74"/>
-      <c r="AF12" s="75"/>
+      <c r="U12" s="79"/>
+      <c r="V12" s="80"/>
+      <c r="W12" s="79"/>
+      <c r="X12" s="80"/>
+      <c r="Y12" s="79"/>
+      <c r="Z12" s="86"/>
+      <c r="AA12" s="86"/>
+      <c r="AB12" s="86"/>
+      <c r="AC12" s="86"/>
+      <c r="AD12" s="80"/>
+      <c r="AE12" s="79"/>
+      <c r="AF12" s="80"/>
       <c r="AG12" s="9"/>
       <c r="AH12" s="10"/>
       <c r="AI12" s="10"/>
@@ -3465,18 +3469,18 @@
       <c r="R13" s="84"/>
       <c r="S13" s="84"/>
       <c r="T13" s="85"/>
-      <c r="U13" s="74"/>
-      <c r="V13" s="75"/>
-      <c r="W13" s="74"/>
-      <c r="X13" s="75"/>
-      <c r="Y13" s="74"/>
-      <c r="Z13" s="76"/>
-      <c r="AA13" s="76"/>
-      <c r="AB13" s="76"/>
-      <c r="AC13" s="76"/>
-      <c r="AD13" s="75"/>
-      <c r="AE13" s="74"/>
-      <c r="AF13" s="75"/>
+      <c r="U13" s="79"/>
+      <c r="V13" s="80"/>
+      <c r="W13" s="79"/>
+      <c r="X13" s="80"/>
+      <c r="Y13" s="79"/>
+      <c r="Z13" s="86"/>
+      <c r="AA13" s="86"/>
+      <c r="AB13" s="86"/>
+      <c r="AC13" s="86"/>
+      <c r="AD13" s="80"/>
+      <c r="AE13" s="79"/>
+      <c r="AF13" s="80"/>
       <c r="AG13" s="9"/>
       <c r="AH13" s="10"/>
       <c r="AI13" s="10"/>
@@ -3521,18 +3525,18 @@
       <c r="R14" s="84"/>
       <c r="S14" s="84"/>
       <c r="T14" s="85"/>
-      <c r="U14" s="74"/>
-      <c r="V14" s="75"/>
-      <c r="W14" s="74"/>
-      <c r="X14" s="75"/>
-      <c r="Y14" s="74"/>
-      <c r="Z14" s="76"/>
-      <c r="AA14" s="76"/>
-      <c r="AB14" s="76"/>
-      <c r="AC14" s="76"/>
-      <c r="AD14" s="75"/>
-      <c r="AE14" s="74"/>
-      <c r="AF14" s="75"/>
+      <c r="U14" s="79"/>
+      <c r="V14" s="80"/>
+      <c r="W14" s="79"/>
+      <c r="X14" s="80"/>
+      <c r="Y14" s="79"/>
+      <c r="Z14" s="86"/>
+      <c r="AA14" s="86"/>
+      <c r="AB14" s="86"/>
+      <c r="AC14" s="86"/>
+      <c r="AD14" s="80"/>
+      <c r="AE14" s="79"/>
+      <c r="AF14" s="80"/>
       <c r="AG14" s="9"/>
       <c r="AH14" s="10"/>
       <c r="AI14" s="10"/>
@@ -3577,18 +3581,18 @@
       <c r="R15" s="84"/>
       <c r="S15" s="84"/>
       <c r="T15" s="85"/>
-      <c r="U15" s="74"/>
-      <c r="V15" s="75"/>
-      <c r="W15" s="74"/>
-      <c r="X15" s="75"/>
-      <c r="Y15" s="74"/>
-      <c r="Z15" s="76"/>
-      <c r="AA15" s="76"/>
-      <c r="AB15" s="76"/>
-      <c r="AC15" s="76"/>
-      <c r="AD15" s="75"/>
-      <c r="AE15" s="74"/>
-      <c r="AF15" s="75"/>
+      <c r="U15" s="79"/>
+      <c r="V15" s="80"/>
+      <c r="W15" s="79"/>
+      <c r="X15" s="80"/>
+      <c r="Y15" s="79"/>
+      <c r="Z15" s="86"/>
+      <c r="AA15" s="86"/>
+      <c r="AB15" s="86"/>
+      <c r="AC15" s="86"/>
+      <c r="AD15" s="80"/>
+      <c r="AE15" s="79"/>
+      <c r="AF15" s="80"/>
       <c r="AG15" s="9"/>
       <c r="AH15" s="10"/>
       <c r="AI15" s="10"/>
@@ -3633,18 +3637,18 @@
       <c r="R16" s="84"/>
       <c r="S16" s="84"/>
       <c r="T16" s="85"/>
-      <c r="U16" s="74"/>
-      <c r="V16" s="75"/>
-      <c r="W16" s="74"/>
-      <c r="X16" s="75"/>
-      <c r="Y16" s="74"/>
-      <c r="Z16" s="76"/>
-      <c r="AA16" s="76"/>
-      <c r="AB16" s="76"/>
-      <c r="AC16" s="76"/>
-      <c r="AD16" s="75"/>
-      <c r="AE16" s="74"/>
-      <c r="AF16" s="75"/>
+      <c r="U16" s="79"/>
+      <c r="V16" s="80"/>
+      <c r="W16" s="79"/>
+      <c r="X16" s="80"/>
+      <c r="Y16" s="79"/>
+      <c r="Z16" s="86"/>
+      <c r="AA16" s="86"/>
+      <c r="AB16" s="86"/>
+      <c r="AC16" s="86"/>
+      <c r="AD16" s="80"/>
+      <c r="AE16" s="79"/>
+      <c r="AF16" s="80"/>
       <c r="AG16" s="9"/>
       <c r="AH16" s="10"/>
       <c r="AI16" s="10"/>
@@ -3689,18 +3693,18 @@
       <c r="R17" s="84"/>
       <c r="S17" s="84"/>
       <c r="T17" s="85"/>
-      <c r="U17" s="74"/>
-      <c r="V17" s="75"/>
-      <c r="W17" s="74"/>
-      <c r="X17" s="75"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="80"/>
+      <c r="W17" s="79"/>
+      <c r="X17" s="80"/>
       <c r="Y17" s="83"/>
       <c r="Z17" s="84"/>
       <c r="AA17" s="84"/>
       <c r="AB17" s="84"/>
       <c r="AC17" s="84"/>
       <c r="AD17" s="85"/>
-      <c r="AE17" s="74"/>
-      <c r="AF17" s="75"/>
+      <c r="AE17" s="79"/>
+      <c r="AF17" s="80"/>
       <c r="AG17" s="9"/>
       <c r="AH17" s="10"/>
       <c r="AI17" s="10"/>
@@ -3745,18 +3749,18 @@
       <c r="R18" s="84"/>
       <c r="S18" s="84"/>
       <c r="T18" s="85"/>
-      <c r="U18" s="74"/>
-      <c r="V18" s="75"/>
-      <c r="W18" s="74"/>
-      <c r="X18" s="75"/>
+      <c r="U18" s="79"/>
+      <c r="V18" s="80"/>
+      <c r="W18" s="79"/>
+      <c r="X18" s="80"/>
       <c r="Y18" s="83"/>
       <c r="Z18" s="84"/>
       <c r="AA18" s="84"/>
       <c r="AB18" s="84"/>
       <c r="AC18" s="84"/>
       <c r="AD18" s="85"/>
-      <c r="AE18" s="74"/>
-      <c r="AF18" s="75"/>
+      <c r="AE18" s="79"/>
+      <c r="AF18" s="80"/>
       <c r="AG18" s="9"/>
       <c r="AH18" s="10"/>
       <c r="AI18" s="10"/>
@@ -3801,18 +3805,18 @@
       <c r="R19" s="84"/>
       <c r="S19" s="84"/>
       <c r="T19" s="85"/>
-      <c r="U19" s="74"/>
-      <c r="V19" s="75"/>
-      <c r="W19" s="74"/>
-      <c r="X19" s="75"/>
-      <c r="Y19" s="74"/>
-      <c r="Z19" s="76"/>
-      <c r="AA19" s="76"/>
-      <c r="AB19" s="76"/>
-      <c r="AC19" s="76"/>
-      <c r="AD19" s="75"/>
-      <c r="AE19" s="74"/>
-      <c r="AF19" s="75"/>
+      <c r="U19" s="79"/>
+      <c r="V19" s="80"/>
+      <c r="W19" s="79"/>
+      <c r="X19" s="80"/>
+      <c r="Y19" s="79"/>
+      <c r="Z19" s="86"/>
+      <c r="AA19" s="86"/>
+      <c r="AB19" s="86"/>
+      <c r="AC19" s="86"/>
+      <c r="AD19" s="80"/>
+      <c r="AE19" s="79"/>
+      <c r="AF19" s="80"/>
       <c r="AG19" s="9"/>
       <c r="AH19" s="10"/>
       <c r="AI19" s="10"/>
@@ -3857,18 +3861,18 @@
       <c r="R20" s="84"/>
       <c r="S20" s="84"/>
       <c r="T20" s="85"/>
-      <c r="U20" s="74"/>
-      <c r="V20" s="75"/>
-      <c r="W20" s="74"/>
-      <c r="X20" s="75"/>
-      <c r="Y20" s="74"/>
-      <c r="Z20" s="76"/>
-      <c r="AA20" s="76"/>
-      <c r="AB20" s="76"/>
-      <c r="AC20" s="76"/>
-      <c r="AD20" s="75"/>
-      <c r="AE20" s="74"/>
-      <c r="AF20" s="75"/>
+      <c r="U20" s="79"/>
+      <c r="V20" s="80"/>
+      <c r="W20" s="79"/>
+      <c r="X20" s="80"/>
+      <c r="Y20" s="79"/>
+      <c r="Z20" s="86"/>
+      <c r="AA20" s="86"/>
+      <c r="AB20" s="86"/>
+      <c r="AC20" s="86"/>
+      <c r="AD20" s="80"/>
+      <c r="AE20" s="79"/>
+      <c r="AF20" s="80"/>
       <c r="AG20" s="9"/>
       <c r="AH20" s="10"/>
       <c r="AI20" s="10"/>
@@ -3894,76 +3898,46 @@
     </row>
   </sheetData>
   <mergeCells count="134">
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:L20"/>
-    <mergeCell ref="M20:T20"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="Y20:AD20"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:L19"/>
-    <mergeCell ref="M19:T19"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="Y19:AD19"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:L18"/>
-    <mergeCell ref="M18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="Y18:AD18"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:L17"/>
-    <mergeCell ref="M17:T17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="Y17:AD17"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="M16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="Y16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:L15"/>
-    <mergeCell ref="M15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="Y15:AD15"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:L14"/>
-    <mergeCell ref="M14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="Y14:AD14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="M13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="Y13:AD13"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="Y12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="M11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y11:AD11"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:BB2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="M4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="M2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:AD2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="M3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:L6"/>
+    <mergeCell ref="M6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:AD6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:L5"/>
+    <mergeCell ref="M5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:AD5"/>
     <mergeCell ref="AE7:AF7"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:L10"/>
@@ -3988,46 +3962,76 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:L9"/>
     <mergeCell ref="M9:T9"/>
-    <mergeCell ref="Y3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:L6"/>
-    <mergeCell ref="M6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:AD6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:L5"/>
-    <mergeCell ref="M5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:AD5"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:BB2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="M4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="M2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:AD2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="M3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Y12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="M11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y11:AD11"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="M14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="Y14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="M13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="Y13:AD13"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="M16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="Y16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:L15"/>
+    <mergeCell ref="M15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="Y15:AD15"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:L18"/>
+    <mergeCell ref="M18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="Y18:AD18"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:L17"/>
+    <mergeCell ref="M17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="Y17:AD17"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="M20:T20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="Y20:AD20"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:L19"/>
+    <mergeCell ref="M19:T19"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="Y19:AD19"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="AI2">
@@ -4041,10 +4045,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F03484D-9CF2-4A7A-902E-5FACCCFE191F}">
   <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:CK22"/>
+  <dimension ref="A1:CK17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+      <selection activeCell="AL13" sqref="AL13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -4148,95 +4152,95 @@
       <c r="CK1" s="12"/>
     </row>
     <row r="2" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="98" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="98" t="s">
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="98" t="s">
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="95"/>
+      <c r="T2" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="79"/>
-      <c r="Z2" s="79"/>
-      <c r="AA2" s="79"/>
-      <c r="AB2" s="79"/>
-      <c r="AC2" s="79"/>
-      <c r="AD2" s="79"/>
-      <c r="AE2" s="79"/>
-      <c r="AF2" s="79"/>
-      <c r="AG2" s="79"/>
-      <c r="AH2" s="79"/>
-      <c r="AI2" s="79"/>
-      <c r="AJ2" s="79"/>
-      <c r="AK2" s="79"/>
-      <c r="AL2" s="79"/>
-      <c r="AM2" s="79"/>
-      <c r="AN2" s="79"/>
-      <c r="AO2" s="79"/>
-      <c r="AP2" s="79"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="79" t="s">
+      <c r="U2" s="94"/>
+      <c r="V2" s="94"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="94"/>
+      <c r="Y2" s="94"/>
+      <c r="Z2" s="94"/>
+      <c r="AA2" s="94"/>
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="94"/>
+      <c r="AD2" s="94"/>
+      <c r="AE2" s="94"/>
+      <c r="AF2" s="94"/>
+      <c r="AG2" s="94"/>
+      <c r="AH2" s="94"/>
+      <c r="AI2" s="94"/>
+      <c r="AJ2" s="94"/>
+      <c r="AK2" s="94"/>
+      <c r="AL2" s="94"/>
+      <c r="AM2" s="94"/>
+      <c r="AN2" s="94"/>
+      <c r="AO2" s="94"/>
+      <c r="AP2" s="94"/>
+      <c r="AQ2" s="95"/>
+      <c r="AR2" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="AS2" s="79"/>
-      <c r="AT2" s="79"/>
-      <c r="AU2" s="79"/>
-      <c r="AV2" s="79"/>
-      <c r="AW2" s="79"/>
-      <c r="AX2" s="79"/>
-      <c r="AY2" s="79"/>
-      <c r="AZ2" s="79"/>
-      <c r="BA2" s="79"/>
-      <c r="BB2" s="80"/>
+      <c r="AS2" s="94"/>
+      <c r="AT2" s="94"/>
+      <c r="AU2" s="94"/>
+      <c r="AV2" s="94"/>
+      <c r="AW2" s="94"/>
+      <c r="AX2" s="94"/>
+      <c r="AY2" s="94"/>
+      <c r="AZ2" s="94"/>
+      <c r="BA2" s="94"/>
+      <c r="BB2" s="95"/>
     </row>
     <row r="3" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="95" t="s">
+      <c r="B3" s="103"/>
+      <c r="C3" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="96"/>
-      <c r="S3" s="97"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="105"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="106"/>
       <c r="T3" s="15" t="s">
         <v>43</v>
       </c>
@@ -4278,7 +4282,7 @@
       <c r="BB3" s="17"/>
     </row>
     <row r="4" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="98" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="82"/>
@@ -4342,7 +4346,7 @@
       <c r="BB4" s="85"/>
     </row>
     <row r="5" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A5" s="92"/>
+      <c r="A5" s="98"/>
       <c r="B5" s="82"/>
       <c r="C5" s="83"/>
       <c r="D5" s="84"/>
@@ -4457,25 +4461,25 @@
       <c r="BB6" s="11"/>
     </row>
     <row r="7" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A7" s="93"/>
-      <c r="B7" s="94"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="95"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="96"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="96"/>
-      <c r="R7" s="96"/>
-      <c r="S7" s="96"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="104"/>
+      <c r="N7" s="105"/>
+      <c r="O7" s="105"/>
+      <c r="P7" s="105"/>
+      <c r="Q7" s="105"/>
+      <c r="R7" s="105"/>
+      <c r="S7" s="105"/>
       <c r="T7" s="51" t="s">
         <v>71</v>
       </c>
@@ -4516,7 +4520,7 @@
       <c r="BB7" s="11"/>
     </row>
     <row r="8" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="92"/>
+      <c r="A8" s="98"/>
       <c r="B8" s="82"/>
       <c r="C8" s="83"/>
       <c r="D8" s="84"/>
@@ -4575,7 +4579,7 @@
       <c r="BB8" s="85"/>
     </row>
     <row r="9" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A9" s="92"/>
+      <c r="A9" s="98"/>
       <c r="B9" s="82"/>
       <c r="C9" s="83"/>
       <c r="D9" s="84"/>
@@ -4594,31 +4598,31 @@
       <c r="Q9" s="84"/>
       <c r="R9" s="84"/>
       <c r="S9" s="85"/>
-      <c r="T9" s="124" t="s">
+      <c r="T9" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="V9" s="125"/>
-      <c r="W9" s="125"/>
-      <c r="X9" s="125"/>
-      <c r="Y9" s="125"/>
-      <c r="Z9" s="125"/>
-      <c r="AA9" s="125"/>
-      <c r="AB9" s="125"/>
-      <c r="AC9" s="125"/>
-      <c r="AD9" s="125"/>
-      <c r="AE9" s="125"/>
-      <c r="AF9" s="125"/>
-      <c r="AG9" s="125"/>
-      <c r="AH9" s="125"/>
-      <c r="AI9" s="125"/>
-      <c r="AJ9" s="125"/>
-      <c r="AK9" s="125"/>
-      <c r="AL9" s="125"/>
-      <c r="AM9" s="125"/>
-      <c r="AN9" s="125"/>
-      <c r="AO9" s="125"/>
-      <c r="AP9" s="125"/>
-      <c r="AQ9" s="126"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="53"/>
+      <c r="AD9" s="53"/>
+      <c r="AE9" s="53"/>
+      <c r="AF9" s="53"/>
+      <c r="AG9" s="53"/>
+      <c r="AH9" s="53"/>
+      <c r="AI9" s="53"/>
+      <c r="AJ9" s="53"/>
+      <c r="AK9" s="53"/>
+      <c r="AL9" s="53"/>
+      <c r="AM9" s="53"/>
+      <c r="AN9" s="53"/>
+      <c r="AO9" s="53"/>
+      <c r="AP9" s="53"/>
+      <c r="AQ9" s="54"/>
       <c r="AR9" s="9" t="s">
         <v>66</v>
       </c>
@@ -4634,7 +4638,7 @@
       <c r="BB9" s="11"/>
     </row>
     <row r="10" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A10" s="92"/>
+      <c r="A10" s="98"/>
       <c r="B10" s="82"/>
       <c r="C10" s="83"/>
       <c r="D10" s="84"/>
@@ -4677,7 +4681,9 @@
       <c r="AO10" s="46"/>
       <c r="AP10" s="46"/>
       <c r="AQ10" s="47"/>
-      <c r="AR10" s="9"/>
+      <c r="AR10" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="AS10" s="10"/>
       <c r="AT10" s="10"/>
       <c r="AU10" s="10"/>
@@ -4746,7 +4752,7 @@
       <c r="BB11" s="11"/>
     </row>
     <row r="12" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A12" s="92"/>
+      <c r="A12" s="98"/>
       <c r="B12" s="82"/>
       <c r="C12" s="83"/>
       <c r="D12" s="84"/>
@@ -4802,7 +4808,7 @@
       <c r="BB12" s="11"/>
     </row>
     <row r="13" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A13" s="92"/>
+      <c r="A13" s="98"/>
       <c r="B13" s="82"/>
       <c r="C13" s="83"/>
       <c r="D13" s="84"/>
@@ -4858,7 +4864,7 @@
       <c r="BB13" s="85"/>
     </row>
     <row r="14" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A14" s="92"/>
+      <c r="A14" s="98"/>
       <c r="B14" s="82"/>
       <c r="C14" s="83"/>
       <c r="D14" s="84"/>
@@ -4878,29 +4884,29 @@
       <c r="R14" s="84"/>
       <c r="S14" s="85"/>
       <c r="T14" s="46"/>
-      <c r="U14" s="127"/>
-      <c r="V14" s="127"/>
-      <c r="W14" s="127"/>
-      <c r="X14" s="127"/>
-      <c r="Y14" s="127"/>
-      <c r="Z14" s="127"/>
-      <c r="AA14" s="127"/>
-      <c r="AB14" s="127"/>
-      <c r="AC14" s="127"/>
-      <c r="AD14" s="127"/>
-      <c r="AE14" s="127"/>
-      <c r="AF14" s="127"/>
-      <c r="AG14" s="127"/>
-      <c r="AH14" s="127"/>
-      <c r="AI14" s="127"/>
-      <c r="AJ14" s="127"/>
-      <c r="AK14" s="127"/>
-      <c r="AL14" s="127"/>
-      <c r="AM14" s="127"/>
-      <c r="AN14" s="127"/>
-      <c r="AO14" s="127"/>
-      <c r="AP14" s="127"/>
-      <c r="AQ14" s="128"/>
+      <c r="U14" s="55"/>
+      <c r="V14" s="55"/>
+      <c r="W14" s="55"/>
+      <c r="X14" s="55"/>
+      <c r="Y14" s="55"/>
+      <c r="Z14" s="55"/>
+      <c r="AA14" s="55"/>
+      <c r="AB14" s="55"/>
+      <c r="AC14" s="55"/>
+      <c r="AD14" s="55"/>
+      <c r="AE14" s="55"/>
+      <c r="AF14" s="55"/>
+      <c r="AG14" s="55"/>
+      <c r="AH14" s="55"/>
+      <c r="AI14" s="55"/>
+      <c r="AJ14" s="55"/>
+      <c r="AK14" s="55"/>
+      <c r="AL14" s="55"/>
+      <c r="AM14" s="55"/>
+      <c r="AN14" s="55"/>
+      <c r="AO14" s="55"/>
+      <c r="AP14" s="55"/>
+      <c r="AQ14" s="56"/>
       <c r="AR14" s="9"/>
       <c r="AS14" s="10"/>
       <c r="AT14" s="10"/>
@@ -4914,7 +4920,7 @@
       <c r="BB14" s="11"/>
     </row>
     <row r="15" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A15" s="92"/>
+      <c r="A15" s="98"/>
       <c r="B15" s="82"/>
       <c r="C15" s="83"/>
       <c r="D15" s="84"/>
@@ -4970,7 +4976,7 @@
       <c r="BB15" s="11"/>
     </row>
     <row r="16" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A16" s="92"/>
+      <c r="A16" s="98"/>
       <c r="B16" s="82"/>
       <c r="C16" s="83"/>
       <c r="D16" s="84"/>
@@ -5024,76 +5030,41 @@
       <c r="BA16" s="10"/>
       <c r="BB16" s="11"/>
     </row>
-    <row r="17" spans="21:42" x14ac:dyDescent="0.45">
+    <row r="17" spans="21:21" x14ac:dyDescent="0.45">
       <c r="U17" s="46"/>
-    </row>
-    <row r="18" spans="21:42" x14ac:dyDescent="0.45">
-      <c r="AF18" s="123"/>
-      <c r="AG18" s="123"/>
-      <c r="AH18" s="123"/>
-      <c r="AI18" s="123"/>
-      <c r="AJ18" s="123"/>
-      <c r="AK18" s="123"/>
-      <c r="AL18" s="123"/>
-      <c r="AM18" s="123"/>
-      <c r="AN18" s="123"/>
-      <c r="AO18" s="123"/>
-      <c r="AP18" s="123"/>
-    </row>
-    <row r="19" spans="21:42" x14ac:dyDescent="0.45">
-      <c r="AF19" s="123"/>
-      <c r="AG19" s="123"/>
-      <c r="AH19" s="123"/>
-      <c r="AI19" s="123"/>
-      <c r="AJ19" s="123"/>
-      <c r="AK19" s="123"/>
-      <c r="AL19" s="123"/>
-      <c r="AM19" s="123"/>
-      <c r="AN19" s="123"/>
-      <c r="AO19" s="123"/>
-      <c r="AP19" s="123"/>
-    </row>
-    <row r="20" spans="21:42" x14ac:dyDescent="0.45">
-      <c r="AF20" s="123"/>
-      <c r="AG20" s="123"/>
-      <c r="AH20" s="123"/>
-      <c r="AI20" s="123"/>
-      <c r="AJ20" s="123"/>
-      <c r="AK20" s="123"/>
-      <c r="AL20" s="123"/>
-      <c r="AM20" s="123"/>
-      <c r="AN20" s="123"/>
-      <c r="AO20" s="123"/>
-      <c r="AP20" s="123"/>
-    </row>
-    <row r="21" spans="21:42" x14ac:dyDescent="0.45">
-      <c r="AF21" s="123"/>
-      <c r="AG21" s="123"/>
-      <c r="AH21" s="123"/>
-      <c r="AI21" s="123"/>
-      <c r="AJ21" s="123"/>
-      <c r="AK21" s="123"/>
-      <c r="AL21" s="123"/>
-      <c r="AM21" s="123"/>
-      <c r="AN21" s="123"/>
-      <c r="AO21" s="123"/>
-      <c r="AP21" s="123"/>
-    </row>
-    <row r="22" spans="21:42" x14ac:dyDescent="0.45">
-      <c r="AF22" s="123"/>
-      <c r="AG22" s="123"/>
-      <c r="AH22" s="123"/>
-      <c r="AI22" s="123"/>
-      <c r="AJ22" s="123"/>
-      <c r="AK22" s="123"/>
-      <c r="AL22" s="123"/>
-      <c r="AM22" s="123"/>
-      <c r="AN22" s="123"/>
-      <c r="AO22" s="123"/>
-      <c r="AP22" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="M16:S16"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="M7:S7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="M14:S14"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="M9:S9"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:L15"/>
+    <mergeCell ref="M15:S15"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="M2:S2"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="M8:S8"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="M3:S3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="C5:L5"/>
+    <mergeCell ref="M5:S5"/>
     <mergeCell ref="AR5:BB5"/>
     <mergeCell ref="T2:AQ2"/>
     <mergeCell ref="AR2:BB2"/>
@@ -5110,36 +5081,6 @@
     <mergeCell ref="AR13:BB13"/>
     <mergeCell ref="AR4:BB4"/>
     <mergeCell ref="AR8:BB8"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="M2:S2"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="M8:S8"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="M3:S3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="C5:L5"/>
-    <mergeCell ref="M5:S5"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="M16:S16"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:L7"/>
-    <mergeCell ref="M7:S7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C14:L14"/>
-    <mergeCell ref="M14:S14"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:L9"/>
-    <mergeCell ref="M9:S9"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:L15"/>
-    <mergeCell ref="M15:S15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="AS1:AS2">
@@ -5249,108 +5190,108 @@
       <c r="CC1" s="1"/>
     </row>
     <row r="2" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="90" t="s">
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="90"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90"/>
-      <c r="X2" s="90"/>
-      <c r="Y2" s="90"/>
-      <c r="Z2" s="90"/>
-      <c r="AA2" s="90"/>
-      <c r="AB2" s="90"/>
-      <c r="AC2" s="90"/>
-      <c r="AD2" s="78"/>
-      <c r="AE2" s="102" t="s">
+      <c r="T2" s="96"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="96"/>
+      <c r="W2" s="96"/>
+      <c r="X2" s="96"/>
+      <c r="Y2" s="96"/>
+      <c r="Z2" s="96"/>
+      <c r="AA2" s="96"/>
+      <c r="AB2" s="96"/>
+      <c r="AC2" s="96"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="AF2" s="103"/>
-      <c r="AG2" s="103"/>
-      <c r="AH2" s="103"/>
-      <c r="AI2" s="103"/>
-      <c r="AJ2" s="103"/>
-      <c r="AK2" s="103"/>
-      <c r="AL2" s="103"/>
-      <c r="AM2" s="103"/>
-      <c r="AN2" s="102" t="s">
+      <c r="AF2" s="108"/>
+      <c r="AG2" s="108"/>
+      <c r="AH2" s="108"/>
+      <c r="AI2" s="108"/>
+      <c r="AJ2" s="108"/>
+      <c r="AK2" s="108"/>
+      <c r="AL2" s="108"/>
+      <c r="AM2" s="108"/>
+      <c r="AN2" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="AO2" s="103"/>
-      <c r="AP2" s="103"/>
-      <c r="AQ2" s="103"/>
-      <c r="AR2" s="103"/>
-      <c r="AS2" s="103"/>
-      <c r="AT2" s="103"/>
-      <c r="AU2" s="103"/>
-      <c r="AV2" s="103"/>
-      <c r="AW2" s="103"/>
-      <c r="AX2" s="103"/>
-      <c r="AY2" s="103"/>
-      <c r="AZ2" s="103"/>
-      <c r="BA2" s="103"/>
-      <c r="BB2" s="104"/>
+      <c r="AO2" s="108"/>
+      <c r="AP2" s="108"/>
+      <c r="AQ2" s="108"/>
+      <c r="AR2" s="108"/>
+      <c r="AS2" s="108"/>
+      <c r="AT2" s="108"/>
+      <c r="AU2" s="108"/>
+      <c r="AV2" s="108"/>
+      <c r="AW2" s="108"/>
+      <c r="AX2" s="108"/>
+      <c r="AY2" s="108"/>
+      <c r="AZ2" s="108"/>
+      <c r="BA2" s="108"/>
+      <c r="BB2" s="109"/>
     </row>
     <row r="3" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="77" t="s">
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="90" t="s">
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="78"/>
-      <c r="U3" s="77" t="s">
+      <c r="T3" s="93"/>
+      <c r="U3" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="90"/>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="90"/>
-      <c r="AC3" s="90"/>
-      <c r="AD3" s="78"/>
+      <c r="V3" s="96"/>
+      <c r="W3" s="96"/>
+      <c r="X3" s="96"/>
+      <c r="Y3" s="96"/>
+      <c r="Z3" s="96"/>
+      <c r="AA3" s="96"/>
+      <c r="AB3" s="96"/>
+      <c r="AC3" s="96"/>
+      <c r="AD3" s="93"/>
       <c r="AE3" s="18"/>
       <c r="AF3" s="19"/>
       <c r="AG3" s="19"/>
@@ -6218,6 +6159,58 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="AN2:BB2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:AD3"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="J3:R3"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:AD5"/>
+    <mergeCell ref="AE5:AM5"/>
+    <mergeCell ref="AN5:BB5"/>
+    <mergeCell ref="S2:AD2"/>
+    <mergeCell ref="AE2:AM2"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:AD6"/>
+    <mergeCell ref="AE6:AM6"/>
+    <mergeCell ref="AN6:BB6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:AD7"/>
+    <mergeCell ref="AE7:AM7"/>
+    <mergeCell ref="AN7:BB7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:AD8"/>
+    <mergeCell ref="AE8:AM8"/>
+    <mergeCell ref="AN8:BB8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:AD9"/>
+    <mergeCell ref="AE9:AM9"/>
+    <mergeCell ref="AN9:BB9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:AD10"/>
+    <mergeCell ref="AE10:AM10"/>
+    <mergeCell ref="AN10:BB10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:AD11"/>
+    <mergeCell ref="AE11:AM11"/>
+    <mergeCell ref="AN11:BB11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:AD12"/>
+    <mergeCell ref="AE12:AM12"/>
+    <mergeCell ref="AN12:BB12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:AD13"/>
+    <mergeCell ref="AE13:AM13"/>
+    <mergeCell ref="AN13:BB13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AE14:AM14"/>
+    <mergeCell ref="AN14:BB14"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:AD15"/>
+    <mergeCell ref="AE15:AM15"/>
+    <mergeCell ref="AN15:BB15"/>
     <mergeCell ref="S18:T18"/>
     <mergeCell ref="U18:AD18"/>
     <mergeCell ref="AE18:AM18"/>
@@ -6230,58 +6223,6 @@
     <mergeCell ref="U17:AD17"/>
     <mergeCell ref="AE17:AM17"/>
     <mergeCell ref="AN17:BB17"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="AE14:AM14"/>
-    <mergeCell ref="AN14:BB14"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:AD15"/>
-    <mergeCell ref="AE15:AM15"/>
-    <mergeCell ref="AN15:BB15"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:AD12"/>
-    <mergeCell ref="AE12:AM12"/>
-    <mergeCell ref="AN12:BB12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:AD13"/>
-    <mergeCell ref="AE13:AM13"/>
-    <mergeCell ref="AN13:BB13"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:AD10"/>
-    <mergeCell ref="AE10:AM10"/>
-    <mergeCell ref="AN10:BB10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:AD11"/>
-    <mergeCell ref="AE11:AM11"/>
-    <mergeCell ref="AN11:BB11"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:AD8"/>
-    <mergeCell ref="AE8:AM8"/>
-    <mergeCell ref="AN8:BB8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:AD9"/>
-    <mergeCell ref="AE9:AM9"/>
-    <mergeCell ref="AN9:BB9"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:AD6"/>
-    <mergeCell ref="AE6:AM6"/>
-    <mergeCell ref="AN6:BB6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:AD7"/>
-    <mergeCell ref="AE7:AM7"/>
-    <mergeCell ref="AN7:BB7"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:AD5"/>
-    <mergeCell ref="AE5:AM5"/>
-    <mergeCell ref="AN5:BB5"/>
-    <mergeCell ref="S2:AD2"/>
-    <mergeCell ref="AE2:AM2"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="AN2:BB2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:AD3"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="J3:R3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6361,1259 +6302,1349 @@
       <c r="BB1" s="24"/>
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="122" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="105" t="s">
+      <c r="B2" s="123"/>
+      <c r="C2" s="122" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="105" t="s">
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="105" t="s">
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="107"/>
-      <c r="Z2" s="106"/>
-      <c r="AA2" s="105" t="s">
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="124"/>
+      <c r="T2" s="124"/>
+      <c r="U2" s="124"/>
+      <c r="V2" s="124"/>
+      <c r="W2" s="124"/>
+      <c r="X2" s="124"/>
+      <c r="Y2" s="124"/>
+      <c r="Z2" s="123"/>
+      <c r="AA2" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="AB2" s="107"/>
-      <c r="AC2" s="107"/>
-      <c r="AD2" s="107"/>
-      <c r="AE2" s="107"/>
-      <c r="AF2" s="107"/>
-      <c r="AG2" s="107"/>
-      <c r="AH2" s="107"/>
-      <c r="AI2" s="107"/>
-      <c r="AJ2" s="107"/>
-      <c r="AK2" s="107"/>
-      <c r="AL2" s="107"/>
-      <c r="AM2" s="107"/>
-      <c r="AN2" s="107"/>
-      <c r="AO2" s="107"/>
-      <c r="AP2" s="107"/>
-      <c r="AQ2" s="107"/>
-      <c r="AR2" s="107"/>
-      <c r="AS2" s="107"/>
-      <c r="AT2" s="107"/>
-      <c r="AU2" s="107"/>
-      <c r="AV2" s="107"/>
-      <c r="AW2" s="107"/>
-      <c r="AX2" s="107"/>
-      <c r="AY2" s="107"/>
-      <c r="AZ2" s="107"/>
-      <c r="BA2" s="107"/>
-      <c r="BB2" s="106"/>
+      <c r="AB2" s="124"/>
+      <c r="AC2" s="124"/>
+      <c r="AD2" s="124"/>
+      <c r="AE2" s="124"/>
+      <c r="AF2" s="124"/>
+      <c r="AG2" s="124"/>
+      <c r="AH2" s="124"/>
+      <c r="AI2" s="124"/>
+      <c r="AJ2" s="124"/>
+      <c r="AK2" s="124"/>
+      <c r="AL2" s="124"/>
+      <c r="AM2" s="124"/>
+      <c r="AN2" s="124"/>
+      <c r="AO2" s="124"/>
+      <c r="AP2" s="124"/>
+      <c r="AQ2" s="124"/>
+      <c r="AR2" s="124"/>
+      <c r="AS2" s="124"/>
+      <c r="AT2" s="124"/>
+      <c r="AU2" s="124"/>
+      <c r="AV2" s="124"/>
+      <c r="AW2" s="124"/>
+      <c r="AX2" s="124"/>
+      <c r="AY2" s="124"/>
+      <c r="AZ2" s="124"/>
+      <c r="BA2" s="124"/>
+      <c r="BB2" s="123"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A3" s="108">
+      <c r="A3" s="120">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="109">
+      <c r="B3" s="120"/>
+      <c r="C3" s="125">
         <v>45441</v>
       </c>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="110" t="s">
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="111" t="s">
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="127" t="s">
         <v>59</v>
       </c>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="111"/>
-      <c r="S3" s="111"/>
-      <c r="T3" s="111"/>
-      <c r="U3" s="111"/>
-      <c r="V3" s="111"/>
-      <c r="W3" s="111"/>
-      <c r="X3" s="111"/>
-      <c r="Y3" s="111"/>
-      <c r="Z3" s="111"/>
-      <c r="AA3" s="111"/>
-      <c r="AB3" s="111"/>
-      <c r="AC3" s="111"/>
-      <c r="AD3" s="111"/>
-      <c r="AE3" s="111"/>
-      <c r="AF3" s="111"/>
-      <c r="AG3" s="111"/>
-      <c r="AH3" s="111"/>
-      <c r="AI3" s="111"/>
-      <c r="AJ3" s="111"/>
-      <c r="AK3" s="111"/>
-      <c r="AL3" s="111"/>
-      <c r="AM3" s="111"/>
-      <c r="AN3" s="111"/>
-      <c r="AO3" s="111"/>
-      <c r="AP3" s="111"/>
-      <c r="AQ3" s="111"/>
-      <c r="AR3" s="111"/>
-      <c r="AS3" s="111"/>
-      <c r="AT3" s="111"/>
-      <c r="AU3" s="111"/>
-      <c r="AV3" s="111"/>
-      <c r="AW3" s="111"/>
-      <c r="AX3" s="111"/>
-      <c r="AY3" s="111"/>
-      <c r="AZ3" s="111"/>
-      <c r="BA3" s="111"/>
-      <c r="BB3" s="111"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="127"/>
+      <c r="Q3" s="127"/>
+      <c r="R3" s="127"/>
+      <c r="S3" s="127"/>
+      <c r="T3" s="127"/>
+      <c r="U3" s="127"/>
+      <c r="V3" s="127"/>
+      <c r="W3" s="127"/>
+      <c r="X3" s="127"/>
+      <c r="Y3" s="127"/>
+      <c r="Z3" s="127"/>
+      <c r="AA3" s="127"/>
+      <c r="AB3" s="127"/>
+      <c r="AC3" s="127"/>
+      <c r="AD3" s="127"/>
+      <c r="AE3" s="127"/>
+      <c r="AF3" s="127"/>
+      <c r="AG3" s="127"/>
+      <c r="AH3" s="127"/>
+      <c r="AI3" s="127"/>
+      <c r="AJ3" s="127"/>
+      <c r="AK3" s="127"/>
+      <c r="AL3" s="127"/>
+      <c r="AM3" s="127"/>
+      <c r="AN3" s="127"/>
+      <c r="AO3" s="127"/>
+      <c r="AP3" s="127"/>
+      <c r="AQ3" s="127"/>
+      <c r="AR3" s="127"/>
+      <c r="AS3" s="127"/>
+      <c r="AT3" s="127"/>
+      <c r="AU3" s="127"/>
+      <c r="AV3" s="127"/>
+      <c r="AW3" s="127"/>
+      <c r="AX3" s="127"/>
+      <c r="AY3" s="127"/>
+      <c r="AZ3" s="127"/>
+      <c r="BA3" s="127"/>
+      <c r="BB3" s="127"/>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A4" s="108">
+      <c r="A4" s="120">
         <f t="shared" ref="A4:A22" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="115"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="117"/>
-      <c r="P4" s="117"/>
-      <c r="Q4" s="117"/>
-      <c r="R4" s="117"/>
-      <c r="S4" s="117"/>
-      <c r="T4" s="117"/>
-      <c r="U4" s="117"/>
-      <c r="V4" s="117"/>
-      <c r="W4" s="117"/>
-      <c r="X4" s="117"/>
-      <c r="Y4" s="117"/>
-      <c r="Z4" s="118"/>
-      <c r="AA4" s="119"/>
-      <c r="AB4" s="119"/>
-      <c r="AC4" s="119"/>
-      <c r="AD4" s="119"/>
-      <c r="AE4" s="119"/>
-      <c r="AF4" s="119"/>
-      <c r="AG4" s="119"/>
-      <c r="AH4" s="119"/>
-      <c r="AI4" s="119"/>
-      <c r="AJ4" s="119"/>
-      <c r="AK4" s="119"/>
-      <c r="AL4" s="119"/>
-      <c r="AM4" s="119"/>
-      <c r="AN4" s="119"/>
-      <c r="AO4" s="119"/>
-      <c r="AP4" s="119"/>
-      <c r="AQ4" s="119"/>
-      <c r="AR4" s="119"/>
-      <c r="AS4" s="119"/>
-      <c r="AT4" s="119"/>
-      <c r="AU4" s="119"/>
-      <c r="AV4" s="119"/>
-      <c r="AW4" s="119"/>
-      <c r="AX4" s="119"/>
-      <c r="AY4" s="119"/>
-      <c r="AZ4" s="119"/>
-      <c r="BA4" s="119"/>
-      <c r="BB4" s="119"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="118"/>
+      <c r="U4" s="118"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118"/>
+      <c r="X4" s="118"/>
+      <c r="Y4" s="118"/>
+      <c r="Z4" s="119"/>
+      <c r="AA4" s="110"/>
+      <c r="AB4" s="110"/>
+      <c r="AC4" s="110"/>
+      <c r="AD4" s="110"/>
+      <c r="AE4" s="110"/>
+      <c r="AF4" s="110"/>
+      <c r="AG4" s="110"/>
+      <c r="AH4" s="110"/>
+      <c r="AI4" s="110"/>
+      <c r="AJ4" s="110"/>
+      <c r="AK4" s="110"/>
+      <c r="AL4" s="110"/>
+      <c r="AM4" s="110"/>
+      <c r="AN4" s="110"/>
+      <c r="AO4" s="110"/>
+      <c r="AP4" s="110"/>
+      <c r="AQ4" s="110"/>
+      <c r="AR4" s="110"/>
+      <c r="AS4" s="110"/>
+      <c r="AT4" s="110"/>
+      <c r="AU4" s="110"/>
+      <c r="AV4" s="110"/>
+      <c r="AW4" s="110"/>
+      <c r="AX4" s="110"/>
+      <c r="AY4" s="110"/>
+      <c r="AZ4" s="110"/>
+      <c r="BA4" s="110"/>
+      <c r="BB4" s="110"/>
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A5" s="108">
+      <c r="A5" s="120">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="115"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="117"/>
-      <c r="P5" s="117"/>
-      <c r="Q5" s="117"/>
-      <c r="R5" s="117"/>
-      <c r="S5" s="117"/>
-      <c r="T5" s="117"/>
-      <c r="U5" s="117"/>
-      <c r="V5" s="117"/>
-      <c r="W5" s="117"/>
-      <c r="X5" s="117"/>
-      <c r="Y5" s="117"/>
-      <c r="Z5" s="118"/>
-      <c r="AA5" s="119"/>
-      <c r="AB5" s="119"/>
-      <c r="AC5" s="119"/>
-      <c r="AD5" s="119"/>
-      <c r="AE5" s="119"/>
-      <c r="AF5" s="119"/>
-      <c r="AG5" s="119"/>
-      <c r="AH5" s="119"/>
-      <c r="AI5" s="119"/>
-      <c r="AJ5" s="119"/>
-      <c r="AK5" s="119"/>
-      <c r="AL5" s="119"/>
-      <c r="AM5" s="119"/>
-      <c r="AN5" s="119"/>
-      <c r="AO5" s="119"/>
-      <c r="AP5" s="119"/>
-      <c r="AQ5" s="119"/>
-      <c r="AR5" s="119"/>
-      <c r="AS5" s="119"/>
-      <c r="AT5" s="119"/>
-      <c r="AU5" s="119"/>
-      <c r="AV5" s="119"/>
-      <c r="AW5" s="119"/>
-      <c r="AX5" s="119"/>
-      <c r="AY5" s="119"/>
-      <c r="AZ5" s="119"/>
-      <c r="BA5" s="119"/>
-      <c r="BB5" s="119"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="118"/>
+      <c r="P5" s="118"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="118"/>
+      <c r="T5" s="118"/>
+      <c r="U5" s="118"/>
+      <c r="V5" s="118"/>
+      <c r="W5" s="118"/>
+      <c r="X5" s="118"/>
+      <c r="Y5" s="118"/>
+      <c r="Z5" s="119"/>
+      <c r="AA5" s="110"/>
+      <c r="AB5" s="110"/>
+      <c r="AC5" s="110"/>
+      <c r="AD5" s="110"/>
+      <c r="AE5" s="110"/>
+      <c r="AF5" s="110"/>
+      <c r="AG5" s="110"/>
+      <c r="AH5" s="110"/>
+      <c r="AI5" s="110"/>
+      <c r="AJ5" s="110"/>
+      <c r="AK5" s="110"/>
+      <c r="AL5" s="110"/>
+      <c r="AM5" s="110"/>
+      <c r="AN5" s="110"/>
+      <c r="AO5" s="110"/>
+      <c r="AP5" s="110"/>
+      <c r="AQ5" s="110"/>
+      <c r="AR5" s="110"/>
+      <c r="AS5" s="110"/>
+      <c r="AT5" s="110"/>
+      <c r="AU5" s="110"/>
+      <c r="AV5" s="110"/>
+      <c r="AW5" s="110"/>
+      <c r="AX5" s="110"/>
+      <c r="AY5" s="110"/>
+      <c r="AZ5" s="110"/>
+      <c r="BA5" s="110"/>
+      <c r="BB5" s="110"/>
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A6" s="108">
+      <c r="A6" s="120">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="108"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="115"/>
-      <c r="N6" s="116"/>
-      <c r="O6" s="117"/>
-      <c r="P6" s="117"/>
-      <c r="Q6" s="117"/>
-      <c r="R6" s="117"/>
-      <c r="S6" s="117"/>
-      <c r="T6" s="117"/>
-      <c r="U6" s="117"/>
-      <c r="V6" s="117"/>
-      <c r="W6" s="117"/>
-      <c r="X6" s="117"/>
-      <c r="Y6" s="117"/>
-      <c r="Z6" s="118"/>
-      <c r="AA6" s="119"/>
-      <c r="AB6" s="119"/>
-      <c r="AC6" s="119"/>
-      <c r="AD6" s="119"/>
-      <c r="AE6" s="119"/>
-      <c r="AF6" s="119"/>
-      <c r="AG6" s="119"/>
-      <c r="AH6" s="119"/>
-      <c r="AI6" s="119"/>
-      <c r="AJ6" s="119"/>
-      <c r="AK6" s="119"/>
-      <c r="AL6" s="119"/>
-      <c r="AM6" s="119"/>
-      <c r="AN6" s="119"/>
-      <c r="AO6" s="119"/>
-      <c r="AP6" s="119"/>
-      <c r="AQ6" s="119"/>
-      <c r="AR6" s="119"/>
-      <c r="AS6" s="119"/>
-      <c r="AT6" s="119"/>
-      <c r="AU6" s="119"/>
-      <c r="AV6" s="119"/>
-      <c r="AW6" s="119"/>
-      <c r="AX6" s="119"/>
-      <c r="AY6" s="119"/>
-      <c r="AZ6" s="119"/>
-      <c r="BA6" s="119"/>
-      <c r="BB6" s="119"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="117"/>
+      <c r="O6" s="118"/>
+      <c r="P6" s="118"/>
+      <c r="Q6" s="118"/>
+      <c r="R6" s="118"/>
+      <c r="S6" s="118"/>
+      <c r="T6" s="118"/>
+      <c r="U6" s="118"/>
+      <c r="V6" s="118"/>
+      <c r="W6" s="118"/>
+      <c r="X6" s="118"/>
+      <c r="Y6" s="118"/>
+      <c r="Z6" s="119"/>
+      <c r="AA6" s="110"/>
+      <c r="AB6" s="110"/>
+      <c r="AC6" s="110"/>
+      <c r="AD6" s="110"/>
+      <c r="AE6" s="110"/>
+      <c r="AF6" s="110"/>
+      <c r="AG6" s="110"/>
+      <c r="AH6" s="110"/>
+      <c r="AI6" s="110"/>
+      <c r="AJ6" s="110"/>
+      <c r="AK6" s="110"/>
+      <c r="AL6" s="110"/>
+      <c r="AM6" s="110"/>
+      <c r="AN6" s="110"/>
+      <c r="AO6" s="110"/>
+      <c r="AP6" s="110"/>
+      <c r="AQ6" s="110"/>
+      <c r="AR6" s="110"/>
+      <c r="AS6" s="110"/>
+      <c r="AT6" s="110"/>
+      <c r="AU6" s="110"/>
+      <c r="AV6" s="110"/>
+      <c r="AW6" s="110"/>
+      <c r="AX6" s="110"/>
+      <c r="AY6" s="110"/>
+      <c r="AZ6" s="110"/>
+      <c r="BA6" s="110"/>
+      <c r="BB6" s="110"/>
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A7" s="108">
+      <c r="A7" s="120">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="108"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="116"/>
-      <c r="O7" s="117"/>
-      <c r="P7" s="117"/>
-      <c r="Q7" s="117"/>
-      <c r="R7" s="117"/>
-      <c r="S7" s="117"/>
-      <c r="T7" s="117"/>
-      <c r="U7" s="117"/>
-      <c r="V7" s="117"/>
-      <c r="W7" s="117"/>
-      <c r="X7" s="117"/>
-      <c r="Y7" s="117"/>
-      <c r="Z7" s="118"/>
-      <c r="AA7" s="119"/>
-      <c r="AB7" s="119"/>
-      <c r="AC7" s="119"/>
-      <c r="AD7" s="119"/>
-      <c r="AE7" s="119"/>
-      <c r="AF7" s="119"/>
-      <c r="AG7" s="119"/>
-      <c r="AH7" s="119"/>
-      <c r="AI7" s="119"/>
-      <c r="AJ7" s="119"/>
-      <c r="AK7" s="119"/>
-      <c r="AL7" s="119"/>
-      <c r="AM7" s="119"/>
-      <c r="AN7" s="119"/>
-      <c r="AO7" s="119"/>
-      <c r="AP7" s="119"/>
-      <c r="AQ7" s="119"/>
-      <c r="AR7" s="119"/>
-      <c r="AS7" s="119"/>
-      <c r="AT7" s="119"/>
-      <c r="AU7" s="119"/>
-      <c r="AV7" s="119"/>
-      <c r="AW7" s="119"/>
-      <c r="AX7" s="119"/>
-      <c r="AY7" s="119"/>
-      <c r="AZ7" s="119"/>
-      <c r="BA7" s="119"/>
-      <c r="BB7" s="119"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="117"/>
+      <c r="O7" s="118"/>
+      <c r="P7" s="118"/>
+      <c r="Q7" s="118"/>
+      <c r="R7" s="118"/>
+      <c r="S7" s="118"/>
+      <c r="T7" s="118"/>
+      <c r="U7" s="118"/>
+      <c r="V7" s="118"/>
+      <c r="W7" s="118"/>
+      <c r="X7" s="118"/>
+      <c r="Y7" s="118"/>
+      <c r="Z7" s="119"/>
+      <c r="AA7" s="110"/>
+      <c r="AB7" s="110"/>
+      <c r="AC7" s="110"/>
+      <c r="AD7" s="110"/>
+      <c r="AE7" s="110"/>
+      <c r="AF7" s="110"/>
+      <c r="AG7" s="110"/>
+      <c r="AH7" s="110"/>
+      <c r="AI7" s="110"/>
+      <c r="AJ7" s="110"/>
+      <c r="AK7" s="110"/>
+      <c r="AL7" s="110"/>
+      <c r="AM7" s="110"/>
+      <c r="AN7" s="110"/>
+      <c r="AO7" s="110"/>
+      <c r="AP7" s="110"/>
+      <c r="AQ7" s="110"/>
+      <c r="AR7" s="110"/>
+      <c r="AS7" s="110"/>
+      <c r="AT7" s="110"/>
+      <c r="AU7" s="110"/>
+      <c r="AV7" s="110"/>
+      <c r="AW7" s="110"/>
+      <c r="AX7" s="110"/>
+      <c r="AY7" s="110"/>
+      <c r="AZ7" s="110"/>
+      <c r="BA7" s="110"/>
+      <c r="BB7" s="110"/>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A8" s="108">
+      <c r="A8" s="120">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="117"/>
-      <c r="P8" s="117"/>
-      <c r="Q8" s="117"/>
-      <c r="R8" s="117"/>
-      <c r="S8" s="117"/>
-      <c r="T8" s="117"/>
-      <c r="U8" s="117"/>
-      <c r="V8" s="117"/>
-      <c r="W8" s="117"/>
-      <c r="X8" s="117"/>
-      <c r="Y8" s="117"/>
-      <c r="Z8" s="118"/>
-      <c r="AA8" s="119"/>
-      <c r="AB8" s="119"/>
-      <c r="AC8" s="119"/>
-      <c r="AD8" s="119"/>
-      <c r="AE8" s="119"/>
-      <c r="AF8" s="119"/>
-      <c r="AG8" s="119"/>
-      <c r="AH8" s="119"/>
-      <c r="AI8" s="119"/>
-      <c r="AJ8" s="119"/>
-      <c r="AK8" s="119"/>
-      <c r="AL8" s="119"/>
-      <c r="AM8" s="119"/>
-      <c r="AN8" s="119"/>
-      <c r="AO8" s="119"/>
-      <c r="AP8" s="119"/>
-      <c r="AQ8" s="119"/>
-      <c r="AR8" s="119"/>
-      <c r="AS8" s="119"/>
-      <c r="AT8" s="119"/>
-      <c r="AU8" s="119"/>
-      <c r="AV8" s="119"/>
-      <c r="AW8" s="119"/>
-      <c r="AX8" s="119"/>
-      <c r="AY8" s="119"/>
-      <c r="AZ8" s="119"/>
-      <c r="BA8" s="119"/>
-      <c r="BB8" s="119"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="117"/>
+      <c r="O8" s="118"/>
+      <c r="P8" s="118"/>
+      <c r="Q8" s="118"/>
+      <c r="R8" s="118"/>
+      <c r="S8" s="118"/>
+      <c r="T8" s="118"/>
+      <c r="U8" s="118"/>
+      <c r="V8" s="118"/>
+      <c r="W8" s="118"/>
+      <c r="X8" s="118"/>
+      <c r="Y8" s="118"/>
+      <c r="Z8" s="119"/>
+      <c r="AA8" s="110"/>
+      <c r="AB8" s="110"/>
+      <c r="AC8" s="110"/>
+      <c r="AD8" s="110"/>
+      <c r="AE8" s="110"/>
+      <c r="AF8" s="110"/>
+      <c r="AG8" s="110"/>
+      <c r="AH8" s="110"/>
+      <c r="AI8" s="110"/>
+      <c r="AJ8" s="110"/>
+      <c r="AK8" s="110"/>
+      <c r="AL8" s="110"/>
+      <c r="AM8" s="110"/>
+      <c r="AN8" s="110"/>
+      <c r="AO8" s="110"/>
+      <c r="AP8" s="110"/>
+      <c r="AQ8" s="110"/>
+      <c r="AR8" s="110"/>
+      <c r="AS8" s="110"/>
+      <c r="AT8" s="110"/>
+      <c r="AU8" s="110"/>
+      <c r="AV8" s="110"/>
+      <c r="AW8" s="110"/>
+      <c r="AX8" s="110"/>
+      <c r="AY8" s="110"/>
+      <c r="AZ8" s="110"/>
+      <c r="BA8" s="110"/>
+      <c r="BB8" s="110"/>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A9" s="108">
+      <c r="A9" s="120">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
-      <c r="L9" s="114"/>
-      <c r="M9" s="115"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="117"/>
-      <c r="Q9" s="117"/>
-      <c r="R9" s="117"/>
-      <c r="S9" s="117"/>
-      <c r="T9" s="117"/>
-      <c r="U9" s="117"/>
-      <c r="V9" s="117"/>
-      <c r="W9" s="117"/>
-      <c r="X9" s="117"/>
-      <c r="Y9" s="117"/>
-      <c r="Z9" s="118"/>
-      <c r="AA9" s="119"/>
-      <c r="AB9" s="119"/>
-      <c r="AC9" s="119"/>
-      <c r="AD9" s="119"/>
-      <c r="AE9" s="119"/>
-      <c r="AF9" s="119"/>
-      <c r="AG9" s="119"/>
-      <c r="AH9" s="119"/>
-      <c r="AI9" s="119"/>
-      <c r="AJ9" s="119"/>
-      <c r="AK9" s="119"/>
-      <c r="AL9" s="119"/>
-      <c r="AM9" s="119"/>
-      <c r="AN9" s="119"/>
-      <c r="AO9" s="119"/>
-      <c r="AP9" s="119"/>
-      <c r="AQ9" s="119"/>
-      <c r="AR9" s="119"/>
-      <c r="AS9" s="119"/>
-      <c r="AT9" s="119"/>
-      <c r="AU9" s="119"/>
-      <c r="AV9" s="119"/>
-      <c r="AW9" s="119"/>
-      <c r="AX9" s="119"/>
-      <c r="AY9" s="119"/>
-      <c r="AZ9" s="119"/>
-      <c r="BA9" s="119"/>
-      <c r="BB9" s="119"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="118"/>
+      <c r="Q9" s="118"/>
+      <c r="R9" s="118"/>
+      <c r="S9" s="118"/>
+      <c r="T9" s="118"/>
+      <c r="U9" s="118"/>
+      <c r="V9" s="118"/>
+      <c r="W9" s="118"/>
+      <c r="X9" s="118"/>
+      <c r="Y9" s="118"/>
+      <c r="Z9" s="119"/>
+      <c r="AA9" s="110"/>
+      <c r="AB9" s="110"/>
+      <c r="AC9" s="110"/>
+      <c r="AD9" s="110"/>
+      <c r="AE9" s="110"/>
+      <c r="AF9" s="110"/>
+      <c r="AG9" s="110"/>
+      <c r="AH9" s="110"/>
+      <c r="AI9" s="110"/>
+      <c r="AJ9" s="110"/>
+      <c r="AK9" s="110"/>
+      <c r="AL9" s="110"/>
+      <c r="AM9" s="110"/>
+      <c r="AN9" s="110"/>
+      <c r="AO9" s="110"/>
+      <c r="AP9" s="110"/>
+      <c r="AQ9" s="110"/>
+      <c r="AR9" s="110"/>
+      <c r="AS9" s="110"/>
+      <c r="AT9" s="110"/>
+      <c r="AU9" s="110"/>
+      <c r="AV9" s="110"/>
+      <c r="AW9" s="110"/>
+      <c r="AX9" s="110"/>
+      <c r="AY9" s="110"/>
+      <c r="AZ9" s="110"/>
+      <c r="BA9" s="110"/>
+      <c r="BB9" s="110"/>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A10" s="108">
+      <c r="A10" s="120">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="114"/>
-      <c r="M10" s="115"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="117"/>
-      <c r="P10" s="117"/>
-      <c r="Q10" s="117"/>
-      <c r="R10" s="117"/>
-      <c r="S10" s="117"/>
-      <c r="T10" s="117"/>
-      <c r="U10" s="117"/>
-      <c r="V10" s="117"/>
-      <c r="W10" s="117"/>
-      <c r="X10" s="117"/>
-      <c r="Y10" s="117"/>
-      <c r="Z10" s="118"/>
-      <c r="AA10" s="119"/>
-      <c r="AB10" s="119"/>
-      <c r="AC10" s="119"/>
-      <c r="AD10" s="119"/>
-      <c r="AE10" s="119"/>
-      <c r="AF10" s="119"/>
-      <c r="AG10" s="119"/>
-      <c r="AH10" s="119"/>
-      <c r="AI10" s="119"/>
-      <c r="AJ10" s="119"/>
-      <c r="AK10" s="119"/>
-      <c r="AL10" s="119"/>
-      <c r="AM10" s="119"/>
-      <c r="AN10" s="119"/>
-      <c r="AO10" s="119"/>
-      <c r="AP10" s="119"/>
-      <c r="AQ10" s="119"/>
-      <c r="AR10" s="119"/>
-      <c r="AS10" s="119"/>
-      <c r="AT10" s="119"/>
-      <c r="AU10" s="119"/>
-      <c r="AV10" s="119"/>
-      <c r="AW10" s="119"/>
-      <c r="AX10" s="119"/>
-      <c r="AY10" s="119"/>
-      <c r="AZ10" s="119"/>
-      <c r="BA10" s="119"/>
-      <c r="BB10" s="119"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="115"/>
+      <c r="L10" s="115"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="118"/>
+      <c r="P10" s="118"/>
+      <c r="Q10" s="118"/>
+      <c r="R10" s="118"/>
+      <c r="S10" s="118"/>
+      <c r="T10" s="118"/>
+      <c r="U10" s="118"/>
+      <c r="V10" s="118"/>
+      <c r="W10" s="118"/>
+      <c r="X10" s="118"/>
+      <c r="Y10" s="118"/>
+      <c r="Z10" s="119"/>
+      <c r="AA10" s="110"/>
+      <c r="AB10" s="110"/>
+      <c r="AC10" s="110"/>
+      <c r="AD10" s="110"/>
+      <c r="AE10" s="110"/>
+      <c r="AF10" s="110"/>
+      <c r="AG10" s="110"/>
+      <c r="AH10" s="110"/>
+      <c r="AI10" s="110"/>
+      <c r="AJ10" s="110"/>
+      <c r="AK10" s="110"/>
+      <c r="AL10" s="110"/>
+      <c r="AM10" s="110"/>
+      <c r="AN10" s="110"/>
+      <c r="AO10" s="110"/>
+      <c r="AP10" s="110"/>
+      <c r="AQ10" s="110"/>
+      <c r="AR10" s="110"/>
+      <c r="AS10" s="110"/>
+      <c r="AT10" s="110"/>
+      <c r="AU10" s="110"/>
+      <c r="AV10" s="110"/>
+      <c r="AW10" s="110"/>
+      <c r="AX10" s="110"/>
+      <c r="AY10" s="110"/>
+      <c r="AZ10" s="110"/>
+      <c r="BA10" s="110"/>
+      <c r="BB10" s="110"/>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A11" s="108">
+      <c r="A11" s="120">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="108"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="114"/>
-      <c r="L11" s="114"/>
-      <c r="M11" s="115"/>
-      <c r="N11" s="116"/>
-      <c r="O11" s="117"/>
-      <c r="P11" s="117"/>
-      <c r="Q11" s="117"/>
-      <c r="R11" s="117"/>
-      <c r="S11" s="117"/>
-      <c r="T11" s="117"/>
-      <c r="U11" s="117"/>
-      <c r="V11" s="117"/>
-      <c r="W11" s="117"/>
-      <c r="X11" s="117"/>
-      <c r="Y11" s="117"/>
-      <c r="Z11" s="118"/>
-      <c r="AA11" s="119"/>
-      <c r="AB11" s="119"/>
-      <c r="AC11" s="119"/>
-      <c r="AD11" s="119"/>
-      <c r="AE11" s="119"/>
-      <c r="AF11" s="119"/>
-      <c r="AG11" s="119"/>
-      <c r="AH11" s="119"/>
-      <c r="AI11" s="119"/>
-      <c r="AJ11" s="119"/>
-      <c r="AK11" s="119"/>
-      <c r="AL11" s="119"/>
-      <c r="AM11" s="119"/>
-      <c r="AN11" s="119"/>
-      <c r="AO11" s="119"/>
-      <c r="AP11" s="119"/>
-      <c r="AQ11" s="119"/>
-      <c r="AR11" s="119"/>
-      <c r="AS11" s="119"/>
-      <c r="AT11" s="119"/>
-      <c r="AU11" s="119"/>
-      <c r="AV11" s="119"/>
-      <c r="AW11" s="119"/>
-      <c r="AX11" s="119"/>
-      <c r="AY11" s="119"/>
-      <c r="AZ11" s="119"/>
-      <c r="BA11" s="119"/>
-      <c r="BB11" s="119"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="116"/>
+      <c r="N11" s="117"/>
+      <c r="O11" s="118"/>
+      <c r="P11" s="118"/>
+      <c r="Q11" s="118"/>
+      <c r="R11" s="118"/>
+      <c r="S11" s="118"/>
+      <c r="T11" s="118"/>
+      <c r="U11" s="118"/>
+      <c r="V11" s="118"/>
+      <c r="W11" s="118"/>
+      <c r="X11" s="118"/>
+      <c r="Y11" s="118"/>
+      <c r="Z11" s="119"/>
+      <c r="AA11" s="110"/>
+      <c r="AB11" s="110"/>
+      <c r="AC11" s="110"/>
+      <c r="AD11" s="110"/>
+      <c r="AE11" s="110"/>
+      <c r="AF11" s="110"/>
+      <c r="AG11" s="110"/>
+      <c r="AH11" s="110"/>
+      <c r="AI11" s="110"/>
+      <c r="AJ11" s="110"/>
+      <c r="AK11" s="110"/>
+      <c r="AL11" s="110"/>
+      <c r="AM11" s="110"/>
+      <c r="AN11" s="110"/>
+      <c r="AO11" s="110"/>
+      <c r="AP11" s="110"/>
+      <c r="AQ11" s="110"/>
+      <c r="AR11" s="110"/>
+      <c r="AS11" s="110"/>
+      <c r="AT11" s="110"/>
+      <c r="AU11" s="110"/>
+      <c r="AV11" s="110"/>
+      <c r="AW11" s="110"/>
+      <c r="AX11" s="110"/>
+      <c r="AY11" s="110"/>
+      <c r="AZ11" s="110"/>
+      <c r="BA11" s="110"/>
+      <c r="BB11" s="110"/>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A12" s="108">
+      <c r="A12" s="120">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="108"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="114"/>
-      <c r="L12" s="114"/>
-      <c r="M12" s="115"/>
-      <c r="N12" s="116"/>
-      <c r="O12" s="117"/>
-      <c r="P12" s="117"/>
-      <c r="Q12" s="117"/>
-      <c r="R12" s="117"/>
-      <c r="S12" s="117"/>
-      <c r="T12" s="117"/>
-      <c r="U12" s="117"/>
-      <c r="V12" s="117"/>
-      <c r="W12" s="117"/>
-      <c r="X12" s="117"/>
-      <c r="Y12" s="117"/>
-      <c r="Z12" s="118"/>
-      <c r="AA12" s="119"/>
-      <c r="AB12" s="119"/>
-      <c r="AC12" s="119"/>
-      <c r="AD12" s="119"/>
-      <c r="AE12" s="119"/>
-      <c r="AF12" s="119"/>
-      <c r="AG12" s="119"/>
-      <c r="AH12" s="119"/>
-      <c r="AI12" s="119"/>
-      <c r="AJ12" s="119"/>
-      <c r="AK12" s="119"/>
-      <c r="AL12" s="119"/>
-      <c r="AM12" s="119"/>
-      <c r="AN12" s="119"/>
-      <c r="AO12" s="119"/>
-      <c r="AP12" s="119"/>
-      <c r="AQ12" s="119"/>
-      <c r="AR12" s="119"/>
-      <c r="AS12" s="119"/>
-      <c r="AT12" s="119"/>
-      <c r="AU12" s="119"/>
-      <c r="AV12" s="119"/>
-      <c r="AW12" s="119"/>
-      <c r="AX12" s="119"/>
-      <c r="AY12" s="119"/>
-      <c r="AZ12" s="119"/>
-      <c r="BA12" s="119"/>
-      <c r="BB12" s="119"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="115"/>
+      <c r="M12" s="116"/>
+      <c r="N12" s="117"/>
+      <c r="O12" s="118"/>
+      <c r="P12" s="118"/>
+      <c r="Q12" s="118"/>
+      <c r="R12" s="118"/>
+      <c r="S12" s="118"/>
+      <c r="T12" s="118"/>
+      <c r="U12" s="118"/>
+      <c r="V12" s="118"/>
+      <c r="W12" s="118"/>
+      <c r="X12" s="118"/>
+      <c r="Y12" s="118"/>
+      <c r="Z12" s="119"/>
+      <c r="AA12" s="110"/>
+      <c r="AB12" s="110"/>
+      <c r="AC12" s="110"/>
+      <c r="AD12" s="110"/>
+      <c r="AE12" s="110"/>
+      <c r="AF12" s="110"/>
+      <c r="AG12" s="110"/>
+      <c r="AH12" s="110"/>
+      <c r="AI12" s="110"/>
+      <c r="AJ12" s="110"/>
+      <c r="AK12" s="110"/>
+      <c r="AL12" s="110"/>
+      <c r="AM12" s="110"/>
+      <c r="AN12" s="110"/>
+      <c r="AO12" s="110"/>
+      <c r="AP12" s="110"/>
+      <c r="AQ12" s="110"/>
+      <c r="AR12" s="110"/>
+      <c r="AS12" s="110"/>
+      <c r="AT12" s="110"/>
+      <c r="AU12" s="110"/>
+      <c r="AV12" s="110"/>
+      <c r="AW12" s="110"/>
+      <c r="AX12" s="110"/>
+      <c r="AY12" s="110"/>
+      <c r="AZ12" s="110"/>
+      <c r="BA12" s="110"/>
+      <c r="BB12" s="110"/>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A13" s="108">
+      <c r="A13" s="120">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="108"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="114"/>
-      <c r="M13" s="115"/>
-      <c r="N13" s="116"/>
-      <c r="O13" s="117"/>
-      <c r="P13" s="117"/>
-      <c r="Q13" s="117"/>
-      <c r="R13" s="117"/>
-      <c r="S13" s="117"/>
-      <c r="T13" s="117"/>
-      <c r="U13" s="117"/>
-      <c r="V13" s="117"/>
-      <c r="W13" s="117"/>
-      <c r="X13" s="117"/>
-      <c r="Y13" s="117"/>
-      <c r="Z13" s="118"/>
-      <c r="AA13" s="119"/>
-      <c r="AB13" s="119"/>
-      <c r="AC13" s="119"/>
-      <c r="AD13" s="119"/>
-      <c r="AE13" s="119"/>
-      <c r="AF13" s="119"/>
-      <c r="AG13" s="119"/>
-      <c r="AH13" s="119"/>
-      <c r="AI13" s="119"/>
-      <c r="AJ13" s="119"/>
-      <c r="AK13" s="119"/>
-      <c r="AL13" s="119"/>
-      <c r="AM13" s="119"/>
-      <c r="AN13" s="119"/>
-      <c r="AO13" s="119"/>
-      <c r="AP13" s="119"/>
-      <c r="AQ13" s="119"/>
-      <c r="AR13" s="119"/>
-      <c r="AS13" s="119"/>
-      <c r="AT13" s="119"/>
-      <c r="AU13" s="119"/>
-      <c r="AV13" s="119"/>
-      <c r="AW13" s="119"/>
-      <c r="AX13" s="119"/>
-      <c r="AY13" s="119"/>
-      <c r="AZ13" s="119"/>
-      <c r="BA13" s="119"/>
-      <c r="BB13" s="119"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
+      <c r="L13" s="115"/>
+      <c r="M13" s="116"/>
+      <c r="N13" s="117"/>
+      <c r="O13" s="118"/>
+      <c r="P13" s="118"/>
+      <c r="Q13" s="118"/>
+      <c r="R13" s="118"/>
+      <c r="S13" s="118"/>
+      <c r="T13" s="118"/>
+      <c r="U13" s="118"/>
+      <c r="V13" s="118"/>
+      <c r="W13" s="118"/>
+      <c r="X13" s="118"/>
+      <c r="Y13" s="118"/>
+      <c r="Z13" s="119"/>
+      <c r="AA13" s="110"/>
+      <c r="AB13" s="110"/>
+      <c r="AC13" s="110"/>
+      <c r="AD13" s="110"/>
+      <c r="AE13" s="110"/>
+      <c r="AF13" s="110"/>
+      <c r="AG13" s="110"/>
+      <c r="AH13" s="110"/>
+      <c r="AI13" s="110"/>
+      <c r="AJ13" s="110"/>
+      <c r="AK13" s="110"/>
+      <c r="AL13" s="110"/>
+      <c r="AM13" s="110"/>
+      <c r="AN13" s="110"/>
+      <c r="AO13" s="110"/>
+      <c r="AP13" s="110"/>
+      <c r="AQ13" s="110"/>
+      <c r="AR13" s="110"/>
+      <c r="AS13" s="110"/>
+      <c r="AT13" s="110"/>
+      <c r="AU13" s="110"/>
+      <c r="AV13" s="110"/>
+      <c r="AW13" s="110"/>
+      <c r="AX13" s="110"/>
+      <c r="AY13" s="110"/>
+      <c r="AZ13" s="110"/>
+      <c r="BA13" s="110"/>
+      <c r="BB13" s="110"/>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A14" s="108">
+      <c r="A14" s="120">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="108"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="114"/>
-      <c r="L14" s="114"/>
-      <c r="M14" s="115"/>
-      <c r="N14" s="116"/>
-      <c r="O14" s="117"/>
-      <c r="P14" s="117"/>
-      <c r="Q14" s="117"/>
-      <c r="R14" s="117"/>
-      <c r="S14" s="117"/>
-      <c r="T14" s="117"/>
-      <c r="U14" s="117"/>
-      <c r="V14" s="117"/>
-      <c r="W14" s="117"/>
-      <c r="X14" s="117"/>
-      <c r="Y14" s="117"/>
-      <c r="Z14" s="118"/>
-      <c r="AA14" s="119"/>
-      <c r="AB14" s="119"/>
-      <c r="AC14" s="119"/>
-      <c r="AD14" s="119"/>
-      <c r="AE14" s="119"/>
-      <c r="AF14" s="119"/>
-      <c r="AG14" s="119"/>
-      <c r="AH14" s="119"/>
-      <c r="AI14" s="119"/>
-      <c r="AJ14" s="119"/>
-      <c r="AK14" s="119"/>
-      <c r="AL14" s="119"/>
-      <c r="AM14" s="119"/>
-      <c r="AN14" s="119"/>
-      <c r="AO14" s="119"/>
-      <c r="AP14" s="119"/>
-      <c r="AQ14" s="119"/>
-      <c r="AR14" s="119"/>
-      <c r="AS14" s="119"/>
-      <c r="AT14" s="119"/>
-      <c r="AU14" s="119"/>
-      <c r="AV14" s="119"/>
-      <c r="AW14" s="119"/>
-      <c r="AX14" s="119"/>
-      <c r="AY14" s="119"/>
-      <c r="AZ14" s="119"/>
-      <c r="BA14" s="119"/>
-      <c r="BB14" s="119"/>
+      <c r="B14" s="120"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
+      <c r="M14" s="116"/>
+      <c r="N14" s="117"/>
+      <c r="O14" s="118"/>
+      <c r="P14" s="118"/>
+      <c r="Q14" s="118"/>
+      <c r="R14" s="118"/>
+      <c r="S14" s="118"/>
+      <c r="T14" s="118"/>
+      <c r="U14" s="118"/>
+      <c r="V14" s="118"/>
+      <c r="W14" s="118"/>
+      <c r="X14" s="118"/>
+      <c r="Y14" s="118"/>
+      <c r="Z14" s="119"/>
+      <c r="AA14" s="110"/>
+      <c r="AB14" s="110"/>
+      <c r="AC14" s="110"/>
+      <c r="AD14" s="110"/>
+      <c r="AE14" s="110"/>
+      <c r="AF14" s="110"/>
+      <c r="AG14" s="110"/>
+      <c r="AH14" s="110"/>
+      <c r="AI14" s="110"/>
+      <c r="AJ14" s="110"/>
+      <c r="AK14" s="110"/>
+      <c r="AL14" s="110"/>
+      <c r="AM14" s="110"/>
+      <c r="AN14" s="110"/>
+      <c r="AO14" s="110"/>
+      <c r="AP14" s="110"/>
+      <c r="AQ14" s="110"/>
+      <c r="AR14" s="110"/>
+      <c r="AS14" s="110"/>
+      <c r="AT14" s="110"/>
+      <c r="AU14" s="110"/>
+      <c r="AV14" s="110"/>
+      <c r="AW14" s="110"/>
+      <c r="AX14" s="110"/>
+      <c r="AY14" s="110"/>
+      <c r="AZ14" s="110"/>
+      <c r="BA14" s="110"/>
+      <c r="BB14" s="110"/>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A15" s="108">
+      <c r="A15" s="120">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="108"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="112"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="114"/>
-      <c r="M15" s="115"/>
-      <c r="N15" s="116"/>
-      <c r="O15" s="117"/>
-      <c r="P15" s="117"/>
-      <c r="Q15" s="117"/>
-      <c r="R15" s="117"/>
-      <c r="S15" s="117"/>
-      <c r="T15" s="117"/>
-      <c r="U15" s="117"/>
-      <c r="V15" s="117"/>
-      <c r="W15" s="117"/>
-      <c r="X15" s="117"/>
-      <c r="Y15" s="117"/>
-      <c r="Z15" s="118"/>
-      <c r="AA15" s="119"/>
-      <c r="AB15" s="119"/>
-      <c r="AC15" s="119"/>
-      <c r="AD15" s="119"/>
-      <c r="AE15" s="119"/>
-      <c r="AF15" s="119"/>
-      <c r="AG15" s="119"/>
-      <c r="AH15" s="119"/>
-      <c r="AI15" s="119"/>
-      <c r="AJ15" s="119"/>
-      <c r="AK15" s="119"/>
-      <c r="AL15" s="119"/>
-      <c r="AM15" s="119"/>
-      <c r="AN15" s="119"/>
-      <c r="AO15" s="119"/>
-      <c r="AP15" s="119"/>
-      <c r="AQ15" s="119"/>
-      <c r="AR15" s="119"/>
-      <c r="AS15" s="119"/>
-      <c r="AT15" s="119"/>
-      <c r="AU15" s="119"/>
-      <c r="AV15" s="119"/>
-      <c r="AW15" s="119"/>
-      <c r="AX15" s="119"/>
-      <c r="AY15" s="119"/>
-      <c r="AZ15" s="119"/>
-      <c r="BA15" s="119"/>
-      <c r="BB15" s="119"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="115"/>
+      <c r="M15" s="116"/>
+      <c r="N15" s="117"/>
+      <c r="O15" s="118"/>
+      <c r="P15" s="118"/>
+      <c r="Q15" s="118"/>
+      <c r="R15" s="118"/>
+      <c r="S15" s="118"/>
+      <c r="T15" s="118"/>
+      <c r="U15" s="118"/>
+      <c r="V15" s="118"/>
+      <c r="W15" s="118"/>
+      <c r="X15" s="118"/>
+      <c r="Y15" s="118"/>
+      <c r="Z15" s="119"/>
+      <c r="AA15" s="110"/>
+      <c r="AB15" s="110"/>
+      <c r="AC15" s="110"/>
+      <c r="AD15" s="110"/>
+      <c r="AE15" s="110"/>
+      <c r="AF15" s="110"/>
+      <c r="AG15" s="110"/>
+      <c r="AH15" s="110"/>
+      <c r="AI15" s="110"/>
+      <c r="AJ15" s="110"/>
+      <c r="AK15" s="110"/>
+      <c r="AL15" s="110"/>
+      <c r="AM15" s="110"/>
+      <c r="AN15" s="110"/>
+      <c r="AO15" s="110"/>
+      <c r="AP15" s="110"/>
+      <c r="AQ15" s="110"/>
+      <c r="AR15" s="110"/>
+      <c r="AS15" s="110"/>
+      <c r="AT15" s="110"/>
+      <c r="AU15" s="110"/>
+      <c r="AV15" s="110"/>
+      <c r="AW15" s="110"/>
+      <c r="AX15" s="110"/>
+      <c r="AY15" s="110"/>
+      <c r="AZ15" s="110"/>
+      <c r="BA15" s="110"/>
+      <c r="BB15" s="110"/>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A16" s="108">
+      <c r="A16" s="120">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="108"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="114"/>
-      <c r="M16" s="115"/>
-      <c r="N16" s="116"/>
-      <c r="O16" s="117"/>
-      <c r="P16" s="117"/>
-      <c r="Q16" s="117"/>
-      <c r="R16" s="117"/>
-      <c r="S16" s="117"/>
-      <c r="T16" s="117"/>
-      <c r="U16" s="117"/>
-      <c r="V16" s="117"/>
-      <c r="W16" s="117"/>
-      <c r="X16" s="117"/>
-      <c r="Y16" s="117"/>
-      <c r="Z16" s="118"/>
-      <c r="AA16" s="119"/>
-      <c r="AB16" s="119"/>
-      <c r="AC16" s="119"/>
-      <c r="AD16" s="119"/>
-      <c r="AE16" s="119"/>
-      <c r="AF16" s="119"/>
-      <c r="AG16" s="119"/>
-      <c r="AH16" s="119"/>
-      <c r="AI16" s="119"/>
-      <c r="AJ16" s="119"/>
-      <c r="AK16" s="119"/>
-      <c r="AL16" s="119"/>
-      <c r="AM16" s="119"/>
-      <c r="AN16" s="119"/>
-      <c r="AO16" s="119"/>
-      <c r="AP16" s="119"/>
-      <c r="AQ16" s="119"/>
-      <c r="AR16" s="119"/>
-      <c r="AS16" s="119"/>
-      <c r="AT16" s="119"/>
-      <c r="AU16" s="119"/>
-      <c r="AV16" s="119"/>
-      <c r="AW16" s="119"/>
-      <c r="AX16" s="119"/>
-      <c r="AY16" s="119"/>
-      <c r="AZ16" s="119"/>
-      <c r="BA16" s="119"/>
-      <c r="BB16" s="119"/>
+      <c r="B16" s="120"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
+      <c r="M16" s="116"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="118"/>
+      <c r="P16" s="118"/>
+      <c r="Q16" s="118"/>
+      <c r="R16" s="118"/>
+      <c r="S16" s="118"/>
+      <c r="T16" s="118"/>
+      <c r="U16" s="118"/>
+      <c r="V16" s="118"/>
+      <c r="W16" s="118"/>
+      <c r="X16" s="118"/>
+      <c r="Y16" s="118"/>
+      <c r="Z16" s="119"/>
+      <c r="AA16" s="110"/>
+      <c r="AB16" s="110"/>
+      <c r="AC16" s="110"/>
+      <c r="AD16" s="110"/>
+      <c r="AE16" s="110"/>
+      <c r="AF16" s="110"/>
+      <c r="AG16" s="110"/>
+      <c r="AH16" s="110"/>
+      <c r="AI16" s="110"/>
+      <c r="AJ16" s="110"/>
+      <c r="AK16" s="110"/>
+      <c r="AL16" s="110"/>
+      <c r="AM16" s="110"/>
+      <c r="AN16" s="110"/>
+      <c r="AO16" s="110"/>
+      <c r="AP16" s="110"/>
+      <c r="AQ16" s="110"/>
+      <c r="AR16" s="110"/>
+      <c r="AS16" s="110"/>
+      <c r="AT16" s="110"/>
+      <c r="AU16" s="110"/>
+      <c r="AV16" s="110"/>
+      <c r="AW16" s="110"/>
+      <c r="AX16" s="110"/>
+      <c r="AY16" s="110"/>
+      <c r="AZ16" s="110"/>
+      <c r="BA16" s="110"/>
+      <c r="BB16" s="110"/>
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A17" s="108">
+      <c r="A17" s="120">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="108"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="113"/>
-      <c r="I17" s="114"/>
-      <c r="J17" s="114"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="114"/>
-      <c r="M17" s="115"/>
-      <c r="N17" s="116"/>
-      <c r="O17" s="117"/>
-      <c r="P17" s="117"/>
-      <c r="Q17" s="117"/>
-      <c r="R17" s="117"/>
-      <c r="S17" s="117"/>
-      <c r="T17" s="117"/>
-      <c r="U17" s="117"/>
-      <c r="V17" s="117"/>
-      <c r="W17" s="117"/>
-      <c r="X17" s="117"/>
-      <c r="Y17" s="117"/>
-      <c r="Z17" s="118"/>
-      <c r="AA17" s="119"/>
-      <c r="AB17" s="119"/>
-      <c r="AC17" s="119"/>
-      <c r="AD17" s="119"/>
-      <c r="AE17" s="119"/>
-      <c r="AF17" s="119"/>
-      <c r="AG17" s="119"/>
-      <c r="AH17" s="119"/>
-      <c r="AI17" s="119"/>
-      <c r="AJ17" s="119"/>
-      <c r="AK17" s="119"/>
-      <c r="AL17" s="119"/>
-      <c r="AM17" s="119"/>
-      <c r="AN17" s="119"/>
-      <c r="AO17" s="119"/>
-      <c r="AP17" s="119"/>
-      <c r="AQ17" s="119"/>
-      <c r="AR17" s="119"/>
-      <c r="AS17" s="119"/>
-      <c r="AT17" s="119"/>
-      <c r="AU17" s="119"/>
-      <c r="AV17" s="119"/>
-      <c r="AW17" s="119"/>
-      <c r="AX17" s="119"/>
-      <c r="AY17" s="119"/>
-      <c r="AZ17" s="119"/>
-      <c r="BA17" s="119"/>
-      <c r="BB17" s="119"/>
+      <c r="B17" s="120"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="115"/>
+      <c r="M17" s="116"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="118"/>
+      <c r="P17" s="118"/>
+      <c r="Q17" s="118"/>
+      <c r="R17" s="118"/>
+      <c r="S17" s="118"/>
+      <c r="T17" s="118"/>
+      <c r="U17" s="118"/>
+      <c r="V17" s="118"/>
+      <c r="W17" s="118"/>
+      <c r="X17" s="118"/>
+      <c r="Y17" s="118"/>
+      <c r="Z17" s="119"/>
+      <c r="AA17" s="110"/>
+      <c r="AB17" s="110"/>
+      <c r="AC17" s="110"/>
+      <c r="AD17" s="110"/>
+      <c r="AE17" s="110"/>
+      <c r="AF17" s="110"/>
+      <c r="AG17" s="110"/>
+      <c r="AH17" s="110"/>
+      <c r="AI17" s="110"/>
+      <c r="AJ17" s="110"/>
+      <c r="AK17" s="110"/>
+      <c r="AL17" s="110"/>
+      <c r="AM17" s="110"/>
+      <c r="AN17" s="110"/>
+      <c r="AO17" s="110"/>
+      <c r="AP17" s="110"/>
+      <c r="AQ17" s="110"/>
+      <c r="AR17" s="110"/>
+      <c r="AS17" s="110"/>
+      <c r="AT17" s="110"/>
+      <c r="AU17" s="110"/>
+      <c r="AV17" s="110"/>
+      <c r="AW17" s="110"/>
+      <c r="AX17" s="110"/>
+      <c r="AY17" s="110"/>
+      <c r="AZ17" s="110"/>
+      <c r="BA17" s="110"/>
+      <c r="BB17" s="110"/>
     </row>
     <row r="18" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A18" s="108">
+      <c r="A18" s="120">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="108"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="121"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="114"/>
-      <c r="J18" s="114"/>
-      <c r="K18" s="114"/>
-      <c r="L18" s="114"/>
-      <c r="M18" s="115"/>
-      <c r="N18" s="116"/>
-      <c r="O18" s="117"/>
-      <c r="P18" s="117"/>
-      <c r="Q18" s="117"/>
-      <c r="R18" s="117"/>
-      <c r="S18" s="117"/>
-      <c r="T18" s="117"/>
-      <c r="U18" s="117"/>
-      <c r="V18" s="117"/>
-      <c r="W18" s="117"/>
-      <c r="X18" s="117"/>
-      <c r="Y18" s="117"/>
-      <c r="Z18" s="118"/>
-      <c r="AA18" s="116"/>
-      <c r="AB18" s="117"/>
-      <c r="AC18" s="117"/>
-      <c r="AD18" s="117"/>
-      <c r="AE18" s="117"/>
-      <c r="AF18" s="117"/>
-      <c r="AG18" s="117"/>
-      <c r="AH18" s="117"/>
-      <c r="AI18" s="117"/>
-      <c r="AJ18" s="117"/>
-      <c r="AK18" s="117"/>
-      <c r="AL18" s="117"/>
-      <c r="AM18" s="117"/>
-      <c r="AN18" s="117"/>
-      <c r="AO18" s="117"/>
-      <c r="AP18" s="117"/>
-      <c r="AQ18" s="117"/>
-      <c r="AR18" s="117"/>
-      <c r="AS18" s="117"/>
-      <c r="AT18" s="117"/>
-      <c r="AU18" s="117"/>
-      <c r="AV18" s="117"/>
-      <c r="AW18" s="117"/>
-      <c r="AX18" s="117"/>
-      <c r="AY18" s="117"/>
-      <c r="AZ18" s="117"/>
-      <c r="BA18" s="117"/>
-      <c r="BB18" s="118"/>
+      <c r="B18" s="120"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="115"/>
+      <c r="M18" s="116"/>
+      <c r="N18" s="117"/>
+      <c r="O18" s="118"/>
+      <c r="P18" s="118"/>
+      <c r="Q18" s="118"/>
+      <c r="R18" s="118"/>
+      <c r="S18" s="118"/>
+      <c r="T18" s="118"/>
+      <c r="U18" s="118"/>
+      <c r="V18" s="118"/>
+      <c r="W18" s="118"/>
+      <c r="X18" s="118"/>
+      <c r="Y18" s="118"/>
+      <c r="Z18" s="119"/>
+      <c r="AA18" s="117"/>
+      <c r="AB18" s="118"/>
+      <c r="AC18" s="118"/>
+      <c r="AD18" s="118"/>
+      <c r="AE18" s="118"/>
+      <c r="AF18" s="118"/>
+      <c r="AG18" s="118"/>
+      <c r="AH18" s="118"/>
+      <c r="AI18" s="118"/>
+      <c r="AJ18" s="118"/>
+      <c r="AK18" s="118"/>
+      <c r="AL18" s="118"/>
+      <c r="AM18" s="118"/>
+      <c r="AN18" s="118"/>
+      <c r="AO18" s="118"/>
+      <c r="AP18" s="118"/>
+      <c r="AQ18" s="118"/>
+      <c r="AR18" s="118"/>
+      <c r="AS18" s="118"/>
+      <c r="AT18" s="118"/>
+      <c r="AU18" s="118"/>
+      <c r="AV18" s="118"/>
+      <c r="AW18" s="118"/>
+      <c r="AX18" s="118"/>
+      <c r="AY18" s="118"/>
+      <c r="AZ18" s="118"/>
+      <c r="BA18" s="118"/>
+      <c r="BB18" s="119"/>
     </row>
     <row r="19" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A19" s="108">
+      <c r="A19" s="120">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="108"/>
-      <c r="C19" s="120"/>
-      <c r="D19" s="121"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="121"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="113"/>
-      <c r="I19" s="114"/>
-      <c r="J19" s="114"/>
-      <c r="K19" s="114"/>
-      <c r="L19" s="114"/>
-      <c r="M19" s="115"/>
-      <c r="N19" s="116"/>
-      <c r="O19" s="117"/>
-      <c r="P19" s="117"/>
-      <c r="Q19" s="117"/>
-      <c r="R19" s="117"/>
-      <c r="S19" s="117"/>
-      <c r="T19" s="117"/>
-      <c r="U19" s="117"/>
-      <c r="V19" s="117"/>
-      <c r="W19" s="117"/>
-      <c r="X19" s="117"/>
-      <c r="Y19" s="117"/>
-      <c r="Z19" s="118"/>
-      <c r="AA19" s="116"/>
-      <c r="AB19" s="117"/>
-      <c r="AC19" s="117"/>
-      <c r="AD19" s="117"/>
-      <c r="AE19" s="117"/>
-      <c r="AF19" s="117"/>
-      <c r="AG19" s="117"/>
-      <c r="AH19" s="117"/>
-      <c r="AI19" s="117"/>
-      <c r="AJ19" s="117"/>
-      <c r="AK19" s="117"/>
-      <c r="AL19" s="117"/>
-      <c r="AM19" s="117"/>
-      <c r="AN19" s="117"/>
-      <c r="AO19" s="117"/>
-      <c r="AP19" s="117"/>
-      <c r="AQ19" s="117"/>
-      <c r="AR19" s="117"/>
-      <c r="AS19" s="117"/>
-      <c r="AT19" s="117"/>
-      <c r="AU19" s="117"/>
-      <c r="AV19" s="117"/>
-      <c r="AW19" s="117"/>
-      <c r="AX19" s="117"/>
-      <c r="AY19" s="117"/>
-      <c r="AZ19" s="117"/>
-      <c r="BA19" s="117"/>
-      <c r="BB19" s="118"/>
+      <c r="B19" s="120"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="115"/>
+      <c r="K19" s="115"/>
+      <c r="L19" s="115"/>
+      <c r="M19" s="116"/>
+      <c r="N19" s="117"/>
+      <c r="O19" s="118"/>
+      <c r="P19" s="118"/>
+      <c r="Q19" s="118"/>
+      <c r="R19" s="118"/>
+      <c r="S19" s="118"/>
+      <c r="T19" s="118"/>
+      <c r="U19" s="118"/>
+      <c r="V19" s="118"/>
+      <c r="W19" s="118"/>
+      <c r="X19" s="118"/>
+      <c r="Y19" s="118"/>
+      <c r="Z19" s="119"/>
+      <c r="AA19" s="117"/>
+      <c r="AB19" s="118"/>
+      <c r="AC19" s="118"/>
+      <c r="AD19" s="118"/>
+      <c r="AE19" s="118"/>
+      <c r="AF19" s="118"/>
+      <c r="AG19" s="118"/>
+      <c r="AH19" s="118"/>
+      <c r="AI19" s="118"/>
+      <c r="AJ19" s="118"/>
+      <c r="AK19" s="118"/>
+      <c r="AL19" s="118"/>
+      <c r="AM19" s="118"/>
+      <c r="AN19" s="118"/>
+      <c r="AO19" s="118"/>
+      <c r="AP19" s="118"/>
+      <c r="AQ19" s="118"/>
+      <c r="AR19" s="118"/>
+      <c r="AS19" s="118"/>
+      <c r="AT19" s="118"/>
+      <c r="AU19" s="118"/>
+      <c r="AV19" s="118"/>
+      <c r="AW19" s="118"/>
+      <c r="AX19" s="118"/>
+      <c r="AY19" s="118"/>
+      <c r="AZ19" s="118"/>
+      <c r="BA19" s="118"/>
+      <c r="BB19" s="119"/>
     </row>
     <row r="20" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A20" s="108">
+      <c r="A20" s="120">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="108"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="114"/>
-      <c r="J20" s="114"/>
-      <c r="K20" s="114"/>
-      <c r="L20" s="114"/>
-      <c r="M20" s="115"/>
-      <c r="N20" s="116"/>
-      <c r="O20" s="117"/>
-      <c r="P20" s="117"/>
-      <c r="Q20" s="117"/>
-      <c r="R20" s="117"/>
-      <c r="S20" s="117"/>
-      <c r="T20" s="117"/>
-      <c r="U20" s="117"/>
-      <c r="V20" s="117"/>
-      <c r="W20" s="117"/>
-      <c r="X20" s="117"/>
-      <c r="Y20" s="117"/>
-      <c r="Z20" s="118"/>
-      <c r="AA20" s="116"/>
-      <c r="AB20" s="117"/>
-      <c r="AC20" s="117"/>
-      <c r="AD20" s="117"/>
-      <c r="AE20" s="117"/>
-      <c r="AF20" s="117"/>
-      <c r="AG20" s="117"/>
-      <c r="AH20" s="117"/>
-      <c r="AI20" s="117"/>
-      <c r="AJ20" s="117"/>
-      <c r="AK20" s="117"/>
-      <c r="AL20" s="117"/>
-      <c r="AM20" s="117"/>
-      <c r="AN20" s="117"/>
-      <c r="AO20" s="117"/>
-      <c r="AP20" s="117"/>
-      <c r="AQ20" s="117"/>
-      <c r="AR20" s="117"/>
-      <c r="AS20" s="117"/>
-      <c r="AT20" s="117"/>
-      <c r="AU20" s="117"/>
-      <c r="AV20" s="117"/>
-      <c r="AW20" s="117"/>
-      <c r="AX20" s="117"/>
-      <c r="AY20" s="117"/>
-      <c r="AZ20" s="117"/>
-      <c r="BA20" s="117"/>
-      <c r="BB20" s="118"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="115"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="116"/>
+      <c r="N20" s="117"/>
+      <c r="O20" s="118"/>
+      <c r="P20" s="118"/>
+      <c r="Q20" s="118"/>
+      <c r="R20" s="118"/>
+      <c r="S20" s="118"/>
+      <c r="T20" s="118"/>
+      <c r="U20" s="118"/>
+      <c r="V20" s="118"/>
+      <c r="W20" s="118"/>
+      <c r="X20" s="118"/>
+      <c r="Y20" s="118"/>
+      <c r="Z20" s="119"/>
+      <c r="AA20" s="117"/>
+      <c r="AB20" s="118"/>
+      <c r="AC20" s="118"/>
+      <c r="AD20" s="118"/>
+      <c r="AE20" s="118"/>
+      <c r="AF20" s="118"/>
+      <c r="AG20" s="118"/>
+      <c r="AH20" s="118"/>
+      <c r="AI20" s="118"/>
+      <c r="AJ20" s="118"/>
+      <c r="AK20" s="118"/>
+      <c r="AL20" s="118"/>
+      <c r="AM20" s="118"/>
+      <c r="AN20" s="118"/>
+      <c r="AO20" s="118"/>
+      <c r="AP20" s="118"/>
+      <c r="AQ20" s="118"/>
+      <c r="AR20" s="118"/>
+      <c r="AS20" s="118"/>
+      <c r="AT20" s="118"/>
+      <c r="AU20" s="118"/>
+      <c r="AV20" s="118"/>
+      <c r="AW20" s="118"/>
+      <c r="AX20" s="118"/>
+      <c r="AY20" s="118"/>
+      <c r="AZ20" s="118"/>
+      <c r="BA20" s="118"/>
+      <c r="BB20" s="119"/>
     </row>
     <row r="21" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A21" s="108">
+      <c r="A21" s="120">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="108"/>
-      <c r="C21" s="120"/>
-      <c r="D21" s="121"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="114"/>
-      <c r="J21" s="114"/>
-      <c r="K21" s="114"/>
-      <c r="L21" s="114"/>
-      <c r="M21" s="115"/>
-      <c r="N21" s="116"/>
-      <c r="O21" s="117"/>
-      <c r="P21" s="117"/>
-      <c r="Q21" s="117"/>
-      <c r="R21" s="117"/>
-      <c r="S21" s="117"/>
-      <c r="T21" s="117"/>
-      <c r="U21" s="117"/>
-      <c r="V21" s="117"/>
-      <c r="W21" s="117"/>
-      <c r="X21" s="117"/>
-      <c r="Y21" s="117"/>
-      <c r="Z21" s="118"/>
-      <c r="AA21" s="116"/>
-      <c r="AB21" s="117"/>
-      <c r="AC21" s="117"/>
-      <c r="AD21" s="117"/>
-      <c r="AE21" s="117"/>
-      <c r="AF21" s="117"/>
-      <c r="AG21" s="117"/>
-      <c r="AH21" s="117"/>
-      <c r="AI21" s="117"/>
-      <c r="AJ21" s="117"/>
-      <c r="AK21" s="117"/>
-      <c r="AL21" s="117"/>
-      <c r="AM21" s="117"/>
-      <c r="AN21" s="117"/>
-      <c r="AO21" s="117"/>
-      <c r="AP21" s="117"/>
-      <c r="AQ21" s="117"/>
-      <c r="AR21" s="117"/>
-      <c r="AS21" s="117"/>
-      <c r="AT21" s="117"/>
-      <c r="AU21" s="117"/>
-      <c r="AV21" s="117"/>
-      <c r="AW21" s="117"/>
-      <c r="AX21" s="117"/>
-      <c r="AY21" s="117"/>
-      <c r="AZ21" s="117"/>
-      <c r="BA21" s="117"/>
-      <c r="BB21" s="118"/>
+      <c r="B21" s="120"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="115"/>
+      <c r="L21" s="115"/>
+      <c r="M21" s="116"/>
+      <c r="N21" s="117"/>
+      <c r="O21" s="118"/>
+      <c r="P21" s="118"/>
+      <c r="Q21" s="118"/>
+      <c r="R21" s="118"/>
+      <c r="S21" s="118"/>
+      <c r="T21" s="118"/>
+      <c r="U21" s="118"/>
+      <c r="V21" s="118"/>
+      <c r="W21" s="118"/>
+      <c r="X21" s="118"/>
+      <c r="Y21" s="118"/>
+      <c r="Z21" s="119"/>
+      <c r="AA21" s="117"/>
+      <c r="AB21" s="118"/>
+      <c r="AC21" s="118"/>
+      <c r="AD21" s="118"/>
+      <c r="AE21" s="118"/>
+      <c r="AF21" s="118"/>
+      <c r="AG21" s="118"/>
+      <c r="AH21" s="118"/>
+      <c r="AI21" s="118"/>
+      <c r="AJ21" s="118"/>
+      <c r="AK21" s="118"/>
+      <c r="AL21" s="118"/>
+      <c r="AM21" s="118"/>
+      <c r="AN21" s="118"/>
+      <c r="AO21" s="118"/>
+      <c r="AP21" s="118"/>
+      <c r="AQ21" s="118"/>
+      <c r="AR21" s="118"/>
+      <c r="AS21" s="118"/>
+      <c r="AT21" s="118"/>
+      <c r="AU21" s="118"/>
+      <c r="AV21" s="118"/>
+      <c r="AW21" s="118"/>
+      <c r="AX21" s="118"/>
+      <c r="AY21" s="118"/>
+      <c r="AZ21" s="118"/>
+      <c r="BA21" s="118"/>
+      <c r="BB21" s="119"/>
     </row>
     <row r="22" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A22" s="119">
+      <c r="A22" s="110">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="119"/>
-      <c r="C22" s="120"/>
-      <c r="D22" s="121"/>
-      <c r="E22" s="121"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="114"/>
-      <c r="K22" s="114"/>
-      <c r="L22" s="114"/>
-      <c r="M22" s="115"/>
-      <c r="N22" s="116"/>
-      <c r="O22" s="117"/>
-      <c r="P22" s="117"/>
-      <c r="Q22" s="117"/>
-      <c r="R22" s="117"/>
-      <c r="S22" s="117"/>
-      <c r="T22" s="117"/>
-      <c r="U22" s="117"/>
-      <c r="V22" s="117"/>
-      <c r="W22" s="117"/>
-      <c r="X22" s="117"/>
-      <c r="Y22" s="117"/>
-      <c r="Z22" s="118"/>
-      <c r="AA22" s="116"/>
-      <c r="AB22" s="117"/>
-      <c r="AC22" s="117"/>
-      <c r="AD22" s="117"/>
-      <c r="AE22" s="117"/>
-      <c r="AF22" s="117"/>
-      <c r="AG22" s="117"/>
-      <c r="AH22" s="117"/>
-      <c r="AI22" s="117"/>
-      <c r="AJ22" s="117"/>
-      <c r="AK22" s="117"/>
-      <c r="AL22" s="117"/>
-      <c r="AM22" s="117"/>
-      <c r="AN22" s="117"/>
-      <c r="AO22" s="117"/>
-      <c r="AP22" s="117"/>
-      <c r="AQ22" s="117"/>
-      <c r="AR22" s="117"/>
-      <c r="AS22" s="117"/>
-      <c r="AT22" s="117"/>
-      <c r="AU22" s="117"/>
-      <c r="AV22" s="117"/>
-      <c r="AW22" s="117"/>
-      <c r="AX22" s="117"/>
-      <c r="AY22" s="117"/>
-      <c r="AZ22" s="117"/>
-      <c r="BA22" s="117"/>
-      <c r="BB22" s="118"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="114"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="115"/>
+      <c r="L22" s="115"/>
+      <c r="M22" s="116"/>
+      <c r="N22" s="117"/>
+      <c r="O22" s="118"/>
+      <c r="P22" s="118"/>
+      <c r="Q22" s="118"/>
+      <c r="R22" s="118"/>
+      <c r="S22" s="118"/>
+      <c r="T22" s="118"/>
+      <c r="U22" s="118"/>
+      <c r="V22" s="118"/>
+      <c r="W22" s="118"/>
+      <c r="X22" s="118"/>
+      <c r="Y22" s="118"/>
+      <c r="Z22" s="119"/>
+      <c r="AA22" s="117"/>
+      <c r="AB22" s="118"/>
+      <c r="AC22" s="118"/>
+      <c r="AD22" s="118"/>
+      <c r="AE22" s="118"/>
+      <c r="AF22" s="118"/>
+      <c r="AG22" s="118"/>
+      <c r="AH22" s="118"/>
+      <c r="AI22" s="118"/>
+      <c r="AJ22" s="118"/>
+      <c r="AK22" s="118"/>
+      <c r="AL22" s="118"/>
+      <c r="AM22" s="118"/>
+      <c r="AN22" s="118"/>
+      <c r="AO22" s="118"/>
+      <c r="AP22" s="118"/>
+      <c r="AQ22" s="118"/>
+      <c r="AR22" s="118"/>
+      <c r="AS22" s="118"/>
+      <c r="AT22" s="118"/>
+      <c r="AU22" s="118"/>
+      <c r="AV22" s="118"/>
+      <c r="AW22" s="118"/>
+      <c r="AX22" s="118"/>
+      <c r="AY22" s="118"/>
+      <c r="AZ22" s="118"/>
+      <c r="BA22" s="118"/>
+      <c r="BB22" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="105">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="N2:Z2"/>
+    <mergeCell ref="AA2:BB2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="N3:Z3"/>
+    <mergeCell ref="AA3:BB3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:Z4"/>
+    <mergeCell ref="AA4:BB4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="N5:Z5"/>
+    <mergeCell ref="AA5:BB5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="N6:Z6"/>
+    <mergeCell ref="AA6:BB6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="N7:Z7"/>
+    <mergeCell ref="AA7:BB7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="N8:Z8"/>
+    <mergeCell ref="AA8:BB8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="N9:Z9"/>
+    <mergeCell ref="AA9:BB9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="N10:Z10"/>
+    <mergeCell ref="AA10:BB10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:Z11"/>
+    <mergeCell ref="AA11:BB11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="N12:Z12"/>
+    <mergeCell ref="AA12:BB12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="N13:Z13"/>
+    <mergeCell ref="AA13:BB13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="N14:Z14"/>
+    <mergeCell ref="AA14:BB14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="N15:Z15"/>
+    <mergeCell ref="AA15:BB15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="N16:Z16"/>
+    <mergeCell ref="AA16:BB16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="N17:Z17"/>
+    <mergeCell ref="AA17:BB17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="N18:Z18"/>
+    <mergeCell ref="AA18:BB18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="N19:Z19"/>
+    <mergeCell ref="AA19:BB19"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="H22:M22"/>
@@ -7629,96 +7660,6 @@
     <mergeCell ref="H21:M21"/>
     <mergeCell ref="N21:Z21"/>
     <mergeCell ref="AA21:BB21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="N18:Z18"/>
-    <mergeCell ref="AA18:BB18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="N19:Z19"/>
-    <mergeCell ref="AA19:BB19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="N16:Z16"/>
-    <mergeCell ref="AA16:BB16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="N17:Z17"/>
-    <mergeCell ref="AA17:BB17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="N14:Z14"/>
-    <mergeCell ref="AA14:BB14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="N15:Z15"/>
-    <mergeCell ref="AA15:BB15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="N12:Z12"/>
-    <mergeCell ref="AA12:BB12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="N13:Z13"/>
-    <mergeCell ref="AA13:BB13"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="N10:Z10"/>
-    <mergeCell ref="AA10:BB10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="N11:Z11"/>
-    <mergeCell ref="AA11:BB11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="N8:Z8"/>
-    <mergeCell ref="AA8:BB8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="N9:Z9"/>
-    <mergeCell ref="AA9:BB9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="N6:Z6"/>
-    <mergeCell ref="AA6:BB6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="N7:Z7"/>
-    <mergeCell ref="AA7:BB7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:Z4"/>
-    <mergeCell ref="AA4:BB4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="N5:Z5"/>
-    <mergeCell ref="AA5:BB5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="N2:Z2"/>
-    <mergeCell ref="AA2:BB2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="N3:Z3"/>
-    <mergeCell ref="AA3:BB3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7736,6 +7677,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="675b6bc6-fb4a-4724-a080-4fd9de868aa1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F3BD9A264D891E42A87CAED8E149BEE6" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="ca7c401e516c40050d0899be8bcf9780">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13" xmlns:ns3="675b6bc6-fb4a-4724-a080-4fd9de868aa1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66b658899a6e9f32da36e2c4c1c4c8de" ns2:_="" ns3:_="">
     <xsd:import namespace="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
@@ -7930,17 +7882,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="675b6bc6-fb4a-4724-a080-4fd9de868aa1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5E6D1CF-0629-4A7C-8AAA-0D707E5B03BD}">
   <ds:schemaRefs>
@@ -7950,9 +7891,31 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2133B64-DA32-4DC9-AA11-AB3D5F719200}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C42BEBA-31D4-47B4-B77A-2909DE49451E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
+    <ds:schemaRef ds:uri="675b6bc6-fb4a-4724-a080-4fd9de868aa1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C42BEBA-31D4-47B4-B77A-2909DE49451E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2133B64-DA32-4DC9-AA11-AB3D5F719200}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
+    <ds:schemaRef ds:uri="675b6bc6-fb4a-4724-a080-4fd9de868aa1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/設計書_打刻侍/20_基本設計/02_画面定義/画面定義書/画面定義書（C001）ログイン画面.xlsx
+++ b/設計書_打刻侍/20_基本設計/02_画面定義/画面定義書/画面定義書（C001）ログイン画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubSample\dakokusamurai-git-repository\設計書_打刻侍\20_基本設計\02_画面定義\画面定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C39FD21-63ED-4302-843B-E3E651BE6342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5795D9-7850-4729-9435-34BD26ADB524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{4A5E5E11-C186-4A6D-AA7A-E61CA13D9268}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="2" xr2:uid="{4A5E5E11-C186-4A6D-AA7A-E61CA13D9268}"/>
   </bookViews>
   <sheets>
     <sheet name="画面レイアウト" sheetId="1" r:id="rId1"/>
@@ -492,32 +492,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[1-1]入力した情報が[利用者.利用者ID]と一致しているか判定する</t>
-    <rPh sb="5" eb="7">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>リヨウシャ</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>リヨウシャ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>イッチ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[1-2]入力した情報が[利用者.パスワード]と一致しているか判定する</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>一致した場合：[利用者.権限レベル]の権限レベルにより画面遷移を行う</t>
     <rPh sb="0" eb="2">
       <t>イッチ</t>
@@ -568,6 +542,38 @@
     <t>・氏名</t>
     <rPh sb="1" eb="3">
       <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[1-1][利用者.ログインID]を取得し、入力した情報と一致しているか判定する</t>
+    <rPh sb="6" eb="9">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[1-2][利用者.パスワード]を取得し、入力した情報と一致しているか判定する</t>
+    <rPh sb="6" eb="9">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ハンテイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -886,7 +892,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1130,6 +1136,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1145,69 +1166,45 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1217,6 +1214,38 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1227,38 +1256,18 @@
     <xf numFmtId="176" fontId="9" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2763,102 +2772,102 @@
       <c r="BY1" s="1"/>
     </row>
     <row r="2" spans="1:77" x14ac:dyDescent="0.45">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="92" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="92" t="s">
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="96"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="92" t="s">
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="95"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="93"/>
-      <c r="W2" s="92" t="s">
+      <c r="V2" s="83"/>
+      <c r="W2" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="92" t="s">
+      <c r="X2" s="83"/>
+      <c r="Y2" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="Z2" s="96"/>
-      <c r="AA2" s="96"/>
-      <c r="AB2" s="96"/>
-      <c r="AC2" s="96"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="92" t="s">
+      <c r="Z2" s="95"/>
+      <c r="AA2" s="95"/>
+      <c r="AB2" s="95"/>
+      <c r="AC2" s="95"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="94" t="s">
+      <c r="AF2" s="83"/>
+      <c r="AG2" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="AH2" s="94"/>
-      <c r="AI2" s="94"/>
-      <c r="AJ2" s="94"/>
-      <c r="AK2" s="94"/>
-      <c r="AL2" s="94"/>
-      <c r="AM2" s="94"/>
-      <c r="AN2" s="94"/>
-      <c r="AO2" s="94"/>
-      <c r="AP2" s="94"/>
-      <c r="AQ2" s="94"/>
-      <c r="AR2" s="94"/>
-      <c r="AS2" s="94"/>
-      <c r="AT2" s="94"/>
-      <c r="AU2" s="94"/>
-      <c r="AV2" s="94"/>
-      <c r="AW2" s="94"/>
-      <c r="AX2" s="94"/>
-      <c r="AY2" s="94"/>
-      <c r="AZ2" s="94"/>
-      <c r="BA2" s="94"/>
-      <c r="BB2" s="95"/>
+      <c r="AH2" s="84"/>
+      <c r="AI2" s="84"/>
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="84"/>
+      <c r="AM2" s="84"/>
+      <c r="AN2" s="84"/>
+      <c r="AO2" s="84"/>
+      <c r="AP2" s="84"/>
+      <c r="AQ2" s="84"/>
+      <c r="AR2" s="84"/>
+      <c r="AS2" s="84"/>
+      <c r="AT2" s="84"/>
+      <c r="AU2" s="84"/>
+      <c r="AV2" s="84"/>
+      <c r="AW2" s="84"/>
+      <c r="AX2" s="84"/>
+      <c r="AY2" s="84"/>
+      <c r="AZ2" s="84"/>
+      <c r="BA2" s="84"/>
+      <c r="BB2" s="85"/>
     </row>
     <row r="3" spans="1:77" x14ac:dyDescent="0.45">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="83" t="s">
+      <c r="B3" s="87"/>
+      <c r="C3" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="85"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="89"/>
+      <c r="S3" s="89"/>
+      <c r="T3" s="90"/>
       <c r="U3" s="79" t="s">
         <v>27</v>
       </c>
@@ -2870,10 +2879,10 @@
       <c r="Y3" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="Z3" s="86"/>
-      <c r="AA3" s="86"/>
-      <c r="AB3" s="86"/>
-      <c r="AC3" s="86"/>
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="81"/>
+      <c r="AC3" s="81"/>
       <c r="AD3" s="80"/>
       <c r="AE3" s="79" t="s">
         <v>28</v>
@@ -2903,32 +2912,32 @@
       <c r="BB3" s="11"/>
     </row>
     <row r="4" spans="1:77" x14ac:dyDescent="0.45">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="83" t="s">
+      <c r="B4" s="87"/>
+      <c r="C4" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="83" t="s">
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="84"/>
-      <c r="T4" s="85"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="90"/>
       <c r="U4" s="79" t="s">
         <v>32</v>
       </c>
@@ -2937,18 +2946,18 @@
         <v>32</v>
       </c>
       <c r="X4" s="80"/>
-      <c r="Y4" s="87" t="s">
+      <c r="Y4" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="91"/>
-      <c r="AE4" s="87">
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="92"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="93"/>
+      <c r="AE4" s="91">
         <v>20</v>
       </c>
-      <c r="AF4" s="88"/>
+      <c r="AF4" s="94"/>
       <c r="AG4" s="9"/>
       <c r="AH4" s="10"/>
       <c r="AI4" s="10"/>
@@ -2973,32 +2982,32 @@
       <c r="BB4" s="11"/>
     </row>
     <row r="5" spans="1:77" x14ac:dyDescent="0.45">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="83" t="s">
+      <c r="B5" s="87"/>
+      <c r="C5" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="83" t="s">
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="84"/>
-      <c r="T5" s="85"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="89"/>
+      <c r="T5" s="90"/>
       <c r="U5" s="79" t="s">
         <v>32</v>
       </c>
@@ -3007,18 +3016,18 @@
         <v>32</v>
       </c>
       <c r="X5" s="80"/>
-      <c r="Y5" s="89" t="s">
+      <c r="Y5" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="Z5" s="90"/>
-      <c r="AA5" s="90"/>
-      <c r="AB5" s="90"/>
-      <c r="AC5" s="90"/>
-      <c r="AD5" s="91"/>
-      <c r="AE5" s="87">
+      <c r="Z5" s="92"/>
+      <c r="AA5" s="92"/>
+      <c r="AB5" s="92"/>
+      <c r="AC5" s="92"/>
+      <c r="AD5" s="93"/>
+      <c r="AE5" s="91">
         <v>20</v>
       </c>
-      <c r="AF5" s="88"/>
+      <c r="AF5" s="94"/>
       <c r="AG5" s="9"/>
       <c r="AH5" s="10"/>
       <c r="AI5" s="10"/>
@@ -3043,32 +3052,32 @@
       <c r="BB5" s="11"/>
     </row>
     <row r="6" spans="1:77" x14ac:dyDescent="0.45">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="83" t="s">
+      <c r="B6" s="87"/>
+      <c r="C6" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="83" t="s">
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="84"/>
-      <c r="S6" s="84"/>
-      <c r="T6" s="85"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="89"/>
+      <c r="T6" s="90"/>
       <c r="U6" s="79" t="s">
         <v>28</v>
       </c>
@@ -3080,10 +3089,10 @@
       <c r="Y6" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="Z6" s="86"/>
-      <c r="AA6" s="86"/>
-      <c r="AB6" s="86"/>
-      <c r="AC6" s="86"/>
+      <c r="Z6" s="81"/>
+      <c r="AA6" s="81"/>
+      <c r="AB6" s="81"/>
+      <c r="AC6" s="81"/>
       <c r="AD6" s="80"/>
       <c r="AE6" s="79" t="s">
         <v>28</v>
@@ -3113,35 +3122,35 @@
       <c r="BB6" s="11"/>
     </row>
     <row r="7" spans="1:77" x14ac:dyDescent="0.45">
-      <c r="A7" s="81"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="84"/>
-      <c r="S7" s="84"/>
-      <c r="T7" s="85"/>
+      <c r="A7" s="86"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="89"/>
+      <c r="S7" s="89"/>
+      <c r="T7" s="90"/>
       <c r="U7" s="79"/>
       <c r="V7" s="80"/>
       <c r="W7" s="79"/>
       <c r="X7" s="80"/>
       <c r="Y7" s="79"/>
-      <c r="Z7" s="86"/>
-      <c r="AA7" s="86"/>
-      <c r="AB7" s="86"/>
-      <c r="AC7" s="86"/>
+      <c r="Z7" s="81"/>
+      <c r="AA7" s="81"/>
+      <c r="AB7" s="81"/>
+      <c r="AC7" s="81"/>
       <c r="AD7" s="80"/>
       <c r="AE7" s="79"/>
       <c r="AF7" s="80"/>
@@ -3169,35 +3178,35 @@
       <c r="BB7" s="11"/>
     </row>
     <row r="8" spans="1:77" x14ac:dyDescent="0.45">
-      <c r="A8" s="81"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="84"/>
-      <c r="R8" s="84"/>
-      <c r="S8" s="84"/>
-      <c r="T8" s="85"/>
+      <c r="A8" s="86"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="89"/>
+      <c r="T8" s="90"/>
       <c r="U8" s="79"/>
       <c r="V8" s="80"/>
       <c r="W8" s="79"/>
       <c r="X8" s="80"/>
       <c r="Y8" s="79"/>
-      <c r="Z8" s="86"/>
-      <c r="AA8" s="86"/>
-      <c r="AB8" s="86"/>
-      <c r="AC8" s="86"/>
+      <c r="Z8" s="81"/>
+      <c r="AA8" s="81"/>
+      <c r="AB8" s="81"/>
+      <c r="AC8" s="81"/>
       <c r="AD8" s="80"/>
       <c r="AE8" s="79"/>
       <c r="AF8" s="80"/>
@@ -3225,35 +3234,35 @@
       <c r="BB8" s="11"/>
     </row>
     <row r="9" spans="1:77" x14ac:dyDescent="0.45">
-      <c r="A9" s="81"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="84"/>
-      <c r="P9" s="84"/>
-      <c r="Q9" s="84"/>
-      <c r="R9" s="84"/>
-      <c r="S9" s="84"/>
-      <c r="T9" s="85"/>
+      <c r="A9" s="86"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="89"/>
+      <c r="R9" s="89"/>
+      <c r="S9" s="89"/>
+      <c r="T9" s="90"/>
       <c r="U9" s="79"/>
       <c r="V9" s="80"/>
       <c r="W9" s="79"/>
       <c r="X9" s="80"/>
       <c r="Y9" s="79"/>
-      <c r="Z9" s="86"/>
-      <c r="AA9" s="86"/>
-      <c r="AB9" s="86"/>
-      <c r="AC9" s="86"/>
+      <c r="Z9" s="81"/>
+      <c r="AA9" s="81"/>
+      <c r="AB9" s="81"/>
+      <c r="AC9" s="81"/>
       <c r="AD9" s="80"/>
       <c r="AE9" s="79"/>
       <c r="AF9" s="80"/>
@@ -3281,35 +3290,35 @@
       <c r="BB9" s="11"/>
     </row>
     <row r="10" spans="1:77" x14ac:dyDescent="0.45">
-      <c r="A10" s="81"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="84"/>
-      <c r="P10" s="84"/>
-      <c r="Q10" s="84"/>
-      <c r="R10" s="84"/>
-      <c r="S10" s="84"/>
-      <c r="T10" s="85"/>
+      <c r="A10" s="86"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="89"/>
+      <c r="Q10" s="89"/>
+      <c r="R10" s="89"/>
+      <c r="S10" s="89"/>
+      <c r="T10" s="90"/>
       <c r="U10" s="79"/>
       <c r="V10" s="80"/>
       <c r="W10" s="79"/>
       <c r="X10" s="80"/>
       <c r="Y10" s="79"/>
-      <c r="Z10" s="86"/>
-      <c r="AA10" s="86"/>
-      <c r="AB10" s="86"/>
-      <c r="AC10" s="86"/>
+      <c r="Z10" s="81"/>
+      <c r="AA10" s="81"/>
+      <c r="AB10" s="81"/>
+      <c r="AC10" s="81"/>
       <c r="AD10" s="80"/>
       <c r="AE10" s="79"/>
       <c r="AF10" s="80"/>
@@ -3337,35 +3346,35 @@
       <c r="BB10" s="11"/>
     </row>
     <row r="11" spans="1:77" x14ac:dyDescent="0.45">
-      <c r="A11" s="81"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="83"/>
-      <c r="N11" s="84"/>
-      <c r="O11" s="84"/>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="84"/>
-      <c r="R11" s="84"/>
-      <c r="S11" s="84"/>
-      <c r="T11" s="85"/>
+      <c r="A11" s="86"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="89"/>
+      <c r="O11" s="89"/>
+      <c r="P11" s="89"/>
+      <c r="Q11" s="89"/>
+      <c r="R11" s="89"/>
+      <c r="S11" s="89"/>
+      <c r="T11" s="90"/>
       <c r="U11" s="79"/>
       <c r="V11" s="80"/>
       <c r="W11" s="79"/>
       <c r="X11" s="80"/>
       <c r="Y11" s="79"/>
-      <c r="Z11" s="86"/>
-      <c r="AA11" s="86"/>
-      <c r="AB11" s="86"/>
-      <c r="AC11" s="86"/>
+      <c r="Z11" s="81"/>
+      <c r="AA11" s="81"/>
+      <c r="AB11" s="81"/>
+      <c r="AC11" s="81"/>
       <c r="AD11" s="80"/>
       <c r="AE11" s="79"/>
       <c r="AF11" s="80"/>
@@ -3393,35 +3402,35 @@
       <c r="BB11" s="11"/>
     </row>
     <row r="12" spans="1:77" x14ac:dyDescent="0.45">
-      <c r="A12" s="81"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="85"/>
-      <c r="M12" s="83"/>
-      <c r="N12" s="84"/>
-      <c r="O12" s="84"/>
-      <c r="P12" s="84"/>
-      <c r="Q12" s="84"/>
-      <c r="R12" s="84"/>
-      <c r="S12" s="84"/>
-      <c r="T12" s="85"/>
+      <c r="A12" s="86"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="89"/>
+      <c r="P12" s="89"/>
+      <c r="Q12" s="89"/>
+      <c r="R12" s="89"/>
+      <c r="S12" s="89"/>
+      <c r="T12" s="90"/>
       <c r="U12" s="79"/>
       <c r="V12" s="80"/>
       <c r="W12" s="79"/>
       <c r="X12" s="80"/>
       <c r="Y12" s="79"/>
-      <c r="Z12" s="86"/>
-      <c r="AA12" s="86"/>
-      <c r="AB12" s="86"/>
-      <c r="AC12" s="86"/>
+      <c r="Z12" s="81"/>
+      <c r="AA12" s="81"/>
+      <c r="AB12" s="81"/>
+      <c r="AC12" s="81"/>
       <c r="AD12" s="80"/>
       <c r="AE12" s="79"/>
       <c r="AF12" s="80"/>
@@ -3449,35 +3458,35 @@
       <c r="BB12" s="11"/>
     </row>
     <row r="13" spans="1:77" x14ac:dyDescent="0.45">
-      <c r="A13" s="81"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="83"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="84"/>
-      <c r="R13" s="84"/>
-      <c r="S13" s="84"/>
-      <c r="T13" s="85"/>
+      <c r="A13" s="86"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="88"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="89"/>
+      <c r="R13" s="89"/>
+      <c r="S13" s="89"/>
+      <c r="T13" s="90"/>
       <c r="U13" s="79"/>
       <c r="V13" s="80"/>
       <c r="W13" s="79"/>
       <c r="X13" s="80"/>
       <c r="Y13" s="79"/>
-      <c r="Z13" s="86"/>
-      <c r="AA13" s="86"/>
-      <c r="AB13" s="86"/>
-      <c r="AC13" s="86"/>
+      <c r="Z13" s="81"/>
+      <c r="AA13" s="81"/>
+      <c r="AB13" s="81"/>
+      <c r="AC13" s="81"/>
       <c r="AD13" s="80"/>
       <c r="AE13" s="79"/>
       <c r="AF13" s="80"/>
@@ -3505,35 +3514,35 @@
       <c r="BB13" s="11"/>
     </row>
     <row r="14" spans="1:77" x14ac:dyDescent="0.45">
-      <c r="A14" s="81"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="84"/>
-      <c r="O14" s="84"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="84"/>
-      <c r="T14" s="85"/>
+      <c r="A14" s="86"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="89"/>
+      <c r="P14" s="89"/>
+      <c r="Q14" s="89"/>
+      <c r="R14" s="89"/>
+      <c r="S14" s="89"/>
+      <c r="T14" s="90"/>
       <c r="U14" s="79"/>
       <c r="V14" s="80"/>
       <c r="W14" s="79"/>
       <c r="X14" s="80"/>
       <c r="Y14" s="79"/>
-      <c r="Z14" s="86"/>
-      <c r="AA14" s="86"/>
-      <c r="AB14" s="86"/>
-      <c r="AC14" s="86"/>
+      <c r="Z14" s="81"/>
+      <c r="AA14" s="81"/>
+      <c r="AB14" s="81"/>
+      <c r="AC14" s="81"/>
       <c r="AD14" s="80"/>
       <c r="AE14" s="79"/>
       <c r="AF14" s="80"/>
@@ -3561,35 +3570,35 @@
       <c r="BB14" s="11"/>
     </row>
     <row r="15" spans="1:77" x14ac:dyDescent="0.45">
-      <c r="A15" s="81"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="83"/>
-      <c r="N15" s="84"/>
-      <c r="O15" s="84"/>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="84"/>
-      <c r="R15" s="84"/>
-      <c r="S15" s="84"/>
-      <c r="T15" s="85"/>
+      <c r="A15" s="86"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="89"/>
+      <c r="O15" s="89"/>
+      <c r="P15" s="89"/>
+      <c r="Q15" s="89"/>
+      <c r="R15" s="89"/>
+      <c r="S15" s="89"/>
+      <c r="T15" s="90"/>
       <c r="U15" s="79"/>
       <c r="V15" s="80"/>
       <c r="W15" s="79"/>
       <c r="X15" s="80"/>
       <c r="Y15" s="79"/>
-      <c r="Z15" s="86"/>
-      <c r="AA15" s="86"/>
-      <c r="AB15" s="86"/>
-      <c r="AC15" s="86"/>
+      <c r="Z15" s="81"/>
+      <c r="AA15" s="81"/>
+      <c r="AB15" s="81"/>
+      <c r="AC15" s="81"/>
       <c r="AD15" s="80"/>
       <c r="AE15" s="79"/>
       <c r="AF15" s="80"/>
@@ -3617,35 +3626,35 @@
       <c r="BB15" s="11"/>
     </row>
     <row r="16" spans="1:77" x14ac:dyDescent="0.45">
-      <c r="A16" s="81"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="84"/>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="84"/>
-      <c r="R16" s="84"/>
-      <c r="S16" s="84"/>
-      <c r="T16" s="85"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="88"/>
+      <c r="N16" s="89"/>
+      <c r="O16" s="89"/>
+      <c r="P16" s="89"/>
+      <c r="Q16" s="89"/>
+      <c r="R16" s="89"/>
+      <c r="S16" s="89"/>
+      <c r="T16" s="90"/>
       <c r="U16" s="79"/>
       <c r="V16" s="80"/>
       <c r="W16" s="79"/>
       <c r="X16" s="80"/>
       <c r="Y16" s="79"/>
-      <c r="Z16" s="86"/>
-      <c r="AA16" s="86"/>
-      <c r="AB16" s="86"/>
-      <c r="AC16" s="86"/>
+      <c r="Z16" s="81"/>
+      <c r="AA16" s="81"/>
+      <c r="AB16" s="81"/>
+      <c r="AC16" s="81"/>
       <c r="AD16" s="80"/>
       <c r="AE16" s="79"/>
       <c r="AF16" s="80"/>
@@ -3673,36 +3682,36 @@
       <c r="BB16" s="11"/>
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.45">
-      <c r="A17" s="81"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="84"/>
-      <c r="P17" s="84"/>
-      <c r="Q17" s="84"/>
-      <c r="R17" s="84"/>
-      <c r="S17" s="84"/>
-      <c r="T17" s="85"/>
+      <c r="A17" s="86"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="88"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="89"/>
+      <c r="Q17" s="89"/>
+      <c r="R17" s="89"/>
+      <c r="S17" s="89"/>
+      <c r="T17" s="90"/>
       <c r="U17" s="79"/>
       <c r="V17" s="80"/>
       <c r="W17" s="79"/>
       <c r="X17" s="80"/>
-      <c r="Y17" s="83"/>
-      <c r="Z17" s="84"/>
-      <c r="AA17" s="84"/>
-      <c r="AB17" s="84"/>
-      <c r="AC17" s="84"/>
-      <c r="AD17" s="85"/>
+      <c r="Y17" s="88"/>
+      <c r="Z17" s="89"/>
+      <c r="AA17" s="89"/>
+      <c r="AB17" s="89"/>
+      <c r="AC17" s="89"/>
+      <c r="AD17" s="90"/>
       <c r="AE17" s="79"/>
       <c r="AF17" s="80"/>
       <c r="AG17" s="9"/>
@@ -3729,36 +3738,36 @@
       <c r="BB17" s="11"/>
     </row>
     <row r="18" spans="1:54" x14ac:dyDescent="0.45">
-      <c r="A18" s="81"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="84"/>
-      <c r="P18" s="84"/>
-      <c r="Q18" s="84"/>
-      <c r="R18" s="84"/>
-      <c r="S18" s="84"/>
-      <c r="T18" s="85"/>
+      <c r="A18" s="86"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="88"/>
+      <c r="N18" s="89"/>
+      <c r="O18" s="89"/>
+      <c r="P18" s="89"/>
+      <c r="Q18" s="89"/>
+      <c r="R18" s="89"/>
+      <c r="S18" s="89"/>
+      <c r="T18" s="90"/>
       <c r="U18" s="79"/>
       <c r="V18" s="80"/>
       <c r="W18" s="79"/>
       <c r="X18" s="80"/>
-      <c r="Y18" s="83"/>
-      <c r="Z18" s="84"/>
-      <c r="AA18" s="84"/>
-      <c r="AB18" s="84"/>
-      <c r="AC18" s="84"/>
-      <c r="AD18" s="85"/>
+      <c r="Y18" s="88"/>
+      <c r="Z18" s="89"/>
+      <c r="AA18" s="89"/>
+      <c r="AB18" s="89"/>
+      <c r="AC18" s="89"/>
+      <c r="AD18" s="90"/>
       <c r="AE18" s="79"/>
       <c r="AF18" s="80"/>
       <c r="AG18" s="9"/>
@@ -3785,35 +3794,35 @@
       <c r="BB18" s="11"/>
     </row>
     <row r="19" spans="1:54" x14ac:dyDescent="0.45">
-      <c r="A19" s="81"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="83"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="84"/>
-      <c r="P19" s="84"/>
-      <c r="Q19" s="84"/>
-      <c r="R19" s="84"/>
-      <c r="S19" s="84"/>
-      <c r="T19" s="85"/>
+      <c r="A19" s="86"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="88"/>
+      <c r="N19" s="89"/>
+      <c r="O19" s="89"/>
+      <c r="P19" s="89"/>
+      <c r="Q19" s="89"/>
+      <c r="R19" s="89"/>
+      <c r="S19" s="89"/>
+      <c r="T19" s="90"/>
       <c r="U19" s="79"/>
       <c r="V19" s="80"/>
       <c r="W19" s="79"/>
       <c r="X19" s="80"/>
       <c r="Y19" s="79"/>
-      <c r="Z19" s="86"/>
-      <c r="AA19" s="86"/>
-      <c r="AB19" s="86"/>
-      <c r="AC19" s="86"/>
+      <c r="Z19" s="81"/>
+      <c r="AA19" s="81"/>
+      <c r="AB19" s="81"/>
+      <c r="AC19" s="81"/>
       <c r="AD19" s="80"/>
       <c r="AE19" s="79"/>
       <c r="AF19" s="80"/>
@@ -3841,35 +3850,35 @@
       <c r="BB19" s="11"/>
     </row>
     <row r="20" spans="1:54" x14ac:dyDescent="0.45">
-      <c r="A20" s="81"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="85"/>
-      <c r="M20" s="83"/>
-      <c r="N20" s="84"/>
-      <c r="O20" s="84"/>
-      <c r="P20" s="84"/>
-      <c r="Q20" s="84"/>
-      <c r="R20" s="84"/>
-      <c r="S20" s="84"/>
-      <c r="T20" s="85"/>
+      <c r="A20" s="86"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="90"/>
+      <c r="M20" s="88"/>
+      <c r="N20" s="89"/>
+      <c r="O20" s="89"/>
+      <c r="P20" s="89"/>
+      <c r="Q20" s="89"/>
+      <c r="R20" s="89"/>
+      <c r="S20" s="89"/>
+      <c r="T20" s="90"/>
       <c r="U20" s="79"/>
       <c r="V20" s="80"/>
       <c r="W20" s="79"/>
       <c r="X20" s="80"/>
       <c r="Y20" s="79"/>
-      <c r="Z20" s="86"/>
-      <c r="AA20" s="86"/>
-      <c r="AB20" s="86"/>
-      <c r="AC20" s="86"/>
+      <c r="Z20" s="81"/>
+      <c r="AA20" s="81"/>
+      <c r="AB20" s="81"/>
+      <c r="AC20" s="81"/>
       <c r="AD20" s="80"/>
       <c r="AE20" s="79"/>
       <c r="AF20" s="80"/>
@@ -3898,6 +3907,116 @@
     </row>
   </sheetData>
   <mergeCells count="134">
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="M20:T20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="Y20:AD20"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:L19"/>
+    <mergeCell ref="M19:T19"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="Y19:AD19"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:L18"/>
+    <mergeCell ref="M18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="Y18:AD18"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:L17"/>
+    <mergeCell ref="M17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="Y17:AD17"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="M16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="Y16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:L15"/>
+    <mergeCell ref="M15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="Y15:AD15"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="M14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="Y14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="M13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="Y13:AD13"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Y12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="M11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y11:AD11"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:L10"/>
+    <mergeCell ref="M10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y10:AD10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="M7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Y7:AD7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="M8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="M9:T9"/>
+    <mergeCell ref="Y3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:L6"/>
+    <mergeCell ref="M6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:AD6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:L5"/>
+    <mergeCell ref="M5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:AD5"/>
     <mergeCell ref="U9:V9"/>
     <mergeCell ref="W9:X9"/>
     <mergeCell ref="Y9:AD9"/>
@@ -3922,116 +4041,6 @@
     <mergeCell ref="M3:T3"/>
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:L6"/>
-    <mergeCell ref="M6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:AD6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:L5"/>
-    <mergeCell ref="M5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:AD5"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:L10"/>
-    <mergeCell ref="M10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y10:AD10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:L7"/>
-    <mergeCell ref="M7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Y7:AD7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="M8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:L9"/>
-    <mergeCell ref="M9:T9"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="Y12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="M11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y11:AD11"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:L14"/>
-    <mergeCell ref="M14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="Y14:AD14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="M13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="Y13:AD13"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="M16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="Y16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:L15"/>
-    <mergeCell ref="M15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="Y15:AD15"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:L18"/>
-    <mergeCell ref="M18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="Y18:AD18"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:L17"/>
-    <mergeCell ref="M17:T17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="Y17:AD17"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:L20"/>
-    <mergeCell ref="M20:T20"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="Y20:AD20"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:L19"/>
-    <mergeCell ref="M19:T19"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="Y19:AD19"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="AI2">
@@ -4047,8 +4056,8 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:CK17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL13" sqref="AL13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AF12" sqref="AF12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -4152,95 +4161,95 @@
       <c r="CK1" s="12"/>
     </row>
     <row r="2" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="97" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="97" t="s">
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="95"/>
-      <c r="T2" s="97" t="s">
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="94"/>
-      <c r="V2" s="94"/>
-      <c r="W2" s="94"/>
-      <c r="X2" s="94"/>
-      <c r="Y2" s="94"/>
-      <c r="Z2" s="94"/>
-      <c r="AA2" s="94"/>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="94"/>
-      <c r="AD2" s="94"/>
-      <c r="AE2" s="94"/>
-      <c r="AF2" s="94"/>
-      <c r="AG2" s="94"/>
-      <c r="AH2" s="94"/>
-      <c r="AI2" s="94"/>
-      <c r="AJ2" s="94"/>
-      <c r="AK2" s="94"/>
-      <c r="AL2" s="94"/>
-      <c r="AM2" s="94"/>
-      <c r="AN2" s="94"/>
-      <c r="AO2" s="94"/>
-      <c r="AP2" s="94"/>
-      <c r="AQ2" s="95"/>
-      <c r="AR2" s="94" t="s">
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="84"/>
+      <c r="AG2" s="84"/>
+      <c r="AH2" s="84"/>
+      <c r="AI2" s="84"/>
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="84"/>
+      <c r="AM2" s="84"/>
+      <c r="AN2" s="84"/>
+      <c r="AO2" s="84"/>
+      <c r="AP2" s="84"/>
+      <c r="AQ2" s="85"/>
+      <c r="AR2" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="AS2" s="94"/>
-      <c r="AT2" s="94"/>
-      <c r="AU2" s="94"/>
-      <c r="AV2" s="94"/>
-      <c r="AW2" s="94"/>
-      <c r="AX2" s="94"/>
-      <c r="AY2" s="94"/>
-      <c r="AZ2" s="94"/>
-      <c r="BA2" s="94"/>
-      <c r="BB2" s="95"/>
+      <c r="AS2" s="84"/>
+      <c r="AT2" s="84"/>
+      <c r="AU2" s="84"/>
+      <c r="AV2" s="84"/>
+      <c r="AW2" s="84"/>
+      <c r="AX2" s="84"/>
+      <c r="AY2" s="84"/>
+      <c r="AZ2" s="84"/>
+      <c r="BA2" s="84"/>
+      <c r="BB2" s="85"/>
     </row>
     <row r="3" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="104" t="s">
+      <c r="B3" s="99"/>
+      <c r="C3" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="106"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="102"/>
       <c r="T3" s="15" t="s">
         <v>43</v>
       </c>
@@ -4282,126 +4291,126 @@
       <c r="BB3" s="17"/>
     </row>
     <row r="4" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="83" t="s">
+      <c r="B4" s="87"/>
+      <c r="C4" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="83" t="s">
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="85"/>
-      <c r="T4" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="10"/>
-      <c r="AJ4" s="10"/>
-      <c r="AK4" s="10"/>
-      <c r="AL4" s="10"/>
-      <c r="AM4" s="10"/>
-      <c r="AN4" s="10"/>
-      <c r="AO4" s="10"/>
-      <c r="AP4" s="10"/>
-      <c r="AQ4" s="11"/>
-      <c r="AR4" s="83"/>
-      <c r="AS4" s="84"/>
-      <c r="AT4" s="84"/>
-      <c r="AU4" s="84"/>
-      <c r="AV4" s="84"/>
-      <c r="AW4" s="84"/>
-      <c r="AX4" s="84"/>
-      <c r="AY4" s="84"/>
-      <c r="AZ4" s="84"/>
-      <c r="BA4" s="84"/>
-      <c r="BB4" s="85"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="125" t="s">
+        <v>72</v>
+      </c>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
+      <c r="AH4" s="46"/>
+      <c r="AI4" s="46"/>
+      <c r="AJ4" s="46"/>
+      <c r="AK4" s="46"/>
+      <c r="AL4" s="46"/>
+      <c r="AM4" s="46"/>
+      <c r="AN4" s="46"/>
+      <c r="AO4" s="46"/>
+      <c r="AP4" s="46"/>
+      <c r="AQ4" s="47"/>
+      <c r="AR4" s="88"/>
+      <c r="AS4" s="89"/>
+      <c r="AT4" s="89"/>
+      <c r="AU4" s="89"/>
+      <c r="AV4" s="89"/>
+      <c r="AW4" s="89"/>
+      <c r="AX4" s="89"/>
+      <c r="AY4" s="89"/>
+      <c r="AZ4" s="89"/>
+      <c r="BA4" s="89"/>
+      <c r="BB4" s="90"/>
     </row>
     <row r="5" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A5" s="98"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
-      <c r="T5" s="99" t="s">
-        <v>70</v>
-      </c>
-      <c r="U5" s="100"/>
-      <c r="V5" s="100"/>
-      <c r="W5" s="100"/>
-      <c r="X5" s="100"/>
-      <c r="Y5" s="100"/>
-      <c r="Z5" s="100"/>
-      <c r="AA5" s="100"/>
-      <c r="AB5" s="100"/>
-      <c r="AC5" s="100"/>
-      <c r="AD5" s="100"/>
-      <c r="AE5" s="100"/>
-      <c r="AF5" s="100"/>
-      <c r="AG5" s="100"/>
-      <c r="AH5" s="100"/>
-      <c r="AI5" s="100"/>
-      <c r="AJ5" s="100"/>
-      <c r="AK5" s="100"/>
-      <c r="AL5" s="100"/>
-      <c r="AM5" s="100"/>
-      <c r="AN5" s="100"/>
-      <c r="AO5" s="100"/>
-      <c r="AP5" s="100"/>
-      <c r="AQ5" s="101"/>
-      <c r="AR5" s="83"/>
-      <c r="AS5" s="84"/>
-      <c r="AT5" s="84"/>
-      <c r="AU5" s="84"/>
-      <c r="AV5" s="84"/>
-      <c r="AW5" s="84"/>
-      <c r="AX5" s="84"/>
-      <c r="AY5" s="84"/>
-      <c r="AZ5" s="84"/>
-      <c r="BA5" s="84"/>
-      <c r="BB5" s="85"/>
+      <c r="A5" s="97"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="90"/>
+      <c r="T5" s="126" t="s">
+        <v>73</v>
+      </c>
+      <c r="U5" s="127"/>
+      <c r="V5" s="127"/>
+      <c r="W5" s="127"/>
+      <c r="X5" s="127"/>
+      <c r="Y5" s="127"/>
+      <c r="Z5" s="127"/>
+      <c r="AA5" s="127"/>
+      <c r="AB5" s="127"/>
+      <c r="AC5" s="127"/>
+      <c r="AD5" s="127"/>
+      <c r="AE5" s="127"/>
+      <c r="AF5" s="127"/>
+      <c r="AG5" s="127"/>
+      <c r="AH5" s="127"/>
+      <c r="AI5" s="127"/>
+      <c r="AJ5" s="127"/>
+      <c r="AK5" s="127"/>
+      <c r="AL5" s="127"/>
+      <c r="AM5" s="127"/>
+      <c r="AN5" s="127"/>
+      <c r="AO5" s="127"/>
+      <c r="AP5" s="127"/>
+      <c r="AQ5" s="128"/>
+      <c r="AR5" s="88"/>
+      <c r="AS5" s="89"/>
+      <c r="AT5" s="89"/>
+      <c r="AU5" s="89"/>
+      <c r="AV5" s="89"/>
+      <c r="AW5" s="89"/>
+      <c r="AX5" s="89"/>
+      <c r="AY5" s="89"/>
+      <c r="AZ5" s="89"/>
+      <c r="BA5" s="89"/>
+      <c r="BB5" s="90"/>
     </row>
     <row r="6" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="48"/>
@@ -4424,7 +4433,7 @@
       <c r="R6" s="16"/>
       <c r="S6" s="16"/>
       <c r="T6" s="50" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="V6" s="10"/>
       <c r="W6" s="10"/>
@@ -4461,27 +4470,27 @@
       <c r="BB6" s="11"/>
     </row>
     <row r="7" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A7" s="102"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="106"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="105"/>
-      <c r="O7" s="105"/>
-      <c r="P7" s="105"/>
-      <c r="Q7" s="105"/>
-      <c r="R7" s="105"/>
-      <c r="S7" s="105"/>
+      <c r="A7" s="98"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="101"/>
+      <c r="P7" s="101"/>
+      <c r="Q7" s="101"/>
+      <c r="R7" s="101"/>
+      <c r="S7" s="101"/>
       <c r="T7" s="51" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="V7" s="10"/>
       <c r="W7" s="10"/>
@@ -4520,25 +4529,25 @@
       <c r="BB7" s="11"/>
     </row>
     <row r="8" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="98"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="84"/>
-      <c r="R8" s="84"/>
-      <c r="S8" s="85"/>
+      <c r="A8" s="97"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="89"/>
+      <c r="S8" s="90"/>
       <c r="T8" s="45" t="s">
         <v>65</v>
       </c>
@@ -4564,40 +4573,40 @@
       <c r="AO8" s="46"/>
       <c r="AP8" s="46"/>
       <c r="AQ8" s="47"/>
-      <c r="AR8" s="83" t="s">
+      <c r="AR8" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="AS8" s="84"/>
-      <c r="AT8" s="84"/>
-      <c r="AU8" s="84"/>
-      <c r="AV8" s="84"/>
-      <c r="AW8" s="84"/>
-      <c r="AX8" s="84"/>
-      <c r="AY8" s="84"/>
-      <c r="AZ8" s="84"/>
-      <c r="BA8" s="84"/>
-      <c r="BB8" s="85"/>
+      <c r="AS8" s="89"/>
+      <c r="AT8" s="89"/>
+      <c r="AU8" s="89"/>
+      <c r="AV8" s="89"/>
+      <c r="AW8" s="89"/>
+      <c r="AX8" s="89"/>
+      <c r="AY8" s="89"/>
+      <c r="AZ8" s="89"/>
+      <c r="BA8" s="89"/>
+      <c r="BB8" s="90"/>
     </row>
     <row r="9" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A9" s="98"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="84"/>
-      <c r="P9" s="84"/>
-      <c r="Q9" s="84"/>
-      <c r="R9" s="84"/>
-      <c r="S9" s="85"/>
+      <c r="A9" s="97"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="89"/>
+      <c r="R9" s="89"/>
+      <c r="S9" s="90"/>
       <c r="T9" s="52" t="s">
         <v>62</v>
       </c>
@@ -4638,25 +4647,25 @@
       <c r="BB9" s="11"/>
     </row>
     <row r="10" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A10" s="98"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="84"/>
-      <c r="P10" s="84"/>
-      <c r="Q10" s="84"/>
-      <c r="R10" s="84"/>
-      <c r="S10" s="85"/>
+      <c r="A10" s="97"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="89"/>
+      <c r="Q10" s="89"/>
+      <c r="R10" s="89"/>
+      <c r="S10" s="90"/>
       <c r="T10" s="9"/>
       <c r="U10" s="10"/>
       <c r="V10" s="46"/>
@@ -4682,7 +4691,7 @@
       <c r="AP10" s="46"/>
       <c r="AQ10" s="47"/>
       <c r="AR10" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AS10" s="10"/>
       <c r="AT10" s="10"/>
@@ -4752,25 +4761,25 @@
       <c r="BB11" s="11"/>
     </row>
     <row r="12" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A12" s="98"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="85"/>
-      <c r="M12" s="83"/>
-      <c r="N12" s="84"/>
-      <c r="O12" s="84"/>
-      <c r="P12" s="84"/>
-      <c r="Q12" s="84"/>
-      <c r="R12" s="84"/>
-      <c r="S12" s="85"/>
+      <c r="A12" s="97"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="89"/>
+      <c r="P12" s="89"/>
+      <c r="Q12" s="89"/>
+      <c r="R12" s="89"/>
+      <c r="S12" s="90"/>
       <c r="T12" s="9"/>
       <c r="U12" s="10"/>
       <c r="V12" s="10"/>
@@ -4808,25 +4817,25 @@
       <c r="BB12" s="11"/>
     </row>
     <row r="13" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A13" s="98"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="83"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="84"/>
-      <c r="R13" s="84"/>
-      <c r="S13" s="85"/>
+      <c r="A13" s="97"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="88"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="89"/>
+      <c r="R13" s="89"/>
+      <c r="S13" s="90"/>
       <c r="T13" s="9"/>
       <c r="U13" s="10"/>
       <c r="V13" s="10"/>
@@ -4851,38 +4860,38 @@
       <c r="AO13" s="10"/>
       <c r="AP13" s="10"/>
       <c r="AQ13" s="11"/>
-      <c r="AR13" s="83"/>
-      <c r="AS13" s="84"/>
-      <c r="AT13" s="84"/>
-      <c r="AU13" s="84"/>
-      <c r="AV13" s="84"/>
-      <c r="AW13" s="84"/>
-      <c r="AX13" s="84"/>
-      <c r="AY13" s="84"/>
-      <c r="AZ13" s="84"/>
-      <c r="BA13" s="84"/>
-      <c r="BB13" s="85"/>
+      <c r="AR13" s="88"/>
+      <c r="AS13" s="89"/>
+      <c r="AT13" s="89"/>
+      <c r="AU13" s="89"/>
+      <c r="AV13" s="89"/>
+      <c r="AW13" s="89"/>
+      <c r="AX13" s="89"/>
+      <c r="AY13" s="89"/>
+      <c r="AZ13" s="89"/>
+      <c r="BA13" s="89"/>
+      <c r="BB13" s="90"/>
     </row>
     <row r="14" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A14" s="98"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="84"/>
-      <c r="O14" s="84"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="85"/>
+      <c r="A14" s="97"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="89"/>
+      <c r="P14" s="89"/>
+      <c r="Q14" s="89"/>
+      <c r="R14" s="89"/>
+      <c r="S14" s="90"/>
       <c r="T14" s="46"/>
       <c r="U14" s="55"/>
       <c r="V14" s="55"/>
@@ -4920,25 +4929,25 @@
       <c r="BB14" s="11"/>
     </row>
     <row r="15" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A15" s="98"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="83"/>
-      <c r="N15" s="84"/>
-      <c r="O15" s="84"/>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="84"/>
-      <c r="R15" s="84"/>
-      <c r="S15" s="85"/>
+      <c r="A15" s="97"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="89"/>
+      <c r="O15" s="89"/>
+      <c r="P15" s="89"/>
+      <c r="Q15" s="89"/>
+      <c r="R15" s="89"/>
+      <c r="S15" s="90"/>
       <c r="T15" s="46"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
@@ -4976,25 +4985,25 @@
       <c r="BB15" s="11"/>
     </row>
     <row r="16" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A16" s="98"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="84"/>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="84"/>
-      <c r="R16" s="84"/>
-      <c r="S16" s="85"/>
+      <c r="A16" s="97"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="88"/>
+      <c r="N16" s="89"/>
+      <c r="O16" s="89"/>
+      <c r="P16" s="89"/>
+      <c r="Q16" s="89"/>
+      <c r="R16" s="89"/>
+      <c r="S16" s="90"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
       <c r="W16" s="10"/>
@@ -5035,6 +5044,36 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="AR5:BB5"/>
+    <mergeCell ref="T2:AQ2"/>
+    <mergeCell ref="AR2:BB2"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:L10"/>
+    <mergeCell ref="M10:S10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:S12"/>
+    <mergeCell ref="T5:AQ5"/>
+    <mergeCell ref="AR13:BB13"/>
+    <mergeCell ref="AR4:BB4"/>
+    <mergeCell ref="AR8:BB8"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="M2:S2"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="M8:S8"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="M3:S3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="C5:L5"/>
+    <mergeCell ref="M5:S5"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:L16"/>
     <mergeCell ref="M16:S16"/>
@@ -5051,36 +5090,6 @@
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:L15"/>
     <mergeCell ref="M15:S15"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="M2:S2"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="M8:S8"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="M3:S3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="C5:L5"/>
-    <mergeCell ref="M5:S5"/>
-    <mergeCell ref="AR5:BB5"/>
-    <mergeCell ref="T2:AQ2"/>
-    <mergeCell ref="AR2:BB2"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:L10"/>
-    <mergeCell ref="M10:S10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:S12"/>
-    <mergeCell ref="T5:AQ5"/>
-    <mergeCell ref="AR13:BB13"/>
-    <mergeCell ref="AR4:BB4"/>
-    <mergeCell ref="AR8:BB8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="AS1:AS2">
@@ -5190,108 +5199,108 @@
       <c r="CC1" s="1"/>
     </row>
     <row r="2" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="96" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="96"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="96"/>
-      <c r="W2" s="96"/>
-      <c r="X2" s="96"/>
-      <c r="Y2" s="96"/>
-      <c r="Z2" s="96"/>
-      <c r="AA2" s="96"/>
-      <c r="AB2" s="96"/>
-      <c r="AC2" s="96"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="107" t="s">
+      <c r="T2" s="95"/>
+      <c r="U2" s="95"/>
+      <c r="V2" s="95"/>
+      <c r="W2" s="95"/>
+      <c r="X2" s="95"/>
+      <c r="Y2" s="95"/>
+      <c r="Z2" s="95"/>
+      <c r="AA2" s="95"/>
+      <c r="AB2" s="95"/>
+      <c r="AC2" s="95"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="AF2" s="108"/>
-      <c r="AG2" s="108"/>
-      <c r="AH2" s="108"/>
-      <c r="AI2" s="108"/>
-      <c r="AJ2" s="108"/>
-      <c r="AK2" s="108"/>
-      <c r="AL2" s="108"/>
-      <c r="AM2" s="108"/>
-      <c r="AN2" s="107" t="s">
+      <c r="AF2" s="105"/>
+      <c r="AG2" s="105"/>
+      <c r="AH2" s="105"/>
+      <c r="AI2" s="105"/>
+      <c r="AJ2" s="105"/>
+      <c r="AK2" s="105"/>
+      <c r="AL2" s="105"/>
+      <c r="AM2" s="105"/>
+      <c r="AN2" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="AO2" s="108"/>
-      <c r="AP2" s="108"/>
-      <c r="AQ2" s="108"/>
-      <c r="AR2" s="108"/>
-      <c r="AS2" s="108"/>
-      <c r="AT2" s="108"/>
-      <c r="AU2" s="108"/>
-      <c r="AV2" s="108"/>
-      <c r="AW2" s="108"/>
-      <c r="AX2" s="108"/>
-      <c r="AY2" s="108"/>
-      <c r="AZ2" s="108"/>
-      <c r="BA2" s="108"/>
-      <c r="BB2" s="109"/>
+      <c r="AO2" s="105"/>
+      <c r="AP2" s="105"/>
+      <c r="AQ2" s="105"/>
+      <c r="AR2" s="105"/>
+      <c r="AS2" s="105"/>
+      <c r="AT2" s="105"/>
+      <c r="AU2" s="105"/>
+      <c r="AV2" s="105"/>
+      <c r="AW2" s="105"/>
+      <c r="AX2" s="105"/>
+      <c r="AY2" s="105"/>
+      <c r="AZ2" s="105"/>
+      <c r="BA2" s="105"/>
+      <c r="BB2" s="106"/>
     </row>
     <row r="3" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="92" t="s">
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="96" t="s">
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="93"/>
-      <c r="U3" s="92" t="s">
+      <c r="T3" s="83"/>
+      <c r="U3" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="V3" s="96"/>
-      <c r="W3" s="96"/>
-      <c r="X3" s="96"/>
-      <c r="Y3" s="96"/>
-      <c r="Z3" s="96"/>
-      <c r="AA3" s="96"/>
-      <c r="AB3" s="96"/>
-      <c r="AC3" s="96"/>
-      <c r="AD3" s="93"/>
+      <c r="V3" s="95"/>
+      <c r="W3" s="95"/>
+      <c r="X3" s="95"/>
+      <c r="Y3" s="95"/>
+      <c r="Z3" s="95"/>
+      <c r="AA3" s="95"/>
+      <c r="AB3" s="95"/>
+      <c r="AC3" s="95"/>
+      <c r="AD3" s="83"/>
       <c r="AE3" s="18"/>
       <c r="AF3" s="19"/>
       <c r="AG3" s="19"/>
@@ -5392,42 +5401,42 @@
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="11"/>
-      <c r="S5" s="81"/>
-      <c r="T5" s="82"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="84"/>
-      <c r="W5" s="84"/>
-      <c r="X5" s="84"/>
-      <c r="Y5" s="84"/>
-      <c r="Z5" s="84"/>
-      <c r="AA5" s="84"/>
-      <c r="AB5" s="84"/>
-      <c r="AC5" s="84"/>
-      <c r="AD5" s="85"/>
-      <c r="AE5" s="83"/>
-      <c r="AF5" s="84"/>
-      <c r="AG5" s="84"/>
-      <c r="AH5" s="84"/>
-      <c r="AI5" s="84"/>
-      <c r="AJ5" s="84"/>
-      <c r="AK5" s="84"/>
-      <c r="AL5" s="84"/>
-      <c r="AM5" s="85"/>
-      <c r="AN5" s="83"/>
-      <c r="AO5" s="84"/>
-      <c r="AP5" s="84"/>
-      <c r="AQ5" s="84"/>
-      <c r="AR5" s="84"/>
-      <c r="AS5" s="84"/>
-      <c r="AT5" s="84"/>
-      <c r="AU5" s="84"/>
-      <c r="AV5" s="84"/>
-      <c r="AW5" s="84"/>
-      <c r="AX5" s="84"/>
-      <c r="AY5" s="84"/>
-      <c r="AZ5" s="84"/>
-      <c r="BA5" s="84"/>
-      <c r="BB5" s="85"/>
+      <c r="S5" s="86"/>
+      <c r="T5" s="87"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="89"/>
+      <c r="W5" s="89"/>
+      <c r="X5" s="89"/>
+      <c r="Y5" s="89"/>
+      <c r="Z5" s="89"/>
+      <c r="AA5" s="89"/>
+      <c r="AB5" s="89"/>
+      <c r="AC5" s="89"/>
+      <c r="AD5" s="90"/>
+      <c r="AE5" s="88"/>
+      <c r="AF5" s="89"/>
+      <c r="AG5" s="89"/>
+      <c r="AH5" s="89"/>
+      <c r="AI5" s="89"/>
+      <c r="AJ5" s="89"/>
+      <c r="AK5" s="89"/>
+      <c r="AL5" s="89"/>
+      <c r="AM5" s="90"/>
+      <c r="AN5" s="88"/>
+      <c r="AO5" s="89"/>
+      <c r="AP5" s="89"/>
+      <c r="AQ5" s="89"/>
+      <c r="AR5" s="89"/>
+      <c r="AS5" s="89"/>
+      <c r="AT5" s="89"/>
+      <c r="AU5" s="89"/>
+      <c r="AV5" s="89"/>
+      <c r="AW5" s="89"/>
+      <c r="AX5" s="89"/>
+      <c r="AY5" s="89"/>
+      <c r="AZ5" s="89"/>
+      <c r="BA5" s="89"/>
+      <c r="BB5" s="90"/>
     </row>
     <row r="6" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A6" s="9"/>
@@ -5448,42 +5457,42 @@
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
       <c r="R6" s="11"/>
-      <c r="S6" s="81"/>
-      <c r="T6" s="82"/>
-      <c r="U6" s="83"/>
-      <c r="V6" s="84"/>
-      <c r="W6" s="84"/>
-      <c r="X6" s="84"/>
-      <c r="Y6" s="84"/>
-      <c r="Z6" s="84"/>
-      <c r="AA6" s="84"/>
-      <c r="AB6" s="84"/>
-      <c r="AC6" s="84"/>
-      <c r="AD6" s="85"/>
-      <c r="AE6" s="83"/>
-      <c r="AF6" s="84"/>
-      <c r="AG6" s="84"/>
-      <c r="AH6" s="84"/>
-      <c r="AI6" s="84"/>
-      <c r="AJ6" s="84"/>
-      <c r="AK6" s="84"/>
-      <c r="AL6" s="84"/>
-      <c r="AM6" s="85"/>
-      <c r="AN6" s="83"/>
-      <c r="AO6" s="84"/>
-      <c r="AP6" s="84"/>
-      <c r="AQ6" s="84"/>
-      <c r="AR6" s="84"/>
-      <c r="AS6" s="84"/>
-      <c r="AT6" s="84"/>
-      <c r="AU6" s="84"/>
-      <c r="AV6" s="84"/>
-      <c r="AW6" s="84"/>
-      <c r="AX6" s="84"/>
-      <c r="AY6" s="84"/>
-      <c r="AZ6" s="84"/>
-      <c r="BA6" s="84"/>
-      <c r="BB6" s="85"/>
+      <c r="S6" s="86"/>
+      <c r="T6" s="87"/>
+      <c r="U6" s="88"/>
+      <c r="V6" s="89"/>
+      <c r="W6" s="89"/>
+      <c r="X6" s="89"/>
+      <c r="Y6" s="89"/>
+      <c r="Z6" s="89"/>
+      <c r="AA6" s="89"/>
+      <c r="AB6" s="89"/>
+      <c r="AC6" s="89"/>
+      <c r="AD6" s="90"/>
+      <c r="AE6" s="88"/>
+      <c r="AF6" s="89"/>
+      <c r="AG6" s="89"/>
+      <c r="AH6" s="89"/>
+      <c r="AI6" s="89"/>
+      <c r="AJ6" s="89"/>
+      <c r="AK6" s="89"/>
+      <c r="AL6" s="89"/>
+      <c r="AM6" s="90"/>
+      <c r="AN6" s="88"/>
+      <c r="AO6" s="89"/>
+      <c r="AP6" s="89"/>
+      <c r="AQ6" s="89"/>
+      <c r="AR6" s="89"/>
+      <c r="AS6" s="89"/>
+      <c r="AT6" s="89"/>
+      <c r="AU6" s="89"/>
+      <c r="AV6" s="89"/>
+      <c r="AW6" s="89"/>
+      <c r="AX6" s="89"/>
+      <c r="AY6" s="89"/>
+      <c r="AZ6" s="89"/>
+      <c r="BA6" s="89"/>
+      <c r="BB6" s="90"/>
     </row>
     <row r="7" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A7" s="9"/>
@@ -5504,42 +5513,42 @@
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="11"/>
-      <c r="S7" s="81"/>
-      <c r="T7" s="82"/>
-      <c r="U7" s="83"/>
-      <c r="V7" s="84"/>
-      <c r="W7" s="84"/>
-      <c r="X7" s="84"/>
-      <c r="Y7" s="84"/>
-      <c r="Z7" s="84"/>
-      <c r="AA7" s="84"/>
-      <c r="AB7" s="84"/>
-      <c r="AC7" s="84"/>
-      <c r="AD7" s="85"/>
-      <c r="AE7" s="83"/>
-      <c r="AF7" s="84"/>
-      <c r="AG7" s="84"/>
-      <c r="AH7" s="84"/>
-      <c r="AI7" s="84"/>
-      <c r="AJ7" s="84"/>
-      <c r="AK7" s="84"/>
-      <c r="AL7" s="84"/>
-      <c r="AM7" s="85"/>
-      <c r="AN7" s="83"/>
-      <c r="AO7" s="84"/>
-      <c r="AP7" s="84"/>
-      <c r="AQ7" s="84"/>
-      <c r="AR7" s="84"/>
-      <c r="AS7" s="84"/>
-      <c r="AT7" s="84"/>
-      <c r="AU7" s="84"/>
-      <c r="AV7" s="84"/>
-      <c r="AW7" s="84"/>
-      <c r="AX7" s="84"/>
-      <c r="AY7" s="84"/>
-      <c r="AZ7" s="84"/>
-      <c r="BA7" s="84"/>
-      <c r="BB7" s="85"/>
+      <c r="S7" s="86"/>
+      <c r="T7" s="87"/>
+      <c r="U7" s="88"/>
+      <c r="V7" s="89"/>
+      <c r="W7" s="89"/>
+      <c r="X7" s="89"/>
+      <c r="Y7" s="89"/>
+      <c r="Z7" s="89"/>
+      <c r="AA7" s="89"/>
+      <c r="AB7" s="89"/>
+      <c r="AC7" s="89"/>
+      <c r="AD7" s="90"/>
+      <c r="AE7" s="88"/>
+      <c r="AF7" s="89"/>
+      <c r="AG7" s="89"/>
+      <c r="AH7" s="89"/>
+      <c r="AI7" s="89"/>
+      <c r="AJ7" s="89"/>
+      <c r="AK7" s="89"/>
+      <c r="AL7" s="89"/>
+      <c r="AM7" s="90"/>
+      <c r="AN7" s="88"/>
+      <c r="AO7" s="89"/>
+      <c r="AP7" s="89"/>
+      <c r="AQ7" s="89"/>
+      <c r="AR7" s="89"/>
+      <c r="AS7" s="89"/>
+      <c r="AT7" s="89"/>
+      <c r="AU7" s="89"/>
+      <c r="AV7" s="89"/>
+      <c r="AW7" s="89"/>
+      <c r="AX7" s="89"/>
+      <c r="AY7" s="89"/>
+      <c r="AZ7" s="89"/>
+      <c r="BA7" s="89"/>
+      <c r="BB7" s="90"/>
     </row>
     <row r="8" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A8" s="9"/>
@@ -5560,42 +5569,42 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="11"/>
-      <c r="S8" s="81"/>
-      <c r="T8" s="82"/>
-      <c r="U8" s="83"/>
-      <c r="V8" s="84"/>
-      <c r="W8" s="84"/>
-      <c r="X8" s="84"/>
-      <c r="Y8" s="84"/>
-      <c r="Z8" s="84"/>
-      <c r="AA8" s="84"/>
-      <c r="AB8" s="84"/>
-      <c r="AC8" s="84"/>
-      <c r="AD8" s="85"/>
-      <c r="AE8" s="83"/>
-      <c r="AF8" s="84"/>
-      <c r="AG8" s="84"/>
-      <c r="AH8" s="84"/>
-      <c r="AI8" s="84"/>
-      <c r="AJ8" s="84"/>
-      <c r="AK8" s="84"/>
-      <c r="AL8" s="84"/>
-      <c r="AM8" s="85"/>
-      <c r="AN8" s="83"/>
-      <c r="AO8" s="84"/>
-      <c r="AP8" s="84"/>
-      <c r="AQ8" s="84"/>
-      <c r="AR8" s="84"/>
-      <c r="AS8" s="84"/>
-      <c r="AT8" s="84"/>
-      <c r="AU8" s="84"/>
-      <c r="AV8" s="84"/>
-      <c r="AW8" s="84"/>
-      <c r="AX8" s="84"/>
-      <c r="AY8" s="84"/>
-      <c r="AZ8" s="84"/>
-      <c r="BA8" s="84"/>
-      <c r="BB8" s="85"/>
+      <c r="S8" s="86"/>
+      <c r="T8" s="87"/>
+      <c r="U8" s="88"/>
+      <c r="V8" s="89"/>
+      <c r="W8" s="89"/>
+      <c r="X8" s="89"/>
+      <c r="Y8" s="89"/>
+      <c r="Z8" s="89"/>
+      <c r="AA8" s="89"/>
+      <c r="AB8" s="89"/>
+      <c r="AC8" s="89"/>
+      <c r="AD8" s="90"/>
+      <c r="AE8" s="88"/>
+      <c r="AF8" s="89"/>
+      <c r="AG8" s="89"/>
+      <c r="AH8" s="89"/>
+      <c r="AI8" s="89"/>
+      <c r="AJ8" s="89"/>
+      <c r="AK8" s="89"/>
+      <c r="AL8" s="89"/>
+      <c r="AM8" s="90"/>
+      <c r="AN8" s="88"/>
+      <c r="AO8" s="89"/>
+      <c r="AP8" s="89"/>
+      <c r="AQ8" s="89"/>
+      <c r="AR8" s="89"/>
+      <c r="AS8" s="89"/>
+      <c r="AT8" s="89"/>
+      <c r="AU8" s="89"/>
+      <c r="AV8" s="89"/>
+      <c r="AW8" s="89"/>
+      <c r="AX8" s="89"/>
+      <c r="AY8" s="89"/>
+      <c r="AZ8" s="89"/>
+      <c r="BA8" s="89"/>
+      <c r="BB8" s="90"/>
     </row>
     <row r="9" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A9" s="9"/>
@@ -5616,42 +5625,42 @@
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
       <c r="R9" s="11"/>
-      <c r="S9" s="81"/>
-      <c r="T9" s="82"/>
-      <c r="U9" s="83"/>
-      <c r="V9" s="84"/>
-      <c r="W9" s="84"/>
-      <c r="X9" s="84"/>
-      <c r="Y9" s="84"/>
-      <c r="Z9" s="84"/>
-      <c r="AA9" s="84"/>
-      <c r="AB9" s="84"/>
-      <c r="AC9" s="84"/>
-      <c r="AD9" s="85"/>
-      <c r="AE9" s="83"/>
-      <c r="AF9" s="84"/>
-      <c r="AG9" s="84"/>
-      <c r="AH9" s="84"/>
-      <c r="AI9" s="84"/>
-      <c r="AJ9" s="84"/>
-      <c r="AK9" s="84"/>
-      <c r="AL9" s="84"/>
-      <c r="AM9" s="85"/>
-      <c r="AN9" s="83"/>
-      <c r="AO9" s="84"/>
-      <c r="AP9" s="84"/>
-      <c r="AQ9" s="84"/>
-      <c r="AR9" s="84"/>
-      <c r="AS9" s="84"/>
-      <c r="AT9" s="84"/>
-      <c r="AU9" s="84"/>
-      <c r="AV9" s="84"/>
-      <c r="AW9" s="84"/>
-      <c r="AX9" s="84"/>
-      <c r="AY9" s="84"/>
-      <c r="AZ9" s="84"/>
-      <c r="BA9" s="84"/>
-      <c r="BB9" s="85"/>
+      <c r="S9" s="86"/>
+      <c r="T9" s="87"/>
+      <c r="U9" s="88"/>
+      <c r="V9" s="89"/>
+      <c r="W9" s="89"/>
+      <c r="X9" s="89"/>
+      <c r="Y9" s="89"/>
+      <c r="Z9" s="89"/>
+      <c r="AA9" s="89"/>
+      <c r="AB9" s="89"/>
+      <c r="AC9" s="89"/>
+      <c r="AD9" s="90"/>
+      <c r="AE9" s="88"/>
+      <c r="AF9" s="89"/>
+      <c r="AG9" s="89"/>
+      <c r="AH9" s="89"/>
+      <c r="AI9" s="89"/>
+      <c r="AJ9" s="89"/>
+      <c r="AK9" s="89"/>
+      <c r="AL9" s="89"/>
+      <c r="AM9" s="90"/>
+      <c r="AN9" s="88"/>
+      <c r="AO9" s="89"/>
+      <c r="AP9" s="89"/>
+      <c r="AQ9" s="89"/>
+      <c r="AR9" s="89"/>
+      <c r="AS9" s="89"/>
+      <c r="AT9" s="89"/>
+      <c r="AU9" s="89"/>
+      <c r="AV9" s="89"/>
+      <c r="AW9" s="89"/>
+      <c r="AX9" s="89"/>
+      <c r="AY9" s="89"/>
+      <c r="AZ9" s="89"/>
+      <c r="BA9" s="89"/>
+      <c r="BB9" s="90"/>
     </row>
     <row r="10" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A10" s="9"/>
@@ -5672,42 +5681,42 @@
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="11"/>
-      <c r="S10" s="81"/>
-      <c r="T10" s="82"/>
-      <c r="U10" s="83"/>
-      <c r="V10" s="84"/>
-      <c r="W10" s="84"/>
-      <c r="X10" s="84"/>
-      <c r="Y10" s="84"/>
-      <c r="Z10" s="84"/>
-      <c r="AA10" s="84"/>
-      <c r="AB10" s="84"/>
-      <c r="AC10" s="84"/>
-      <c r="AD10" s="85"/>
-      <c r="AE10" s="83"/>
-      <c r="AF10" s="84"/>
-      <c r="AG10" s="84"/>
-      <c r="AH10" s="84"/>
-      <c r="AI10" s="84"/>
-      <c r="AJ10" s="84"/>
-      <c r="AK10" s="84"/>
-      <c r="AL10" s="84"/>
-      <c r="AM10" s="85"/>
-      <c r="AN10" s="83"/>
-      <c r="AO10" s="84"/>
-      <c r="AP10" s="84"/>
-      <c r="AQ10" s="84"/>
-      <c r="AR10" s="84"/>
-      <c r="AS10" s="84"/>
-      <c r="AT10" s="84"/>
-      <c r="AU10" s="84"/>
-      <c r="AV10" s="84"/>
-      <c r="AW10" s="84"/>
-      <c r="AX10" s="84"/>
-      <c r="AY10" s="84"/>
-      <c r="AZ10" s="84"/>
-      <c r="BA10" s="84"/>
-      <c r="BB10" s="85"/>
+      <c r="S10" s="86"/>
+      <c r="T10" s="87"/>
+      <c r="U10" s="88"/>
+      <c r="V10" s="89"/>
+      <c r="W10" s="89"/>
+      <c r="X10" s="89"/>
+      <c r="Y10" s="89"/>
+      <c r="Z10" s="89"/>
+      <c r="AA10" s="89"/>
+      <c r="AB10" s="89"/>
+      <c r="AC10" s="89"/>
+      <c r="AD10" s="90"/>
+      <c r="AE10" s="88"/>
+      <c r="AF10" s="89"/>
+      <c r="AG10" s="89"/>
+      <c r="AH10" s="89"/>
+      <c r="AI10" s="89"/>
+      <c r="AJ10" s="89"/>
+      <c r="AK10" s="89"/>
+      <c r="AL10" s="89"/>
+      <c r="AM10" s="90"/>
+      <c r="AN10" s="88"/>
+      <c r="AO10" s="89"/>
+      <c r="AP10" s="89"/>
+      <c r="AQ10" s="89"/>
+      <c r="AR10" s="89"/>
+      <c r="AS10" s="89"/>
+      <c r="AT10" s="89"/>
+      <c r="AU10" s="89"/>
+      <c r="AV10" s="89"/>
+      <c r="AW10" s="89"/>
+      <c r="AX10" s="89"/>
+      <c r="AY10" s="89"/>
+      <c r="AZ10" s="89"/>
+      <c r="BA10" s="89"/>
+      <c r="BB10" s="90"/>
     </row>
     <row r="11" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A11" s="9"/>
@@ -5728,42 +5737,42 @@
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
       <c r="R11" s="11"/>
-      <c r="S11" s="81"/>
-      <c r="T11" s="82"/>
-      <c r="U11" s="83"/>
-      <c r="V11" s="84"/>
-      <c r="W11" s="84"/>
-      <c r="X11" s="84"/>
-      <c r="Y11" s="84"/>
-      <c r="Z11" s="84"/>
-      <c r="AA11" s="84"/>
-      <c r="AB11" s="84"/>
-      <c r="AC11" s="84"/>
-      <c r="AD11" s="85"/>
-      <c r="AE11" s="83"/>
-      <c r="AF11" s="84"/>
-      <c r="AG11" s="84"/>
-      <c r="AH11" s="84"/>
-      <c r="AI11" s="84"/>
-      <c r="AJ11" s="84"/>
-      <c r="AK11" s="84"/>
-      <c r="AL11" s="84"/>
-      <c r="AM11" s="85"/>
-      <c r="AN11" s="83"/>
-      <c r="AO11" s="84"/>
-      <c r="AP11" s="84"/>
-      <c r="AQ11" s="84"/>
-      <c r="AR11" s="84"/>
-      <c r="AS11" s="84"/>
-      <c r="AT11" s="84"/>
-      <c r="AU11" s="84"/>
-      <c r="AV11" s="84"/>
-      <c r="AW11" s="84"/>
-      <c r="AX11" s="84"/>
-      <c r="AY11" s="84"/>
-      <c r="AZ11" s="84"/>
-      <c r="BA11" s="84"/>
-      <c r="BB11" s="85"/>
+      <c r="S11" s="86"/>
+      <c r="T11" s="87"/>
+      <c r="U11" s="88"/>
+      <c r="V11" s="89"/>
+      <c r="W11" s="89"/>
+      <c r="X11" s="89"/>
+      <c r="Y11" s="89"/>
+      <c r="Z11" s="89"/>
+      <c r="AA11" s="89"/>
+      <c r="AB11" s="89"/>
+      <c r="AC11" s="89"/>
+      <c r="AD11" s="90"/>
+      <c r="AE11" s="88"/>
+      <c r="AF11" s="89"/>
+      <c r="AG11" s="89"/>
+      <c r="AH11" s="89"/>
+      <c r="AI11" s="89"/>
+      <c r="AJ11" s="89"/>
+      <c r="AK11" s="89"/>
+      <c r="AL11" s="89"/>
+      <c r="AM11" s="90"/>
+      <c r="AN11" s="88"/>
+      <c r="AO11" s="89"/>
+      <c r="AP11" s="89"/>
+      <c r="AQ11" s="89"/>
+      <c r="AR11" s="89"/>
+      <c r="AS11" s="89"/>
+      <c r="AT11" s="89"/>
+      <c r="AU11" s="89"/>
+      <c r="AV11" s="89"/>
+      <c r="AW11" s="89"/>
+      <c r="AX11" s="89"/>
+      <c r="AY11" s="89"/>
+      <c r="AZ11" s="89"/>
+      <c r="BA11" s="89"/>
+      <c r="BB11" s="90"/>
     </row>
     <row r="12" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A12" s="9"/>
@@ -5784,42 +5793,42 @@
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
       <c r="R12" s="11"/>
-      <c r="S12" s="81"/>
-      <c r="T12" s="82"/>
-      <c r="U12" s="83"/>
-      <c r="V12" s="84"/>
-      <c r="W12" s="84"/>
-      <c r="X12" s="84"/>
-      <c r="Y12" s="84"/>
-      <c r="Z12" s="84"/>
-      <c r="AA12" s="84"/>
-      <c r="AB12" s="84"/>
-      <c r="AC12" s="84"/>
-      <c r="AD12" s="85"/>
-      <c r="AE12" s="83"/>
-      <c r="AF12" s="84"/>
-      <c r="AG12" s="84"/>
-      <c r="AH12" s="84"/>
-      <c r="AI12" s="84"/>
-      <c r="AJ12" s="84"/>
-      <c r="AK12" s="84"/>
-      <c r="AL12" s="84"/>
-      <c r="AM12" s="85"/>
-      <c r="AN12" s="83"/>
-      <c r="AO12" s="84"/>
-      <c r="AP12" s="84"/>
-      <c r="AQ12" s="84"/>
-      <c r="AR12" s="84"/>
-      <c r="AS12" s="84"/>
-      <c r="AT12" s="84"/>
-      <c r="AU12" s="84"/>
-      <c r="AV12" s="84"/>
-      <c r="AW12" s="84"/>
-      <c r="AX12" s="84"/>
-      <c r="AY12" s="84"/>
-      <c r="AZ12" s="84"/>
-      <c r="BA12" s="84"/>
-      <c r="BB12" s="85"/>
+      <c r="S12" s="86"/>
+      <c r="T12" s="87"/>
+      <c r="U12" s="88"/>
+      <c r="V12" s="89"/>
+      <c r="W12" s="89"/>
+      <c r="X12" s="89"/>
+      <c r="Y12" s="89"/>
+      <c r="Z12" s="89"/>
+      <c r="AA12" s="89"/>
+      <c r="AB12" s="89"/>
+      <c r="AC12" s="89"/>
+      <c r="AD12" s="90"/>
+      <c r="AE12" s="88"/>
+      <c r="AF12" s="89"/>
+      <c r="AG12" s="89"/>
+      <c r="AH12" s="89"/>
+      <c r="AI12" s="89"/>
+      <c r="AJ12" s="89"/>
+      <c r="AK12" s="89"/>
+      <c r="AL12" s="89"/>
+      <c r="AM12" s="90"/>
+      <c r="AN12" s="88"/>
+      <c r="AO12" s="89"/>
+      <c r="AP12" s="89"/>
+      <c r="AQ12" s="89"/>
+      <c r="AR12" s="89"/>
+      <c r="AS12" s="89"/>
+      <c r="AT12" s="89"/>
+      <c r="AU12" s="89"/>
+      <c r="AV12" s="89"/>
+      <c r="AW12" s="89"/>
+      <c r="AX12" s="89"/>
+      <c r="AY12" s="89"/>
+      <c r="AZ12" s="89"/>
+      <c r="BA12" s="89"/>
+      <c r="BB12" s="90"/>
     </row>
     <row r="13" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A13" s="9"/>
@@ -5840,42 +5849,42 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="11"/>
-      <c r="S13" s="81"/>
-      <c r="T13" s="82"/>
-      <c r="U13" s="83"/>
-      <c r="V13" s="84"/>
-      <c r="W13" s="84"/>
-      <c r="X13" s="84"/>
-      <c r="Y13" s="84"/>
-      <c r="Z13" s="84"/>
-      <c r="AA13" s="84"/>
-      <c r="AB13" s="84"/>
-      <c r="AC13" s="84"/>
-      <c r="AD13" s="85"/>
-      <c r="AE13" s="83"/>
-      <c r="AF13" s="84"/>
-      <c r="AG13" s="84"/>
-      <c r="AH13" s="84"/>
-      <c r="AI13" s="84"/>
-      <c r="AJ13" s="84"/>
-      <c r="AK13" s="84"/>
-      <c r="AL13" s="84"/>
-      <c r="AM13" s="85"/>
-      <c r="AN13" s="83"/>
-      <c r="AO13" s="84"/>
-      <c r="AP13" s="84"/>
-      <c r="AQ13" s="84"/>
-      <c r="AR13" s="84"/>
-      <c r="AS13" s="84"/>
-      <c r="AT13" s="84"/>
-      <c r="AU13" s="84"/>
-      <c r="AV13" s="84"/>
-      <c r="AW13" s="84"/>
-      <c r="AX13" s="84"/>
-      <c r="AY13" s="84"/>
-      <c r="AZ13" s="84"/>
-      <c r="BA13" s="84"/>
-      <c r="BB13" s="85"/>
+      <c r="S13" s="86"/>
+      <c r="T13" s="87"/>
+      <c r="U13" s="88"/>
+      <c r="V13" s="89"/>
+      <c r="W13" s="89"/>
+      <c r="X13" s="89"/>
+      <c r="Y13" s="89"/>
+      <c r="Z13" s="89"/>
+      <c r="AA13" s="89"/>
+      <c r="AB13" s="89"/>
+      <c r="AC13" s="89"/>
+      <c r="AD13" s="90"/>
+      <c r="AE13" s="88"/>
+      <c r="AF13" s="89"/>
+      <c r="AG13" s="89"/>
+      <c r="AH13" s="89"/>
+      <c r="AI13" s="89"/>
+      <c r="AJ13" s="89"/>
+      <c r="AK13" s="89"/>
+      <c r="AL13" s="89"/>
+      <c r="AM13" s="90"/>
+      <c r="AN13" s="88"/>
+      <c r="AO13" s="89"/>
+      <c r="AP13" s="89"/>
+      <c r="AQ13" s="89"/>
+      <c r="AR13" s="89"/>
+      <c r="AS13" s="89"/>
+      <c r="AT13" s="89"/>
+      <c r="AU13" s="89"/>
+      <c r="AV13" s="89"/>
+      <c r="AW13" s="89"/>
+      <c r="AX13" s="89"/>
+      <c r="AY13" s="89"/>
+      <c r="AZ13" s="89"/>
+      <c r="BA13" s="89"/>
+      <c r="BB13" s="90"/>
     </row>
     <row r="14" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A14" s="9"/>
@@ -5896,42 +5905,42 @@
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
       <c r="R14" s="11"/>
-      <c r="S14" s="81"/>
-      <c r="T14" s="82"/>
-      <c r="U14" s="83"/>
-      <c r="V14" s="84"/>
-      <c r="W14" s="84"/>
-      <c r="X14" s="84"/>
-      <c r="Y14" s="84"/>
-      <c r="Z14" s="84"/>
-      <c r="AA14" s="84"/>
-      <c r="AB14" s="84"/>
-      <c r="AC14" s="84"/>
-      <c r="AD14" s="85"/>
-      <c r="AE14" s="83"/>
-      <c r="AF14" s="84"/>
-      <c r="AG14" s="84"/>
-      <c r="AH14" s="84"/>
-      <c r="AI14" s="84"/>
-      <c r="AJ14" s="84"/>
-      <c r="AK14" s="84"/>
-      <c r="AL14" s="84"/>
-      <c r="AM14" s="85"/>
-      <c r="AN14" s="83"/>
-      <c r="AO14" s="84"/>
-      <c r="AP14" s="84"/>
-      <c r="AQ14" s="84"/>
-      <c r="AR14" s="84"/>
-      <c r="AS14" s="84"/>
-      <c r="AT14" s="84"/>
-      <c r="AU14" s="84"/>
-      <c r="AV14" s="84"/>
-      <c r="AW14" s="84"/>
-      <c r="AX14" s="84"/>
-      <c r="AY14" s="84"/>
-      <c r="AZ14" s="84"/>
-      <c r="BA14" s="84"/>
-      <c r="BB14" s="85"/>
+      <c r="S14" s="86"/>
+      <c r="T14" s="87"/>
+      <c r="U14" s="88"/>
+      <c r="V14" s="89"/>
+      <c r="W14" s="89"/>
+      <c r="X14" s="89"/>
+      <c r="Y14" s="89"/>
+      <c r="Z14" s="89"/>
+      <c r="AA14" s="89"/>
+      <c r="AB14" s="89"/>
+      <c r="AC14" s="89"/>
+      <c r="AD14" s="90"/>
+      <c r="AE14" s="88"/>
+      <c r="AF14" s="89"/>
+      <c r="AG14" s="89"/>
+      <c r="AH14" s="89"/>
+      <c r="AI14" s="89"/>
+      <c r="AJ14" s="89"/>
+      <c r="AK14" s="89"/>
+      <c r="AL14" s="89"/>
+      <c r="AM14" s="90"/>
+      <c r="AN14" s="88"/>
+      <c r="AO14" s="89"/>
+      <c r="AP14" s="89"/>
+      <c r="AQ14" s="89"/>
+      <c r="AR14" s="89"/>
+      <c r="AS14" s="89"/>
+      <c r="AT14" s="89"/>
+      <c r="AU14" s="89"/>
+      <c r="AV14" s="89"/>
+      <c r="AW14" s="89"/>
+      <c r="AX14" s="89"/>
+      <c r="AY14" s="89"/>
+      <c r="AZ14" s="89"/>
+      <c r="BA14" s="89"/>
+      <c r="BB14" s="90"/>
     </row>
     <row r="15" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A15" s="9"/>
@@ -5952,42 +5961,42 @@
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="11"/>
-      <c r="S15" s="81"/>
-      <c r="T15" s="82"/>
-      <c r="U15" s="83"/>
-      <c r="V15" s="84"/>
-      <c r="W15" s="84"/>
-      <c r="X15" s="84"/>
-      <c r="Y15" s="84"/>
-      <c r="Z15" s="84"/>
-      <c r="AA15" s="84"/>
-      <c r="AB15" s="84"/>
-      <c r="AC15" s="84"/>
-      <c r="AD15" s="85"/>
-      <c r="AE15" s="83"/>
-      <c r="AF15" s="84"/>
-      <c r="AG15" s="84"/>
-      <c r="AH15" s="84"/>
-      <c r="AI15" s="84"/>
-      <c r="AJ15" s="84"/>
-      <c r="AK15" s="84"/>
-      <c r="AL15" s="84"/>
-      <c r="AM15" s="85"/>
-      <c r="AN15" s="83"/>
-      <c r="AO15" s="84"/>
-      <c r="AP15" s="84"/>
-      <c r="AQ15" s="84"/>
-      <c r="AR15" s="84"/>
-      <c r="AS15" s="84"/>
-      <c r="AT15" s="84"/>
-      <c r="AU15" s="84"/>
-      <c r="AV15" s="84"/>
-      <c r="AW15" s="84"/>
-      <c r="AX15" s="84"/>
-      <c r="AY15" s="84"/>
-      <c r="AZ15" s="84"/>
-      <c r="BA15" s="84"/>
-      <c r="BB15" s="85"/>
+      <c r="S15" s="86"/>
+      <c r="T15" s="87"/>
+      <c r="U15" s="88"/>
+      <c r="V15" s="89"/>
+      <c r="W15" s="89"/>
+      <c r="X15" s="89"/>
+      <c r="Y15" s="89"/>
+      <c r="Z15" s="89"/>
+      <c r="AA15" s="89"/>
+      <c r="AB15" s="89"/>
+      <c r="AC15" s="89"/>
+      <c r="AD15" s="90"/>
+      <c r="AE15" s="88"/>
+      <c r="AF15" s="89"/>
+      <c r="AG15" s="89"/>
+      <c r="AH15" s="89"/>
+      <c r="AI15" s="89"/>
+      <c r="AJ15" s="89"/>
+      <c r="AK15" s="89"/>
+      <c r="AL15" s="89"/>
+      <c r="AM15" s="90"/>
+      <c r="AN15" s="88"/>
+      <c r="AO15" s="89"/>
+      <c r="AP15" s="89"/>
+      <c r="AQ15" s="89"/>
+      <c r="AR15" s="89"/>
+      <c r="AS15" s="89"/>
+      <c r="AT15" s="89"/>
+      <c r="AU15" s="89"/>
+      <c r="AV15" s="89"/>
+      <c r="AW15" s="89"/>
+      <c r="AX15" s="89"/>
+      <c r="AY15" s="89"/>
+      <c r="AZ15" s="89"/>
+      <c r="BA15" s="89"/>
+      <c r="BB15" s="90"/>
     </row>
     <row r="16" spans="1:81" x14ac:dyDescent="0.45">
       <c r="A16" s="9"/>
@@ -6008,42 +6017,42 @@
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
       <c r="R16" s="11"/>
-      <c r="S16" s="81"/>
-      <c r="T16" s="82"/>
-      <c r="U16" s="83"/>
-      <c r="V16" s="84"/>
-      <c r="W16" s="84"/>
-      <c r="X16" s="84"/>
-      <c r="Y16" s="84"/>
-      <c r="Z16" s="84"/>
-      <c r="AA16" s="84"/>
-      <c r="AB16" s="84"/>
-      <c r="AC16" s="84"/>
-      <c r="AD16" s="85"/>
-      <c r="AE16" s="83"/>
-      <c r="AF16" s="84"/>
-      <c r="AG16" s="84"/>
-      <c r="AH16" s="84"/>
-      <c r="AI16" s="84"/>
-      <c r="AJ16" s="84"/>
-      <c r="AK16" s="84"/>
-      <c r="AL16" s="84"/>
-      <c r="AM16" s="85"/>
-      <c r="AN16" s="83"/>
-      <c r="AO16" s="84"/>
-      <c r="AP16" s="84"/>
-      <c r="AQ16" s="84"/>
-      <c r="AR16" s="84"/>
-      <c r="AS16" s="84"/>
-      <c r="AT16" s="84"/>
-      <c r="AU16" s="84"/>
-      <c r="AV16" s="84"/>
-      <c r="AW16" s="84"/>
-      <c r="AX16" s="84"/>
-      <c r="AY16" s="84"/>
-      <c r="AZ16" s="84"/>
-      <c r="BA16" s="84"/>
-      <c r="BB16" s="85"/>
+      <c r="S16" s="86"/>
+      <c r="T16" s="87"/>
+      <c r="U16" s="88"/>
+      <c r="V16" s="89"/>
+      <c r="W16" s="89"/>
+      <c r="X16" s="89"/>
+      <c r="Y16" s="89"/>
+      <c r="Z16" s="89"/>
+      <c r="AA16" s="89"/>
+      <c r="AB16" s="89"/>
+      <c r="AC16" s="89"/>
+      <c r="AD16" s="90"/>
+      <c r="AE16" s="88"/>
+      <c r="AF16" s="89"/>
+      <c r="AG16" s="89"/>
+      <c r="AH16" s="89"/>
+      <c r="AI16" s="89"/>
+      <c r="AJ16" s="89"/>
+      <c r="AK16" s="89"/>
+      <c r="AL16" s="89"/>
+      <c r="AM16" s="90"/>
+      <c r="AN16" s="88"/>
+      <c r="AO16" s="89"/>
+      <c r="AP16" s="89"/>
+      <c r="AQ16" s="89"/>
+      <c r="AR16" s="89"/>
+      <c r="AS16" s="89"/>
+      <c r="AT16" s="89"/>
+      <c r="AU16" s="89"/>
+      <c r="AV16" s="89"/>
+      <c r="AW16" s="89"/>
+      <c r="AX16" s="89"/>
+      <c r="AY16" s="89"/>
+      <c r="AZ16" s="89"/>
+      <c r="BA16" s="89"/>
+      <c r="BB16" s="90"/>
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A17" s="9"/>
@@ -6064,42 +6073,42 @@
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
       <c r="R17" s="11"/>
-      <c r="S17" s="81"/>
-      <c r="T17" s="82"/>
-      <c r="U17" s="83"/>
-      <c r="V17" s="84"/>
-      <c r="W17" s="84"/>
-      <c r="X17" s="84"/>
-      <c r="Y17" s="84"/>
-      <c r="Z17" s="84"/>
-      <c r="AA17" s="84"/>
-      <c r="AB17" s="84"/>
-      <c r="AC17" s="84"/>
-      <c r="AD17" s="85"/>
-      <c r="AE17" s="83"/>
-      <c r="AF17" s="84"/>
-      <c r="AG17" s="84"/>
-      <c r="AH17" s="84"/>
-      <c r="AI17" s="84"/>
-      <c r="AJ17" s="84"/>
-      <c r="AK17" s="84"/>
-      <c r="AL17" s="84"/>
-      <c r="AM17" s="85"/>
-      <c r="AN17" s="83"/>
-      <c r="AO17" s="84"/>
-      <c r="AP17" s="84"/>
-      <c r="AQ17" s="84"/>
-      <c r="AR17" s="84"/>
-      <c r="AS17" s="84"/>
-      <c r="AT17" s="84"/>
-      <c r="AU17" s="84"/>
-      <c r="AV17" s="84"/>
-      <c r="AW17" s="84"/>
-      <c r="AX17" s="84"/>
-      <c r="AY17" s="84"/>
-      <c r="AZ17" s="84"/>
-      <c r="BA17" s="84"/>
-      <c r="BB17" s="85"/>
+      <c r="S17" s="86"/>
+      <c r="T17" s="87"/>
+      <c r="U17" s="88"/>
+      <c r="V17" s="89"/>
+      <c r="W17" s="89"/>
+      <c r="X17" s="89"/>
+      <c r="Y17" s="89"/>
+      <c r="Z17" s="89"/>
+      <c r="AA17" s="89"/>
+      <c r="AB17" s="89"/>
+      <c r="AC17" s="89"/>
+      <c r="AD17" s="90"/>
+      <c r="AE17" s="88"/>
+      <c r="AF17" s="89"/>
+      <c r="AG17" s="89"/>
+      <c r="AH17" s="89"/>
+      <c r="AI17" s="89"/>
+      <c r="AJ17" s="89"/>
+      <c r="AK17" s="89"/>
+      <c r="AL17" s="89"/>
+      <c r="AM17" s="90"/>
+      <c r="AN17" s="88"/>
+      <c r="AO17" s="89"/>
+      <c r="AP17" s="89"/>
+      <c r="AQ17" s="89"/>
+      <c r="AR17" s="89"/>
+      <c r="AS17" s="89"/>
+      <c r="AT17" s="89"/>
+      <c r="AU17" s="89"/>
+      <c r="AV17" s="89"/>
+      <c r="AW17" s="89"/>
+      <c r="AX17" s="89"/>
+      <c r="AY17" s="89"/>
+      <c r="AZ17" s="89"/>
+      <c r="BA17" s="89"/>
+      <c r="BB17" s="90"/>
     </row>
     <row r="18" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A18" s="9"/>
@@ -6120,97 +6129,45 @@
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
       <c r="R18" s="11"/>
-      <c r="S18" s="81"/>
-      <c r="T18" s="82"/>
-      <c r="U18" s="83"/>
-      <c r="V18" s="84"/>
-      <c r="W18" s="84"/>
-      <c r="X18" s="84"/>
-      <c r="Y18" s="84"/>
-      <c r="Z18" s="84"/>
-      <c r="AA18" s="84"/>
-      <c r="AB18" s="84"/>
-      <c r="AC18" s="84"/>
-      <c r="AD18" s="85"/>
-      <c r="AE18" s="83"/>
-      <c r="AF18" s="84"/>
-      <c r="AG18" s="84"/>
-      <c r="AH18" s="84"/>
-      <c r="AI18" s="84"/>
-      <c r="AJ18" s="84"/>
-      <c r="AK18" s="84"/>
-      <c r="AL18" s="84"/>
-      <c r="AM18" s="85"/>
-      <c r="AN18" s="83"/>
-      <c r="AO18" s="84"/>
-      <c r="AP18" s="84"/>
-      <c r="AQ18" s="84"/>
-      <c r="AR18" s="84"/>
-      <c r="AS18" s="84"/>
-      <c r="AT18" s="84"/>
-      <c r="AU18" s="84"/>
-      <c r="AV18" s="84"/>
-      <c r="AW18" s="84"/>
-      <c r="AX18" s="84"/>
-      <c r="AY18" s="84"/>
-      <c r="AZ18" s="84"/>
-      <c r="BA18" s="84"/>
-      <c r="BB18" s="85"/>
+      <c r="S18" s="86"/>
+      <c r="T18" s="87"/>
+      <c r="U18" s="88"/>
+      <c r="V18" s="89"/>
+      <c r="W18" s="89"/>
+      <c r="X18" s="89"/>
+      <c r="Y18" s="89"/>
+      <c r="Z18" s="89"/>
+      <c r="AA18" s="89"/>
+      <c r="AB18" s="89"/>
+      <c r="AC18" s="89"/>
+      <c r="AD18" s="90"/>
+      <c r="AE18" s="88"/>
+      <c r="AF18" s="89"/>
+      <c r="AG18" s="89"/>
+      <c r="AH18" s="89"/>
+      <c r="AI18" s="89"/>
+      <c r="AJ18" s="89"/>
+      <c r="AK18" s="89"/>
+      <c r="AL18" s="89"/>
+      <c r="AM18" s="90"/>
+      <c r="AN18" s="88"/>
+      <c r="AO18" s="89"/>
+      <c r="AP18" s="89"/>
+      <c r="AQ18" s="89"/>
+      <c r="AR18" s="89"/>
+      <c r="AS18" s="89"/>
+      <c r="AT18" s="89"/>
+      <c r="AU18" s="89"/>
+      <c r="AV18" s="89"/>
+      <c r="AW18" s="89"/>
+      <c r="AX18" s="89"/>
+      <c r="AY18" s="89"/>
+      <c r="AZ18" s="89"/>
+      <c r="BA18" s="89"/>
+      <c r="BB18" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="AN2:BB2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:AD3"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="J3:R3"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:AD5"/>
-    <mergeCell ref="AE5:AM5"/>
-    <mergeCell ref="AN5:BB5"/>
-    <mergeCell ref="S2:AD2"/>
-    <mergeCell ref="AE2:AM2"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:AD6"/>
-    <mergeCell ref="AE6:AM6"/>
-    <mergeCell ref="AN6:BB6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:AD7"/>
-    <mergeCell ref="AE7:AM7"/>
-    <mergeCell ref="AN7:BB7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:AD8"/>
-    <mergeCell ref="AE8:AM8"/>
-    <mergeCell ref="AN8:BB8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:AD9"/>
-    <mergeCell ref="AE9:AM9"/>
-    <mergeCell ref="AN9:BB9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:AD10"/>
-    <mergeCell ref="AE10:AM10"/>
-    <mergeCell ref="AN10:BB10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:AD11"/>
-    <mergeCell ref="AE11:AM11"/>
-    <mergeCell ref="AN11:BB11"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:AD12"/>
-    <mergeCell ref="AE12:AM12"/>
-    <mergeCell ref="AN12:BB12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:AD13"/>
-    <mergeCell ref="AE13:AM13"/>
-    <mergeCell ref="AN13:BB13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="AE14:AM14"/>
-    <mergeCell ref="AN14:BB14"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:AD15"/>
-    <mergeCell ref="AE15:AM15"/>
-    <mergeCell ref="AN15:BB15"/>
     <mergeCell ref="S18:T18"/>
     <mergeCell ref="U18:AD18"/>
     <mergeCell ref="AE18:AM18"/>
@@ -6223,6 +6180,58 @@
     <mergeCell ref="U17:AD17"/>
     <mergeCell ref="AE17:AM17"/>
     <mergeCell ref="AN17:BB17"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AE14:AM14"/>
+    <mergeCell ref="AN14:BB14"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:AD15"/>
+    <mergeCell ref="AE15:AM15"/>
+    <mergeCell ref="AN15:BB15"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:AD12"/>
+    <mergeCell ref="AE12:AM12"/>
+    <mergeCell ref="AN12:BB12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:AD13"/>
+    <mergeCell ref="AE13:AM13"/>
+    <mergeCell ref="AN13:BB13"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:AD10"/>
+    <mergeCell ref="AE10:AM10"/>
+    <mergeCell ref="AN10:BB10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:AD11"/>
+    <mergeCell ref="AE11:AM11"/>
+    <mergeCell ref="AN11:BB11"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:AD8"/>
+    <mergeCell ref="AE8:AM8"/>
+    <mergeCell ref="AN8:BB8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:AD9"/>
+    <mergeCell ref="AE9:AM9"/>
+    <mergeCell ref="AN9:BB9"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:AD6"/>
+    <mergeCell ref="AE6:AM6"/>
+    <mergeCell ref="AN6:BB6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:AD7"/>
+    <mergeCell ref="AE7:AM7"/>
+    <mergeCell ref="AN7:BB7"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:AD5"/>
+    <mergeCell ref="AE5:AM5"/>
+    <mergeCell ref="AN5:BB5"/>
+    <mergeCell ref="S2:AD2"/>
+    <mergeCell ref="AE2:AM2"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="AN2:BB2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:AD3"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="J3:R3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6302,1349 +6311,1259 @@
       <c r="BB1" s="24"/>
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="122" t="s">
+      <c r="B2" s="108"/>
+      <c r="C2" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="122" t="s">
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="122" t="s">
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="O2" s="124"/>
-      <c r="P2" s="124"/>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="124"/>
-      <c r="S2" s="124"/>
-      <c r="T2" s="124"/>
-      <c r="U2" s="124"/>
-      <c r="V2" s="124"/>
-      <c r="W2" s="124"/>
-      <c r="X2" s="124"/>
-      <c r="Y2" s="124"/>
-      <c r="Z2" s="123"/>
-      <c r="AA2" s="122" t="s">
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
+      <c r="T2" s="109"/>
+      <c r="U2" s="109"/>
+      <c r="V2" s="109"/>
+      <c r="W2" s="109"/>
+      <c r="X2" s="109"/>
+      <c r="Y2" s="109"/>
+      <c r="Z2" s="108"/>
+      <c r="AA2" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="AB2" s="124"/>
-      <c r="AC2" s="124"/>
-      <c r="AD2" s="124"/>
-      <c r="AE2" s="124"/>
-      <c r="AF2" s="124"/>
-      <c r="AG2" s="124"/>
-      <c r="AH2" s="124"/>
-      <c r="AI2" s="124"/>
-      <c r="AJ2" s="124"/>
-      <c r="AK2" s="124"/>
-      <c r="AL2" s="124"/>
-      <c r="AM2" s="124"/>
-      <c r="AN2" s="124"/>
-      <c r="AO2" s="124"/>
-      <c r="AP2" s="124"/>
-      <c r="AQ2" s="124"/>
-      <c r="AR2" s="124"/>
-      <c r="AS2" s="124"/>
-      <c r="AT2" s="124"/>
-      <c r="AU2" s="124"/>
-      <c r="AV2" s="124"/>
-      <c r="AW2" s="124"/>
-      <c r="AX2" s="124"/>
-      <c r="AY2" s="124"/>
-      <c r="AZ2" s="124"/>
-      <c r="BA2" s="124"/>
-      <c r="BB2" s="123"/>
+      <c r="AB2" s="109"/>
+      <c r="AC2" s="109"/>
+      <c r="AD2" s="109"/>
+      <c r="AE2" s="109"/>
+      <c r="AF2" s="109"/>
+      <c r="AG2" s="109"/>
+      <c r="AH2" s="109"/>
+      <c r="AI2" s="109"/>
+      <c r="AJ2" s="109"/>
+      <c r="AK2" s="109"/>
+      <c r="AL2" s="109"/>
+      <c r="AM2" s="109"/>
+      <c r="AN2" s="109"/>
+      <c r="AO2" s="109"/>
+      <c r="AP2" s="109"/>
+      <c r="AQ2" s="109"/>
+      <c r="AR2" s="109"/>
+      <c r="AS2" s="109"/>
+      <c r="AT2" s="109"/>
+      <c r="AU2" s="109"/>
+      <c r="AV2" s="109"/>
+      <c r="AW2" s="109"/>
+      <c r="AX2" s="109"/>
+      <c r="AY2" s="109"/>
+      <c r="AZ2" s="109"/>
+      <c r="BA2" s="109"/>
+      <c r="BB2" s="108"/>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A3" s="120">
+      <c r="A3" s="110">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="125">
+      <c r="B3" s="110"/>
+      <c r="C3" s="111">
         <v>45441</v>
       </c>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="126" t="s">
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="127" t="s">
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="113" t="s">
         <v>59</v>
       </c>
-      <c r="O3" s="127"/>
-      <c r="P3" s="127"/>
-      <c r="Q3" s="127"/>
-      <c r="R3" s="127"/>
-      <c r="S3" s="127"/>
-      <c r="T3" s="127"/>
-      <c r="U3" s="127"/>
-      <c r="V3" s="127"/>
-      <c r="W3" s="127"/>
-      <c r="X3" s="127"/>
-      <c r="Y3" s="127"/>
-      <c r="Z3" s="127"/>
-      <c r="AA3" s="127"/>
-      <c r="AB3" s="127"/>
-      <c r="AC3" s="127"/>
-      <c r="AD3" s="127"/>
-      <c r="AE3" s="127"/>
-      <c r="AF3" s="127"/>
-      <c r="AG3" s="127"/>
-      <c r="AH3" s="127"/>
-      <c r="AI3" s="127"/>
-      <c r="AJ3" s="127"/>
-      <c r="AK3" s="127"/>
-      <c r="AL3" s="127"/>
-      <c r="AM3" s="127"/>
-      <c r="AN3" s="127"/>
-      <c r="AO3" s="127"/>
-      <c r="AP3" s="127"/>
-      <c r="AQ3" s="127"/>
-      <c r="AR3" s="127"/>
-      <c r="AS3" s="127"/>
-      <c r="AT3" s="127"/>
-      <c r="AU3" s="127"/>
-      <c r="AV3" s="127"/>
-      <c r="AW3" s="127"/>
-      <c r="AX3" s="127"/>
-      <c r="AY3" s="127"/>
-      <c r="AZ3" s="127"/>
-      <c r="BA3" s="127"/>
-      <c r="BB3" s="127"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="113"/>
+      <c r="Q3" s="113"/>
+      <c r="R3" s="113"/>
+      <c r="S3" s="113"/>
+      <c r="T3" s="113"/>
+      <c r="U3" s="113"/>
+      <c r="V3" s="113"/>
+      <c r="W3" s="113"/>
+      <c r="X3" s="113"/>
+      <c r="Y3" s="113"/>
+      <c r="Z3" s="113"/>
+      <c r="AA3" s="113"/>
+      <c r="AB3" s="113"/>
+      <c r="AC3" s="113"/>
+      <c r="AD3" s="113"/>
+      <c r="AE3" s="113"/>
+      <c r="AF3" s="113"/>
+      <c r="AG3" s="113"/>
+      <c r="AH3" s="113"/>
+      <c r="AI3" s="113"/>
+      <c r="AJ3" s="113"/>
+      <c r="AK3" s="113"/>
+      <c r="AL3" s="113"/>
+      <c r="AM3" s="113"/>
+      <c r="AN3" s="113"/>
+      <c r="AO3" s="113"/>
+      <c r="AP3" s="113"/>
+      <c r="AQ3" s="113"/>
+      <c r="AR3" s="113"/>
+      <c r="AS3" s="113"/>
+      <c r="AT3" s="113"/>
+      <c r="AU3" s="113"/>
+      <c r="AV3" s="113"/>
+      <c r="AW3" s="113"/>
+      <c r="AX3" s="113"/>
+      <c r="AY3" s="113"/>
+      <c r="AZ3" s="113"/>
+      <c r="BA3" s="113"/>
+      <c r="BB3" s="113"/>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A4" s="120">
+      <c r="A4" s="110">
         <f t="shared" ref="A4:A22" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="117"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="118"/>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="118"/>
-      <c r="T4" s="118"/>
-      <c r="U4" s="118"/>
-      <c r="V4" s="118"/>
-      <c r="W4" s="118"/>
-      <c r="X4" s="118"/>
-      <c r="Y4" s="118"/>
-      <c r="Z4" s="119"/>
-      <c r="AA4" s="110"/>
-      <c r="AB4" s="110"/>
-      <c r="AC4" s="110"/>
-      <c r="AD4" s="110"/>
-      <c r="AE4" s="110"/>
-      <c r="AF4" s="110"/>
-      <c r="AG4" s="110"/>
-      <c r="AH4" s="110"/>
-      <c r="AI4" s="110"/>
-      <c r="AJ4" s="110"/>
-      <c r="AK4" s="110"/>
-      <c r="AL4" s="110"/>
-      <c r="AM4" s="110"/>
-      <c r="AN4" s="110"/>
-      <c r="AO4" s="110"/>
-      <c r="AP4" s="110"/>
-      <c r="AQ4" s="110"/>
-      <c r="AR4" s="110"/>
-      <c r="AS4" s="110"/>
-      <c r="AT4" s="110"/>
-      <c r="AU4" s="110"/>
-      <c r="AV4" s="110"/>
-      <c r="AW4" s="110"/>
-      <c r="AX4" s="110"/>
-      <c r="AY4" s="110"/>
-      <c r="AZ4" s="110"/>
-      <c r="BA4" s="110"/>
-      <c r="BB4" s="110"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="119"/>
+      <c r="T4" s="119"/>
+      <c r="U4" s="119"/>
+      <c r="V4" s="119"/>
+      <c r="W4" s="119"/>
+      <c r="X4" s="119"/>
+      <c r="Y4" s="119"/>
+      <c r="Z4" s="120"/>
+      <c r="AA4" s="121"/>
+      <c r="AB4" s="121"/>
+      <c r="AC4" s="121"/>
+      <c r="AD4" s="121"/>
+      <c r="AE4" s="121"/>
+      <c r="AF4" s="121"/>
+      <c r="AG4" s="121"/>
+      <c r="AH4" s="121"/>
+      <c r="AI4" s="121"/>
+      <c r="AJ4" s="121"/>
+      <c r="AK4" s="121"/>
+      <c r="AL4" s="121"/>
+      <c r="AM4" s="121"/>
+      <c r="AN4" s="121"/>
+      <c r="AO4" s="121"/>
+      <c r="AP4" s="121"/>
+      <c r="AQ4" s="121"/>
+      <c r="AR4" s="121"/>
+      <c r="AS4" s="121"/>
+      <c r="AT4" s="121"/>
+      <c r="AU4" s="121"/>
+      <c r="AV4" s="121"/>
+      <c r="AW4" s="121"/>
+      <c r="AX4" s="121"/>
+      <c r="AY4" s="121"/>
+      <c r="AZ4" s="121"/>
+      <c r="BA4" s="121"/>
+      <c r="BB4" s="121"/>
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A5" s="120">
+      <c r="A5" s="110">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="120"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="118"/>
-      <c r="P5" s="118"/>
-      <c r="Q5" s="118"/>
-      <c r="R5" s="118"/>
-      <c r="S5" s="118"/>
-      <c r="T5" s="118"/>
-      <c r="U5" s="118"/>
-      <c r="V5" s="118"/>
-      <c r="W5" s="118"/>
-      <c r="X5" s="118"/>
-      <c r="Y5" s="118"/>
-      <c r="Z5" s="119"/>
-      <c r="AA5" s="110"/>
-      <c r="AB5" s="110"/>
-      <c r="AC5" s="110"/>
-      <c r="AD5" s="110"/>
-      <c r="AE5" s="110"/>
-      <c r="AF5" s="110"/>
-      <c r="AG5" s="110"/>
-      <c r="AH5" s="110"/>
-      <c r="AI5" s="110"/>
-      <c r="AJ5" s="110"/>
-      <c r="AK5" s="110"/>
-      <c r="AL5" s="110"/>
-      <c r="AM5" s="110"/>
-      <c r="AN5" s="110"/>
-      <c r="AO5" s="110"/>
-      <c r="AP5" s="110"/>
-      <c r="AQ5" s="110"/>
-      <c r="AR5" s="110"/>
-      <c r="AS5" s="110"/>
-      <c r="AT5" s="110"/>
-      <c r="AU5" s="110"/>
-      <c r="AV5" s="110"/>
-      <c r="AW5" s="110"/>
-      <c r="AX5" s="110"/>
-      <c r="AY5" s="110"/>
-      <c r="AZ5" s="110"/>
-      <c r="BA5" s="110"/>
-      <c r="BB5" s="110"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="119"/>
+      <c r="P5" s="119"/>
+      <c r="Q5" s="119"/>
+      <c r="R5" s="119"/>
+      <c r="S5" s="119"/>
+      <c r="T5" s="119"/>
+      <c r="U5" s="119"/>
+      <c r="V5" s="119"/>
+      <c r="W5" s="119"/>
+      <c r="X5" s="119"/>
+      <c r="Y5" s="119"/>
+      <c r="Z5" s="120"/>
+      <c r="AA5" s="121"/>
+      <c r="AB5" s="121"/>
+      <c r="AC5" s="121"/>
+      <c r="AD5" s="121"/>
+      <c r="AE5" s="121"/>
+      <c r="AF5" s="121"/>
+      <c r="AG5" s="121"/>
+      <c r="AH5" s="121"/>
+      <c r="AI5" s="121"/>
+      <c r="AJ5" s="121"/>
+      <c r="AK5" s="121"/>
+      <c r="AL5" s="121"/>
+      <c r="AM5" s="121"/>
+      <c r="AN5" s="121"/>
+      <c r="AO5" s="121"/>
+      <c r="AP5" s="121"/>
+      <c r="AQ5" s="121"/>
+      <c r="AR5" s="121"/>
+      <c r="AS5" s="121"/>
+      <c r="AT5" s="121"/>
+      <c r="AU5" s="121"/>
+      <c r="AV5" s="121"/>
+      <c r="AW5" s="121"/>
+      <c r="AX5" s="121"/>
+      <c r="AY5" s="121"/>
+      <c r="AZ5" s="121"/>
+      <c r="BA5" s="121"/>
+      <c r="BB5" s="121"/>
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A6" s="120">
+      <c r="A6" s="110">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="120"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
-      <c r="M6" s="116"/>
-      <c r="N6" s="117"/>
-      <c r="O6" s="118"/>
-      <c r="P6" s="118"/>
-      <c r="Q6" s="118"/>
-      <c r="R6" s="118"/>
-      <c r="S6" s="118"/>
-      <c r="T6" s="118"/>
-      <c r="U6" s="118"/>
-      <c r="V6" s="118"/>
-      <c r="W6" s="118"/>
-      <c r="X6" s="118"/>
-      <c r="Y6" s="118"/>
-      <c r="Z6" s="119"/>
-      <c r="AA6" s="110"/>
-      <c r="AB6" s="110"/>
-      <c r="AC6" s="110"/>
-      <c r="AD6" s="110"/>
-      <c r="AE6" s="110"/>
-      <c r="AF6" s="110"/>
-      <c r="AG6" s="110"/>
-      <c r="AH6" s="110"/>
-      <c r="AI6" s="110"/>
-      <c r="AJ6" s="110"/>
-      <c r="AK6" s="110"/>
-      <c r="AL6" s="110"/>
-      <c r="AM6" s="110"/>
-      <c r="AN6" s="110"/>
-      <c r="AO6" s="110"/>
-      <c r="AP6" s="110"/>
-      <c r="AQ6" s="110"/>
-      <c r="AR6" s="110"/>
-      <c r="AS6" s="110"/>
-      <c r="AT6" s="110"/>
-      <c r="AU6" s="110"/>
-      <c r="AV6" s="110"/>
-      <c r="AW6" s="110"/>
-      <c r="AX6" s="110"/>
-      <c r="AY6" s="110"/>
-      <c r="AZ6" s="110"/>
-      <c r="BA6" s="110"/>
-      <c r="BB6" s="110"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="118"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
+      <c r="U6" s="119"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="119"/>
+      <c r="Y6" s="119"/>
+      <c r="Z6" s="120"/>
+      <c r="AA6" s="121"/>
+      <c r="AB6" s="121"/>
+      <c r="AC6" s="121"/>
+      <c r="AD6" s="121"/>
+      <c r="AE6" s="121"/>
+      <c r="AF6" s="121"/>
+      <c r="AG6" s="121"/>
+      <c r="AH6" s="121"/>
+      <c r="AI6" s="121"/>
+      <c r="AJ6" s="121"/>
+      <c r="AK6" s="121"/>
+      <c r="AL6" s="121"/>
+      <c r="AM6" s="121"/>
+      <c r="AN6" s="121"/>
+      <c r="AO6" s="121"/>
+      <c r="AP6" s="121"/>
+      <c r="AQ6" s="121"/>
+      <c r="AR6" s="121"/>
+      <c r="AS6" s="121"/>
+      <c r="AT6" s="121"/>
+      <c r="AU6" s="121"/>
+      <c r="AV6" s="121"/>
+      <c r="AW6" s="121"/>
+      <c r="AX6" s="121"/>
+      <c r="AY6" s="121"/>
+      <c r="AZ6" s="121"/>
+      <c r="BA6" s="121"/>
+      <c r="BB6" s="121"/>
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A7" s="120">
+      <c r="A7" s="110">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="120"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="116"/>
-      <c r="N7" s="117"/>
-      <c r="O7" s="118"/>
-      <c r="P7" s="118"/>
-      <c r="Q7" s="118"/>
-      <c r="R7" s="118"/>
-      <c r="S7" s="118"/>
-      <c r="T7" s="118"/>
-      <c r="U7" s="118"/>
-      <c r="V7" s="118"/>
-      <c r="W7" s="118"/>
-      <c r="X7" s="118"/>
-      <c r="Y7" s="118"/>
-      <c r="Z7" s="119"/>
-      <c r="AA7" s="110"/>
-      <c r="AB7" s="110"/>
-      <c r="AC7" s="110"/>
-      <c r="AD7" s="110"/>
-      <c r="AE7" s="110"/>
-      <c r="AF7" s="110"/>
-      <c r="AG7" s="110"/>
-      <c r="AH7" s="110"/>
-      <c r="AI7" s="110"/>
-      <c r="AJ7" s="110"/>
-      <c r="AK7" s="110"/>
-      <c r="AL7" s="110"/>
-      <c r="AM7" s="110"/>
-      <c r="AN7" s="110"/>
-      <c r="AO7" s="110"/>
-      <c r="AP7" s="110"/>
-      <c r="AQ7" s="110"/>
-      <c r="AR7" s="110"/>
-      <c r="AS7" s="110"/>
-      <c r="AT7" s="110"/>
-      <c r="AU7" s="110"/>
-      <c r="AV7" s="110"/>
-      <c r="AW7" s="110"/>
-      <c r="AX7" s="110"/>
-      <c r="AY7" s="110"/>
-      <c r="AZ7" s="110"/>
-      <c r="BA7" s="110"/>
-      <c r="BB7" s="110"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="117"/>
+      <c r="N7" s="118"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="119"/>
+      <c r="T7" s="119"/>
+      <c r="U7" s="119"/>
+      <c r="V7" s="119"/>
+      <c r="W7" s="119"/>
+      <c r="X7" s="119"/>
+      <c r="Y7" s="119"/>
+      <c r="Z7" s="120"/>
+      <c r="AA7" s="121"/>
+      <c r="AB7" s="121"/>
+      <c r="AC7" s="121"/>
+      <c r="AD7" s="121"/>
+      <c r="AE7" s="121"/>
+      <c r="AF7" s="121"/>
+      <c r="AG7" s="121"/>
+      <c r="AH7" s="121"/>
+      <c r="AI7" s="121"/>
+      <c r="AJ7" s="121"/>
+      <c r="AK7" s="121"/>
+      <c r="AL7" s="121"/>
+      <c r="AM7" s="121"/>
+      <c r="AN7" s="121"/>
+      <c r="AO7" s="121"/>
+      <c r="AP7" s="121"/>
+      <c r="AQ7" s="121"/>
+      <c r="AR7" s="121"/>
+      <c r="AS7" s="121"/>
+      <c r="AT7" s="121"/>
+      <c r="AU7" s="121"/>
+      <c r="AV7" s="121"/>
+      <c r="AW7" s="121"/>
+      <c r="AX7" s="121"/>
+      <c r="AY7" s="121"/>
+      <c r="AZ7" s="121"/>
+      <c r="BA7" s="121"/>
+      <c r="BB7" s="121"/>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A8" s="120">
+      <c r="A8" s="110">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="121"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="117"/>
-      <c r="O8" s="118"/>
-      <c r="P8" s="118"/>
-      <c r="Q8" s="118"/>
-      <c r="R8" s="118"/>
-      <c r="S8" s="118"/>
-      <c r="T8" s="118"/>
-      <c r="U8" s="118"/>
-      <c r="V8" s="118"/>
-      <c r="W8" s="118"/>
-      <c r="X8" s="118"/>
-      <c r="Y8" s="118"/>
-      <c r="Z8" s="119"/>
-      <c r="AA8" s="110"/>
-      <c r="AB8" s="110"/>
-      <c r="AC8" s="110"/>
-      <c r="AD8" s="110"/>
-      <c r="AE8" s="110"/>
-      <c r="AF8" s="110"/>
-      <c r="AG8" s="110"/>
-      <c r="AH8" s="110"/>
-      <c r="AI8" s="110"/>
-      <c r="AJ8" s="110"/>
-      <c r="AK8" s="110"/>
-      <c r="AL8" s="110"/>
-      <c r="AM8" s="110"/>
-      <c r="AN8" s="110"/>
-      <c r="AO8" s="110"/>
-      <c r="AP8" s="110"/>
-      <c r="AQ8" s="110"/>
-      <c r="AR8" s="110"/>
-      <c r="AS8" s="110"/>
-      <c r="AT8" s="110"/>
-      <c r="AU8" s="110"/>
-      <c r="AV8" s="110"/>
-      <c r="AW8" s="110"/>
-      <c r="AX8" s="110"/>
-      <c r="AY8" s="110"/>
-      <c r="AZ8" s="110"/>
-      <c r="BA8" s="110"/>
-      <c r="BB8" s="110"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="118"/>
+      <c r="O8" s="119"/>
+      <c r="P8" s="119"/>
+      <c r="Q8" s="119"/>
+      <c r="R8" s="119"/>
+      <c r="S8" s="119"/>
+      <c r="T8" s="119"/>
+      <c r="U8" s="119"/>
+      <c r="V8" s="119"/>
+      <c r="W8" s="119"/>
+      <c r="X8" s="119"/>
+      <c r="Y8" s="119"/>
+      <c r="Z8" s="120"/>
+      <c r="AA8" s="121"/>
+      <c r="AB8" s="121"/>
+      <c r="AC8" s="121"/>
+      <c r="AD8" s="121"/>
+      <c r="AE8" s="121"/>
+      <c r="AF8" s="121"/>
+      <c r="AG8" s="121"/>
+      <c r="AH8" s="121"/>
+      <c r="AI8" s="121"/>
+      <c r="AJ8" s="121"/>
+      <c r="AK8" s="121"/>
+      <c r="AL8" s="121"/>
+      <c r="AM8" s="121"/>
+      <c r="AN8" s="121"/>
+      <c r="AO8" s="121"/>
+      <c r="AP8" s="121"/>
+      <c r="AQ8" s="121"/>
+      <c r="AR8" s="121"/>
+      <c r="AS8" s="121"/>
+      <c r="AT8" s="121"/>
+      <c r="AU8" s="121"/>
+      <c r="AV8" s="121"/>
+      <c r="AW8" s="121"/>
+      <c r="AX8" s="121"/>
+      <c r="AY8" s="121"/>
+      <c r="AZ8" s="121"/>
+      <c r="BA8" s="121"/>
+      <c r="BB8" s="121"/>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A9" s="120">
+      <c r="A9" s="110">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="120"/>
-      <c r="C9" s="121"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="115"/>
-      <c r="L9" s="115"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="118"/>
-      <c r="P9" s="118"/>
-      <c r="Q9" s="118"/>
-      <c r="R9" s="118"/>
-      <c r="S9" s="118"/>
-      <c r="T9" s="118"/>
-      <c r="U9" s="118"/>
-      <c r="V9" s="118"/>
-      <c r="W9" s="118"/>
-      <c r="X9" s="118"/>
-      <c r="Y9" s="118"/>
-      <c r="Z9" s="119"/>
-      <c r="AA9" s="110"/>
-      <c r="AB9" s="110"/>
-      <c r="AC9" s="110"/>
-      <c r="AD9" s="110"/>
-      <c r="AE9" s="110"/>
-      <c r="AF9" s="110"/>
-      <c r="AG9" s="110"/>
-      <c r="AH9" s="110"/>
-      <c r="AI9" s="110"/>
-      <c r="AJ9" s="110"/>
-      <c r="AK9" s="110"/>
-      <c r="AL9" s="110"/>
-      <c r="AM9" s="110"/>
-      <c r="AN9" s="110"/>
-      <c r="AO9" s="110"/>
-      <c r="AP9" s="110"/>
-      <c r="AQ9" s="110"/>
-      <c r="AR9" s="110"/>
-      <c r="AS9" s="110"/>
-      <c r="AT9" s="110"/>
-      <c r="AU9" s="110"/>
-      <c r="AV9" s="110"/>
-      <c r="AW9" s="110"/>
-      <c r="AX9" s="110"/>
-      <c r="AY9" s="110"/>
-      <c r="AZ9" s="110"/>
-      <c r="BA9" s="110"/>
-      <c r="BB9" s="110"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="119"/>
+      <c r="P9" s="119"/>
+      <c r="Q9" s="119"/>
+      <c r="R9" s="119"/>
+      <c r="S9" s="119"/>
+      <c r="T9" s="119"/>
+      <c r="U9" s="119"/>
+      <c r="V9" s="119"/>
+      <c r="W9" s="119"/>
+      <c r="X9" s="119"/>
+      <c r="Y9" s="119"/>
+      <c r="Z9" s="120"/>
+      <c r="AA9" s="121"/>
+      <c r="AB9" s="121"/>
+      <c r="AC9" s="121"/>
+      <c r="AD9" s="121"/>
+      <c r="AE9" s="121"/>
+      <c r="AF9" s="121"/>
+      <c r="AG9" s="121"/>
+      <c r="AH9" s="121"/>
+      <c r="AI9" s="121"/>
+      <c r="AJ9" s="121"/>
+      <c r="AK9" s="121"/>
+      <c r="AL9" s="121"/>
+      <c r="AM9" s="121"/>
+      <c r="AN9" s="121"/>
+      <c r="AO9" s="121"/>
+      <c r="AP9" s="121"/>
+      <c r="AQ9" s="121"/>
+      <c r="AR9" s="121"/>
+      <c r="AS9" s="121"/>
+      <c r="AT9" s="121"/>
+      <c r="AU9" s="121"/>
+      <c r="AV9" s="121"/>
+      <c r="AW9" s="121"/>
+      <c r="AX9" s="121"/>
+      <c r="AY9" s="121"/>
+      <c r="AZ9" s="121"/>
+      <c r="BA9" s="121"/>
+      <c r="BB9" s="121"/>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A10" s="120">
+      <c r="A10" s="110">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="120"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="115"/>
-      <c r="L10" s="115"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="117"/>
-      <c r="O10" s="118"/>
-      <c r="P10" s="118"/>
-      <c r="Q10" s="118"/>
-      <c r="R10" s="118"/>
-      <c r="S10" s="118"/>
-      <c r="T10" s="118"/>
-      <c r="U10" s="118"/>
-      <c r="V10" s="118"/>
-      <c r="W10" s="118"/>
-      <c r="X10" s="118"/>
-      <c r="Y10" s="118"/>
-      <c r="Z10" s="119"/>
-      <c r="AA10" s="110"/>
-      <c r="AB10" s="110"/>
-      <c r="AC10" s="110"/>
-      <c r="AD10" s="110"/>
-      <c r="AE10" s="110"/>
-      <c r="AF10" s="110"/>
-      <c r="AG10" s="110"/>
-      <c r="AH10" s="110"/>
-      <c r="AI10" s="110"/>
-      <c r="AJ10" s="110"/>
-      <c r="AK10" s="110"/>
-      <c r="AL10" s="110"/>
-      <c r="AM10" s="110"/>
-      <c r="AN10" s="110"/>
-      <c r="AO10" s="110"/>
-      <c r="AP10" s="110"/>
-      <c r="AQ10" s="110"/>
-      <c r="AR10" s="110"/>
-      <c r="AS10" s="110"/>
-      <c r="AT10" s="110"/>
-      <c r="AU10" s="110"/>
-      <c r="AV10" s="110"/>
-      <c r="AW10" s="110"/>
-      <c r="AX10" s="110"/>
-      <c r="AY10" s="110"/>
-      <c r="AZ10" s="110"/>
-      <c r="BA10" s="110"/>
-      <c r="BB10" s="110"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="117"/>
+      <c r="N10" s="118"/>
+      <c r="O10" s="119"/>
+      <c r="P10" s="119"/>
+      <c r="Q10" s="119"/>
+      <c r="R10" s="119"/>
+      <c r="S10" s="119"/>
+      <c r="T10" s="119"/>
+      <c r="U10" s="119"/>
+      <c r="V10" s="119"/>
+      <c r="W10" s="119"/>
+      <c r="X10" s="119"/>
+      <c r="Y10" s="119"/>
+      <c r="Z10" s="120"/>
+      <c r="AA10" s="121"/>
+      <c r="AB10" s="121"/>
+      <c r="AC10" s="121"/>
+      <c r="AD10" s="121"/>
+      <c r="AE10" s="121"/>
+      <c r="AF10" s="121"/>
+      <c r="AG10" s="121"/>
+      <c r="AH10" s="121"/>
+      <c r="AI10" s="121"/>
+      <c r="AJ10" s="121"/>
+      <c r="AK10" s="121"/>
+      <c r="AL10" s="121"/>
+      <c r="AM10" s="121"/>
+      <c r="AN10" s="121"/>
+      <c r="AO10" s="121"/>
+      <c r="AP10" s="121"/>
+      <c r="AQ10" s="121"/>
+      <c r="AR10" s="121"/>
+      <c r="AS10" s="121"/>
+      <c r="AT10" s="121"/>
+      <c r="AU10" s="121"/>
+      <c r="AV10" s="121"/>
+      <c r="AW10" s="121"/>
+      <c r="AX10" s="121"/>
+      <c r="AY10" s="121"/>
+      <c r="AZ10" s="121"/>
+      <c r="BA10" s="121"/>
+      <c r="BB10" s="121"/>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A11" s="120">
+      <c r="A11" s="110">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="115"/>
-      <c r="L11" s="115"/>
-      <c r="M11" s="116"/>
-      <c r="N11" s="117"/>
-      <c r="O11" s="118"/>
-      <c r="P11" s="118"/>
-      <c r="Q11" s="118"/>
-      <c r="R11" s="118"/>
-      <c r="S11" s="118"/>
-      <c r="T11" s="118"/>
-      <c r="U11" s="118"/>
-      <c r="V11" s="118"/>
-      <c r="W11" s="118"/>
-      <c r="X11" s="118"/>
-      <c r="Y11" s="118"/>
-      <c r="Z11" s="119"/>
-      <c r="AA11" s="110"/>
-      <c r="AB11" s="110"/>
-      <c r="AC11" s="110"/>
-      <c r="AD11" s="110"/>
-      <c r="AE11" s="110"/>
-      <c r="AF11" s="110"/>
-      <c r="AG11" s="110"/>
-      <c r="AH11" s="110"/>
-      <c r="AI11" s="110"/>
-      <c r="AJ11" s="110"/>
-      <c r="AK11" s="110"/>
-      <c r="AL11" s="110"/>
-      <c r="AM11" s="110"/>
-      <c r="AN11" s="110"/>
-      <c r="AO11" s="110"/>
-      <c r="AP11" s="110"/>
-      <c r="AQ11" s="110"/>
-      <c r="AR11" s="110"/>
-      <c r="AS11" s="110"/>
-      <c r="AT11" s="110"/>
-      <c r="AU11" s="110"/>
-      <c r="AV11" s="110"/>
-      <c r="AW11" s="110"/>
-      <c r="AX11" s="110"/>
-      <c r="AY11" s="110"/>
-      <c r="AZ11" s="110"/>
-      <c r="BA11" s="110"/>
-      <c r="BB11" s="110"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="116"/>
+      <c r="L11" s="116"/>
+      <c r="M11" s="117"/>
+      <c r="N11" s="118"/>
+      <c r="O11" s="119"/>
+      <c r="P11" s="119"/>
+      <c r="Q11" s="119"/>
+      <c r="R11" s="119"/>
+      <c r="S11" s="119"/>
+      <c r="T11" s="119"/>
+      <c r="U11" s="119"/>
+      <c r="V11" s="119"/>
+      <c r="W11" s="119"/>
+      <c r="X11" s="119"/>
+      <c r="Y11" s="119"/>
+      <c r="Z11" s="120"/>
+      <c r="AA11" s="121"/>
+      <c r="AB11" s="121"/>
+      <c r="AC11" s="121"/>
+      <c r="AD11" s="121"/>
+      <c r="AE11" s="121"/>
+      <c r="AF11" s="121"/>
+      <c r="AG11" s="121"/>
+      <c r="AH11" s="121"/>
+      <c r="AI11" s="121"/>
+      <c r="AJ11" s="121"/>
+      <c r="AK11" s="121"/>
+      <c r="AL11" s="121"/>
+      <c r="AM11" s="121"/>
+      <c r="AN11" s="121"/>
+      <c r="AO11" s="121"/>
+      <c r="AP11" s="121"/>
+      <c r="AQ11" s="121"/>
+      <c r="AR11" s="121"/>
+      <c r="AS11" s="121"/>
+      <c r="AT11" s="121"/>
+      <c r="AU11" s="121"/>
+      <c r="AV11" s="121"/>
+      <c r="AW11" s="121"/>
+      <c r="AX11" s="121"/>
+      <c r="AY11" s="121"/>
+      <c r="AZ11" s="121"/>
+      <c r="BA11" s="121"/>
+      <c r="BB11" s="121"/>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A12" s="120">
+      <c r="A12" s="110">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="120"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="115"/>
-      <c r="L12" s="115"/>
-      <c r="M12" s="116"/>
-      <c r="N12" s="117"/>
-      <c r="O12" s="118"/>
-      <c r="P12" s="118"/>
-      <c r="Q12" s="118"/>
-      <c r="R12" s="118"/>
-      <c r="S12" s="118"/>
-      <c r="T12" s="118"/>
-      <c r="U12" s="118"/>
-      <c r="V12" s="118"/>
-      <c r="W12" s="118"/>
-      <c r="X12" s="118"/>
-      <c r="Y12" s="118"/>
-      <c r="Z12" s="119"/>
-      <c r="AA12" s="110"/>
-      <c r="AB12" s="110"/>
-      <c r="AC12" s="110"/>
-      <c r="AD12" s="110"/>
-      <c r="AE12" s="110"/>
-      <c r="AF12" s="110"/>
-      <c r="AG12" s="110"/>
-      <c r="AH12" s="110"/>
-      <c r="AI12" s="110"/>
-      <c r="AJ12" s="110"/>
-      <c r="AK12" s="110"/>
-      <c r="AL12" s="110"/>
-      <c r="AM12" s="110"/>
-      <c r="AN12" s="110"/>
-      <c r="AO12" s="110"/>
-      <c r="AP12" s="110"/>
-      <c r="AQ12" s="110"/>
-      <c r="AR12" s="110"/>
-      <c r="AS12" s="110"/>
-      <c r="AT12" s="110"/>
-      <c r="AU12" s="110"/>
-      <c r="AV12" s="110"/>
-      <c r="AW12" s="110"/>
-      <c r="AX12" s="110"/>
-      <c r="AY12" s="110"/>
-      <c r="AZ12" s="110"/>
-      <c r="BA12" s="110"/>
-      <c r="BB12" s="110"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="116"/>
+      <c r="K12" s="116"/>
+      <c r="L12" s="116"/>
+      <c r="M12" s="117"/>
+      <c r="N12" s="118"/>
+      <c r="O12" s="119"/>
+      <c r="P12" s="119"/>
+      <c r="Q12" s="119"/>
+      <c r="R12" s="119"/>
+      <c r="S12" s="119"/>
+      <c r="T12" s="119"/>
+      <c r="U12" s="119"/>
+      <c r="V12" s="119"/>
+      <c r="W12" s="119"/>
+      <c r="X12" s="119"/>
+      <c r="Y12" s="119"/>
+      <c r="Z12" s="120"/>
+      <c r="AA12" s="121"/>
+      <c r="AB12" s="121"/>
+      <c r="AC12" s="121"/>
+      <c r="AD12" s="121"/>
+      <c r="AE12" s="121"/>
+      <c r="AF12" s="121"/>
+      <c r="AG12" s="121"/>
+      <c r="AH12" s="121"/>
+      <c r="AI12" s="121"/>
+      <c r="AJ12" s="121"/>
+      <c r="AK12" s="121"/>
+      <c r="AL12" s="121"/>
+      <c r="AM12" s="121"/>
+      <c r="AN12" s="121"/>
+      <c r="AO12" s="121"/>
+      <c r="AP12" s="121"/>
+      <c r="AQ12" s="121"/>
+      <c r="AR12" s="121"/>
+      <c r="AS12" s="121"/>
+      <c r="AT12" s="121"/>
+      <c r="AU12" s="121"/>
+      <c r="AV12" s="121"/>
+      <c r="AW12" s="121"/>
+      <c r="AX12" s="121"/>
+      <c r="AY12" s="121"/>
+      <c r="AZ12" s="121"/>
+      <c r="BA12" s="121"/>
+      <c r="BB12" s="121"/>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A13" s="120">
+      <c r="A13" s="110">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="120"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="115"/>
-      <c r="L13" s="115"/>
-      <c r="M13" s="116"/>
-      <c r="N13" s="117"/>
-      <c r="O13" s="118"/>
-      <c r="P13" s="118"/>
-      <c r="Q13" s="118"/>
-      <c r="R13" s="118"/>
-      <c r="S13" s="118"/>
-      <c r="T13" s="118"/>
-      <c r="U13" s="118"/>
-      <c r="V13" s="118"/>
-      <c r="W13" s="118"/>
-      <c r="X13" s="118"/>
-      <c r="Y13" s="118"/>
-      <c r="Z13" s="119"/>
-      <c r="AA13" s="110"/>
-      <c r="AB13" s="110"/>
-      <c r="AC13" s="110"/>
-      <c r="AD13" s="110"/>
-      <c r="AE13" s="110"/>
-      <c r="AF13" s="110"/>
-      <c r="AG13" s="110"/>
-      <c r="AH13" s="110"/>
-      <c r="AI13" s="110"/>
-      <c r="AJ13" s="110"/>
-      <c r="AK13" s="110"/>
-      <c r="AL13" s="110"/>
-      <c r="AM13" s="110"/>
-      <c r="AN13" s="110"/>
-      <c r="AO13" s="110"/>
-      <c r="AP13" s="110"/>
-      <c r="AQ13" s="110"/>
-      <c r="AR13" s="110"/>
-      <c r="AS13" s="110"/>
-      <c r="AT13" s="110"/>
-      <c r="AU13" s="110"/>
-      <c r="AV13" s="110"/>
-      <c r="AW13" s="110"/>
-      <c r="AX13" s="110"/>
-      <c r="AY13" s="110"/>
-      <c r="AZ13" s="110"/>
-      <c r="BA13" s="110"/>
-      <c r="BB13" s="110"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="116"/>
+      <c r="L13" s="116"/>
+      <c r="M13" s="117"/>
+      <c r="N13" s="118"/>
+      <c r="O13" s="119"/>
+      <c r="P13" s="119"/>
+      <c r="Q13" s="119"/>
+      <c r="R13" s="119"/>
+      <c r="S13" s="119"/>
+      <c r="T13" s="119"/>
+      <c r="U13" s="119"/>
+      <c r="V13" s="119"/>
+      <c r="W13" s="119"/>
+      <c r="X13" s="119"/>
+      <c r="Y13" s="119"/>
+      <c r="Z13" s="120"/>
+      <c r="AA13" s="121"/>
+      <c r="AB13" s="121"/>
+      <c r="AC13" s="121"/>
+      <c r="AD13" s="121"/>
+      <c r="AE13" s="121"/>
+      <c r="AF13" s="121"/>
+      <c r="AG13" s="121"/>
+      <c r="AH13" s="121"/>
+      <c r="AI13" s="121"/>
+      <c r="AJ13" s="121"/>
+      <c r="AK13" s="121"/>
+      <c r="AL13" s="121"/>
+      <c r="AM13" s="121"/>
+      <c r="AN13" s="121"/>
+      <c r="AO13" s="121"/>
+      <c r="AP13" s="121"/>
+      <c r="AQ13" s="121"/>
+      <c r="AR13" s="121"/>
+      <c r="AS13" s="121"/>
+      <c r="AT13" s="121"/>
+      <c r="AU13" s="121"/>
+      <c r="AV13" s="121"/>
+      <c r="AW13" s="121"/>
+      <c r="AX13" s="121"/>
+      <c r="AY13" s="121"/>
+      <c r="AZ13" s="121"/>
+      <c r="BA13" s="121"/>
+      <c r="BB13" s="121"/>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A14" s="120">
+      <c r="A14" s="110">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="115"/>
-      <c r="K14" s="115"/>
-      <c r="L14" s="115"/>
-      <c r="M14" s="116"/>
-      <c r="N14" s="117"/>
-      <c r="O14" s="118"/>
-      <c r="P14" s="118"/>
-      <c r="Q14" s="118"/>
-      <c r="R14" s="118"/>
-      <c r="S14" s="118"/>
-      <c r="T14" s="118"/>
-      <c r="U14" s="118"/>
-      <c r="V14" s="118"/>
-      <c r="W14" s="118"/>
-      <c r="X14" s="118"/>
-      <c r="Y14" s="118"/>
-      <c r="Z14" s="119"/>
-      <c r="AA14" s="110"/>
-      <c r="AB14" s="110"/>
-      <c r="AC14" s="110"/>
-      <c r="AD14" s="110"/>
-      <c r="AE14" s="110"/>
-      <c r="AF14" s="110"/>
-      <c r="AG14" s="110"/>
-      <c r="AH14" s="110"/>
-      <c r="AI14" s="110"/>
-      <c r="AJ14" s="110"/>
-      <c r="AK14" s="110"/>
-      <c r="AL14" s="110"/>
-      <c r="AM14" s="110"/>
-      <c r="AN14" s="110"/>
-      <c r="AO14" s="110"/>
-      <c r="AP14" s="110"/>
-      <c r="AQ14" s="110"/>
-      <c r="AR14" s="110"/>
-      <c r="AS14" s="110"/>
-      <c r="AT14" s="110"/>
-      <c r="AU14" s="110"/>
-      <c r="AV14" s="110"/>
-      <c r="AW14" s="110"/>
-      <c r="AX14" s="110"/>
-      <c r="AY14" s="110"/>
-      <c r="AZ14" s="110"/>
-      <c r="BA14" s="110"/>
-      <c r="BB14" s="110"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="116"/>
+      <c r="K14" s="116"/>
+      <c r="L14" s="116"/>
+      <c r="M14" s="117"/>
+      <c r="N14" s="118"/>
+      <c r="O14" s="119"/>
+      <c r="P14" s="119"/>
+      <c r="Q14" s="119"/>
+      <c r="R14" s="119"/>
+      <c r="S14" s="119"/>
+      <c r="T14" s="119"/>
+      <c r="U14" s="119"/>
+      <c r="V14" s="119"/>
+      <c r="W14" s="119"/>
+      <c r="X14" s="119"/>
+      <c r="Y14" s="119"/>
+      <c r="Z14" s="120"/>
+      <c r="AA14" s="121"/>
+      <c r="AB14" s="121"/>
+      <c r="AC14" s="121"/>
+      <c r="AD14" s="121"/>
+      <c r="AE14" s="121"/>
+      <c r="AF14" s="121"/>
+      <c r="AG14" s="121"/>
+      <c r="AH14" s="121"/>
+      <c r="AI14" s="121"/>
+      <c r="AJ14" s="121"/>
+      <c r="AK14" s="121"/>
+      <c r="AL14" s="121"/>
+      <c r="AM14" s="121"/>
+      <c r="AN14" s="121"/>
+      <c r="AO14" s="121"/>
+      <c r="AP14" s="121"/>
+      <c r="AQ14" s="121"/>
+      <c r="AR14" s="121"/>
+      <c r="AS14" s="121"/>
+      <c r="AT14" s="121"/>
+      <c r="AU14" s="121"/>
+      <c r="AV14" s="121"/>
+      <c r="AW14" s="121"/>
+      <c r="AX14" s="121"/>
+      <c r="AY14" s="121"/>
+      <c r="AZ14" s="121"/>
+      <c r="BA14" s="121"/>
+      <c r="BB14" s="121"/>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A15" s="120">
+      <c r="A15" s="110">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="120"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="115"/>
-      <c r="M15" s="116"/>
-      <c r="N15" s="117"/>
-      <c r="O15" s="118"/>
-      <c r="P15" s="118"/>
-      <c r="Q15" s="118"/>
-      <c r="R15" s="118"/>
-      <c r="S15" s="118"/>
-      <c r="T15" s="118"/>
-      <c r="U15" s="118"/>
-      <c r="V15" s="118"/>
-      <c r="W15" s="118"/>
-      <c r="X15" s="118"/>
-      <c r="Y15" s="118"/>
-      <c r="Z15" s="119"/>
-      <c r="AA15" s="110"/>
-      <c r="AB15" s="110"/>
-      <c r="AC15" s="110"/>
-      <c r="AD15" s="110"/>
-      <c r="AE15" s="110"/>
-      <c r="AF15" s="110"/>
-      <c r="AG15" s="110"/>
-      <c r="AH15" s="110"/>
-      <c r="AI15" s="110"/>
-      <c r="AJ15" s="110"/>
-      <c r="AK15" s="110"/>
-      <c r="AL15" s="110"/>
-      <c r="AM15" s="110"/>
-      <c r="AN15" s="110"/>
-      <c r="AO15" s="110"/>
-      <c r="AP15" s="110"/>
-      <c r="AQ15" s="110"/>
-      <c r="AR15" s="110"/>
-      <c r="AS15" s="110"/>
-      <c r="AT15" s="110"/>
-      <c r="AU15" s="110"/>
-      <c r="AV15" s="110"/>
-      <c r="AW15" s="110"/>
-      <c r="AX15" s="110"/>
-      <c r="AY15" s="110"/>
-      <c r="AZ15" s="110"/>
-      <c r="BA15" s="110"/>
-      <c r="BB15" s="110"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="116"/>
+      <c r="K15" s="116"/>
+      <c r="L15" s="116"/>
+      <c r="M15" s="117"/>
+      <c r="N15" s="118"/>
+      <c r="O15" s="119"/>
+      <c r="P15" s="119"/>
+      <c r="Q15" s="119"/>
+      <c r="R15" s="119"/>
+      <c r="S15" s="119"/>
+      <c r="T15" s="119"/>
+      <c r="U15" s="119"/>
+      <c r="V15" s="119"/>
+      <c r="W15" s="119"/>
+      <c r="X15" s="119"/>
+      <c r="Y15" s="119"/>
+      <c r="Z15" s="120"/>
+      <c r="AA15" s="121"/>
+      <c r="AB15" s="121"/>
+      <c r="AC15" s="121"/>
+      <c r="AD15" s="121"/>
+      <c r="AE15" s="121"/>
+      <c r="AF15" s="121"/>
+      <c r="AG15" s="121"/>
+      <c r="AH15" s="121"/>
+      <c r="AI15" s="121"/>
+      <c r="AJ15" s="121"/>
+      <c r="AK15" s="121"/>
+      <c r="AL15" s="121"/>
+      <c r="AM15" s="121"/>
+      <c r="AN15" s="121"/>
+      <c r="AO15" s="121"/>
+      <c r="AP15" s="121"/>
+      <c r="AQ15" s="121"/>
+      <c r="AR15" s="121"/>
+      <c r="AS15" s="121"/>
+      <c r="AT15" s="121"/>
+      <c r="AU15" s="121"/>
+      <c r="AV15" s="121"/>
+      <c r="AW15" s="121"/>
+      <c r="AX15" s="121"/>
+      <c r="AY15" s="121"/>
+      <c r="AZ15" s="121"/>
+      <c r="BA15" s="121"/>
+      <c r="BB15" s="121"/>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A16" s="120">
+      <c r="A16" s="110">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="120"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="121"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
-      <c r="M16" s="116"/>
-      <c r="N16" s="117"/>
-      <c r="O16" s="118"/>
-      <c r="P16" s="118"/>
-      <c r="Q16" s="118"/>
-      <c r="R16" s="118"/>
-      <c r="S16" s="118"/>
-      <c r="T16" s="118"/>
-      <c r="U16" s="118"/>
-      <c r="V16" s="118"/>
-      <c r="W16" s="118"/>
-      <c r="X16" s="118"/>
-      <c r="Y16" s="118"/>
-      <c r="Z16" s="119"/>
-      <c r="AA16" s="110"/>
-      <c r="AB16" s="110"/>
-      <c r="AC16" s="110"/>
-      <c r="AD16" s="110"/>
-      <c r="AE16" s="110"/>
-      <c r="AF16" s="110"/>
-      <c r="AG16" s="110"/>
-      <c r="AH16" s="110"/>
-      <c r="AI16" s="110"/>
-      <c r="AJ16" s="110"/>
-      <c r="AK16" s="110"/>
-      <c r="AL16" s="110"/>
-      <c r="AM16" s="110"/>
-      <c r="AN16" s="110"/>
-      <c r="AO16" s="110"/>
-      <c r="AP16" s="110"/>
-      <c r="AQ16" s="110"/>
-      <c r="AR16" s="110"/>
-      <c r="AS16" s="110"/>
-      <c r="AT16" s="110"/>
-      <c r="AU16" s="110"/>
-      <c r="AV16" s="110"/>
-      <c r="AW16" s="110"/>
-      <c r="AX16" s="110"/>
-      <c r="AY16" s="110"/>
-      <c r="AZ16" s="110"/>
-      <c r="BA16" s="110"/>
-      <c r="BB16" s="110"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
+      <c r="M16" s="117"/>
+      <c r="N16" s="118"/>
+      <c r="O16" s="119"/>
+      <c r="P16" s="119"/>
+      <c r="Q16" s="119"/>
+      <c r="R16" s="119"/>
+      <c r="S16" s="119"/>
+      <c r="T16" s="119"/>
+      <c r="U16" s="119"/>
+      <c r="V16" s="119"/>
+      <c r="W16" s="119"/>
+      <c r="X16" s="119"/>
+      <c r="Y16" s="119"/>
+      <c r="Z16" s="120"/>
+      <c r="AA16" s="121"/>
+      <c r="AB16" s="121"/>
+      <c r="AC16" s="121"/>
+      <c r="AD16" s="121"/>
+      <c r="AE16" s="121"/>
+      <c r="AF16" s="121"/>
+      <c r="AG16" s="121"/>
+      <c r="AH16" s="121"/>
+      <c r="AI16" s="121"/>
+      <c r="AJ16" s="121"/>
+      <c r="AK16" s="121"/>
+      <c r="AL16" s="121"/>
+      <c r="AM16" s="121"/>
+      <c r="AN16" s="121"/>
+      <c r="AO16" s="121"/>
+      <c r="AP16" s="121"/>
+      <c r="AQ16" s="121"/>
+      <c r="AR16" s="121"/>
+      <c r="AS16" s="121"/>
+      <c r="AT16" s="121"/>
+      <c r="AU16" s="121"/>
+      <c r="AV16" s="121"/>
+      <c r="AW16" s="121"/>
+      <c r="AX16" s="121"/>
+      <c r="AY16" s="121"/>
+      <c r="AZ16" s="121"/>
+      <c r="BA16" s="121"/>
+      <c r="BB16" s="121"/>
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A17" s="120">
+      <c r="A17" s="110">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="120"/>
-      <c r="C17" s="121"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="121"/>
-      <c r="F17" s="121"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="115"/>
-      <c r="M17" s="116"/>
-      <c r="N17" s="117"/>
-      <c r="O17" s="118"/>
-      <c r="P17" s="118"/>
-      <c r="Q17" s="118"/>
-      <c r="R17" s="118"/>
-      <c r="S17" s="118"/>
-      <c r="T17" s="118"/>
-      <c r="U17" s="118"/>
-      <c r="V17" s="118"/>
-      <c r="W17" s="118"/>
-      <c r="X17" s="118"/>
-      <c r="Y17" s="118"/>
-      <c r="Z17" s="119"/>
-      <c r="AA17" s="110"/>
-      <c r="AB17" s="110"/>
-      <c r="AC17" s="110"/>
-      <c r="AD17" s="110"/>
-      <c r="AE17" s="110"/>
-      <c r="AF17" s="110"/>
-      <c r="AG17" s="110"/>
-      <c r="AH17" s="110"/>
-      <c r="AI17" s="110"/>
-      <c r="AJ17" s="110"/>
-      <c r="AK17" s="110"/>
-      <c r="AL17" s="110"/>
-      <c r="AM17" s="110"/>
-      <c r="AN17" s="110"/>
-      <c r="AO17" s="110"/>
-      <c r="AP17" s="110"/>
-      <c r="AQ17" s="110"/>
-      <c r="AR17" s="110"/>
-      <c r="AS17" s="110"/>
-      <c r="AT17" s="110"/>
-      <c r="AU17" s="110"/>
-      <c r="AV17" s="110"/>
-      <c r="AW17" s="110"/>
-      <c r="AX17" s="110"/>
-      <c r="AY17" s="110"/>
-      <c r="AZ17" s="110"/>
-      <c r="BA17" s="110"/>
-      <c r="BB17" s="110"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="116"/>
+      <c r="K17" s="116"/>
+      <c r="L17" s="116"/>
+      <c r="M17" s="117"/>
+      <c r="N17" s="118"/>
+      <c r="O17" s="119"/>
+      <c r="P17" s="119"/>
+      <c r="Q17" s="119"/>
+      <c r="R17" s="119"/>
+      <c r="S17" s="119"/>
+      <c r="T17" s="119"/>
+      <c r="U17" s="119"/>
+      <c r="V17" s="119"/>
+      <c r="W17" s="119"/>
+      <c r="X17" s="119"/>
+      <c r="Y17" s="119"/>
+      <c r="Z17" s="120"/>
+      <c r="AA17" s="121"/>
+      <c r="AB17" s="121"/>
+      <c r="AC17" s="121"/>
+      <c r="AD17" s="121"/>
+      <c r="AE17" s="121"/>
+      <c r="AF17" s="121"/>
+      <c r="AG17" s="121"/>
+      <c r="AH17" s="121"/>
+      <c r="AI17" s="121"/>
+      <c r="AJ17" s="121"/>
+      <c r="AK17" s="121"/>
+      <c r="AL17" s="121"/>
+      <c r="AM17" s="121"/>
+      <c r="AN17" s="121"/>
+      <c r="AO17" s="121"/>
+      <c r="AP17" s="121"/>
+      <c r="AQ17" s="121"/>
+      <c r="AR17" s="121"/>
+      <c r="AS17" s="121"/>
+      <c r="AT17" s="121"/>
+      <c r="AU17" s="121"/>
+      <c r="AV17" s="121"/>
+      <c r="AW17" s="121"/>
+      <c r="AX17" s="121"/>
+      <c r="AY17" s="121"/>
+      <c r="AZ17" s="121"/>
+      <c r="BA17" s="121"/>
+      <c r="BB17" s="121"/>
     </row>
     <row r="18" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A18" s="120">
+      <c r="A18" s="110">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="120"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="114"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="115"/>
-      <c r="K18" s="115"/>
-      <c r="L18" s="115"/>
-      <c r="M18" s="116"/>
-      <c r="N18" s="117"/>
-      <c r="O18" s="118"/>
-      <c r="P18" s="118"/>
-      <c r="Q18" s="118"/>
-      <c r="R18" s="118"/>
-      <c r="S18" s="118"/>
-      <c r="T18" s="118"/>
-      <c r="U18" s="118"/>
-      <c r="V18" s="118"/>
-      <c r="W18" s="118"/>
-      <c r="X18" s="118"/>
-      <c r="Y18" s="118"/>
-      <c r="Z18" s="119"/>
-      <c r="AA18" s="117"/>
-      <c r="AB18" s="118"/>
-      <c r="AC18" s="118"/>
-      <c r="AD18" s="118"/>
-      <c r="AE18" s="118"/>
-      <c r="AF18" s="118"/>
-      <c r="AG18" s="118"/>
-      <c r="AH18" s="118"/>
-      <c r="AI18" s="118"/>
-      <c r="AJ18" s="118"/>
-      <c r="AK18" s="118"/>
-      <c r="AL18" s="118"/>
-      <c r="AM18" s="118"/>
-      <c r="AN18" s="118"/>
-      <c r="AO18" s="118"/>
-      <c r="AP18" s="118"/>
-      <c r="AQ18" s="118"/>
-      <c r="AR18" s="118"/>
-      <c r="AS18" s="118"/>
-      <c r="AT18" s="118"/>
-      <c r="AU18" s="118"/>
-      <c r="AV18" s="118"/>
-      <c r="AW18" s="118"/>
-      <c r="AX18" s="118"/>
-      <c r="AY18" s="118"/>
-      <c r="AZ18" s="118"/>
-      <c r="BA18" s="118"/>
-      <c r="BB18" s="119"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="124"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="116"/>
+      <c r="K18" s="116"/>
+      <c r="L18" s="116"/>
+      <c r="M18" s="117"/>
+      <c r="N18" s="118"/>
+      <c r="O18" s="119"/>
+      <c r="P18" s="119"/>
+      <c r="Q18" s="119"/>
+      <c r="R18" s="119"/>
+      <c r="S18" s="119"/>
+      <c r="T18" s="119"/>
+      <c r="U18" s="119"/>
+      <c r="V18" s="119"/>
+      <c r="W18" s="119"/>
+      <c r="X18" s="119"/>
+      <c r="Y18" s="119"/>
+      <c r="Z18" s="120"/>
+      <c r="AA18" s="118"/>
+      <c r="AB18" s="119"/>
+      <c r="AC18" s="119"/>
+      <c r="AD18" s="119"/>
+      <c r="AE18" s="119"/>
+      <c r="AF18" s="119"/>
+      <c r="AG18" s="119"/>
+      <c r="AH18" s="119"/>
+      <c r="AI18" s="119"/>
+      <c r="AJ18" s="119"/>
+      <c r="AK18" s="119"/>
+      <c r="AL18" s="119"/>
+      <c r="AM18" s="119"/>
+      <c r="AN18" s="119"/>
+      <c r="AO18" s="119"/>
+      <c r="AP18" s="119"/>
+      <c r="AQ18" s="119"/>
+      <c r="AR18" s="119"/>
+      <c r="AS18" s="119"/>
+      <c r="AT18" s="119"/>
+      <c r="AU18" s="119"/>
+      <c r="AV18" s="119"/>
+      <c r="AW18" s="119"/>
+      <c r="AX18" s="119"/>
+      <c r="AY18" s="119"/>
+      <c r="AZ18" s="119"/>
+      <c r="BA18" s="119"/>
+      <c r="BB18" s="120"/>
     </row>
     <row r="19" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A19" s="120">
+      <c r="A19" s="110">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="120"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="115"/>
-      <c r="K19" s="115"/>
-      <c r="L19" s="115"/>
-      <c r="M19" s="116"/>
-      <c r="N19" s="117"/>
-      <c r="O19" s="118"/>
-      <c r="P19" s="118"/>
-      <c r="Q19" s="118"/>
-      <c r="R19" s="118"/>
-      <c r="S19" s="118"/>
-      <c r="T19" s="118"/>
-      <c r="U19" s="118"/>
-      <c r="V19" s="118"/>
-      <c r="W19" s="118"/>
-      <c r="X19" s="118"/>
-      <c r="Y19" s="118"/>
-      <c r="Z19" s="119"/>
-      <c r="AA19" s="117"/>
-      <c r="AB19" s="118"/>
-      <c r="AC19" s="118"/>
-      <c r="AD19" s="118"/>
-      <c r="AE19" s="118"/>
-      <c r="AF19" s="118"/>
-      <c r="AG19" s="118"/>
-      <c r="AH19" s="118"/>
-      <c r="AI19" s="118"/>
-      <c r="AJ19" s="118"/>
-      <c r="AK19" s="118"/>
-      <c r="AL19" s="118"/>
-      <c r="AM19" s="118"/>
-      <c r="AN19" s="118"/>
-      <c r="AO19" s="118"/>
-      <c r="AP19" s="118"/>
-      <c r="AQ19" s="118"/>
-      <c r="AR19" s="118"/>
-      <c r="AS19" s="118"/>
-      <c r="AT19" s="118"/>
-      <c r="AU19" s="118"/>
-      <c r="AV19" s="118"/>
-      <c r="AW19" s="118"/>
-      <c r="AX19" s="118"/>
-      <c r="AY19" s="118"/>
-      <c r="AZ19" s="118"/>
-      <c r="BA19" s="118"/>
-      <c r="BB19" s="119"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="124"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="116"/>
+      <c r="L19" s="116"/>
+      <c r="M19" s="117"/>
+      <c r="N19" s="118"/>
+      <c r="O19" s="119"/>
+      <c r="P19" s="119"/>
+      <c r="Q19" s="119"/>
+      <c r="R19" s="119"/>
+      <c r="S19" s="119"/>
+      <c r="T19" s="119"/>
+      <c r="U19" s="119"/>
+      <c r="V19" s="119"/>
+      <c r="W19" s="119"/>
+      <c r="X19" s="119"/>
+      <c r="Y19" s="119"/>
+      <c r="Z19" s="120"/>
+      <c r="AA19" s="118"/>
+      <c r="AB19" s="119"/>
+      <c r="AC19" s="119"/>
+      <c r="AD19" s="119"/>
+      <c r="AE19" s="119"/>
+      <c r="AF19" s="119"/>
+      <c r="AG19" s="119"/>
+      <c r="AH19" s="119"/>
+      <c r="AI19" s="119"/>
+      <c r="AJ19" s="119"/>
+      <c r="AK19" s="119"/>
+      <c r="AL19" s="119"/>
+      <c r="AM19" s="119"/>
+      <c r="AN19" s="119"/>
+      <c r="AO19" s="119"/>
+      <c r="AP19" s="119"/>
+      <c r="AQ19" s="119"/>
+      <c r="AR19" s="119"/>
+      <c r="AS19" s="119"/>
+      <c r="AT19" s="119"/>
+      <c r="AU19" s="119"/>
+      <c r="AV19" s="119"/>
+      <c r="AW19" s="119"/>
+      <c r="AX19" s="119"/>
+      <c r="AY19" s="119"/>
+      <c r="AZ19" s="119"/>
+      <c r="BA19" s="119"/>
+      <c r="BB19" s="120"/>
     </row>
     <row r="20" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A20" s="120">
+      <c r="A20" s="110">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="120"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="115"/>
-      <c r="K20" s="115"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="116"/>
-      <c r="N20" s="117"/>
-      <c r="O20" s="118"/>
-      <c r="P20" s="118"/>
-      <c r="Q20" s="118"/>
-      <c r="R20" s="118"/>
-      <c r="S20" s="118"/>
-      <c r="T20" s="118"/>
-      <c r="U20" s="118"/>
-      <c r="V20" s="118"/>
-      <c r="W20" s="118"/>
-      <c r="X20" s="118"/>
-      <c r="Y20" s="118"/>
-      <c r="Z20" s="119"/>
-      <c r="AA20" s="117"/>
-      <c r="AB20" s="118"/>
-      <c r="AC20" s="118"/>
-      <c r="AD20" s="118"/>
-      <c r="AE20" s="118"/>
-      <c r="AF20" s="118"/>
-      <c r="AG20" s="118"/>
-      <c r="AH20" s="118"/>
-      <c r="AI20" s="118"/>
-      <c r="AJ20" s="118"/>
-      <c r="AK20" s="118"/>
-      <c r="AL20" s="118"/>
-      <c r="AM20" s="118"/>
-      <c r="AN20" s="118"/>
-      <c r="AO20" s="118"/>
-      <c r="AP20" s="118"/>
-      <c r="AQ20" s="118"/>
-      <c r="AR20" s="118"/>
-      <c r="AS20" s="118"/>
-      <c r="AT20" s="118"/>
-      <c r="AU20" s="118"/>
-      <c r="AV20" s="118"/>
-      <c r="AW20" s="118"/>
-      <c r="AX20" s="118"/>
-      <c r="AY20" s="118"/>
-      <c r="AZ20" s="118"/>
-      <c r="BA20" s="118"/>
-      <c r="BB20" s="119"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="124"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="116"/>
+      <c r="K20" s="116"/>
+      <c r="L20" s="116"/>
+      <c r="M20" s="117"/>
+      <c r="N20" s="118"/>
+      <c r="O20" s="119"/>
+      <c r="P20" s="119"/>
+      <c r="Q20" s="119"/>
+      <c r="R20" s="119"/>
+      <c r="S20" s="119"/>
+      <c r="T20" s="119"/>
+      <c r="U20" s="119"/>
+      <c r="V20" s="119"/>
+      <c r="W20" s="119"/>
+      <c r="X20" s="119"/>
+      <c r="Y20" s="119"/>
+      <c r="Z20" s="120"/>
+      <c r="AA20" s="118"/>
+      <c r="AB20" s="119"/>
+      <c r="AC20" s="119"/>
+      <c r="AD20" s="119"/>
+      <c r="AE20" s="119"/>
+      <c r="AF20" s="119"/>
+      <c r="AG20" s="119"/>
+      <c r="AH20" s="119"/>
+      <c r="AI20" s="119"/>
+      <c r="AJ20" s="119"/>
+      <c r="AK20" s="119"/>
+      <c r="AL20" s="119"/>
+      <c r="AM20" s="119"/>
+      <c r="AN20" s="119"/>
+      <c r="AO20" s="119"/>
+      <c r="AP20" s="119"/>
+      <c r="AQ20" s="119"/>
+      <c r="AR20" s="119"/>
+      <c r="AS20" s="119"/>
+      <c r="AT20" s="119"/>
+      <c r="AU20" s="119"/>
+      <c r="AV20" s="119"/>
+      <c r="AW20" s="119"/>
+      <c r="AX20" s="119"/>
+      <c r="AY20" s="119"/>
+      <c r="AZ20" s="119"/>
+      <c r="BA20" s="119"/>
+      <c r="BB20" s="120"/>
     </row>
     <row r="21" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A21" s="120">
+      <c r="A21" s="110">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="120"/>
-      <c r="C21" s="111"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="115"/>
-      <c r="K21" s="115"/>
-      <c r="L21" s="115"/>
-      <c r="M21" s="116"/>
-      <c r="N21" s="117"/>
-      <c r="O21" s="118"/>
-      <c r="P21" s="118"/>
-      <c r="Q21" s="118"/>
-      <c r="R21" s="118"/>
-      <c r="S21" s="118"/>
-      <c r="T21" s="118"/>
-      <c r="U21" s="118"/>
-      <c r="V21" s="118"/>
-      <c r="W21" s="118"/>
-      <c r="X21" s="118"/>
-      <c r="Y21" s="118"/>
-      <c r="Z21" s="119"/>
-      <c r="AA21" s="117"/>
-      <c r="AB21" s="118"/>
-      <c r="AC21" s="118"/>
-      <c r="AD21" s="118"/>
-      <c r="AE21" s="118"/>
-      <c r="AF21" s="118"/>
-      <c r="AG21" s="118"/>
-      <c r="AH21" s="118"/>
-      <c r="AI21" s="118"/>
-      <c r="AJ21" s="118"/>
-      <c r="AK21" s="118"/>
-      <c r="AL21" s="118"/>
-      <c r="AM21" s="118"/>
-      <c r="AN21" s="118"/>
-      <c r="AO21" s="118"/>
-      <c r="AP21" s="118"/>
-      <c r="AQ21" s="118"/>
-      <c r="AR21" s="118"/>
-      <c r="AS21" s="118"/>
-      <c r="AT21" s="118"/>
-      <c r="AU21" s="118"/>
-      <c r="AV21" s="118"/>
-      <c r="AW21" s="118"/>
-      <c r="AX21" s="118"/>
-      <c r="AY21" s="118"/>
-      <c r="AZ21" s="118"/>
-      <c r="BA21" s="118"/>
-      <c r="BB21" s="119"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="124"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="116"/>
+      <c r="K21" s="116"/>
+      <c r="L21" s="116"/>
+      <c r="M21" s="117"/>
+      <c r="N21" s="118"/>
+      <c r="O21" s="119"/>
+      <c r="P21" s="119"/>
+      <c r="Q21" s="119"/>
+      <c r="R21" s="119"/>
+      <c r="S21" s="119"/>
+      <c r="T21" s="119"/>
+      <c r="U21" s="119"/>
+      <c r="V21" s="119"/>
+      <c r="W21" s="119"/>
+      <c r="X21" s="119"/>
+      <c r="Y21" s="119"/>
+      <c r="Z21" s="120"/>
+      <c r="AA21" s="118"/>
+      <c r="AB21" s="119"/>
+      <c r="AC21" s="119"/>
+      <c r="AD21" s="119"/>
+      <c r="AE21" s="119"/>
+      <c r="AF21" s="119"/>
+      <c r="AG21" s="119"/>
+      <c r="AH21" s="119"/>
+      <c r="AI21" s="119"/>
+      <c r="AJ21" s="119"/>
+      <c r="AK21" s="119"/>
+      <c r="AL21" s="119"/>
+      <c r="AM21" s="119"/>
+      <c r="AN21" s="119"/>
+      <c r="AO21" s="119"/>
+      <c r="AP21" s="119"/>
+      <c r="AQ21" s="119"/>
+      <c r="AR21" s="119"/>
+      <c r="AS21" s="119"/>
+      <c r="AT21" s="119"/>
+      <c r="AU21" s="119"/>
+      <c r="AV21" s="119"/>
+      <c r="AW21" s="119"/>
+      <c r="AX21" s="119"/>
+      <c r="AY21" s="119"/>
+      <c r="AZ21" s="119"/>
+      <c r="BA21" s="119"/>
+      <c r="BB21" s="120"/>
     </row>
     <row r="22" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A22" s="110">
+      <c r="A22" s="121">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="110"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="115"/>
-      <c r="K22" s="115"/>
-      <c r="L22" s="115"/>
-      <c r="M22" s="116"/>
-      <c r="N22" s="117"/>
-      <c r="O22" s="118"/>
-      <c r="P22" s="118"/>
-      <c r="Q22" s="118"/>
-      <c r="R22" s="118"/>
-      <c r="S22" s="118"/>
-      <c r="T22" s="118"/>
-      <c r="U22" s="118"/>
-      <c r="V22" s="118"/>
-      <c r="W22" s="118"/>
-      <c r="X22" s="118"/>
-      <c r="Y22" s="118"/>
-      <c r="Z22" s="119"/>
-      <c r="AA22" s="117"/>
-      <c r="AB22" s="118"/>
-      <c r="AC22" s="118"/>
-      <c r="AD22" s="118"/>
-      <c r="AE22" s="118"/>
-      <c r="AF22" s="118"/>
-      <c r="AG22" s="118"/>
-      <c r="AH22" s="118"/>
-      <c r="AI22" s="118"/>
-      <c r="AJ22" s="118"/>
-      <c r="AK22" s="118"/>
-      <c r="AL22" s="118"/>
-      <c r="AM22" s="118"/>
-      <c r="AN22" s="118"/>
-      <c r="AO22" s="118"/>
-      <c r="AP22" s="118"/>
-      <c r="AQ22" s="118"/>
-      <c r="AR22" s="118"/>
-      <c r="AS22" s="118"/>
-      <c r="AT22" s="118"/>
-      <c r="AU22" s="118"/>
-      <c r="AV22" s="118"/>
-      <c r="AW22" s="118"/>
-      <c r="AX22" s="118"/>
-      <c r="AY22" s="118"/>
-      <c r="AZ22" s="118"/>
-      <c r="BA22" s="118"/>
-      <c r="BB22" s="119"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="124"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="116"/>
+      <c r="K22" s="116"/>
+      <c r="L22" s="116"/>
+      <c r="M22" s="117"/>
+      <c r="N22" s="118"/>
+      <c r="O22" s="119"/>
+      <c r="P22" s="119"/>
+      <c r="Q22" s="119"/>
+      <c r="R22" s="119"/>
+      <c r="S22" s="119"/>
+      <c r="T22" s="119"/>
+      <c r="U22" s="119"/>
+      <c r="V22" s="119"/>
+      <c r="W22" s="119"/>
+      <c r="X22" s="119"/>
+      <c r="Y22" s="119"/>
+      <c r="Z22" s="120"/>
+      <c r="AA22" s="118"/>
+      <c r="AB22" s="119"/>
+      <c r="AC22" s="119"/>
+      <c r="AD22" s="119"/>
+      <c r="AE22" s="119"/>
+      <c r="AF22" s="119"/>
+      <c r="AG22" s="119"/>
+      <c r="AH22" s="119"/>
+      <c r="AI22" s="119"/>
+      <c r="AJ22" s="119"/>
+      <c r="AK22" s="119"/>
+      <c r="AL22" s="119"/>
+      <c r="AM22" s="119"/>
+      <c r="AN22" s="119"/>
+      <c r="AO22" s="119"/>
+      <c r="AP22" s="119"/>
+      <c r="AQ22" s="119"/>
+      <c r="AR22" s="119"/>
+      <c r="AS22" s="119"/>
+      <c r="AT22" s="119"/>
+      <c r="AU22" s="119"/>
+      <c r="AV22" s="119"/>
+      <c r="AW22" s="119"/>
+      <c r="AX22" s="119"/>
+      <c r="AY22" s="119"/>
+      <c r="AZ22" s="119"/>
+      <c r="BA22" s="119"/>
+      <c r="BB22" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="105">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="N2:Z2"/>
-    <mergeCell ref="AA2:BB2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="N3:Z3"/>
-    <mergeCell ref="AA3:BB3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:Z4"/>
-    <mergeCell ref="AA4:BB4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="N5:Z5"/>
-    <mergeCell ref="AA5:BB5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="N6:Z6"/>
-    <mergeCell ref="AA6:BB6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="N7:Z7"/>
-    <mergeCell ref="AA7:BB7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="N8:Z8"/>
-    <mergeCell ref="AA8:BB8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="N9:Z9"/>
-    <mergeCell ref="AA9:BB9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="N10:Z10"/>
-    <mergeCell ref="AA10:BB10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="N11:Z11"/>
-    <mergeCell ref="AA11:BB11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="N12:Z12"/>
-    <mergeCell ref="AA12:BB12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="N13:Z13"/>
-    <mergeCell ref="AA13:BB13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="N14:Z14"/>
-    <mergeCell ref="AA14:BB14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="N15:Z15"/>
-    <mergeCell ref="AA15:BB15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="N16:Z16"/>
-    <mergeCell ref="AA16:BB16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="N17:Z17"/>
-    <mergeCell ref="AA17:BB17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="N18:Z18"/>
-    <mergeCell ref="AA18:BB18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="N19:Z19"/>
-    <mergeCell ref="AA19:BB19"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="H22:M22"/>
@@ -7660,6 +7579,96 @@
     <mergeCell ref="H21:M21"/>
     <mergeCell ref="N21:Z21"/>
     <mergeCell ref="AA21:BB21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="N18:Z18"/>
+    <mergeCell ref="AA18:BB18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="N19:Z19"/>
+    <mergeCell ref="AA19:BB19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="N16:Z16"/>
+    <mergeCell ref="AA16:BB16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="N17:Z17"/>
+    <mergeCell ref="AA17:BB17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="N14:Z14"/>
+    <mergeCell ref="AA14:BB14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="N15:Z15"/>
+    <mergeCell ref="AA15:BB15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="N12:Z12"/>
+    <mergeCell ref="AA12:BB12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="N13:Z13"/>
+    <mergeCell ref="AA13:BB13"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="N10:Z10"/>
+    <mergeCell ref="AA10:BB10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:Z11"/>
+    <mergeCell ref="AA11:BB11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="N8:Z8"/>
+    <mergeCell ref="AA8:BB8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="N9:Z9"/>
+    <mergeCell ref="AA9:BB9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="N6:Z6"/>
+    <mergeCell ref="AA6:BB6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="N7:Z7"/>
+    <mergeCell ref="AA7:BB7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:Z4"/>
+    <mergeCell ref="AA4:BB4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="N5:Z5"/>
+    <mergeCell ref="AA5:BB5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="N2:Z2"/>
+    <mergeCell ref="AA2:BB2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="N3:Z3"/>
+    <mergeCell ref="AA3:BB3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7668,15 +7677,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13">
@@ -7685,6 +7685,15 @@
     <TaxCatchAll xmlns="675b6bc6-fb4a-4724-a080-4fd9de868aa1" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7883,20 +7892,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5E6D1CF-0629-4A7C-8AAA-0D707E5B03BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C42BEBA-31D4-47B4-B77A-2909DE49451E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
     <ds:schemaRef ds:uri="675b6bc6-fb4a-4724-a080-4fd9de868aa1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5E6D1CF-0629-4A7C-8AAA-0D707E5B03BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/設計書_打刻侍/20_基本設計/02_画面定義/画面定義書/画面定義書（C001）ログイン画面.xlsx
+++ b/設計書_打刻侍/20_基本設計/02_画面定義/画面定義書/画面定義書（C001）ログイン画面.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubSample\dakokusamurai-git-repository\設計書_打刻侍\20_基本設計\02_画面定義\画面定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d_yoshiara\Desktop\dakokusamurai-git-repository\設計書_打刻侍\20_基本設計\02_画面定義\画面定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5795D9-7850-4729-9435-34BD26ADB524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A353B767-6123-4F2C-81FB-67458FBC7BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="2" xr2:uid="{4A5E5E11-C186-4A6D-AA7A-E61CA13D9268}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4A5E5E11-C186-4A6D-AA7A-E61CA13D9268}"/>
   </bookViews>
   <sheets>
     <sheet name="画面レイアウト" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
   <si>
     <t>画面レイアウト</t>
     <rPh sb="0" eb="2">
@@ -574,6 +574,13 @@
     </rPh>
     <rPh sb="35" eb="37">
       <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>打刻侍</t>
+    <rPh sb="0" eb="3">
+      <t>ダコクサムライ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -892,7 +899,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1064,6 +1071,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1136,9 +1146,39 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1151,42 +1191,24 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1202,9 +1224,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1214,24 +1233,14 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1246,27 +1255,28 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2065,16 +2075,16 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:CD25"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ11" sqref="AJ11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="2.59765625" style="3"/>
+    <col min="1" max="16384" width="2.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:82" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2155,211 +2165,211 @@
       <c r="BX1" s="1"/>
       <c r="BY1" s="1"/>
     </row>
-    <row r="2" spans="1:82" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="57" t="s">
+    <row r="2" spans="1:82" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
       <c r="E2" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="73" t="s">
+      <c r="I2" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
-      <c r="V2" s="74"/>
-      <c r="W2" s="74"/>
-      <c r="X2" s="74"/>
-      <c r="Y2" s="74"/>
-      <c r="Z2" s="74"/>
-      <c r="AA2" s="74"/>
-      <c r="AB2" s="74"/>
-      <c r="AC2" s="75"/>
-      <c r="AD2" s="63" t="s">
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="76"/>
+      <c r="AD2" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="65" t="s">
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="65"/>
+      <c r="AI2" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="66"/>
-      <c r="AL2" s="66"/>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="66"/>
-      <c r="AO2" s="66"/>
-      <c r="AP2" s="67"/>
-    </row>
-    <row r="3" spans="1:82" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
+      <c r="AJ2" s="67"/>
+      <c r="AK2" s="67"/>
+      <c r="AL2" s="67"/>
+      <c r="AM2" s="67"/>
+      <c r="AN2" s="67"/>
+      <c r="AO2" s="67"/>
+      <c r="AP2" s="68"/>
+    </row>
+    <row r="3" spans="1:82" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
       <c r="E3" s="23" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
-      <c r="I3" s="76" t="s">
+      <c r="I3" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="77"/>
-      <c r="Y3" s="77"/>
-      <c r="Z3" s="77"/>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="68" t="s">
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="78"/>
+      <c r="AB3" s="78"/>
+      <c r="AC3" s="79"/>
+      <c r="AD3" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="AE3" s="68"/>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="68"/>
-      <c r="AH3" s="69"/>
-      <c r="AI3" s="70">
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="69"/>
+      <c r="AG3" s="69"/>
+      <c r="AH3" s="70"/>
+      <c r="AI3" s="71">
         <v>45441</v>
       </c>
-      <c r="AJ3" s="71"/>
-      <c r="AK3" s="71"/>
-      <c r="AL3" s="71"/>
-      <c r="AM3" s="71"/>
-      <c r="AN3" s="71"/>
-      <c r="AO3" s="71"/>
-      <c r="AP3" s="72"/>
-    </row>
-    <row r="4" spans="1:82" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
+      <c r="AJ3" s="72"/>
+      <c r="AK3" s="72"/>
+      <c r="AL3" s="72"/>
+      <c r="AM3" s="72"/>
+      <c r="AN3" s="72"/>
+      <c r="AO3" s="72"/>
+      <c r="AP3" s="73"/>
+    </row>
+    <row r="4" spans="1:82" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
       <c r="H4" s="22"/>
-      <c r="I4" s="73" t="s">
+      <c r="I4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="74"/>
-      <c r="U4" s="74"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="74"/>
-      <c r="X4" s="74"/>
-      <c r="Y4" s="74"/>
-      <c r="Z4" s="74"/>
-      <c r="AA4" s="74"/>
-      <c r="AB4" s="74"/>
-      <c r="AC4" s="74"/>
-      <c r="AD4" s="74"/>
-      <c r="AE4" s="74"/>
-      <c r="AF4" s="74"/>
-      <c r="AG4" s="74"/>
-      <c r="AH4" s="74"/>
-      <c r="AI4" s="74"/>
-      <c r="AJ4" s="74"/>
-      <c r="AK4" s="74"/>
-      <c r="AL4" s="74"/>
-      <c r="AM4" s="74"/>
-      <c r="AN4" s="74"/>
-      <c r="AO4" s="74"/>
-      <c r="AP4" s="75"/>
-    </row>
-    <row r="5" spans="1:82" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="61"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="75"/>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="75"/>
+      <c r="Z4" s="75"/>
+      <c r="AA4" s="75"/>
+      <c r="AB4" s="75"/>
+      <c r="AC4" s="75"/>
+      <c r="AD4" s="75"/>
+      <c r="AE4" s="75"/>
+      <c r="AF4" s="75"/>
+      <c r="AG4" s="75"/>
+      <c r="AH4" s="75"/>
+      <c r="AI4" s="75"/>
+      <c r="AJ4" s="75"/>
+      <c r="AK4" s="75"/>
+      <c r="AL4" s="75"/>
+      <c r="AM4" s="75"/>
+      <c r="AN4" s="75"/>
+      <c r="AO4" s="75"/>
+      <c r="AP4" s="76"/>
+    </row>
+    <row r="5" spans="1:82" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="22"/>
-      <c r="I5" s="73" t="s">
+      <c r="I5" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="74"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74"/>
-      <c r="X5" s="74"/>
-      <c r="Y5" s="74"/>
-      <c r="Z5" s="74"/>
-      <c r="AA5" s="74"/>
-      <c r="AB5" s="74"/>
-      <c r="AC5" s="74"/>
-      <c r="AD5" s="74"/>
-      <c r="AE5" s="74"/>
-      <c r="AF5" s="74"/>
-      <c r="AG5" s="74"/>
-      <c r="AH5" s="74"/>
-      <c r="AI5" s="74"/>
-      <c r="AJ5" s="74"/>
-      <c r="AK5" s="74"/>
-      <c r="AL5" s="74"/>
-      <c r="AM5" s="74"/>
-      <c r="AN5" s="74"/>
-      <c r="AO5" s="74"/>
-      <c r="AP5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="75"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
+      <c r="W5" s="75"/>
+      <c r="X5" s="75"/>
+      <c r="Y5" s="75"/>
+      <c r="Z5" s="75"/>
+      <c r="AA5" s="75"/>
+      <c r="AB5" s="75"/>
+      <c r="AC5" s="75"/>
+      <c r="AD5" s="75"/>
+      <c r="AE5" s="75"/>
+      <c r="AF5" s="75"/>
+      <c r="AG5" s="75"/>
+      <c r="AH5" s="75"/>
+      <c r="AI5" s="75"/>
+      <c r="AJ5" s="75"/>
+      <c r="AK5" s="75"/>
+      <c r="AL5" s="75"/>
+      <c r="AM5" s="75"/>
+      <c r="AN5" s="75"/>
+      <c r="AO5" s="75"/>
+      <c r="AP5" s="76"/>
       <c r="AW5" s="1"/>
       <c r="AX5" s="1"/>
     </row>
-    <row r="6" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:82" x14ac:dyDescent="0.4">
       <c r="A6" s="37" t="s">
         <v>13</v>
       </c>
@@ -2406,7 +2416,7 @@
       <c r="AP6" s="39"/>
       <c r="AQ6" s="2"/>
     </row>
-    <row r="8" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:82" x14ac:dyDescent="0.4">
       <c r="C8" s="29"/>
       <c r="D8" s="30"/>
       <c r="E8" s="30"/>
@@ -2446,11 +2456,11 @@
       <c r="AM8" s="30"/>
       <c r="AN8" s="31"/>
     </row>
-    <row r="9" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C9" s="4"/>
       <c r="AN9" s="5"/>
     </row>
-    <row r="10" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="40"/>
       <c r="C10" s="43"/>
       <c r="D10" s="41"/>
@@ -2491,19 +2501,31 @@
       <c r="AM10" s="42"/>
       <c r="AN10" s="5"/>
     </row>
-    <row r="11" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:82" x14ac:dyDescent="0.4">
       <c r="C11" s="4"/>
+      <c r="O11" s="129" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="129"/>
+      <c r="Q11" s="129"/>
+      <c r="R11" s="129"/>
+      <c r="S11" s="129"/>
+      <c r="T11" s="129"/>
+      <c r="U11" s="129"/>
+      <c r="V11" s="129"/>
+      <c r="W11" s="129"/>
+      <c r="X11" s="129"/>
       <c r="AN11" s="5"/>
     </row>
-    <row r="12" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:82" x14ac:dyDescent="0.4">
       <c r="C12" s="4"/>
       <c r="AN12" s="5"/>
     </row>
-    <row r="13" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:82" x14ac:dyDescent="0.4">
       <c r="C13" s="4"/>
       <c r="AN13" s="5"/>
     </row>
-    <row r="14" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:82" x14ac:dyDescent="0.4">
       <c r="C14" s="4"/>
       <c r="K14" s="3" t="s">
         <v>14</v>
@@ -2521,11 +2543,11 @@
       <c r="Y14" s="34"/>
       <c r="AN14" s="5"/>
     </row>
-    <row r="15" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:82" x14ac:dyDescent="0.4">
       <c r="C15" s="4"/>
       <c r="AN15" s="5"/>
     </row>
-    <row r="16" spans="1:82" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:82" x14ac:dyDescent="0.4">
       <c r="C16" s="4"/>
       <c r="AN16" s="5"/>
       <c r="AS16" s="40"/>
@@ -2567,11 +2589,11 @@
       <c r="CC16" s="42"/>
       <c r="CD16" s="42"/>
     </row>
-    <row r="17" spans="3:40" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:40" x14ac:dyDescent="0.4">
       <c r="C17" s="4"/>
       <c r="AN17" s="5"/>
     </row>
-    <row r="18" spans="3:40" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:40" x14ac:dyDescent="0.4">
       <c r="C18" s="4"/>
       <c r="K18" s="3" t="s">
         <v>15</v>
@@ -2589,32 +2611,32 @@
       <c r="Y18" s="34"/>
       <c r="AN18" s="5"/>
     </row>
-    <row r="19" spans="3:40" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:40" x14ac:dyDescent="0.4">
       <c r="C19" s="4"/>
       <c r="O19" s="44"/>
       <c r="AN19" s="5"/>
     </row>
-    <row r="20" spans="3:40" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:40" x14ac:dyDescent="0.4">
       <c r="C20" s="4"/>
       <c r="AN20" s="5"/>
     </row>
-    <row r="21" spans="3:40" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:40" x14ac:dyDescent="0.4">
       <c r="C21" s="4"/>
       <c r="AN21" s="5"/>
     </row>
-    <row r="22" spans="3:40" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:40" x14ac:dyDescent="0.4">
       <c r="C22" s="4"/>
       <c r="AN22" s="5"/>
     </row>
-    <row r="23" spans="3:40" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:40" x14ac:dyDescent="0.4">
       <c r="C23" s="4"/>
       <c r="AN23" s="5"/>
     </row>
-    <row r="24" spans="3:40" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:40" x14ac:dyDescent="0.4">
       <c r="C24" s="4"/>
       <c r="AN24" s="5"/>
     </row>
-    <row r="25" spans="3:40" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:40" x14ac:dyDescent="0.4">
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -2655,7 +2677,8 @@
       <c r="AN25" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="O11:X11"/>
     <mergeCell ref="A2:D5"/>
     <mergeCell ref="AD2:AH2"/>
     <mergeCell ref="AI2:AP2"/>
@@ -2685,12 +2708,12 @@
       <selection activeCell="AE6" sqref="AE6:AF6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="2.59765625" style="3"/>
+    <col min="1" max="16384" width="2.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:77" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2771,123 +2794,123 @@
       <c r="BX1" s="1"/>
       <c r="BY1" s="1"/>
     </row>
-    <row r="2" spans="1:77" x14ac:dyDescent="0.45">
-      <c r="A2" s="95" t="s">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.4">
+      <c r="A2" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="82" t="s">
+      <c r="B2" s="94"/>
+      <c r="C2" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="82" t="s">
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="95"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="82" t="s">
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="94"/>
+      <c r="U2" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="83"/>
-      <c r="W2" s="82" t="s">
+      <c r="V2" s="94"/>
+      <c r="W2" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="82" t="s">
+      <c r="X2" s="94"/>
+      <c r="Y2" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="Z2" s="95"/>
-      <c r="AA2" s="95"/>
-      <c r="AB2" s="95"/>
-      <c r="AC2" s="95"/>
-      <c r="AD2" s="83"/>
-      <c r="AE2" s="82" t="s">
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="97"/>
+      <c r="AD2" s="94"/>
+      <c r="AE2" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="AF2" s="83"/>
-      <c r="AG2" s="84" t="s">
+      <c r="AF2" s="94"/>
+      <c r="AG2" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="84"/>
-      <c r="AO2" s="84"/>
-      <c r="AP2" s="84"/>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="84"/>
-      <c r="AU2" s="84"/>
-      <c r="AV2" s="84"/>
-      <c r="AW2" s="84"/>
-      <c r="AX2" s="84"/>
-      <c r="AY2" s="84"/>
-      <c r="AZ2" s="84"/>
-      <c r="BA2" s="84"/>
-      <c r="BB2" s="85"/>
-    </row>
-    <row r="3" spans="1:77" x14ac:dyDescent="0.45">
-      <c r="A3" s="86" t="s">
+      <c r="AH2" s="95"/>
+      <c r="AI2" s="95"/>
+      <c r="AJ2" s="95"/>
+      <c r="AK2" s="95"/>
+      <c r="AL2" s="95"/>
+      <c r="AM2" s="95"/>
+      <c r="AN2" s="95"/>
+      <c r="AO2" s="95"/>
+      <c r="AP2" s="95"/>
+      <c r="AQ2" s="95"/>
+      <c r="AR2" s="95"/>
+      <c r="AS2" s="95"/>
+      <c r="AT2" s="95"/>
+      <c r="AU2" s="95"/>
+      <c r="AV2" s="95"/>
+      <c r="AW2" s="95"/>
+      <c r="AX2" s="95"/>
+      <c r="AY2" s="95"/>
+      <c r="AZ2" s="95"/>
+      <c r="BA2" s="95"/>
+      <c r="BB2" s="96"/>
+    </row>
+    <row r="3" spans="1:77" x14ac:dyDescent="0.4">
+      <c r="A3" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="88" t="s">
+      <c r="B3" s="83"/>
+      <c r="C3" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="89"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="79" t="s">
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="86"/>
+      <c r="U3" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="80"/>
-      <c r="W3" s="79" t="s">
+      <c r="V3" s="81"/>
+      <c r="W3" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="X3" s="80"/>
-      <c r="Y3" s="79" t="s">
+      <c r="X3" s="81"/>
+      <c r="Y3" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="Z3" s="81"/>
-      <c r="AA3" s="81"/>
-      <c r="AB3" s="81"/>
-      <c r="AC3" s="81"/>
-      <c r="AD3" s="80"/>
-      <c r="AE3" s="79" t="s">
+      <c r="Z3" s="87"/>
+      <c r="AA3" s="87"/>
+      <c r="AB3" s="87"/>
+      <c r="AC3" s="87"/>
+      <c r="AD3" s="81"/>
+      <c r="AE3" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="AF3" s="80"/>
+      <c r="AF3" s="81"/>
       <c r="AG3" s="9"/>
       <c r="AH3" s="10"/>
       <c r="AI3" s="10"/>
@@ -2911,53 +2934,53 @@
       <c r="BA3" s="10"/>
       <c r="BB3" s="11"/>
     </row>
-    <row r="4" spans="1:77" x14ac:dyDescent="0.45">
-      <c r="A4" s="86" t="s">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.4">
+      <c r="A4" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="88" t="s">
+      <c r="B4" s="83"/>
+      <c r="C4" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="88" t="s">
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="79" t="s">
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="V4" s="80"/>
-      <c r="W4" s="79" t="s">
+      <c r="V4" s="81"/>
+      <c r="W4" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="X4" s="80"/>
-      <c r="Y4" s="91" t="s">
+      <c r="X4" s="81"/>
+      <c r="Y4" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="92"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="93"/>
-      <c r="AE4" s="91">
+      <c r="Z4" s="91"/>
+      <c r="AA4" s="91"/>
+      <c r="AB4" s="91"/>
+      <c r="AC4" s="91"/>
+      <c r="AD4" s="92"/>
+      <c r="AE4" s="88">
         <v>20</v>
       </c>
-      <c r="AF4" s="94"/>
+      <c r="AF4" s="89"/>
       <c r="AG4" s="9"/>
       <c r="AH4" s="10"/>
       <c r="AI4" s="10"/>
@@ -2981,53 +3004,53 @@
       <c r="BA4" s="10"/>
       <c r="BB4" s="11"/>
     </row>
-    <row r="5" spans="1:77" x14ac:dyDescent="0.45">
-      <c r="A5" s="86" t="s">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.4">
+      <c r="A5" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="88" t="s">
+      <c r="B5" s="83"/>
+      <c r="C5" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="88" t="s">
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="89"/>
-      <c r="T5" s="90"/>
-      <c r="U5" s="79" t="s">
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="85"/>
+      <c r="T5" s="86"/>
+      <c r="U5" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="V5" s="80"/>
-      <c r="W5" s="79" t="s">
+      <c r="V5" s="81"/>
+      <c r="W5" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="X5" s="80"/>
-      <c r="Y5" s="96" t="s">
+      <c r="X5" s="81"/>
+      <c r="Y5" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="Z5" s="92"/>
-      <c r="AA5" s="92"/>
-      <c r="AB5" s="92"/>
-      <c r="AC5" s="92"/>
-      <c r="AD5" s="93"/>
-      <c r="AE5" s="91">
+      <c r="Z5" s="91"/>
+      <c r="AA5" s="91"/>
+      <c r="AB5" s="91"/>
+      <c r="AC5" s="91"/>
+      <c r="AD5" s="92"/>
+      <c r="AE5" s="88">
         <v>20</v>
       </c>
-      <c r="AF5" s="94"/>
+      <c r="AF5" s="89"/>
       <c r="AG5" s="9"/>
       <c r="AH5" s="10"/>
       <c r="AI5" s="10"/>
@@ -3051,53 +3074,53 @@
       <c r="BA5" s="10"/>
       <c r="BB5" s="11"/>
     </row>
-    <row r="6" spans="1:77" x14ac:dyDescent="0.45">
-      <c r="A6" s="86" t="s">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.4">
+      <c r="A6" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="88" t="s">
+      <c r="B6" s="83"/>
+      <c r="C6" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="88" t="s">
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="N6" s="89"/>
-      <c r="O6" s="89"/>
-      <c r="P6" s="89"/>
-      <c r="Q6" s="89"/>
-      <c r="R6" s="89"/>
-      <c r="S6" s="89"/>
-      <c r="T6" s="90"/>
-      <c r="U6" s="79" t="s">
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="85"/>
+      <c r="S6" s="85"/>
+      <c r="T6" s="86"/>
+      <c r="U6" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="V6" s="80"/>
-      <c r="W6" s="79" t="s">
+      <c r="V6" s="81"/>
+      <c r="W6" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="X6" s="80"/>
-      <c r="Y6" s="79" t="s">
+      <c r="X6" s="81"/>
+      <c r="Y6" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="Z6" s="81"/>
-      <c r="AA6" s="81"/>
-      <c r="AB6" s="81"/>
-      <c r="AC6" s="81"/>
-      <c r="AD6" s="80"/>
-      <c r="AE6" s="79" t="s">
+      <c r="Z6" s="87"/>
+      <c r="AA6" s="87"/>
+      <c r="AB6" s="87"/>
+      <c r="AC6" s="87"/>
+      <c r="AD6" s="81"/>
+      <c r="AE6" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="AF6" s="80"/>
+      <c r="AF6" s="81"/>
       <c r="AG6" s="9"/>
       <c r="AH6" s="10"/>
       <c r="AI6" s="10"/>
@@ -3121,39 +3144,39 @@
       <c r="BA6" s="10"/>
       <c r="BB6" s="11"/>
     </row>
-    <row r="7" spans="1:77" x14ac:dyDescent="0.45">
-      <c r="A7" s="86"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="88"/>
-      <c r="N7" s="89"/>
-      <c r="O7" s="89"/>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="89"/>
-      <c r="S7" s="89"/>
-      <c r="T7" s="90"/>
-      <c r="U7" s="79"/>
-      <c r="V7" s="80"/>
-      <c r="W7" s="79"/>
-      <c r="X7" s="80"/>
-      <c r="Y7" s="79"/>
-      <c r="Z7" s="81"/>
-      <c r="AA7" s="81"/>
-      <c r="AB7" s="81"/>
-      <c r="AC7" s="81"/>
-      <c r="AD7" s="80"/>
-      <c r="AE7" s="79"/>
-      <c r="AF7" s="80"/>
+    <row r="7" spans="1:77" x14ac:dyDescent="0.4">
+      <c r="A7" s="82"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="85"/>
+      <c r="R7" s="85"/>
+      <c r="S7" s="85"/>
+      <c r="T7" s="86"/>
+      <c r="U7" s="80"/>
+      <c r="V7" s="81"/>
+      <c r="W7" s="80"/>
+      <c r="X7" s="81"/>
+      <c r="Y7" s="80"/>
+      <c r="Z7" s="87"/>
+      <c r="AA7" s="87"/>
+      <c r="AB7" s="87"/>
+      <c r="AC7" s="87"/>
+      <c r="AD7" s="81"/>
+      <c r="AE7" s="80"/>
+      <c r="AF7" s="81"/>
       <c r="AG7" s="9"/>
       <c r="AH7" s="10"/>
       <c r="AI7" s="10"/>
@@ -3177,39 +3200,39 @@
       <c r="BA7" s="10"/>
       <c r="BB7" s="11"/>
     </row>
-    <row r="8" spans="1:77" x14ac:dyDescent="0.45">
-      <c r="A8" s="86"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="89"/>
-      <c r="R8" s="89"/>
-      <c r="S8" s="89"/>
-      <c r="T8" s="90"/>
-      <c r="U8" s="79"/>
-      <c r="V8" s="80"/>
-      <c r="W8" s="79"/>
-      <c r="X8" s="80"/>
-      <c r="Y8" s="79"/>
-      <c r="Z8" s="81"/>
-      <c r="AA8" s="81"/>
-      <c r="AB8" s="81"/>
-      <c r="AC8" s="81"/>
-      <c r="AD8" s="80"/>
-      <c r="AE8" s="79"/>
-      <c r="AF8" s="80"/>
+    <row r="8" spans="1:77" x14ac:dyDescent="0.4">
+      <c r="A8" s="82"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="85"/>
+      <c r="R8" s="85"/>
+      <c r="S8" s="85"/>
+      <c r="T8" s="86"/>
+      <c r="U8" s="80"/>
+      <c r="V8" s="81"/>
+      <c r="W8" s="80"/>
+      <c r="X8" s="81"/>
+      <c r="Y8" s="80"/>
+      <c r="Z8" s="87"/>
+      <c r="AA8" s="87"/>
+      <c r="AB8" s="87"/>
+      <c r="AC8" s="87"/>
+      <c r="AD8" s="81"/>
+      <c r="AE8" s="80"/>
+      <c r="AF8" s="81"/>
       <c r="AG8" s="9"/>
       <c r="AH8" s="10"/>
       <c r="AI8" s="10"/>
@@ -3233,39 +3256,39 @@
       <c r="BA8" s="10"/>
       <c r="BB8" s="11"/>
     </row>
-    <row r="9" spans="1:77" x14ac:dyDescent="0.45">
-      <c r="A9" s="86"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="89"/>
-      <c r="O9" s="89"/>
-      <c r="P9" s="89"/>
-      <c r="Q9" s="89"/>
-      <c r="R9" s="89"/>
-      <c r="S9" s="89"/>
-      <c r="T9" s="90"/>
-      <c r="U9" s="79"/>
-      <c r="V9" s="80"/>
-      <c r="W9" s="79"/>
-      <c r="X9" s="80"/>
-      <c r="Y9" s="79"/>
-      <c r="Z9" s="81"/>
-      <c r="AA9" s="81"/>
-      <c r="AB9" s="81"/>
-      <c r="AC9" s="81"/>
-      <c r="AD9" s="80"/>
-      <c r="AE9" s="79"/>
-      <c r="AF9" s="80"/>
+    <row r="9" spans="1:77" x14ac:dyDescent="0.4">
+      <c r="A9" s="82"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="85"/>
+      <c r="R9" s="85"/>
+      <c r="S9" s="85"/>
+      <c r="T9" s="86"/>
+      <c r="U9" s="80"/>
+      <c r="V9" s="81"/>
+      <c r="W9" s="80"/>
+      <c r="X9" s="81"/>
+      <c r="Y9" s="80"/>
+      <c r="Z9" s="87"/>
+      <c r="AA9" s="87"/>
+      <c r="AB9" s="87"/>
+      <c r="AC9" s="87"/>
+      <c r="AD9" s="81"/>
+      <c r="AE9" s="80"/>
+      <c r="AF9" s="81"/>
       <c r="AG9" s="9"/>
       <c r="AH9" s="10"/>
       <c r="AI9" s="10"/>
@@ -3289,39 +3312,39 @@
       <c r="BA9" s="10"/>
       <c r="BB9" s="11"/>
     </row>
-    <row r="10" spans="1:77" x14ac:dyDescent="0.45">
-      <c r="A10" s="86"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="89"/>
-      <c r="Q10" s="89"/>
-      <c r="R10" s="89"/>
-      <c r="S10" s="89"/>
-      <c r="T10" s="90"/>
-      <c r="U10" s="79"/>
-      <c r="V10" s="80"/>
-      <c r="W10" s="79"/>
-      <c r="X10" s="80"/>
-      <c r="Y10" s="79"/>
-      <c r="Z10" s="81"/>
-      <c r="AA10" s="81"/>
-      <c r="AB10" s="81"/>
-      <c r="AC10" s="81"/>
-      <c r="AD10" s="80"/>
-      <c r="AE10" s="79"/>
-      <c r="AF10" s="80"/>
+    <row r="10" spans="1:77" x14ac:dyDescent="0.4">
+      <c r="A10" s="82"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="85"/>
+      <c r="Q10" s="85"/>
+      <c r="R10" s="85"/>
+      <c r="S10" s="85"/>
+      <c r="T10" s="86"/>
+      <c r="U10" s="80"/>
+      <c r="V10" s="81"/>
+      <c r="W10" s="80"/>
+      <c r="X10" s="81"/>
+      <c r="Y10" s="80"/>
+      <c r="Z10" s="87"/>
+      <c r="AA10" s="87"/>
+      <c r="AB10" s="87"/>
+      <c r="AC10" s="87"/>
+      <c r="AD10" s="81"/>
+      <c r="AE10" s="80"/>
+      <c r="AF10" s="81"/>
       <c r="AG10" s="9"/>
       <c r="AH10" s="10"/>
       <c r="AI10" s="10"/>
@@ -3345,39 +3368,39 @@
       <c r="BA10" s="10"/>
       <c r="BB10" s="11"/>
     </row>
-    <row r="11" spans="1:77" x14ac:dyDescent="0.45">
-      <c r="A11" s="86"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="89"/>
-      <c r="O11" s="89"/>
-      <c r="P11" s="89"/>
-      <c r="Q11" s="89"/>
-      <c r="R11" s="89"/>
-      <c r="S11" s="89"/>
-      <c r="T11" s="90"/>
-      <c r="U11" s="79"/>
-      <c r="V11" s="80"/>
-      <c r="W11" s="79"/>
-      <c r="X11" s="80"/>
-      <c r="Y11" s="79"/>
-      <c r="Z11" s="81"/>
-      <c r="AA11" s="81"/>
-      <c r="AB11" s="81"/>
-      <c r="AC11" s="81"/>
-      <c r="AD11" s="80"/>
-      <c r="AE11" s="79"/>
-      <c r="AF11" s="80"/>
+    <row r="11" spans="1:77" x14ac:dyDescent="0.4">
+      <c r="A11" s="82"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="85"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="85"/>
+      <c r="S11" s="85"/>
+      <c r="T11" s="86"/>
+      <c r="U11" s="80"/>
+      <c r="V11" s="81"/>
+      <c r="W11" s="80"/>
+      <c r="X11" s="81"/>
+      <c r="Y11" s="80"/>
+      <c r="Z11" s="87"/>
+      <c r="AA11" s="87"/>
+      <c r="AB11" s="87"/>
+      <c r="AC11" s="87"/>
+      <c r="AD11" s="81"/>
+      <c r="AE11" s="80"/>
+      <c r="AF11" s="81"/>
       <c r="AG11" s="9"/>
       <c r="AH11" s="10"/>
       <c r="AI11" s="10"/>
@@ -3401,39 +3424,39 @@
       <c r="BA11" s="10"/>
       <c r="BB11" s="11"/>
     </row>
-    <row r="12" spans="1:77" x14ac:dyDescent="0.45">
-      <c r="A12" s="86"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="88"/>
-      <c r="N12" s="89"/>
-      <c r="O12" s="89"/>
-      <c r="P12" s="89"/>
-      <c r="Q12" s="89"/>
-      <c r="R12" s="89"/>
-      <c r="S12" s="89"/>
-      <c r="T12" s="90"/>
-      <c r="U12" s="79"/>
-      <c r="V12" s="80"/>
-      <c r="W12" s="79"/>
-      <c r="X12" s="80"/>
-      <c r="Y12" s="79"/>
-      <c r="Z12" s="81"/>
-      <c r="AA12" s="81"/>
-      <c r="AB12" s="81"/>
-      <c r="AC12" s="81"/>
-      <c r="AD12" s="80"/>
-      <c r="AE12" s="79"/>
-      <c r="AF12" s="80"/>
+    <row r="12" spans="1:77" x14ac:dyDescent="0.4">
+      <c r="A12" s="82"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="84"/>
+      <c r="N12" s="85"/>
+      <c r="O12" s="85"/>
+      <c r="P12" s="85"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="85"/>
+      <c r="S12" s="85"/>
+      <c r="T12" s="86"/>
+      <c r="U12" s="80"/>
+      <c r="V12" s="81"/>
+      <c r="W12" s="80"/>
+      <c r="X12" s="81"/>
+      <c r="Y12" s="80"/>
+      <c r="Z12" s="87"/>
+      <c r="AA12" s="87"/>
+      <c r="AB12" s="87"/>
+      <c r="AC12" s="87"/>
+      <c r="AD12" s="81"/>
+      <c r="AE12" s="80"/>
+      <c r="AF12" s="81"/>
       <c r="AG12" s="9"/>
       <c r="AH12" s="10"/>
       <c r="AI12" s="10"/>
@@ -3457,39 +3480,39 @@
       <c r="BA12" s="10"/>
       <c r="BB12" s="11"/>
     </row>
-    <row r="13" spans="1:77" x14ac:dyDescent="0.45">
-      <c r="A13" s="86"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="88"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="89"/>
-      <c r="P13" s="89"/>
-      <c r="Q13" s="89"/>
-      <c r="R13" s="89"/>
-      <c r="S13" s="89"/>
-      <c r="T13" s="90"/>
-      <c r="U13" s="79"/>
-      <c r="V13" s="80"/>
-      <c r="W13" s="79"/>
-      <c r="X13" s="80"/>
-      <c r="Y13" s="79"/>
-      <c r="Z13" s="81"/>
-      <c r="AA13" s="81"/>
-      <c r="AB13" s="81"/>
-      <c r="AC13" s="81"/>
-      <c r="AD13" s="80"/>
-      <c r="AE13" s="79"/>
-      <c r="AF13" s="80"/>
+    <row r="13" spans="1:77" x14ac:dyDescent="0.4">
+      <c r="A13" s="82"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="85"/>
+      <c r="O13" s="85"/>
+      <c r="P13" s="85"/>
+      <c r="Q13" s="85"/>
+      <c r="R13" s="85"/>
+      <c r="S13" s="85"/>
+      <c r="T13" s="86"/>
+      <c r="U13" s="80"/>
+      <c r="V13" s="81"/>
+      <c r="W13" s="80"/>
+      <c r="X13" s="81"/>
+      <c r="Y13" s="80"/>
+      <c r="Z13" s="87"/>
+      <c r="AA13" s="87"/>
+      <c r="AB13" s="87"/>
+      <c r="AC13" s="87"/>
+      <c r="AD13" s="81"/>
+      <c r="AE13" s="80"/>
+      <c r="AF13" s="81"/>
       <c r="AG13" s="9"/>
       <c r="AH13" s="10"/>
       <c r="AI13" s="10"/>
@@ -3513,39 +3536,39 @@
       <c r="BA13" s="10"/>
       <c r="BB13" s="11"/>
     </row>
-    <row r="14" spans="1:77" x14ac:dyDescent="0.45">
-      <c r="A14" s="86"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="89"/>
-      <c r="O14" s="89"/>
-      <c r="P14" s="89"/>
-      <c r="Q14" s="89"/>
-      <c r="R14" s="89"/>
-      <c r="S14" s="89"/>
-      <c r="T14" s="90"/>
-      <c r="U14" s="79"/>
-      <c r="V14" s="80"/>
-      <c r="W14" s="79"/>
-      <c r="X14" s="80"/>
-      <c r="Y14" s="79"/>
-      <c r="Z14" s="81"/>
-      <c r="AA14" s="81"/>
-      <c r="AB14" s="81"/>
-      <c r="AC14" s="81"/>
-      <c r="AD14" s="80"/>
-      <c r="AE14" s="79"/>
-      <c r="AF14" s="80"/>
+    <row r="14" spans="1:77" x14ac:dyDescent="0.4">
+      <c r="A14" s="82"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="85"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="85"/>
+      <c r="S14" s="85"/>
+      <c r="T14" s="86"/>
+      <c r="U14" s="80"/>
+      <c r="V14" s="81"/>
+      <c r="W14" s="80"/>
+      <c r="X14" s="81"/>
+      <c r="Y14" s="80"/>
+      <c r="Z14" s="87"/>
+      <c r="AA14" s="87"/>
+      <c r="AB14" s="87"/>
+      <c r="AC14" s="87"/>
+      <c r="AD14" s="81"/>
+      <c r="AE14" s="80"/>
+      <c r="AF14" s="81"/>
       <c r="AG14" s="9"/>
       <c r="AH14" s="10"/>
       <c r="AI14" s="10"/>
@@ -3569,39 +3592,39 @@
       <c r="BA14" s="10"/>
       <c r="BB14" s="11"/>
     </row>
-    <row r="15" spans="1:77" x14ac:dyDescent="0.45">
-      <c r="A15" s="86"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="89"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="89"/>
-      <c r="Q15" s="89"/>
-      <c r="R15" s="89"/>
-      <c r="S15" s="89"/>
-      <c r="T15" s="90"/>
-      <c r="U15" s="79"/>
-      <c r="V15" s="80"/>
-      <c r="W15" s="79"/>
-      <c r="X15" s="80"/>
-      <c r="Y15" s="79"/>
-      <c r="Z15" s="81"/>
-      <c r="AA15" s="81"/>
-      <c r="AB15" s="81"/>
-      <c r="AC15" s="81"/>
-      <c r="AD15" s="80"/>
-      <c r="AE15" s="79"/>
-      <c r="AF15" s="80"/>
+    <row r="15" spans="1:77" x14ac:dyDescent="0.4">
+      <c r="A15" s="82"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="85"/>
+      <c r="S15" s="85"/>
+      <c r="T15" s="86"/>
+      <c r="U15" s="80"/>
+      <c r="V15" s="81"/>
+      <c r="W15" s="80"/>
+      <c r="X15" s="81"/>
+      <c r="Y15" s="80"/>
+      <c r="Z15" s="87"/>
+      <c r="AA15" s="87"/>
+      <c r="AB15" s="87"/>
+      <c r="AC15" s="87"/>
+      <c r="AD15" s="81"/>
+      <c r="AE15" s="80"/>
+      <c r="AF15" s="81"/>
       <c r="AG15" s="9"/>
       <c r="AH15" s="10"/>
       <c r="AI15" s="10"/>
@@ -3625,39 +3648,39 @@
       <c r="BA15" s="10"/>
       <c r="BB15" s="11"/>
     </row>
-    <row r="16" spans="1:77" x14ac:dyDescent="0.45">
-      <c r="A16" s="86"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="88"/>
-      <c r="N16" s="89"/>
-      <c r="O16" s="89"/>
-      <c r="P16" s="89"/>
-      <c r="Q16" s="89"/>
-      <c r="R16" s="89"/>
-      <c r="S16" s="89"/>
-      <c r="T16" s="90"/>
-      <c r="U16" s="79"/>
-      <c r="V16" s="80"/>
-      <c r="W16" s="79"/>
-      <c r="X16" s="80"/>
-      <c r="Y16" s="79"/>
-      <c r="Z16" s="81"/>
-      <c r="AA16" s="81"/>
-      <c r="AB16" s="81"/>
-      <c r="AC16" s="81"/>
-      <c r="AD16" s="80"/>
-      <c r="AE16" s="79"/>
-      <c r="AF16" s="80"/>
+    <row r="16" spans="1:77" x14ac:dyDescent="0.4">
+      <c r="A16" s="82"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="85"/>
+      <c r="S16" s="85"/>
+      <c r="T16" s="86"/>
+      <c r="U16" s="80"/>
+      <c r="V16" s="81"/>
+      <c r="W16" s="80"/>
+      <c r="X16" s="81"/>
+      <c r="Y16" s="80"/>
+      <c r="Z16" s="87"/>
+      <c r="AA16" s="87"/>
+      <c r="AB16" s="87"/>
+      <c r="AC16" s="87"/>
+      <c r="AD16" s="81"/>
+      <c r="AE16" s="80"/>
+      <c r="AF16" s="81"/>
       <c r="AG16" s="9"/>
       <c r="AH16" s="10"/>
       <c r="AI16" s="10"/>
@@ -3681,39 +3704,39 @@
       <c r="BA16" s="10"/>
       <c r="BB16" s="11"/>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.45">
-      <c r="A17" s="86"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="88"/>
-      <c r="N17" s="89"/>
-      <c r="O17" s="89"/>
-      <c r="P17" s="89"/>
-      <c r="Q17" s="89"/>
-      <c r="R17" s="89"/>
-      <c r="S17" s="89"/>
-      <c r="T17" s="90"/>
-      <c r="U17" s="79"/>
-      <c r="V17" s="80"/>
-      <c r="W17" s="79"/>
-      <c r="X17" s="80"/>
-      <c r="Y17" s="88"/>
-      <c r="Z17" s="89"/>
-      <c r="AA17" s="89"/>
-      <c r="AB17" s="89"/>
-      <c r="AC17" s="89"/>
-      <c r="AD17" s="90"/>
-      <c r="AE17" s="79"/>
-      <c r="AF17" s="80"/>
+    <row r="17" spans="1:54" x14ac:dyDescent="0.4">
+      <c r="A17" s="82"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="85"/>
+      <c r="S17" s="85"/>
+      <c r="T17" s="86"/>
+      <c r="U17" s="80"/>
+      <c r="V17" s="81"/>
+      <c r="W17" s="80"/>
+      <c r="X17" s="81"/>
+      <c r="Y17" s="84"/>
+      <c r="Z17" s="85"/>
+      <c r="AA17" s="85"/>
+      <c r="AB17" s="85"/>
+      <c r="AC17" s="85"/>
+      <c r="AD17" s="86"/>
+      <c r="AE17" s="80"/>
+      <c r="AF17" s="81"/>
       <c r="AG17" s="9"/>
       <c r="AH17" s="10"/>
       <c r="AI17" s="10"/>
@@ -3737,39 +3760,39 @@
       <c r="BA17" s="10"/>
       <c r="BB17" s="11"/>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.45">
-      <c r="A18" s="86"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="88"/>
-      <c r="N18" s="89"/>
-      <c r="O18" s="89"/>
-      <c r="P18" s="89"/>
-      <c r="Q18" s="89"/>
-      <c r="R18" s="89"/>
-      <c r="S18" s="89"/>
-      <c r="T18" s="90"/>
-      <c r="U18" s="79"/>
-      <c r="V18" s="80"/>
-      <c r="W18" s="79"/>
-      <c r="X18" s="80"/>
-      <c r="Y18" s="88"/>
-      <c r="Z18" s="89"/>
-      <c r="AA18" s="89"/>
-      <c r="AB18" s="89"/>
-      <c r="AC18" s="89"/>
-      <c r="AD18" s="90"/>
-      <c r="AE18" s="79"/>
-      <c r="AF18" s="80"/>
+    <row r="18" spans="1:54" x14ac:dyDescent="0.4">
+      <c r="A18" s="82"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="85"/>
+      <c r="P18" s="85"/>
+      <c r="Q18" s="85"/>
+      <c r="R18" s="85"/>
+      <c r="S18" s="85"/>
+      <c r="T18" s="86"/>
+      <c r="U18" s="80"/>
+      <c r="V18" s="81"/>
+      <c r="W18" s="80"/>
+      <c r="X18" s="81"/>
+      <c r="Y18" s="84"/>
+      <c r="Z18" s="85"/>
+      <c r="AA18" s="85"/>
+      <c r="AB18" s="85"/>
+      <c r="AC18" s="85"/>
+      <c r="AD18" s="86"/>
+      <c r="AE18" s="80"/>
+      <c r="AF18" s="81"/>
       <c r="AG18" s="9"/>
       <c r="AH18" s="10"/>
       <c r="AI18" s="10"/>
@@ -3793,39 +3816,39 @@
       <c r="BA18" s="10"/>
       <c r="BB18" s="11"/>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.45">
-      <c r="A19" s="86"/>
-      <c r="B19" s="87"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="88"/>
-      <c r="N19" s="89"/>
-      <c r="O19" s="89"/>
-      <c r="P19" s="89"/>
-      <c r="Q19" s="89"/>
-      <c r="R19" s="89"/>
-      <c r="S19" s="89"/>
-      <c r="T19" s="90"/>
-      <c r="U19" s="79"/>
-      <c r="V19" s="80"/>
-      <c r="W19" s="79"/>
-      <c r="X19" s="80"/>
-      <c r="Y19" s="79"/>
-      <c r="Z19" s="81"/>
-      <c r="AA19" s="81"/>
-      <c r="AB19" s="81"/>
-      <c r="AC19" s="81"/>
-      <c r="AD19" s="80"/>
-      <c r="AE19" s="79"/>
-      <c r="AF19" s="80"/>
+    <row r="19" spans="1:54" x14ac:dyDescent="0.4">
+      <c r="A19" s="82"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="85"/>
+      <c r="O19" s="85"/>
+      <c r="P19" s="85"/>
+      <c r="Q19" s="85"/>
+      <c r="R19" s="85"/>
+      <c r="S19" s="85"/>
+      <c r="T19" s="86"/>
+      <c r="U19" s="80"/>
+      <c r="V19" s="81"/>
+      <c r="W19" s="80"/>
+      <c r="X19" s="81"/>
+      <c r="Y19" s="80"/>
+      <c r="Z19" s="87"/>
+      <c r="AA19" s="87"/>
+      <c r="AB19" s="87"/>
+      <c r="AC19" s="87"/>
+      <c r="AD19" s="81"/>
+      <c r="AE19" s="80"/>
+      <c r="AF19" s="81"/>
       <c r="AG19" s="9"/>
       <c r="AH19" s="10"/>
       <c r="AI19" s="10"/>
@@ -3849,39 +3872,39 @@
       <c r="BA19" s="10"/>
       <c r="BB19" s="11"/>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.45">
-      <c r="A20" s="86"/>
-      <c r="B20" s="87"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="89"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="89"/>
-      <c r="O20" s="89"/>
-      <c r="P20" s="89"/>
-      <c r="Q20" s="89"/>
-      <c r="R20" s="89"/>
-      <c r="S20" s="89"/>
-      <c r="T20" s="90"/>
-      <c r="U20" s="79"/>
-      <c r="V20" s="80"/>
-      <c r="W20" s="79"/>
-      <c r="X20" s="80"/>
-      <c r="Y20" s="79"/>
-      <c r="Z20" s="81"/>
-      <c r="AA20" s="81"/>
-      <c r="AB20" s="81"/>
-      <c r="AC20" s="81"/>
-      <c r="AD20" s="80"/>
-      <c r="AE20" s="79"/>
-      <c r="AF20" s="80"/>
+    <row r="20" spans="1:54" x14ac:dyDescent="0.4">
+      <c r="A20" s="82"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="84"/>
+      <c r="N20" s="85"/>
+      <c r="O20" s="85"/>
+      <c r="P20" s="85"/>
+      <c r="Q20" s="85"/>
+      <c r="R20" s="85"/>
+      <c r="S20" s="85"/>
+      <c r="T20" s="86"/>
+      <c r="U20" s="80"/>
+      <c r="V20" s="81"/>
+      <c r="W20" s="80"/>
+      <c r="X20" s="81"/>
+      <c r="Y20" s="80"/>
+      <c r="Z20" s="87"/>
+      <c r="AA20" s="87"/>
+      <c r="AB20" s="87"/>
+      <c r="AC20" s="87"/>
+      <c r="AD20" s="81"/>
+      <c r="AE20" s="80"/>
+      <c r="AF20" s="81"/>
       <c r="AG20" s="9"/>
       <c r="AH20" s="10"/>
       <c r="AI20" s="10"/>
@@ -3907,76 +3930,46 @@
     </row>
   </sheetData>
   <mergeCells count="134">
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:L20"/>
-    <mergeCell ref="M20:T20"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="Y20:AD20"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:L19"/>
-    <mergeCell ref="M19:T19"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="Y19:AD19"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:L18"/>
-    <mergeCell ref="M18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="Y18:AD18"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:L17"/>
-    <mergeCell ref="M17:T17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="Y17:AD17"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="M16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="Y16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:L15"/>
-    <mergeCell ref="M15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="Y15:AD15"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:L14"/>
-    <mergeCell ref="M14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="Y14:AD14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="M13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="Y13:AD13"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="Y12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="M11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y11:AD11"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:BB2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="M4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="M2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:AD2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="M3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:L6"/>
+    <mergeCell ref="M6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:AD6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:L5"/>
+    <mergeCell ref="M5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:AD5"/>
     <mergeCell ref="AE7:AF7"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:L10"/>
@@ -4001,46 +3994,76 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:L9"/>
     <mergeCell ref="M9:T9"/>
-    <mergeCell ref="Y3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:L6"/>
-    <mergeCell ref="M6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:AD6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:L5"/>
-    <mergeCell ref="M5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:AD5"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:BB2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="M4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="M2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:AD2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="M3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Y12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="M11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y11:AD11"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="M14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="Y14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="M13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="Y13:AD13"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="M16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="Y16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:L15"/>
+    <mergeCell ref="M15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="Y15:AD15"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:L18"/>
+    <mergeCell ref="M18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="Y18:AD18"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:L17"/>
+    <mergeCell ref="M17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="Y17:AD17"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="M20:T20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="Y20:AD20"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:L19"/>
+    <mergeCell ref="M19:T19"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="Y19:AD19"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="AI2">
@@ -4056,18 +4079,18 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:CK17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="N1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AF12" sqref="AF12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="53" width="2.59765625" style="14"/>
-    <col min="54" max="54" width="25.59765625" style="14" customWidth="1"/>
-    <col min="55" max="16384" width="2.59765625" style="14"/>
+    <col min="1" max="53" width="2.625" style="14"/>
+    <col min="54" max="54" width="25.625" style="14" customWidth="1"/>
+    <col min="55" max="16384" width="2.625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:89" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -4160,96 +4183,96 @@
       <c r="CJ1" s="12"/>
       <c r="CK1" s="12"/>
     </row>
-    <row r="2" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A2" s="103" t="s">
+    <row r="2" spans="1:89" x14ac:dyDescent="0.4">
+      <c r="A2" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="103" t="s">
+      <c r="B2" s="96"/>
+      <c r="C2" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="103" t="s">
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="85"/>
-      <c r="T2" s="103" t="s">
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84"/>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="84"/>
-      <c r="AO2" s="84"/>
-      <c r="AP2" s="84"/>
-      <c r="AQ2" s="85"/>
-      <c r="AR2" s="84" t="s">
+      <c r="U2" s="95"/>
+      <c r="V2" s="95"/>
+      <c r="W2" s="95"/>
+      <c r="X2" s="95"/>
+      <c r="Y2" s="95"/>
+      <c r="Z2" s="95"/>
+      <c r="AA2" s="95"/>
+      <c r="AB2" s="95"/>
+      <c r="AC2" s="95"/>
+      <c r="AD2" s="95"/>
+      <c r="AE2" s="95"/>
+      <c r="AF2" s="95"/>
+      <c r="AG2" s="95"/>
+      <c r="AH2" s="95"/>
+      <c r="AI2" s="95"/>
+      <c r="AJ2" s="95"/>
+      <c r="AK2" s="95"/>
+      <c r="AL2" s="95"/>
+      <c r="AM2" s="95"/>
+      <c r="AN2" s="95"/>
+      <c r="AO2" s="95"/>
+      <c r="AP2" s="95"/>
+      <c r="AQ2" s="96"/>
+      <c r="AR2" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="84"/>
-      <c r="AU2" s="84"/>
-      <c r="AV2" s="84"/>
-      <c r="AW2" s="84"/>
-      <c r="AX2" s="84"/>
-      <c r="AY2" s="84"/>
-      <c r="AZ2" s="84"/>
-      <c r="BA2" s="84"/>
-      <c r="BB2" s="85"/>
-    </row>
-    <row r="3" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A3" s="98" t="s">
+      <c r="AS2" s="95"/>
+      <c r="AT2" s="95"/>
+      <c r="AU2" s="95"/>
+      <c r="AV2" s="95"/>
+      <c r="AW2" s="95"/>
+      <c r="AX2" s="95"/>
+      <c r="AY2" s="95"/>
+      <c r="AZ2" s="95"/>
+      <c r="BA2" s="95"/>
+      <c r="BB2" s="96"/>
+    </row>
+    <row r="3" spans="1:89" x14ac:dyDescent="0.4">
+      <c r="A3" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100" t="s">
+      <c r="B3" s="104"/>
+      <c r="C3" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="102"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
+      <c r="R3" s="106"/>
+      <c r="S3" s="107"/>
       <c r="T3" s="15" t="s">
         <v>43</v>
       </c>
@@ -4290,33 +4313,33 @@
       <c r="BA3" s="16"/>
       <c r="BB3" s="17"/>
     </row>
-    <row r="4" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A4" s="97" t="s">
+    <row r="4" spans="1:89" x14ac:dyDescent="0.4">
+      <c r="A4" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="88" t="s">
+      <c r="B4" s="83"/>
+      <c r="C4" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="88" t="s">
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="125" t="s">
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="57" t="s">
         <v>72</v>
       </c>
       <c r="U4" s="46"/>
@@ -4342,77 +4365,77 @@
       <c r="AO4" s="46"/>
       <c r="AP4" s="46"/>
       <c r="AQ4" s="47"/>
-      <c r="AR4" s="88"/>
-      <c r="AS4" s="89"/>
-      <c r="AT4" s="89"/>
-      <c r="AU4" s="89"/>
-      <c r="AV4" s="89"/>
-      <c r="AW4" s="89"/>
-      <c r="AX4" s="89"/>
-      <c r="AY4" s="89"/>
-      <c r="AZ4" s="89"/>
-      <c r="BA4" s="89"/>
-      <c r="BB4" s="90"/>
-    </row>
-    <row r="5" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A5" s="97"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="90"/>
-      <c r="T5" s="126" t="s">
+      <c r="AR4" s="84"/>
+      <c r="AS4" s="85"/>
+      <c r="AT4" s="85"/>
+      <c r="AU4" s="85"/>
+      <c r="AV4" s="85"/>
+      <c r="AW4" s="85"/>
+      <c r="AX4" s="85"/>
+      <c r="AY4" s="85"/>
+      <c r="AZ4" s="85"/>
+      <c r="BA4" s="85"/>
+      <c r="BB4" s="86"/>
+    </row>
+    <row r="5" spans="1:89" x14ac:dyDescent="0.4">
+      <c r="A5" s="99"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="86"/>
+      <c r="T5" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="U5" s="127"/>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
-      <c r="X5" s="127"/>
-      <c r="Y5" s="127"/>
-      <c r="Z5" s="127"/>
-      <c r="AA5" s="127"/>
-      <c r="AB5" s="127"/>
-      <c r="AC5" s="127"/>
-      <c r="AD5" s="127"/>
-      <c r="AE5" s="127"/>
-      <c r="AF5" s="127"/>
-      <c r="AG5" s="127"/>
-      <c r="AH5" s="127"/>
-      <c r="AI5" s="127"/>
-      <c r="AJ5" s="127"/>
-      <c r="AK5" s="127"/>
-      <c r="AL5" s="127"/>
-      <c r="AM5" s="127"/>
-      <c r="AN5" s="127"/>
-      <c r="AO5" s="127"/>
-      <c r="AP5" s="127"/>
-      <c r="AQ5" s="128"/>
-      <c r="AR5" s="88"/>
-      <c r="AS5" s="89"/>
-      <c r="AT5" s="89"/>
-      <c r="AU5" s="89"/>
-      <c r="AV5" s="89"/>
-      <c r="AW5" s="89"/>
-      <c r="AX5" s="89"/>
-      <c r="AY5" s="89"/>
-      <c r="AZ5" s="89"/>
-      <c r="BA5" s="89"/>
-      <c r="BB5" s="90"/>
-    </row>
-    <row r="6" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="U5" s="101"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="101"/>
+      <c r="X5" s="101"/>
+      <c r="Y5" s="101"/>
+      <c r="Z5" s="101"/>
+      <c r="AA5" s="101"/>
+      <c r="AB5" s="101"/>
+      <c r="AC5" s="101"/>
+      <c r="AD5" s="101"/>
+      <c r="AE5" s="101"/>
+      <c r="AF5" s="101"/>
+      <c r="AG5" s="101"/>
+      <c r="AH5" s="101"/>
+      <c r="AI5" s="101"/>
+      <c r="AJ5" s="101"/>
+      <c r="AK5" s="101"/>
+      <c r="AL5" s="101"/>
+      <c r="AM5" s="101"/>
+      <c r="AN5" s="101"/>
+      <c r="AO5" s="101"/>
+      <c r="AP5" s="101"/>
+      <c r="AQ5" s="102"/>
+      <c r="AR5" s="84"/>
+      <c r="AS5" s="85"/>
+      <c r="AT5" s="85"/>
+      <c r="AU5" s="85"/>
+      <c r="AV5" s="85"/>
+      <c r="AW5" s="85"/>
+      <c r="AX5" s="85"/>
+      <c r="AY5" s="85"/>
+      <c r="AZ5" s="85"/>
+      <c r="BA5" s="85"/>
+      <c r="BB5" s="86"/>
+    </row>
+    <row r="6" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="48"/>
       <c r="B6" s="49"/>
       <c r="C6" s="15"/>
@@ -4469,26 +4492,26 @@
       <c r="BA6" s="10"/>
       <c r="BB6" s="11"/>
     </row>
-    <row r="7" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A7" s="98"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="100"/>
-      <c r="N7" s="101"/>
-      <c r="O7" s="101"/>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="101"/>
+    <row r="7" spans="1:89" x14ac:dyDescent="0.4">
+      <c r="A7" s="103"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="105"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="106"/>
+      <c r="S7" s="106"/>
       <c r="T7" s="51" t="s">
         <v>69</v>
       </c>
@@ -4528,26 +4551,26 @@
       <c r="BA7" s="10"/>
       <c r="BB7" s="11"/>
     </row>
-    <row r="8" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="97"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="89"/>
-      <c r="R8" s="89"/>
-      <c r="S8" s="90"/>
+    <row r="8" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="99"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="85"/>
+      <c r="R8" s="85"/>
+      <c r="S8" s="86"/>
       <c r="T8" s="45" t="s">
         <v>65</v>
       </c>
@@ -4573,40 +4596,40 @@
       <c r="AO8" s="46"/>
       <c r="AP8" s="46"/>
       <c r="AQ8" s="47"/>
-      <c r="AR8" s="88" t="s">
+      <c r="AR8" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="AS8" s="89"/>
-      <c r="AT8" s="89"/>
-      <c r="AU8" s="89"/>
-      <c r="AV8" s="89"/>
-      <c r="AW8" s="89"/>
-      <c r="AX8" s="89"/>
-      <c r="AY8" s="89"/>
-      <c r="AZ8" s="89"/>
-      <c r="BA8" s="89"/>
-      <c r="BB8" s="90"/>
-    </row>
-    <row r="9" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A9" s="97"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="89"/>
-      <c r="O9" s="89"/>
-      <c r="P9" s="89"/>
-      <c r="Q9" s="89"/>
-      <c r="R9" s="89"/>
-      <c r="S9" s="90"/>
+      <c r="AS8" s="85"/>
+      <c r="AT8" s="85"/>
+      <c r="AU8" s="85"/>
+      <c r="AV8" s="85"/>
+      <c r="AW8" s="85"/>
+      <c r="AX8" s="85"/>
+      <c r="AY8" s="85"/>
+      <c r="AZ8" s="85"/>
+      <c r="BA8" s="85"/>
+      <c r="BB8" s="86"/>
+    </row>
+    <row r="9" spans="1:89" x14ac:dyDescent="0.4">
+      <c r="A9" s="99"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="85"/>
+      <c r="R9" s="85"/>
+      <c r="S9" s="86"/>
       <c r="T9" s="52" t="s">
         <v>62</v>
       </c>
@@ -4646,26 +4669,26 @@
       <c r="BA9" s="10"/>
       <c r="BB9" s="11"/>
     </row>
-    <row r="10" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A10" s="97"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="89"/>
-      <c r="Q10" s="89"/>
-      <c r="R10" s="89"/>
-      <c r="S10" s="90"/>
+    <row r="10" spans="1:89" x14ac:dyDescent="0.4">
+      <c r="A10" s="99"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="85"/>
+      <c r="Q10" s="85"/>
+      <c r="R10" s="85"/>
+      <c r="S10" s="86"/>
       <c r="T10" s="9"/>
       <c r="U10" s="10"/>
       <c r="V10" s="46"/>
@@ -4704,7 +4727,7 @@
       <c r="BA10" s="10"/>
       <c r="BB10" s="11"/>
     </row>
-    <row r="11" spans="1:89" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:89" x14ac:dyDescent="0.4">
       <c r="A11" s="36"/>
       <c r="B11" s="35"/>
       <c r="C11" s="9"/>
@@ -4760,26 +4783,26 @@
       <c r="BA11" s="10"/>
       <c r="BB11" s="11"/>
     </row>
-    <row r="12" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A12" s="97"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="88"/>
-      <c r="N12" s="89"/>
-      <c r="O12" s="89"/>
-      <c r="P12" s="89"/>
-      <c r="Q12" s="89"/>
-      <c r="R12" s="89"/>
-      <c r="S12" s="90"/>
+    <row r="12" spans="1:89" x14ac:dyDescent="0.4">
+      <c r="A12" s="99"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="84"/>
+      <c r="N12" s="85"/>
+      <c r="O12" s="85"/>
+      <c r="P12" s="85"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="85"/>
+      <c r="S12" s="86"/>
       <c r="T12" s="9"/>
       <c r="U12" s="10"/>
       <c r="V12" s="10"/>
@@ -4816,26 +4839,26 @@
       <c r="BA12" s="10"/>
       <c r="BB12" s="11"/>
     </row>
-    <row r="13" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A13" s="97"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="88"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="89"/>
-      <c r="P13" s="89"/>
-      <c r="Q13" s="89"/>
-      <c r="R13" s="89"/>
-      <c r="S13" s="90"/>
+    <row r="13" spans="1:89" x14ac:dyDescent="0.4">
+      <c r="A13" s="99"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="85"/>
+      <c r="O13" s="85"/>
+      <c r="P13" s="85"/>
+      <c r="Q13" s="85"/>
+      <c r="R13" s="85"/>
+      <c r="S13" s="86"/>
       <c r="T13" s="9"/>
       <c r="U13" s="10"/>
       <c r="V13" s="10"/>
@@ -4860,38 +4883,38 @@
       <c r="AO13" s="10"/>
       <c r="AP13" s="10"/>
       <c r="AQ13" s="11"/>
-      <c r="AR13" s="88"/>
-      <c r="AS13" s="89"/>
-      <c r="AT13" s="89"/>
-      <c r="AU13" s="89"/>
-      <c r="AV13" s="89"/>
-      <c r="AW13" s="89"/>
-      <c r="AX13" s="89"/>
-      <c r="AY13" s="89"/>
-      <c r="AZ13" s="89"/>
-      <c r="BA13" s="89"/>
-      <c r="BB13" s="90"/>
-    </row>
-    <row r="14" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A14" s="97"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="89"/>
-      <c r="O14" s="89"/>
-      <c r="P14" s="89"/>
-      <c r="Q14" s="89"/>
-      <c r="R14" s="89"/>
-      <c r="S14" s="90"/>
+      <c r="AR13" s="84"/>
+      <c r="AS13" s="85"/>
+      <c r="AT13" s="85"/>
+      <c r="AU13" s="85"/>
+      <c r="AV13" s="85"/>
+      <c r="AW13" s="85"/>
+      <c r="AX13" s="85"/>
+      <c r="AY13" s="85"/>
+      <c r="AZ13" s="85"/>
+      <c r="BA13" s="85"/>
+      <c r="BB13" s="86"/>
+    </row>
+    <row r="14" spans="1:89" x14ac:dyDescent="0.4">
+      <c r="A14" s="99"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="85"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="85"/>
+      <c r="S14" s="86"/>
       <c r="T14" s="46"/>
       <c r="U14" s="55"/>
       <c r="V14" s="55"/>
@@ -4928,26 +4951,26 @@
       <c r="BA14" s="10"/>
       <c r="BB14" s="11"/>
     </row>
-    <row r="15" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A15" s="97"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="89"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="89"/>
-      <c r="Q15" s="89"/>
-      <c r="R15" s="89"/>
-      <c r="S15" s="90"/>
+    <row r="15" spans="1:89" x14ac:dyDescent="0.4">
+      <c r="A15" s="99"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="85"/>
+      <c r="S15" s="86"/>
       <c r="T15" s="46"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
@@ -4984,26 +5007,26 @@
       <c r="BA15" s="10"/>
       <c r="BB15" s="11"/>
     </row>
-    <row r="16" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A16" s="97"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="88"/>
-      <c r="N16" s="89"/>
-      <c r="O16" s="89"/>
-      <c r="P16" s="89"/>
-      <c r="Q16" s="89"/>
-      <c r="R16" s="89"/>
-      <c r="S16" s="90"/>
+    <row r="16" spans="1:89" x14ac:dyDescent="0.4">
+      <c r="A16" s="99"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="85"/>
+      <c r="S16" s="86"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
       <c r="W16" s="10"/>
@@ -5039,11 +5062,41 @@
       <c r="BA16" s="10"/>
       <c r="BB16" s="11"/>
     </row>
-    <row r="17" spans="21:21" x14ac:dyDescent="0.45">
+    <row r="17" spans="21:21" x14ac:dyDescent="0.4">
       <c r="U17" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="M16:S16"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="M7:S7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="M14:S14"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="M9:S9"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:L15"/>
+    <mergeCell ref="M15:S15"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="M2:S2"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="M8:S8"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="M3:S3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="C5:L5"/>
+    <mergeCell ref="M5:S5"/>
     <mergeCell ref="AR5:BB5"/>
     <mergeCell ref="T2:AQ2"/>
     <mergeCell ref="AR2:BB2"/>
@@ -5060,36 +5113,6 @@
     <mergeCell ref="AR13:BB13"/>
     <mergeCell ref="AR4:BB4"/>
     <mergeCell ref="AR8:BB8"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="M2:S2"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="M8:S8"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="M3:S3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="C5:L5"/>
-    <mergeCell ref="M5:S5"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="M16:S16"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:L7"/>
-    <mergeCell ref="M7:S7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C14:L14"/>
-    <mergeCell ref="M14:S14"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:L9"/>
-    <mergeCell ref="M9:S9"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:L15"/>
-    <mergeCell ref="M15:S15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="AS1:AS2">
@@ -5109,12 +5132,12 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="2.59765625" style="3"/>
+    <col min="1" max="16384" width="2.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:81" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -5198,109 +5221,109 @@
       <c r="CB1" s="1"/>
       <c r="CC1" s="1"/>
     </row>
-    <row r="2" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A2" s="82" t="s">
+    <row r="2" spans="1:81" x14ac:dyDescent="0.4">
+      <c r="A2" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="95" t="s">
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="95"/>
-      <c r="U2" s="95"/>
-      <c r="V2" s="95"/>
-      <c r="W2" s="95"/>
-      <c r="X2" s="95"/>
-      <c r="Y2" s="95"/>
-      <c r="Z2" s="95"/>
-      <c r="AA2" s="95"/>
-      <c r="AB2" s="95"/>
-      <c r="AC2" s="95"/>
-      <c r="AD2" s="83"/>
-      <c r="AE2" s="104" t="s">
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97"/>
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="97"/>
+      <c r="AD2" s="94"/>
+      <c r="AE2" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="AF2" s="105"/>
-      <c r="AG2" s="105"/>
-      <c r="AH2" s="105"/>
-      <c r="AI2" s="105"/>
-      <c r="AJ2" s="105"/>
-      <c r="AK2" s="105"/>
-      <c r="AL2" s="105"/>
-      <c r="AM2" s="105"/>
-      <c r="AN2" s="104" t="s">
+      <c r="AF2" s="109"/>
+      <c r="AG2" s="109"/>
+      <c r="AH2" s="109"/>
+      <c r="AI2" s="109"/>
+      <c r="AJ2" s="109"/>
+      <c r="AK2" s="109"/>
+      <c r="AL2" s="109"/>
+      <c r="AM2" s="109"/>
+      <c r="AN2" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="AO2" s="105"/>
-      <c r="AP2" s="105"/>
-      <c r="AQ2" s="105"/>
-      <c r="AR2" s="105"/>
-      <c r="AS2" s="105"/>
-      <c r="AT2" s="105"/>
-      <c r="AU2" s="105"/>
-      <c r="AV2" s="105"/>
-      <c r="AW2" s="105"/>
-      <c r="AX2" s="105"/>
-      <c r="AY2" s="105"/>
-      <c r="AZ2" s="105"/>
-      <c r="BA2" s="105"/>
-      <c r="BB2" s="106"/>
-    </row>
-    <row r="3" spans="1:81" x14ac:dyDescent="0.45">
-      <c r="A3" s="82" t="s">
+      <c r="AO2" s="109"/>
+      <c r="AP2" s="109"/>
+      <c r="AQ2" s="109"/>
+      <c r="AR2" s="109"/>
+      <c r="AS2" s="109"/>
+      <c r="AT2" s="109"/>
+      <c r="AU2" s="109"/>
+      <c r="AV2" s="109"/>
+      <c r="AW2" s="109"/>
+      <c r="AX2" s="109"/>
+      <c r="AY2" s="109"/>
+      <c r="AZ2" s="109"/>
+      <c r="BA2" s="109"/>
+      <c r="BB2" s="110"/>
+    </row>
+    <row r="3" spans="1:81" x14ac:dyDescent="0.4">
+      <c r="A3" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="82" t="s">
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="83"/>
-      <c r="S3" s="95" t="s">
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="83"/>
-      <c r="U3" s="82" t="s">
+      <c r="T3" s="94"/>
+      <c r="U3" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="V3" s="95"/>
-      <c r="W3" s="95"/>
-      <c r="X3" s="95"/>
-      <c r="Y3" s="95"/>
-      <c r="Z3" s="95"/>
-      <c r="AA3" s="95"/>
-      <c r="AB3" s="95"/>
-      <c r="AC3" s="95"/>
-      <c r="AD3" s="83"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="94"/>
       <c r="AE3" s="18"/>
       <c r="AF3" s="19"/>
       <c r="AG3" s="19"/>
@@ -5326,7 +5349,7 @@
       <c r="BA3" s="19"/>
       <c r="BB3" s="20"/>
     </row>
-    <row r="4" spans="1:81" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:81" x14ac:dyDescent="0.4">
       <c r="A4" s="25"/>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
@@ -5382,7 +5405,7 @@
       <c r="BA4" s="26"/>
       <c r="BB4" s="28"/>
     </row>
-    <row r="5" spans="1:81" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:81" x14ac:dyDescent="0.4">
       <c r="A5" s="9"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -5401,44 +5424,44 @@
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="11"/>
-      <c r="S5" s="86"/>
-      <c r="T5" s="87"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="89"/>
-      <c r="W5" s="89"/>
-      <c r="X5" s="89"/>
-      <c r="Y5" s="89"/>
-      <c r="Z5" s="89"/>
-      <c r="AA5" s="89"/>
-      <c r="AB5" s="89"/>
-      <c r="AC5" s="89"/>
-      <c r="AD5" s="90"/>
-      <c r="AE5" s="88"/>
-      <c r="AF5" s="89"/>
-      <c r="AG5" s="89"/>
-      <c r="AH5" s="89"/>
-      <c r="AI5" s="89"/>
-      <c r="AJ5" s="89"/>
-      <c r="AK5" s="89"/>
-      <c r="AL5" s="89"/>
-      <c r="AM5" s="90"/>
-      <c r="AN5" s="88"/>
-      <c r="AO5" s="89"/>
-      <c r="AP5" s="89"/>
-      <c r="AQ5" s="89"/>
-      <c r="AR5" s="89"/>
-      <c r="AS5" s="89"/>
-      <c r="AT5" s="89"/>
-      <c r="AU5" s="89"/>
-      <c r="AV5" s="89"/>
-      <c r="AW5" s="89"/>
-      <c r="AX5" s="89"/>
-      <c r="AY5" s="89"/>
-      <c r="AZ5" s="89"/>
-      <c r="BA5" s="89"/>
-      <c r="BB5" s="90"/>
-    </row>
-    <row r="6" spans="1:81" x14ac:dyDescent="0.45">
+      <c r="S5" s="82"/>
+      <c r="T5" s="83"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="85"/>
+      <c r="W5" s="85"/>
+      <c r="X5" s="85"/>
+      <c r="Y5" s="85"/>
+      <c r="Z5" s="85"/>
+      <c r="AA5" s="85"/>
+      <c r="AB5" s="85"/>
+      <c r="AC5" s="85"/>
+      <c r="AD5" s="86"/>
+      <c r="AE5" s="84"/>
+      <c r="AF5" s="85"/>
+      <c r="AG5" s="85"/>
+      <c r="AH5" s="85"/>
+      <c r="AI5" s="85"/>
+      <c r="AJ5" s="85"/>
+      <c r="AK5" s="85"/>
+      <c r="AL5" s="85"/>
+      <c r="AM5" s="86"/>
+      <c r="AN5" s="84"/>
+      <c r="AO5" s="85"/>
+      <c r="AP5" s="85"/>
+      <c r="AQ5" s="85"/>
+      <c r="AR5" s="85"/>
+      <c r="AS5" s="85"/>
+      <c r="AT5" s="85"/>
+      <c r="AU5" s="85"/>
+      <c r="AV5" s="85"/>
+      <c r="AW5" s="85"/>
+      <c r="AX5" s="85"/>
+      <c r="AY5" s="85"/>
+      <c r="AZ5" s="85"/>
+      <c r="BA5" s="85"/>
+      <c r="BB5" s="86"/>
+    </row>
+    <row r="6" spans="1:81" x14ac:dyDescent="0.4">
       <c r="A6" s="9"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -5457,44 +5480,44 @@
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
       <c r="R6" s="11"/>
-      <c r="S6" s="86"/>
-      <c r="T6" s="87"/>
-      <c r="U6" s="88"/>
-      <c r="V6" s="89"/>
-      <c r="W6" s="89"/>
-      <c r="X6" s="89"/>
-      <c r="Y6" s="89"/>
-      <c r="Z6" s="89"/>
-      <c r="AA6" s="89"/>
-      <c r="AB6" s="89"/>
-      <c r="AC6" s="89"/>
-      <c r="AD6" s="90"/>
-      <c r="AE6" s="88"/>
-      <c r="AF6" s="89"/>
-      <c r="AG6" s="89"/>
-      <c r="AH6" s="89"/>
-      <c r="AI6" s="89"/>
-      <c r="AJ6" s="89"/>
-      <c r="AK6" s="89"/>
-      <c r="AL6" s="89"/>
-      <c r="AM6" s="90"/>
-      <c r="AN6" s="88"/>
-      <c r="AO6" s="89"/>
-      <c r="AP6" s="89"/>
-      <c r="AQ6" s="89"/>
-      <c r="AR6" s="89"/>
-      <c r="AS6" s="89"/>
-      <c r="AT6" s="89"/>
-      <c r="AU6" s="89"/>
-      <c r="AV6" s="89"/>
-      <c r="AW6" s="89"/>
-      <c r="AX6" s="89"/>
-      <c r="AY6" s="89"/>
-      <c r="AZ6" s="89"/>
-      <c r="BA6" s="89"/>
-      <c r="BB6" s="90"/>
-    </row>
-    <row r="7" spans="1:81" x14ac:dyDescent="0.45">
+      <c r="S6" s="82"/>
+      <c r="T6" s="83"/>
+      <c r="U6" s="84"/>
+      <c r="V6" s="85"/>
+      <c r="W6" s="85"/>
+      <c r="X6" s="85"/>
+      <c r="Y6" s="85"/>
+      <c r="Z6" s="85"/>
+      <c r="AA6" s="85"/>
+      <c r="AB6" s="85"/>
+      <c r="AC6" s="85"/>
+      <c r="AD6" s="86"/>
+      <c r="AE6" s="84"/>
+      <c r="AF6" s="85"/>
+      <c r="AG6" s="85"/>
+      <c r="AH6" s="85"/>
+      <c r="AI6" s="85"/>
+      <c r="AJ6" s="85"/>
+      <c r="AK6" s="85"/>
+      <c r="AL6" s="85"/>
+      <c r="AM6" s="86"/>
+      <c r="AN6" s="84"/>
+      <c r="AO6" s="85"/>
+      <c r="AP6" s="85"/>
+      <c r="AQ6" s="85"/>
+      <c r="AR6" s="85"/>
+      <c r="AS6" s="85"/>
+      <c r="AT6" s="85"/>
+      <c r="AU6" s="85"/>
+      <c r="AV6" s="85"/>
+      <c r="AW6" s="85"/>
+      <c r="AX6" s="85"/>
+      <c r="AY6" s="85"/>
+      <c r="AZ6" s="85"/>
+      <c r="BA6" s="85"/>
+      <c r="BB6" s="86"/>
+    </row>
+    <row r="7" spans="1:81" x14ac:dyDescent="0.4">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -5513,44 +5536,44 @@
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="11"/>
-      <c r="S7" s="86"/>
-      <c r="T7" s="87"/>
-      <c r="U7" s="88"/>
-      <c r="V7" s="89"/>
-      <c r="W7" s="89"/>
-      <c r="X7" s="89"/>
-      <c r="Y7" s="89"/>
-      <c r="Z7" s="89"/>
-      <c r="AA7" s="89"/>
-      <c r="AB7" s="89"/>
-      <c r="AC7" s="89"/>
-      <c r="AD7" s="90"/>
-      <c r="AE7" s="88"/>
-      <c r="AF7" s="89"/>
-      <c r="AG7" s="89"/>
-      <c r="AH7" s="89"/>
-      <c r="AI7" s="89"/>
-      <c r="AJ7" s="89"/>
-      <c r="AK7" s="89"/>
-      <c r="AL7" s="89"/>
-      <c r="AM7" s="90"/>
-      <c r="AN7" s="88"/>
-      <c r="AO7" s="89"/>
-      <c r="AP7" s="89"/>
-      <c r="AQ7" s="89"/>
-      <c r="AR7" s="89"/>
-      <c r="AS7" s="89"/>
-      <c r="AT7" s="89"/>
-      <c r="AU7" s="89"/>
-      <c r="AV7" s="89"/>
-      <c r="AW7" s="89"/>
-      <c r="AX7" s="89"/>
-      <c r="AY7" s="89"/>
-      <c r="AZ7" s="89"/>
-      <c r="BA7" s="89"/>
-      <c r="BB7" s="90"/>
-    </row>
-    <row r="8" spans="1:81" x14ac:dyDescent="0.45">
+      <c r="S7" s="82"/>
+      <c r="T7" s="83"/>
+      <c r="U7" s="84"/>
+      <c r="V7" s="85"/>
+      <c r="W7" s="85"/>
+      <c r="X7" s="85"/>
+      <c r="Y7" s="85"/>
+      <c r="Z7" s="85"/>
+      <c r="AA7" s="85"/>
+      <c r="AB7" s="85"/>
+      <c r="AC7" s="85"/>
+      <c r="AD7" s="86"/>
+      <c r="AE7" s="84"/>
+      <c r="AF7" s="85"/>
+      <c r="AG7" s="85"/>
+      <c r="AH7" s="85"/>
+      <c r="AI7" s="85"/>
+      <c r="AJ7" s="85"/>
+      <c r="AK7" s="85"/>
+      <c r="AL7" s="85"/>
+      <c r="AM7" s="86"/>
+      <c r="AN7" s="84"/>
+      <c r="AO7" s="85"/>
+      <c r="AP7" s="85"/>
+      <c r="AQ7" s="85"/>
+      <c r="AR7" s="85"/>
+      <c r="AS7" s="85"/>
+      <c r="AT7" s="85"/>
+      <c r="AU7" s="85"/>
+      <c r="AV7" s="85"/>
+      <c r="AW7" s="85"/>
+      <c r="AX7" s="85"/>
+      <c r="AY7" s="85"/>
+      <c r="AZ7" s="85"/>
+      <c r="BA7" s="85"/>
+      <c r="BB7" s="86"/>
+    </row>
+    <row r="8" spans="1:81" x14ac:dyDescent="0.4">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -5569,44 +5592,44 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="11"/>
-      <c r="S8" s="86"/>
-      <c r="T8" s="87"/>
-      <c r="U8" s="88"/>
-      <c r="V8" s="89"/>
-      <c r="W8" s="89"/>
-      <c r="X8" s="89"/>
-      <c r="Y8" s="89"/>
-      <c r="Z8" s="89"/>
-      <c r="AA8" s="89"/>
-      <c r="AB8" s="89"/>
-      <c r="AC8" s="89"/>
-      <c r="AD8" s="90"/>
-      <c r="AE8" s="88"/>
-      <c r="AF8" s="89"/>
-      <c r="AG8" s="89"/>
-      <c r="AH8" s="89"/>
-      <c r="AI8" s="89"/>
-      <c r="AJ8" s="89"/>
-      <c r="AK8" s="89"/>
-      <c r="AL8" s="89"/>
-      <c r="AM8" s="90"/>
-      <c r="AN8" s="88"/>
-      <c r="AO8" s="89"/>
-      <c r="AP8" s="89"/>
-      <c r="AQ8" s="89"/>
-      <c r="AR8" s="89"/>
-      <c r="AS8" s="89"/>
-      <c r="AT8" s="89"/>
-      <c r="AU8" s="89"/>
-      <c r="AV8" s="89"/>
-      <c r="AW8" s="89"/>
-      <c r="AX8" s="89"/>
-      <c r="AY8" s="89"/>
-      <c r="AZ8" s="89"/>
-      <c r="BA8" s="89"/>
-      <c r="BB8" s="90"/>
-    </row>
-    <row r="9" spans="1:81" x14ac:dyDescent="0.45">
+      <c r="S8" s="82"/>
+      <c r="T8" s="83"/>
+      <c r="U8" s="84"/>
+      <c r="V8" s="85"/>
+      <c r="W8" s="85"/>
+      <c r="X8" s="85"/>
+      <c r="Y8" s="85"/>
+      <c r="Z8" s="85"/>
+      <c r="AA8" s="85"/>
+      <c r="AB8" s="85"/>
+      <c r="AC8" s="85"/>
+      <c r="AD8" s="86"/>
+      <c r="AE8" s="84"/>
+      <c r="AF8" s="85"/>
+      <c r="AG8" s="85"/>
+      <c r="AH8" s="85"/>
+      <c r="AI8" s="85"/>
+      <c r="AJ8" s="85"/>
+      <c r="AK8" s="85"/>
+      <c r="AL8" s="85"/>
+      <c r="AM8" s="86"/>
+      <c r="AN8" s="84"/>
+      <c r="AO8" s="85"/>
+      <c r="AP8" s="85"/>
+      <c r="AQ8" s="85"/>
+      <c r="AR8" s="85"/>
+      <c r="AS8" s="85"/>
+      <c r="AT8" s="85"/>
+      <c r="AU8" s="85"/>
+      <c r="AV8" s="85"/>
+      <c r="AW8" s="85"/>
+      <c r="AX8" s="85"/>
+      <c r="AY8" s="85"/>
+      <c r="AZ8" s="85"/>
+      <c r="BA8" s="85"/>
+      <c r="BB8" s="86"/>
+    </row>
+    <row r="9" spans="1:81" x14ac:dyDescent="0.4">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -5625,44 +5648,44 @@
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
       <c r="R9" s="11"/>
-      <c r="S9" s="86"/>
-      <c r="T9" s="87"/>
-      <c r="U9" s="88"/>
-      <c r="V9" s="89"/>
-      <c r="W9" s="89"/>
-      <c r="X9" s="89"/>
-      <c r="Y9" s="89"/>
-      <c r="Z9" s="89"/>
-      <c r="AA9" s="89"/>
-      <c r="AB9" s="89"/>
-      <c r="AC9" s="89"/>
-      <c r="AD9" s="90"/>
-      <c r="AE9" s="88"/>
-      <c r="AF9" s="89"/>
-      <c r="AG9" s="89"/>
-      <c r="AH9" s="89"/>
-      <c r="AI9" s="89"/>
-      <c r="AJ9" s="89"/>
-      <c r="AK9" s="89"/>
-      <c r="AL9" s="89"/>
-      <c r="AM9" s="90"/>
-      <c r="AN9" s="88"/>
-      <c r="AO9" s="89"/>
-      <c r="AP9" s="89"/>
-      <c r="AQ9" s="89"/>
-      <c r="AR9" s="89"/>
-      <c r="AS9" s="89"/>
-      <c r="AT9" s="89"/>
-      <c r="AU9" s="89"/>
-      <c r="AV9" s="89"/>
-      <c r="AW9" s="89"/>
-      <c r="AX9" s="89"/>
-      <c r="AY9" s="89"/>
-      <c r="AZ9" s="89"/>
-      <c r="BA9" s="89"/>
-      <c r="BB9" s="90"/>
-    </row>
-    <row r="10" spans="1:81" x14ac:dyDescent="0.45">
+      <c r="S9" s="82"/>
+      <c r="T9" s="83"/>
+      <c r="U9" s="84"/>
+      <c r="V9" s="85"/>
+      <c r="W9" s="85"/>
+      <c r="X9" s="85"/>
+      <c r="Y9" s="85"/>
+      <c r="Z9" s="85"/>
+      <c r="AA9" s="85"/>
+      <c r="AB9" s="85"/>
+      <c r="AC9" s="85"/>
+      <c r="AD9" s="86"/>
+      <c r="AE9" s="84"/>
+      <c r="AF9" s="85"/>
+      <c r="AG9" s="85"/>
+      <c r="AH9" s="85"/>
+      <c r="AI9" s="85"/>
+      <c r="AJ9" s="85"/>
+      <c r="AK9" s="85"/>
+      <c r="AL9" s="85"/>
+      <c r="AM9" s="86"/>
+      <c r="AN9" s="84"/>
+      <c r="AO9" s="85"/>
+      <c r="AP9" s="85"/>
+      <c r="AQ9" s="85"/>
+      <c r="AR9" s="85"/>
+      <c r="AS9" s="85"/>
+      <c r="AT9" s="85"/>
+      <c r="AU9" s="85"/>
+      <c r="AV9" s="85"/>
+      <c r="AW9" s="85"/>
+      <c r="AX9" s="85"/>
+      <c r="AY9" s="85"/>
+      <c r="AZ9" s="85"/>
+      <c r="BA9" s="85"/>
+      <c r="BB9" s="86"/>
+    </row>
+    <row r="10" spans="1:81" x14ac:dyDescent="0.4">
       <c r="A10" s="9"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -5681,44 +5704,44 @@
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="11"/>
-      <c r="S10" s="86"/>
-      <c r="T10" s="87"/>
-      <c r="U10" s="88"/>
-      <c r="V10" s="89"/>
-      <c r="W10" s="89"/>
-      <c r="X10" s="89"/>
-      <c r="Y10" s="89"/>
-      <c r="Z10" s="89"/>
-      <c r="AA10" s="89"/>
-      <c r="AB10" s="89"/>
-      <c r="AC10" s="89"/>
-      <c r="AD10" s="90"/>
-      <c r="AE10" s="88"/>
-      <c r="AF10" s="89"/>
-      <c r="AG10" s="89"/>
-      <c r="AH10" s="89"/>
-      <c r="AI10" s="89"/>
-      <c r="AJ10" s="89"/>
-      <c r="AK10" s="89"/>
-      <c r="AL10" s="89"/>
-      <c r="AM10" s="90"/>
-      <c r="AN10" s="88"/>
-      <c r="AO10" s="89"/>
-      <c r="AP10" s="89"/>
-      <c r="AQ10" s="89"/>
-      <c r="AR10" s="89"/>
-      <c r="AS10" s="89"/>
-      <c r="AT10" s="89"/>
-      <c r="AU10" s="89"/>
-      <c r="AV10" s="89"/>
-      <c r="AW10" s="89"/>
-      <c r="AX10" s="89"/>
-      <c r="AY10" s="89"/>
-      <c r="AZ10" s="89"/>
-      <c r="BA10" s="89"/>
-      <c r="BB10" s="90"/>
-    </row>
-    <row r="11" spans="1:81" x14ac:dyDescent="0.45">
+      <c r="S10" s="82"/>
+      <c r="T10" s="83"/>
+      <c r="U10" s="84"/>
+      <c r="V10" s="85"/>
+      <c r="W10" s="85"/>
+      <c r="X10" s="85"/>
+      <c r="Y10" s="85"/>
+      <c r="Z10" s="85"/>
+      <c r="AA10" s="85"/>
+      <c r="AB10" s="85"/>
+      <c r="AC10" s="85"/>
+      <c r="AD10" s="86"/>
+      <c r="AE10" s="84"/>
+      <c r="AF10" s="85"/>
+      <c r="AG10" s="85"/>
+      <c r="AH10" s="85"/>
+      <c r="AI10" s="85"/>
+      <c r="AJ10" s="85"/>
+      <c r="AK10" s="85"/>
+      <c r="AL10" s="85"/>
+      <c r="AM10" s="86"/>
+      <c r="AN10" s="84"/>
+      <c r="AO10" s="85"/>
+      <c r="AP10" s="85"/>
+      <c r="AQ10" s="85"/>
+      <c r="AR10" s="85"/>
+      <c r="AS10" s="85"/>
+      <c r="AT10" s="85"/>
+      <c r="AU10" s="85"/>
+      <c r="AV10" s="85"/>
+      <c r="AW10" s="85"/>
+      <c r="AX10" s="85"/>
+      <c r="AY10" s="85"/>
+      <c r="AZ10" s="85"/>
+      <c r="BA10" s="85"/>
+      <c r="BB10" s="86"/>
+    </row>
+    <row r="11" spans="1:81" x14ac:dyDescent="0.4">
       <c r="A11" s="9"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -5737,44 +5760,44 @@
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
       <c r="R11" s="11"/>
-      <c r="S11" s="86"/>
-      <c r="T11" s="87"/>
-      <c r="U11" s="88"/>
-      <c r="V11" s="89"/>
-      <c r="W11" s="89"/>
-      <c r="X11" s="89"/>
-      <c r="Y11" s="89"/>
-      <c r="Z11" s="89"/>
-      <c r="AA11" s="89"/>
-      <c r="AB11" s="89"/>
-      <c r="AC11" s="89"/>
-      <c r="AD11" s="90"/>
-      <c r="AE11" s="88"/>
-      <c r="AF11" s="89"/>
-      <c r="AG11" s="89"/>
-      <c r="AH11" s="89"/>
-      <c r="AI11" s="89"/>
-      <c r="AJ11" s="89"/>
-      <c r="AK11" s="89"/>
-      <c r="AL11" s="89"/>
-      <c r="AM11" s="90"/>
-      <c r="AN11" s="88"/>
-      <c r="AO11" s="89"/>
-      <c r="AP11" s="89"/>
-      <c r="AQ11" s="89"/>
-      <c r="AR11" s="89"/>
-      <c r="AS11" s="89"/>
-      <c r="AT11" s="89"/>
-      <c r="AU11" s="89"/>
-      <c r="AV11" s="89"/>
-      <c r="AW11" s="89"/>
-      <c r="AX11" s="89"/>
-      <c r="AY11" s="89"/>
-      <c r="AZ11" s="89"/>
-      <c r="BA11" s="89"/>
-      <c r="BB11" s="90"/>
-    </row>
-    <row r="12" spans="1:81" x14ac:dyDescent="0.45">
+      <c r="S11" s="82"/>
+      <c r="T11" s="83"/>
+      <c r="U11" s="84"/>
+      <c r="V11" s="85"/>
+      <c r="W11" s="85"/>
+      <c r="X11" s="85"/>
+      <c r="Y11" s="85"/>
+      <c r="Z11" s="85"/>
+      <c r="AA11" s="85"/>
+      <c r="AB11" s="85"/>
+      <c r="AC11" s="85"/>
+      <c r="AD11" s="86"/>
+      <c r="AE11" s="84"/>
+      <c r="AF11" s="85"/>
+      <c r="AG11" s="85"/>
+      <c r="AH11" s="85"/>
+      <c r="AI11" s="85"/>
+      <c r="AJ11" s="85"/>
+      <c r="AK11" s="85"/>
+      <c r="AL11" s="85"/>
+      <c r="AM11" s="86"/>
+      <c r="AN11" s="84"/>
+      <c r="AO11" s="85"/>
+      <c r="AP11" s="85"/>
+      <c r="AQ11" s="85"/>
+      <c r="AR11" s="85"/>
+      <c r="AS11" s="85"/>
+      <c r="AT11" s="85"/>
+      <c r="AU11" s="85"/>
+      <c r="AV11" s="85"/>
+      <c r="AW11" s="85"/>
+      <c r="AX11" s="85"/>
+      <c r="AY11" s="85"/>
+      <c r="AZ11" s="85"/>
+      <c r="BA11" s="85"/>
+      <c r="BB11" s="86"/>
+    </row>
+    <row r="12" spans="1:81" x14ac:dyDescent="0.4">
       <c r="A12" s="9"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -5793,44 +5816,44 @@
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
       <c r="R12" s="11"/>
-      <c r="S12" s="86"/>
-      <c r="T12" s="87"/>
-      <c r="U12" s="88"/>
-      <c r="V12" s="89"/>
-      <c r="W12" s="89"/>
-      <c r="X12" s="89"/>
-      <c r="Y12" s="89"/>
-      <c r="Z12" s="89"/>
-      <c r="AA12" s="89"/>
-      <c r="AB12" s="89"/>
-      <c r="AC12" s="89"/>
-      <c r="AD12" s="90"/>
-      <c r="AE12" s="88"/>
-      <c r="AF12" s="89"/>
-      <c r="AG12" s="89"/>
-      <c r="AH12" s="89"/>
-      <c r="AI12" s="89"/>
-      <c r="AJ12" s="89"/>
-      <c r="AK12" s="89"/>
-      <c r="AL12" s="89"/>
-      <c r="AM12" s="90"/>
-      <c r="AN12" s="88"/>
-      <c r="AO12" s="89"/>
-      <c r="AP12" s="89"/>
-      <c r="AQ12" s="89"/>
-      <c r="AR12" s="89"/>
-      <c r="AS12" s="89"/>
-      <c r="AT12" s="89"/>
-      <c r="AU12" s="89"/>
-      <c r="AV12" s="89"/>
-      <c r="AW12" s="89"/>
-      <c r="AX12" s="89"/>
-      <c r="AY12" s="89"/>
-      <c r="AZ12" s="89"/>
-      <c r="BA12" s="89"/>
-      <c r="BB12" s="90"/>
-    </row>
-    <row r="13" spans="1:81" x14ac:dyDescent="0.45">
+      <c r="S12" s="82"/>
+      <c r="T12" s="83"/>
+      <c r="U12" s="84"/>
+      <c r="V12" s="85"/>
+      <c r="W12" s="85"/>
+      <c r="X12" s="85"/>
+      <c r="Y12" s="85"/>
+      <c r="Z12" s="85"/>
+      <c r="AA12" s="85"/>
+      <c r="AB12" s="85"/>
+      <c r="AC12" s="85"/>
+      <c r="AD12" s="86"/>
+      <c r="AE12" s="84"/>
+      <c r="AF12" s="85"/>
+      <c r="AG12" s="85"/>
+      <c r="AH12" s="85"/>
+      <c r="AI12" s="85"/>
+      <c r="AJ12" s="85"/>
+      <c r="AK12" s="85"/>
+      <c r="AL12" s="85"/>
+      <c r="AM12" s="86"/>
+      <c r="AN12" s="84"/>
+      <c r="AO12" s="85"/>
+      <c r="AP12" s="85"/>
+      <c r="AQ12" s="85"/>
+      <c r="AR12" s="85"/>
+      <c r="AS12" s="85"/>
+      <c r="AT12" s="85"/>
+      <c r="AU12" s="85"/>
+      <c r="AV12" s="85"/>
+      <c r="AW12" s="85"/>
+      <c r="AX12" s="85"/>
+      <c r="AY12" s="85"/>
+      <c r="AZ12" s="85"/>
+      <c r="BA12" s="85"/>
+      <c r="BB12" s="86"/>
+    </row>
+    <row r="13" spans="1:81" x14ac:dyDescent="0.4">
       <c r="A13" s="9"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -5849,44 +5872,44 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="11"/>
-      <c r="S13" s="86"/>
-      <c r="T13" s="87"/>
-      <c r="U13" s="88"/>
-      <c r="V13" s="89"/>
-      <c r="W13" s="89"/>
-      <c r="X13" s="89"/>
-      <c r="Y13" s="89"/>
-      <c r="Z13" s="89"/>
-      <c r="AA13" s="89"/>
-      <c r="AB13" s="89"/>
-      <c r="AC13" s="89"/>
-      <c r="AD13" s="90"/>
-      <c r="AE13" s="88"/>
-      <c r="AF13" s="89"/>
-      <c r="AG13" s="89"/>
-      <c r="AH13" s="89"/>
-      <c r="AI13" s="89"/>
-      <c r="AJ13" s="89"/>
-      <c r="AK13" s="89"/>
-      <c r="AL13" s="89"/>
-      <c r="AM13" s="90"/>
-      <c r="AN13" s="88"/>
-      <c r="AO13" s="89"/>
-      <c r="AP13" s="89"/>
-      <c r="AQ13" s="89"/>
-      <c r="AR13" s="89"/>
-      <c r="AS13" s="89"/>
-      <c r="AT13" s="89"/>
-      <c r="AU13" s="89"/>
-      <c r="AV13" s="89"/>
-      <c r="AW13" s="89"/>
-      <c r="AX13" s="89"/>
-      <c r="AY13" s="89"/>
-      <c r="AZ13" s="89"/>
-      <c r="BA13" s="89"/>
-      <c r="BB13" s="90"/>
-    </row>
-    <row r="14" spans="1:81" x14ac:dyDescent="0.45">
+      <c r="S13" s="82"/>
+      <c r="T13" s="83"/>
+      <c r="U13" s="84"/>
+      <c r="V13" s="85"/>
+      <c r="W13" s="85"/>
+      <c r="X13" s="85"/>
+      <c r="Y13" s="85"/>
+      <c r="Z13" s="85"/>
+      <c r="AA13" s="85"/>
+      <c r="AB13" s="85"/>
+      <c r="AC13" s="85"/>
+      <c r="AD13" s="86"/>
+      <c r="AE13" s="84"/>
+      <c r="AF13" s="85"/>
+      <c r="AG13" s="85"/>
+      <c r="AH13" s="85"/>
+      <c r="AI13" s="85"/>
+      <c r="AJ13" s="85"/>
+      <c r="AK13" s="85"/>
+      <c r="AL13" s="85"/>
+      <c r="AM13" s="86"/>
+      <c r="AN13" s="84"/>
+      <c r="AO13" s="85"/>
+      <c r="AP13" s="85"/>
+      <c r="AQ13" s="85"/>
+      <c r="AR13" s="85"/>
+      <c r="AS13" s="85"/>
+      <c r="AT13" s="85"/>
+      <c r="AU13" s="85"/>
+      <c r="AV13" s="85"/>
+      <c r="AW13" s="85"/>
+      <c r="AX13" s="85"/>
+      <c r="AY13" s="85"/>
+      <c r="AZ13" s="85"/>
+      <c r="BA13" s="85"/>
+      <c r="BB13" s="86"/>
+    </row>
+    <row r="14" spans="1:81" x14ac:dyDescent="0.4">
       <c r="A14" s="9"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -5905,44 +5928,44 @@
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
       <c r="R14" s="11"/>
-      <c r="S14" s="86"/>
-      <c r="T14" s="87"/>
-      <c r="U14" s="88"/>
-      <c r="V14" s="89"/>
-      <c r="W14" s="89"/>
-      <c r="X14" s="89"/>
-      <c r="Y14" s="89"/>
-      <c r="Z14" s="89"/>
-      <c r="AA14" s="89"/>
-      <c r="AB14" s="89"/>
-      <c r="AC14" s="89"/>
-      <c r="AD14" s="90"/>
-      <c r="AE14" s="88"/>
-      <c r="AF14" s="89"/>
-      <c r="AG14" s="89"/>
-      <c r="AH14" s="89"/>
-      <c r="AI14" s="89"/>
-      <c r="AJ14" s="89"/>
-      <c r="AK14" s="89"/>
-      <c r="AL14" s="89"/>
-      <c r="AM14" s="90"/>
-      <c r="AN14" s="88"/>
-      <c r="AO14" s="89"/>
-      <c r="AP14" s="89"/>
-      <c r="AQ14" s="89"/>
-      <c r="AR14" s="89"/>
-      <c r="AS14" s="89"/>
-      <c r="AT14" s="89"/>
-      <c r="AU14" s="89"/>
-      <c r="AV14" s="89"/>
-      <c r="AW14" s="89"/>
-      <c r="AX14" s="89"/>
-      <c r="AY14" s="89"/>
-      <c r="AZ14" s="89"/>
-      <c r="BA14" s="89"/>
-      <c r="BB14" s="90"/>
-    </row>
-    <row r="15" spans="1:81" x14ac:dyDescent="0.45">
+      <c r="S14" s="82"/>
+      <c r="T14" s="83"/>
+      <c r="U14" s="84"/>
+      <c r="V14" s="85"/>
+      <c r="W14" s="85"/>
+      <c r="X14" s="85"/>
+      <c r="Y14" s="85"/>
+      <c r="Z14" s="85"/>
+      <c r="AA14" s="85"/>
+      <c r="AB14" s="85"/>
+      <c r="AC14" s="85"/>
+      <c r="AD14" s="86"/>
+      <c r="AE14" s="84"/>
+      <c r="AF14" s="85"/>
+      <c r="AG14" s="85"/>
+      <c r="AH14" s="85"/>
+      <c r="AI14" s="85"/>
+      <c r="AJ14" s="85"/>
+      <c r="AK14" s="85"/>
+      <c r="AL14" s="85"/>
+      <c r="AM14" s="86"/>
+      <c r="AN14" s="84"/>
+      <c r="AO14" s="85"/>
+      <c r="AP14" s="85"/>
+      <c r="AQ14" s="85"/>
+      <c r="AR14" s="85"/>
+      <c r="AS14" s="85"/>
+      <c r="AT14" s="85"/>
+      <c r="AU14" s="85"/>
+      <c r="AV14" s="85"/>
+      <c r="AW14" s="85"/>
+      <c r="AX14" s="85"/>
+      <c r="AY14" s="85"/>
+      <c r="AZ14" s="85"/>
+      <c r="BA14" s="85"/>
+      <c r="BB14" s="86"/>
+    </row>
+    <row r="15" spans="1:81" x14ac:dyDescent="0.4">
       <c r="A15" s="9"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -5961,44 +5984,44 @@
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="11"/>
-      <c r="S15" s="86"/>
-      <c r="T15" s="87"/>
-      <c r="U15" s="88"/>
-      <c r="V15" s="89"/>
-      <c r="W15" s="89"/>
-      <c r="X15" s="89"/>
-      <c r="Y15" s="89"/>
-      <c r="Z15" s="89"/>
-      <c r="AA15" s="89"/>
-      <c r="AB15" s="89"/>
-      <c r="AC15" s="89"/>
-      <c r="AD15" s="90"/>
-      <c r="AE15" s="88"/>
-      <c r="AF15" s="89"/>
-      <c r="AG15" s="89"/>
-      <c r="AH15" s="89"/>
-      <c r="AI15" s="89"/>
-      <c r="AJ15" s="89"/>
-      <c r="AK15" s="89"/>
-      <c r="AL15" s="89"/>
-      <c r="AM15" s="90"/>
-      <c r="AN15" s="88"/>
-      <c r="AO15" s="89"/>
-      <c r="AP15" s="89"/>
-      <c r="AQ15" s="89"/>
-      <c r="AR15" s="89"/>
-      <c r="AS15" s="89"/>
-      <c r="AT15" s="89"/>
-      <c r="AU15" s="89"/>
-      <c r="AV15" s="89"/>
-      <c r="AW15" s="89"/>
-      <c r="AX15" s="89"/>
-      <c r="AY15" s="89"/>
-      <c r="AZ15" s="89"/>
-      <c r="BA15" s="89"/>
-      <c r="BB15" s="90"/>
-    </row>
-    <row r="16" spans="1:81" x14ac:dyDescent="0.45">
+      <c r="S15" s="82"/>
+      <c r="T15" s="83"/>
+      <c r="U15" s="84"/>
+      <c r="V15" s="85"/>
+      <c r="W15" s="85"/>
+      <c r="X15" s="85"/>
+      <c r="Y15" s="85"/>
+      <c r="Z15" s="85"/>
+      <c r="AA15" s="85"/>
+      <c r="AB15" s="85"/>
+      <c r="AC15" s="85"/>
+      <c r="AD15" s="86"/>
+      <c r="AE15" s="84"/>
+      <c r="AF15" s="85"/>
+      <c r="AG15" s="85"/>
+      <c r="AH15" s="85"/>
+      <c r="AI15" s="85"/>
+      <c r="AJ15" s="85"/>
+      <c r="AK15" s="85"/>
+      <c r="AL15" s="85"/>
+      <c r="AM15" s="86"/>
+      <c r="AN15" s="84"/>
+      <c r="AO15" s="85"/>
+      <c r="AP15" s="85"/>
+      <c r="AQ15" s="85"/>
+      <c r="AR15" s="85"/>
+      <c r="AS15" s="85"/>
+      <c r="AT15" s="85"/>
+      <c r="AU15" s="85"/>
+      <c r="AV15" s="85"/>
+      <c r="AW15" s="85"/>
+      <c r="AX15" s="85"/>
+      <c r="AY15" s="85"/>
+      <c r="AZ15" s="85"/>
+      <c r="BA15" s="85"/>
+      <c r="BB15" s="86"/>
+    </row>
+    <row r="16" spans="1:81" x14ac:dyDescent="0.4">
       <c r="A16" s="9"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -6017,44 +6040,44 @@
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
       <c r="R16" s="11"/>
-      <c r="S16" s="86"/>
-      <c r="T16" s="87"/>
-      <c r="U16" s="88"/>
-      <c r="V16" s="89"/>
-      <c r="W16" s="89"/>
-      <c r="X16" s="89"/>
-      <c r="Y16" s="89"/>
-      <c r="Z16" s="89"/>
-      <c r="AA16" s="89"/>
-      <c r="AB16" s="89"/>
-      <c r="AC16" s="89"/>
-      <c r="AD16" s="90"/>
-      <c r="AE16" s="88"/>
-      <c r="AF16" s="89"/>
-      <c r="AG16" s="89"/>
-      <c r="AH16" s="89"/>
-      <c r="AI16" s="89"/>
-      <c r="AJ16" s="89"/>
-      <c r="AK16" s="89"/>
-      <c r="AL16" s="89"/>
-      <c r="AM16" s="90"/>
-      <c r="AN16" s="88"/>
-      <c r="AO16" s="89"/>
-      <c r="AP16" s="89"/>
-      <c r="AQ16" s="89"/>
-      <c r="AR16" s="89"/>
-      <c r="AS16" s="89"/>
-      <c r="AT16" s="89"/>
-      <c r="AU16" s="89"/>
-      <c r="AV16" s="89"/>
-      <c r="AW16" s="89"/>
-      <c r="AX16" s="89"/>
-      <c r="AY16" s="89"/>
-      <c r="AZ16" s="89"/>
-      <c r="BA16" s="89"/>
-      <c r="BB16" s="90"/>
-    </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.45">
+      <c r="S16" s="82"/>
+      <c r="T16" s="83"/>
+      <c r="U16" s="84"/>
+      <c r="V16" s="85"/>
+      <c r="W16" s="85"/>
+      <c r="X16" s="85"/>
+      <c r="Y16" s="85"/>
+      <c r="Z16" s="85"/>
+      <c r="AA16" s="85"/>
+      <c r="AB16" s="85"/>
+      <c r="AC16" s="85"/>
+      <c r="AD16" s="86"/>
+      <c r="AE16" s="84"/>
+      <c r="AF16" s="85"/>
+      <c r="AG16" s="85"/>
+      <c r="AH16" s="85"/>
+      <c r="AI16" s="85"/>
+      <c r="AJ16" s="85"/>
+      <c r="AK16" s="85"/>
+      <c r="AL16" s="85"/>
+      <c r="AM16" s="86"/>
+      <c r="AN16" s="84"/>
+      <c r="AO16" s="85"/>
+      <c r="AP16" s="85"/>
+      <c r="AQ16" s="85"/>
+      <c r="AR16" s="85"/>
+      <c r="AS16" s="85"/>
+      <c r="AT16" s="85"/>
+      <c r="AU16" s="85"/>
+      <c r="AV16" s="85"/>
+      <c r="AW16" s="85"/>
+      <c r="AX16" s="85"/>
+      <c r="AY16" s="85"/>
+      <c r="AZ16" s="85"/>
+      <c r="BA16" s="85"/>
+      <c r="BB16" s="86"/>
+    </row>
+    <row r="17" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A17" s="9"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -6073,44 +6096,44 @@
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
       <c r="R17" s="11"/>
-      <c r="S17" s="86"/>
-      <c r="T17" s="87"/>
-      <c r="U17" s="88"/>
-      <c r="V17" s="89"/>
-      <c r="W17" s="89"/>
-      <c r="X17" s="89"/>
-      <c r="Y17" s="89"/>
-      <c r="Z17" s="89"/>
-      <c r="AA17" s="89"/>
-      <c r="AB17" s="89"/>
-      <c r="AC17" s="89"/>
-      <c r="AD17" s="90"/>
-      <c r="AE17" s="88"/>
-      <c r="AF17" s="89"/>
-      <c r="AG17" s="89"/>
-      <c r="AH17" s="89"/>
-      <c r="AI17" s="89"/>
-      <c r="AJ17" s="89"/>
-      <c r="AK17" s="89"/>
-      <c r="AL17" s="89"/>
-      <c r="AM17" s="90"/>
-      <c r="AN17" s="88"/>
-      <c r="AO17" s="89"/>
-      <c r="AP17" s="89"/>
-      <c r="AQ17" s="89"/>
-      <c r="AR17" s="89"/>
-      <c r="AS17" s="89"/>
-      <c r="AT17" s="89"/>
-      <c r="AU17" s="89"/>
-      <c r="AV17" s="89"/>
-      <c r="AW17" s="89"/>
-      <c r="AX17" s="89"/>
-      <c r="AY17" s="89"/>
-      <c r="AZ17" s="89"/>
-      <c r="BA17" s="89"/>
-      <c r="BB17" s="90"/>
-    </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.45">
+      <c r="S17" s="82"/>
+      <c r="T17" s="83"/>
+      <c r="U17" s="84"/>
+      <c r="V17" s="85"/>
+      <c r="W17" s="85"/>
+      <c r="X17" s="85"/>
+      <c r="Y17" s="85"/>
+      <c r="Z17" s="85"/>
+      <c r="AA17" s="85"/>
+      <c r="AB17" s="85"/>
+      <c r="AC17" s="85"/>
+      <c r="AD17" s="86"/>
+      <c r="AE17" s="84"/>
+      <c r="AF17" s="85"/>
+      <c r="AG17" s="85"/>
+      <c r="AH17" s="85"/>
+      <c r="AI17" s="85"/>
+      <c r="AJ17" s="85"/>
+      <c r="AK17" s="85"/>
+      <c r="AL17" s="85"/>
+      <c r="AM17" s="86"/>
+      <c r="AN17" s="84"/>
+      <c r="AO17" s="85"/>
+      <c r="AP17" s="85"/>
+      <c r="AQ17" s="85"/>
+      <c r="AR17" s="85"/>
+      <c r="AS17" s="85"/>
+      <c r="AT17" s="85"/>
+      <c r="AU17" s="85"/>
+      <c r="AV17" s="85"/>
+      <c r="AW17" s="85"/>
+      <c r="AX17" s="85"/>
+      <c r="AY17" s="85"/>
+      <c r="AZ17" s="85"/>
+      <c r="BA17" s="85"/>
+      <c r="BB17" s="86"/>
+    </row>
+    <row r="18" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -6129,45 +6152,97 @@
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
       <c r="R18" s="11"/>
-      <c r="S18" s="86"/>
-      <c r="T18" s="87"/>
-      <c r="U18" s="88"/>
-      <c r="V18" s="89"/>
-      <c r="W18" s="89"/>
-      <c r="X18" s="89"/>
-      <c r="Y18" s="89"/>
-      <c r="Z18" s="89"/>
-      <c r="AA18" s="89"/>
-      <c r="AB18" s="89"/>
-      <c r="AC18" s="89"/>
-      <c r="AD18" s="90"/>
-      <c r="AE18" s="88"/>
-      <c r="AF18" s="89"/>
-      <c r="AG18" s="89"/>
-      <c r="AH18" s="89"/>
-      <c r="AI18" s="89"/>
-      <c r="AJ18" s="89"/>
-      <c r="AK18" s="89"/>
-      <c r="AL18" s="89"/>
-      <c r="AM18" s="90"/>
-      <c r="AN18" s="88"/>
-      <c r="AO18" s="89"/>
-      <c r="AP18" s="89"/>
-      <c r="AQ18" s="89"/>
-      <c r="AR18" s="89"/>
-      <c r="AS18" s="89"/>
-      <c r="AT18" s="89"/>
-      <c r="AU18" s="89"/>
-      <c r="AV18" s="89"/>
-      <c r="AW18" s="89"/>
-      <c r="AX18" s="89"/>
-      <c r="AY18" s="89"/>
-      <c r="AZ18" s="89"/>
-      <c r="BA18" s="89"/>
-      <c r="BB18" s="90"/>
+      <c r="S18" s="82"/>
+      <c r="T18" s="83"/>
+      <c r="U18" s="84"/>
+      <c r="V18" s="85"/>
+      <c r="W18" s="85"/>
+      <c r="X18" s="85"/>
+      <c r="Y18" s="85"/>
+      <c r="Z18" s="85"/>
+      <c r="AA18" s="85"/>
+      <c r="AB18" s="85"/>
+      <c r="AC18" s="85"/>
+      <c r="AD18" s="86"/>
+      <c r="AE18" s="84"/>
+      <c r="AF18" s="85"/>
+      <c r="AG18" s="85"/>
+      <c r="AH18" s="85"/>
+      <c r="AI18" s="85"/>
+      <c r="AJ18" s="85"/>
+      <c r="AK18" s="85"/>
+      <c r="AL18" s="85"/>
+      <c r="AM18" s="86"/>
+      <c r="AN18" s="84"/>
+      <c r="AO18" s="85"/>
+      <c r="AP18" s="85"/>
+      <c r="AQ18" s="85"/>
+      <c r="AR18" s="85"/>
+      <c r="AS18" s="85"/>
+      <c r="AT18" s="85"/>
+      <c r="AU18" s="85"/>
+      <c r="AV18" s="85"/>
+      <c r="AW18" s="85"/>
+      <c r="AX18" s="85"/>
+      <c r="AY18" s="85"/>
+      <c r="AZ18" s="85"/>
+      <c r="BA18" s="85"/>
+      <c r="BB18" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="AN2:BB2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:AD3"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="J3:R3"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:AD5"/>
+    <mergeCell ref="AE5:AM5"/>
+    <mergeCell ref="AN5:BB5"/>
+    <mergeCell ref="S2:AD2"/>
+    <mergeCell ref="AE2:AM2"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:AD6"/>
+    <mergeCell ref="AE6:AM6"/>
+    <mergeCell ref="AN6:BB6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:AD7"/>
+    <mergeCell ref="AE7:AM7"/>
+    <mergeCell ref="AN7:BB7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:AD8"/>
+    <mergeCell ref="AE8:AM8"/>
+    <mergeCell ref="AN8:BB8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:AD9"/>
+    <mergeCell ref="AE9:AM9"/>
+    <mergeCell ref="AN9:BB9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:AD10"/>
+    <mergeCell ref="AE10:AM10"/>
+    <mergeCell ref="AN10:BB10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:AD11"/>
+    <mergeCell ref="AE11:AM11"/>
+    <mergeCell ref="AN11:BB11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:AD12"/>
+    <mergeCell ref="AE12:AM12"/>
+    <mergeCell ref="AN12:BB12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:AD13"/>
+    <mergeCell ref="AE13:AM13"/>
+    <mergeCell ref="AN13:BB13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AE14:AM14"/>
+    <mergeCell ref="AN14:BB14"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:AD15"/>
+    <mergeCell ref="AE15:AM15"/>
+    <mergeCell ref="AN15:BB15"/>
     <mergeCell ref="S18:T18"/>
     <mergeCell ref="U18:AD18"/>
     <mergeCell ref="AE18:AM18"/>
@@ -6180,58 +6255,6 @@
     <mergeCell ref="U17:AD17"/>
     <mergeCell ref="AE17:AM17"/>
     <mergeCell ref="AN17:BB17"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="AE14:AM14"/>
-    <mergeCell ref="AN14:BB14"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:AD15"/>
-    <mergeCell ref="AE15:AM15"/>
-    <mergeCell ref="AN15:BB15"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:AD12"/>
-    <mergeCell ref="AE12:AM12"/>
-    <mergeCell ref="AN12:BB12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:AD13"/>
-    <mergeCell ref="AE13:AM13"/>
-    <mergeCell ref="AN13:BB13"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:AD10"/>
-    <mergeCell ref="AE10:AM10"/>
-    <mergeCell ref="AN10:BB10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:AD11"/>
-    <mergeCell ref="AE11:AM11"/>
-    <mergeCell ref="AN11:BB11"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:AD8"/>
-    <mergeCell ref="AE8:AM8"/>
-    <mergeCell ref="AN8:BB8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:AD9"/>
-    <mergeCell ref="AE9:AM9"/>
-    <mergeCell ref="AN9:BB9"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:AD6"/>
-    <mergeCell ref="AE6:AM6"/>
-    <mergeCell ref="AN6:BB6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:AD7"/>
-    <mergeCell ref="AE7:AM7"/>
-    <mergeCell ref="AN7:BB7"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:AD5"/>
-    <mergeCell ref="AE5:AM5"/>
-    <mergeCell ref="AN5:BB5"/>
-    <mergeCell ref="S2:AD2"/>
-    <mergeCell ref="AE2:AM2"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="AN2:BB2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:AD3"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="J3:R3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6247,12 +6270,12 @@
       <selection activeCell="N3" sqref="N3:Z3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="2.59765625" style="2"/>
+    <col min="1" max="16384" width="2.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="24" t="s">
         <v>52</v>
       </c>
@@ -6310,148 +6333,148 @@
       <c r="BA1" s="24"/>
       <c r="BB1" s="24"/>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A2" s="107" t="s">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A2" s="123" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="107" t="s">
+      <c r="B2" s="124"/>
+      <c r="C2" s="123" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="107" t="s">
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="107" t="s">
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="108"/>
-      <c r="AA2" s="107" t="s">
+      <c r="O2" s="125"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="125"/>
+      <c r="U2" s="125"/>
+      <c r="V2" s="125"/>
+      <c r="W2" s="125"/>
+      <c r="X2" s="125"/>
+      <c r="Y2" s="125"/>
+      <c r="Z2" s="124"/>
+      <c r="AA2" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="AB2" s="109"/>
-      <c r="AC2" s="109"/>
-      <c r="AD2" s="109"/>
-      <c r="AE2" s="109"/>
-      <c r="AF2" s="109"/>
-      <c r="AG2" s="109"/>
-      <c r="AH2" s="109"/>
-      <c r="AI2" s="109"/>
-      <c r="AJ2" s="109"/>
-      <c r="AK2" s="109"/>
-      <c r="AL2" s="109"/>
-      <c r="AM2" s="109"/>
-      <c r="AN2" s="109"/>
-      <c r="AO2" s="109"/>
-      <c r="AP2" s="109"/>
-      <c r="AQ2" s="109"/>
-      <c r="AR2" s="109"/>
-      <c r="AS2" s="109"/>
-      <c r="AT2" s="109"/>
-      <c r="AU2" s="109"/>
-      <c r="AV2" s="109"/>
-      <c r="AW2" s="109"/>
-      <c r="AX2" s="109"/>
-      <c r="AY2" s="109"/>
-      <c r="AZ2" s="109"/>
-      <c r="BA2" s="109"/>
-      <c r="BB2" s="108"/>
-    </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A3" s="110">
+      <c r="AB2" s="125"/>
+      <c r="AC2" s="125"/>
+      <c r="AD2" s="125"/>
+      <c r="AE2" s="125"/>
+      <c r="AF2" s="125"/>
+      <c r="AG2" s="125"/>
+      <c r="AH2" s="125"/>
+      <c r="AI2" s="125"/>
+      <c r="AJ2" s="125"/>
+      <c r="AK2" s="125"/>
+      <c r="AL2" s="125"/>
+      <c r="AM2" s="125"/>
+      <c r="AN2" s="125"/>
+      <c r="AO2" s="125"/>
+      <c r="AP2" s="125"/>
+      <c r="AQ2" s="125"/>
+      <c r="AR2" s="125"/>
+      <c r="AS2" s="125"/>
+      <c r="AT2" s="125"/>
+      <c r="AU2" s="125"/>
+      <c r="AV2" s="125"/>
+      <c r="AW2" s="125"/>
+      <c r="AX2" s="125"/>
+      <c r="AY2" s="125"/>
+      <c r="AZ2" s="125"/>
+      <c r="BA2" s="125"/>
+      <c r="BB2" s="124"/>
+    </row>
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A3" s="121">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="111">
+      <c r="B3" s="121"/>
+      <c r="C3" s="126">
         <v>45441</v>
       </c>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="112" t="s">
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="127" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="113" t="s">
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
-      <c r="U3" s="113"/>
-      <c r="V3" s="113"/>
-      <c r="W3" s="113"/>
-      <c r="X3" s="113"/>
-      <c r="Y3" s="113"/>
-      <c r="Z3" s="113"/>
-      <c r="AA3" s="113"/>
-      <c r="AB3" s="113"/>
-      <c r="AC3" s="113"/>
-      <c r="AD3" s="113"/>
-      <c r="AE3" s="113"/>
-      <c r="AF3" s="113"/>
-      <c r="AG3" s="113"/>
-      <c r="AH3" s="113"/>
-      <c r="AI3" s="113"/>
-      <c r="AJ3" s="113"/>
-      <c r="AK3" s="113"/>
-      <c r="AL3" s="113"/>
-      <c r="AM3" s="113"/>
-      <c r="AN3" s="113"/>
-      <c r="AO3" s="113"/>
-      <c r="AP3" s="113"/>
-      <c r="AQ3" s="113"/>
-      <c r="AR3" s="113"/>
-      <c r="AS3" s="113"/>
-      <c r="AT3" s="113"/>
-      <c r="AU3" s="113"/>
-      <c r="AV3" s="113"/>
-      <c r="AW3" s="113"/>
-      <c r="AX3" s="113"/>
-      <c r="AY3" s="113"/>
-      <c r="AZ3" s="113"/>
-      <c r="BA3" s="113"/>
-      <c r="BB3" s="113"/>
-    </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A4" s="110">
+      <c r="O3" s="128"/>
+      <c r="P3" s="128"/>
+      <c r="Q3" s="128"/>
+      <c r="R3" s="128"/>
+      <c r="S3" s="128"/>
+      <c r="T3" s="128"/>
+      <c r="U3" s="128"/>
+      <c r="V3" s="128"/>
+      <c r="W3" s="128"/>
+      <c r="X3" s="128"/>
+      <c r="Y3" s="128"/>
+      <c r="Z3" s="128"/>
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="128"/>
+      <c r="AC3" s="128"/>
+      <c r="AD3" s="128"/>
+      <c r="AE3" s="128"/>
+      <c r="AF3" s="128"/>
+      <c r="AG3" s="128"/>
+      <c r="AH3" s="128"/>
+      <c r="AI3" s="128"/>
+      <c r="AJ3" s="128"/>
+      <c r="AK3" s="128"/>
+      <c r="AL3" s="128"/>
+      <c r="AM3" s="128"/>
+      <c r="AN3" s="128"/>
+      <c r="AO3" s="128"/>
+      <c r="AP3" s="128"/>
+      <c r="AQ3" s="128"/>
+      <c r="AR3" s="128"/>
+      <c r="AS3" s="128"/>
+      <c r="AT3" s="128"/>
+      <c r="AU3" s="128"/>
+      <c r="AV3" s="128"/>
+      <c r="AW3" s="128"/>
+      <c r="AX3" s="128"/>
+      <c r="AY3" s="128"/>
+      <c r="AZ3" s="128"/>
+      <c r="BA3" s="128"/>
+      <c r="BB3" s="128"/>
+    </row>
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A4" s="121">
         <f t="shared" ref="A4:A22" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
       <c r="H4" s="115"/>
       <c r="I4" s="116"/>
       <c r="J4" s="116"/>
@@ -6471,46 +6494,46 @@
       <c r="X4" s="119"/>
       <c r="Y4" s="119"/>
       <c r="Z4" s="120"/>
-      <c r="AA4" s="121"/>
-      <c r="AB4" s="121"/>
-      <c r="AC4" s="121"/>
-      <c r="AD4" s="121"/>
-      <c r="AE4" s="121"/>
-      <c r="AF4" s="121"/>
-      <c r="AG4" s="121"/>
-      <c r="AH4" s="121"/>
-      <c r="AI4" s="121"/>
-      <c r="AJ4" s="121"/>
-      <c r="AK4" s="121"/>
-      <c r="AL4" s="121"/>
-      <c r="AM4" s="121"/>
-      <c r="AN4" s="121"/>
-      <c r="AO4" s="121"/>
-      <c r="AP4" s="121"/>
-      <c r="AQ4" s="121"/>
-      <c r="AR4" s="121"/>
-      <c r="AS4" s="121"/>
-      <c r="AT4" s="121"/>
-      <c r="AU4" s="121"/>
-      <c r="AV4" s="121"/>
-      <c r="AW4" s="121"/>
-      <c r="AX4" s="121"/>
-      <c r="AY4" s="121"/>
-      <c r="AZ4" s="121"/>
-      <c r="BA4" s="121"/>
-      <c r="BB4" s="121"/>
-    </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A5" s="110">
+      <c r="AA4" s="111"/>
+      <c r="AB4" s="111"/>
+      <c r="AC4" s="111"/>
+      <c r="AD4" s="111"/>
+      <c r="AE4" s="111"/>
+      <c r="AF4" s="111"/>
+      <c r="AG4" s="111"/>
+      <c r="AH4" s="111"/>
+      <c r="AI4" s="111"/>
+      <c r="AJ4" s="111"/>
+      <c r="AK4" s="111"/>
+      <c r="AL4" s="111"/>
+      <c r="AM4" s="111"/>
+      <c r="AN4" s="111"/>
+      <c r="AO4" s="111"/>
+      <c r="AP4" s="111"/>
+      <c r="AQ4" s="111"/>
+      <c r="AR4" s="111"/>
+      <c r="AS4" s="111"/>
+      <c r="AT4" s="111"/>
+      <c r="AU4" s="111"/>
+      <c r="AV4" s="111"/>
+      <c r="AW4" s="111"/>
+      <c r="AX4" s="111"/>
+      <c r="AY4" s="111"/>
+      <c r="AZ4" s="111"/>
+      <c r="BA4" s="111"/>
+      <c r="BB4" s="111"/>
+    </row>
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A5" s="121">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
       <c r="H5" s="115"/>
       <c r="I5" s="116"/>
       <c r="J5" s="116"/>
@@ -6530,46 +6553,46 @@
       <c r="X5" s="119"/>
       <c r="Y5" s="119"/>
       <c r="Z5" s="120"/>
-      <c r="AA5" s="121"/>
-      <c r="AB5" s="121"/>
-      <c r="AC5" s="121"/>
-      <c r="AD5" s="121"/>
-      <c r="AE5" s="121"/>
-      <c r="AF5" s="121"/>
-      <c r="AG5" s="121"/>
-      <c r="AH5" s="121"/>
-      <c r="AI5" s="121"/>
-      <c r="AJ5" s="121"/>
-      <c r="AK5" s="121"/>
-      <c r="AL5" s="121"/>
-      <c r="AM5" s="121"/>
-      <c r="AN5" s="121"/>
-      <c r="AO5" s="121"/>
-      <c r="AP5" s="121"/>
-      <c r="AQ5" s="121"/>
-      <c r="AR5" s="121"/>
-      <c r="AS5" s="121"/>
-      <c r="AT5" s="121"/>
-      <c r="AU5" s="121"/>
-      <c r="AV5" s="121"/>
-      <c r="AW5" s="121"/>
-      <c r="AX5" s="121"/>
-      <c r="AY5" s="121"/>
-      <c r="AZ5" s="121"/>
-      <c r="BA5" s="121"/>
-      <c r="BB5" s="121"/>
-    </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A6" s="110">
+      <c r="AA5" s="111"/>
+      <c r="AB5" s="111"/>
+      <c r="AC5" s="111"/>
+      <c r="AD5" s="111"/>
+      <c r="AE5" s="111"/>
+      <c r="AF5" s="111"/>
+      <c r="AG5" s="111"/>
+      <c r="AH5" s="111"/>
+      <c r="AI5" s="111"/>
+      <c r="AJ5" s="111"/>
+      <c r="AK5" s="111"/>
+      <c r="AL5" s="111"/>
+      <c r="AM5" s="111"/>
+      <c r="AN5" s="111"/>
+      <c r="AO5" s="111"/>
+      <c r="AP5" s="111"/>
+      <c r="AQ5" s="111"/>
+      <c r="AR5" s="111"/>
+      <c r="AS5" s="111"/>
+      <c r="AT5" s="111"/>
+      <c r="AU5" s="111"/>
+      <c r="AV5" s="111"/>
+      <c r="AW5" s="111"/>
+      <c r="AX5" s="111"/>
+      <c r="AY5" s="111"/>
+      <c r="AZ5" s="111"/>
+      <c r="BA5" s="111"/>
+      <c r="BB5" s="111"/>
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A6" s="121">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
       <c r="H6" s="115"/>
       <c r="I6" s="116"/>
       <c r="J6" s="116"/>
@@ -6589,46 +6612,46 @@
       <c r="X6" s="119"/>
       <c r="Y6" s="119"/>
       <c r="Z6" s="120"/>
-      <c r="AA6" s="121"/>
-      <c r="AB6" s="121"/>
-      <c r="AC6" s="121"/>
-      <c r="AD6" s="121"/>
-      <c r="AE6" s="121"/>
-      <c r="AF6" s="121"/>
-      <c r="AG6" s="121"/>
-      <c r="AH6" s="121"/>
-      <c r="AI6" s="121"/>
-      <c r="AJ6" s="121"/>
-      <c r="AK6" s="121"/>
-      <c r="AL6" s="121"/>
-      <c r="AM6" s="121"/>
-      <c r="AN6" s="121"/>
-      <c r="AO6" s="121"/>
-      <c r="AP6" s="121"/>
-      <c r="AQ6" s="121"/>
-      <c r="AR6" s="121"/>
-      <c r="AS6" s="121"/>
-      <c r="AT6" s="121"/>
-      <c r="AU6" s="121"/>
-      <c r="AV6" s="121"/>
-      <c r="AW6" s="121"/>
-      <c r="AX6" s="121"/>
-      <c r="AY6" s="121"/>
-      <c r="AZ6" s="121"/>
-      <c r="BA6" s="121"/>
-      <c r="BB6" s="121"/>
-    </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A7" s="110">
+      <c r="AA6" s="111"/>
+      <c r="AB6" s="111"/>
+      <c r="AC6" s="111"/>
+      <c r="AD6" s="111"/>
+      <c r="AE6" s="111"/>
+      <c r="AF6" s="111"/>
+      <c r="AG6" s="111"/>
+      <c r="AH6" s="111"/>
+      <c r="AI6" s="111"/>
+      <c r="AJ6" s="111"/>
+      <c r="AK6" s="111"/>
+      <c r="AL6" s="111"/>
+      <c r="AM6" s="111"/>
+      <c r="AN6" s="111"/>
+      <c r="AO6" s="111"/>
+      <c r="AP6" s="111"/>
+      <c r="AQ6" s="111"/>
+      <c r="AR6" s="111"/>
+      <c r="AS6" s="111"/>
+      <c r="AT6" s="111"/>
+      <c r="AU6" s="111"/>
+      <c r="AV6" s="111"/>
+      <c r="AW6" s="111"/>
+      <c r="AX6" s="111"/>
+      <c r="AY6" s="111"/>
+      <c r="AZ6" s="111"/>
+      <c r="BA6" s="111"/>
+      <c r="BB6" s="111"/>
+    </row>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A7" s="121">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
       <c r="H7" s="115"/>
       <c r="I7" s="116"/>
       <c r="J7" s="116"/>
@@ -6648,46 +6671,46 @@
       <c r="X7" s="119"/>
       <c r="Y7" s="119"/>
       <c r="Z7" s="120"/>
-      <c r="AA7" s="121"/>
-      <c r="AB7" s="121"/>
-      <c r="AC7" s="121"/>
-      <c r="AD7" s="121"/>
-      <c r="AE7" s="121"/>
-      <c r="AF7" s="121"/>
-      <c r="AG7" s="121"/>
-      <c r="AH7" s="121"/>
-      <c r="AI7" s="121"/>
-      <c r="AJ7" s="121"/>
-      <c r="AK7" s="121"/>
-      <c r="AL7" s="121"/>
-      <c r="AM7" s="121"/>
-      <c r="AN7" s="121"/>
-      <c r="AO7" s="121"/>
-      <c r="AP7" s="121"/>
-      <c r="AQ7" s="121"/>
-      <c r="AR7" s="121"/>
-      <c r="AS7" s="121"/>
-      <c r="AT7" s="121"/>
-      <c r="AU7" s="121"/>
-      <c r="AV7" s="121"/>
-      <c r="AW7" s="121"/>
-      <c r="AX7" s="121"/>
-      <c r="AY7" s="121"/>
-      <c r="AZ7" s="121"/>
-      <c r="BA7" s="121"/>
-      <c r="BB7" s="121"/>
-    </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A8" s="110">
+      <c r="AA7" s="111"/>
+      <c r="AB7" s="111"/>
+      <c r="AC7" s="111"/>
+      <c r="AD7" s="111"/>
+      <c r="AE7" s="111"/>
+      <c r="AF7" s="111"/>
+      <c r="AG7" s="111"/>
+      <c r="AH7" s="111"/>
+      <c r="AI7" s="111"/>
+      <c r="AJ7" s="111"/>
+      <c r="AK7" s="111"/>
+      <c r="AL7" s="111"/>
+      <c r="AM7" s="111"/>
+      <c r="AN7" s="111"/>
+      <c r="AO7" s="111"/>
+      <c r="AP7" s="111"/>
+      <c r="AQ7" s="111"/>
+      <c r="AR7" s="111"/>
+      <c r="AS7" s="111"/>
+      <c r="AT7" s="111"/>
+      <c r="AU7" s="111"/>
+      <c r="AV7" s="111"/>
+      <c r="AW7" s="111"/>
+      <c r="AX7" s="111"/>
+      <c r="AY7" s="111"/>
+      <c r="AZ7" s="111"/>
+      <c r="BA7" s="111"/>
+      <c r="BB7" s="111"/>
+    </row>
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A8" s="121">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
       <c r="H8" s="115"/>
       <c r="I8" s="116"/>
       <c r="J8" s="116"/>
@@ -6707,46 +6730,46 @@
       <c r="X8" s="119"/>
       <c r="Y8" s="119"/>
       <c r="Z8" s="120"/>
-      <c r="AA8" s="121"/>
-      <c r="AB8" s="121"/>
-      <c r="AC8" s="121"/>
-      <c r="AD8" s="121"/>
-      <c r="AE8" s="121"/>
-      <c r="AF8" s="121"/>
-      <c r="AG8" s="121"/>
-      <c r="AH8" s="121"/>
-      <c r="AI8" s="121"/>
-      <c r="AJ8" s="121"/>
-      <c r="AK8" s="121"/>
-      <c r="AL8" s="121"/>
-      <c r="AM8" s="121"/>
-      <c r="AN8" s="121"/>
-      <c r="AO8" s="121"/>
-      <c r="AP8" s="121"/>
-      <c r="AQ8" s="121"/>
-      <c r="AR8" s="121"/>
-      <c r="AS8" s="121"/>
-      <c r="AT8" s="121"/>
-      <c r="AU8" s="121"/>
-      <c r="AV8" s="121"/>
-      <c r="AW8" s="121"/>
-      <c r="AX8" s="121"/>
-      <c r="AY8" s="121"/>
-      <c r="AZ8" s="121"/>
-      <c r="BA8" s="121"/>
-      <c r="BB8" s="121"/>
-    </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A9" s="110">
+      <c r="AA8" s="111"/>
+      <c r="AB8" s="111"/>
+      <c r="AC8" s="111"/>
+      <c r="AD8" s="111"/>
+      <c r="AE8" s="111"/>
+      <c r="AF8" s="111"/>
+      <c r="AG8" s="111"/>
+      <c r="AH8" s="111"/>
+      <c r="AI8" s="111"/>
+      <c r="AJ8" s="111"/>
+      <c r="AK8" s="111"/>
+      <c r="AL8" s="111"/>
+      <c r="AM8" s="111"/>
+      <c r="AN8" s="111"/>
+      <c r="AO8" s="111"/>
+      <c r="AP8" s="111"/>
+      <c r="AQ8" s="111"/>
+      <c r="AR8" s="111"/>
+      <c r="AS8" s="111"/>
+      <c r="AT8" s="111"/>
+      <c r="AU8" s="111"/>
+      <c r="AV8" s="111"/>
+      <c r="AW8" s="111"/>
+      <c r="AX8" s="111"/>
+      <c r="AY8" s="111"/>
+      <c r="AZ8" s="111"/>
+      <c r="BA8" s="111"/>
+      <c r="BB8" s="111"/>
+    </row>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A9" s="121">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="110"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
       <c r="H9" s="115"/>
       <c r="I9" s="116"/>
       <c r="J9" s="116"/>
@@ -6766,46 +6789,46 @@
       <c r="X9" s="119"/>
       <c r="Y9" s="119"/>
       <c r="Z9" s="120"/>
-      <c r="AA9" s="121"/>
-      <c r="AB9" s="121"/>
-      <c r="AC9" s="121"/>
-      <c r="AD9" s="121"/>
-      <c r="AE9" s="121"/>
-      <c r="AF9" s="121"/>
-      <c r="AG9" s="121"/>
-      <c r="AH9" s="121"/>
-      <c r="AI9" s="121"/>
-      <c r="AJ9" s="121"/>
-      <c r="AK9" s="121"/>
-      <c r="AL9" s="121"/>
-      <c r="AM9" s="121"/>
-      <c r="AN9" s="121"/>
-      <c r="AO9" s="121"/>
-      <c r="AP9" s="121"/>
-      <c r="AQ9" s="121"/>
-      <c r="AR9" s="121"/>
-      <c r="AS9" s="121"/>
-      <c r="AT9" s="121"/>
-      <c r="AU9" s="121"/>
-      <c r="AV9" s="121"/>
-      <c r="AW9" s="121"/>
-      <c r="AX9" s="121"/>
-      <c r="AY9" s="121"/>
-      <c r="AZ9" s="121"/>
-      <c r="BA9" s="121"/>
-      <c r="BB9" s="121"/>
-    </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A10" s="110">
+      <c r="AA9" s="111"/>
+      <c r="AB9" s="111"/>
+      <c r="AC9" s="111"/>
+      <c r="AD9" s="111"/>
+      <c r="AE9" s="111"/>
+      <c r="AF9" s="111"/>
+      <c r="AG9" s="111"/>
+      <c r="AH9" s="111"/>
+      <c r="AI9" s="111"/>
+      <c r="AJ9" s="111"/>
+      <c r="AK9" s="111"/>
+      <c r="AL9" s="111"/>
+      <c r="AM9" s="111"/>
+      <c r="AN9" s="111"/>
+      <c r="AO9" s="111"/>
+      <c r="AP9" s="111"/>
+      <c r="AQ9" s="111"/>
+      <c r="AR9" s="111"/>
+      <c r="AS9" s="111"/>
+      <c r="AT9" s="111"/>
+      <c r="AU9" s="111"/>
+      <c r="AV9" s="111"/>
+      <c r="AW9" s="111"/>
+      <c r="AX9" s="111"/>
+      <c r="AY9" s="111"/>
+      <c r="AZ9" s="111"/>
+      <c r="BA9" s="111"/>
+      <c r="BB9" s="111"/>
+    </row>
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A10" s="121">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
       <c r="H10" s="115"/>
       <c r="I10" s="116"/>
       <c r="J10" s="116"/>
@@ -6825,46 +6848,46 @@
       <c r="X10" s="119"/>
       <c r="Y10" s="119"/>
       <c r="Z10" s="120"/>
-      <c r="AA10" s="121"/>
-      <c r="AB10" s="121"/>
-      <c r="AC10" s="121"/>
-      <c r="AD10" s="121"/>
-      <c r="AE10" s="121"/>
-      <c r="AF10" s="121"/>
-      <c r="AG10" s="121"/>
-      <c r="AH10" s="121"/>
-      <c r="AI10" s="121"/>
-      <c r="AJ10" s="121"/>
-      <c r="AK10" s="121"/>
-      <c r="AL10" s="121"/>
-      <c r="AM10" s="121"/>
-      <c r="AN10" s="121"/>
-      <c r="AO10" s="121"/>
-      <c r="AP10" s="121"/>
-      <c r="AQ10" s="121"/>
-      <c r="AR10" s="121"/>
-      <c r="AS10" s="121"/>
-      <c r="AT10" s="121"/>
-      <c r="AU10" s="121"/>
-      <c r="AV10" s="121"/>
-      <c r="AW10" s="121"/>
-      <c r="AX10" s="121"/>
-      <c r="AY10" s="121"/>
-      <c r="AZ10" s="121"/>
-      <c r="BA10" s="121"/>
-      <c r="BB10" s="121"/>
-    </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A11" s="110">
+      <c r="AA10" s="111"/>
+      <c r="AB10" s="111"/>
+      <c r="AC10" s="111"/>
+      <c r="AD10" s="111"/>
+      <c r="AE10" s="111"/>
+      <c r="AF10" s="111"/>
+      <c r="AG10" s="111"/>
+      <c r="AH10" s="111"/>
+      <c r="AI10" s="111"/>
+      <c r="AJ10" s="111"/>
+      <c r="AK10" s="111"/>
+      <c r="AL10" s="111"/>
+      <c r="AM10" s="111"/>
+      <c r="AN10" s="111"/>
+      <c r="AO10" s="111"/>
+      <c r="AP10" s="111"/>
+      <c r="AQ10" s="111"/>
+      <c r="AR10" s="111"/>
+      <c r="AS10" s="111"/>
+      <c r="AT10" s="111"/>
+      <c r="AU10" s="111"/>
+      <c r="AV10" s="111"/>
+      <c r="AW10" s="111"/>
+      <c r="AX10" s="111"/>
+      <c r="AY10" s="111"/>
+      <c r="AZ10" s="111"/>
+      <c r="BA10" s="111"/>
+      <c r="BB10" s="111"/>
+    </row>
+    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A11" s="121">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="110"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
       <c r="H11" s="115"/>
       <c r="I11" s="116"/>
       <c r="J11" s="116"/>
@@ -6884,46 +6907,46 @@
       <c r="X11" s="119"/>
       <c r="Y11" s="119"/>
       <c r="Z11" s="120"/>
-      <c r="AA11" s="121"/>
-      <c r="AB11" s="121"/>
-      <c r="AC11" s="121"/>
-      <c r="AD11" s="121"/>
-      <c r="AE11" s="121"/>
-      <c r="AF11" s="121"/>
-      <c r="AG11" s="121"/>
-      <c r="AH11" s="121"/>
-      <c r="AI11" s="121"/>
-      <c r="AJ11" s="121"/>
-      <c r="AK11" s="121"/>
-      <c r="AL11" s="121"/>
-      <c r="AM11" s="121"/>
-      <c r="AN11" s="121"/>
-      <c r="AO11" s="121"/>
-      <c r="AP11" s="121"/>
-      <c r="AQ11" s="121"/>
-      <c r="AR11" s="121"/>
-      <c r="AS11" s="121"/>
-      <c r="AT11" s="121"/>
-      <c r="AU11" s="121"/>
-      <c r="AV11" s="121"/>
-      <c r="AW11" s="121"/>
-      <c r="AX11" s="121"/>
-      <c r="AY11" s="121"/>
-      <c r="AZ11" s="121"/>
-      <c r="BA11" s="121"/>
-      <c r="BB11" s="121"/>
-    </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A12" s="110">
+      <c r="AA11" s="111"/>
+      <c r="AB11" s="111"/>
+      <c r="AC11" s="111"/>
+      <c r="AD11" s="111"/>
+      <c r="AE11" s="111"/>
+      <c r="AF11" s="111"/>
+      <c r="AG11" s="111"/>
+      <c r="AH11" s="111"/>
+      <c r="AI11" s="111"/>
+      <c r="AJ11" s="111"/>
+      <c r="AK11" s="111"/>
+      <c r="AL11" s="111"/>
+      <c r="AM11" s="111"/>
+      <c r="AN11" s="111"/>
+      <c r="AO11" s="111"/>
+      <c r="AP11" s="111"/>
+      <c r="AQ11" s="111"/>
+      <c r="AR11" s="111"/>
+      <c r="AS11" s="111"/>
+      <c r="AT11" s="111"/>
+      <c r="AU11" s="111"/>
+      <c r="AV11" s="111"/>
+      <c r="AW11" s="111"/>
+      <c r="AX11" s="111"/>
+      <c r="AY11" s="111"/>
+      <c r="AZ11" s="111"/>
+      <c r="BA11" s="111"/>
+      <c r="BB11" s="111"/>
+    </row>
+    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A12" s="121">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="110"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
       <c r="H12" s="115"/>
       <c r="I12" s="116"/>
       <c r="J12" s="116"/>
@@ -6943,46 +6966,46 @@
       <c r="X12" s="119"/>
       <c r="Y12" s="119"/>
       <c r="Z12" s="120"/>
-      <c r="AA12" s="121"/>
-      <c r="AB12" s="121"/>
-      <c r="AC12" s="121"/>
-      <c r="AD12" s="121"/>
-      <c r="AE12" s="121"/>
-      <c r="AF12" s="121"/>
-      <c r="AG12" s="121"/>
-      <c r="AH12" s="121"/>
-      <c r="AI12" s="121"/>
-      <c r="AJ12" s="121"/>
-      <c r="AK12" s="121"/>
-      <c r="AL12" s="121"/>
-      <c r="AM12" s="121"/>
-      <c r="AN12" s="121"/>
-      <c r="AO12" s="121"/>
-      <c r="AP12" s="121"/>
-      <c r="AQ12" s="121"/>
-      <c r="AR12" s="121"/>
-      <c r="AS12" s="121"/>
-      <c r="AT12" s="121"/>
-      <c r="AU12" s="121"/>
-      <c r="AV12" s="121"/>
-      <c r="AW12" s="121"/>
-      <c r="AX12" s="121"/>
-      <c r="AY12" s="121"/>
-      <c r="AZ12" s="121"/>
-      <c r="BA12" s="121"/>
-      <c r="BB12" s="121"/>
-    </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A13" s="110">
+      <c r="AA12" s="111"/>
+      <c r="AB12" s="111"/>
+      <c r="AC12" s="111"/>
+      <c r="AD12" s="111"/>
+      <c r="AE12" s="111"/>
+      <c r="AF12" s="111"/>
+      <c r="AG12" s="111"/>
+      <c r="AH12" s="111"/>
+      <c r="AI12" s="111"/>
+      <c r="AJ12" s="111"/>
+      <c r="AK12" s="111"/>
+      <c r="AL12" s="111"/>
+      <c r="AM12" s="111"/>
+      <c r="AN12" s="111"/>
+      <c r="AO12" s="111"/>
+      <c r="AP12" s="111"/>
+      <c r="AQ12" s="111"/>
+      <c r="AR12" s="111"/>
+      <c r="AS12" s="111"/>
+      <c r="AT12" s="111"/>
+      <c r="AU12" s="111"/>
+      <c r="AV12" s="111"/>
+      <c r="AW12" s="111"/>
+      <c r="AX12" s="111"/>
+      <c r="AY12" s="111"/>
+      <c r="AZ12" s="111"/>
+      <c r="BA12" s="111"/>
+      <c r="BB12" s="111"/>
+    </row>
+    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A13" s="121">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="110"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
       <c r="H13" s="115"/>
       <c r="I13" s="116"/>
       <c r="J13" s="116"/>
@@ -7002,46 +7025,46 @@
       <c r="X13" s="119"/>
       <c r="Y13" s="119"/>
       <c r="Z13" s="120"/>
-      <c r="AA13" s="121"/>
-      <c r="AB13" s="121"/>
-      <c r="AC13" s="121"/>
-      <c r="AD13" s="121"/>
-      <c r="AE13" s="121"/>
-      <c r="AF13" s="121"/>
-      <c r="AG13" s="121"/>
-      <c r="AH13" s="121"/>
-      <c r="AI13" s="121"/>
-      <c r="AJ13" s="121"/>
-      <c r="AK13" s="121"/>
-      <c r="AL13" s="121"/>
-      <c r="AM13" s="121"/>
-      <c r="AN13" s="121"/>
-      <c r="AO13" s="121"/>
-      <c r="AP13" s="121"/>
-      <c r="AQ13" s="121"/>
-      <c r="AR13" s="121"/>
-      <c r="AS13" s="121"/>
-      <c r="AT13" s="121"/>
-      <c r="AU13" s="121"/>
-      <c r="AV13" s="121"/>
-      <c r="AW13" s="121"/>
-      <c r="AX13" s="121"/>
-      <c r="AY13" s="121"/>
-      <c r="AZ13" s="121"/>
-      <c r="BA13" s="121"/>
-      <c r="BB13" s="121"/>
-    </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A14" s="110">
+      <c r="AA13" s="111"/>
+      <c r="AB13" s="111"/>
+      <c r="AC13" s="111"/>
+      <c r="AD13" s="111"/>
+      <c r="AE13" s="111"/>
+      <c r="AF13" s="111"/>
+      <c r="AG13" s="111"/>
+      <c r="AH13" s="111"/>
+      <c r="AI13" s="111"/>
+      <c r="AJ13" s="111"/>
+      <c r="AK13" s="111"/>
+      <c r="AL13" s="111"/>
+      <c r="AM13" s="111"/>
+      <c r="AN13" s="111"/>
+      <c r="AO13" s="111"/>
+      <c r="AP13" s="111"/>
+      <c r="AQ13" s="111"/>
+      <c r="AR13" s="111"/>
+      <c r="AS13" s="111"/>
+      <c r="AT13" s="111"/>
+      <c r="AU13" s="111"/>
+      <c r="AV13" s="111"/>
+      <c r="AW13" s="111"/>
+      <c r="AX13" s="111"/>
+      <c r="AY13" s="111"/>
+      <c r="AZ13" s="111"/>
+      <c r="BA13" s="111"/>
+      <c r="BB13" s="111"/>
+    </row>
+    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A14" s="121">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="110"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
       <c r="H14" s="115"/>
       <c r="I14" s="116"/>
       <c r="J14" s="116"/>
@@ -7061,46 +7084,46 @@
       <c r="X14" s="119"/>
       <c r="Y14" s="119"/>
       <c r="Z14" s="120"/>
-      <c r="AA14" s="121"/>
-      <c r="AB14" s="121"/>
-      <c r="AC14" s="121"/>
-      <c r="AD14" s="121"/>
-      <c r="AE14" s="121"/>
-      <c r="AF14" s="121"/>
-      <c r="AG14" s="121"/>
-      <c r="AH14" s="121"/>
-      <c r="AI14" s="121"/>
-      <c r="AJ14" s="121"/>
-      <c r="AK14" s="121"/>
-      <c r="AL14" s="121"/>
-      <c r="AM14" s="121"/>
-      <c r="AN14" s="121"/>
-      <c r="AO14" s="121"/>
-      <c r="AP14" s="121"/>
-      <c r="AQ14" s="121"/>
-      <c r="AR14" s="121"/>
-      <c r="AS14" s="121"/>
-      <c r="AT14" s="121"/>
-      <c r="AU14" s="121"/>
-      <c r="AV14" s="121"/>
-      <c r="AW14" s="121"/>
-      <c r="AX14" s="121"/>
-      <c r="AY14" s="121"/>
-      <c r="AZ14" s="121"/>
-      <c r="BA14" s="121"/>
-      <c r="BB14" s="121"/>
-    </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A15" s="110">
+      <c r="AA14" s="111"/>
+      <c r="AB14" s="111"/>
+      <c r="AC14" s="111"/>
+      <c r="AD14" s="111"/>
+      <c r="AE14" s="111"/>
+      <c r="AF14" s="111"/>
+      <c r="AG14" s="111"/>
+      <c r="AH14" s="111"/>
+      <c r="AI14" s="111"/>
+      <c r="AJ14" s="111"/>
+      <c r="AK14" s="111"/>
+      <c r="AL14" s="111"/>
+      <c r="AM14" s="111"/>
+      <c r="AN14" s="111"/>
+      <c r="AO14" s="111"/>
+      <c r="AP14" s="111"/>
+      <c r="AQ14" s="111"/>
+      <c r="AR14" s="111"/>
+      <c r="AS14" s="111"/>
+      <c r="AT14" s="111"/>
+      <c r="AU14" s="111"/>
+      <c r="AV14" s="111"/>
+      <c r="AW14" s="111"/>
+      <c r="AX14" s="111"/>
+      <c r="AY14" s="111"/>
+      <c r="AZ14" s="111"/>
+      <c r="BA14" s="111"/>
+      <c r="BB14" s="111"/>
+    </row>
+    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A15" s="121">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="110"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
       <c r="H15" s="115"/>
       <c r="I15" s="116"/>
       <c r="J15" s="116"/>
@@ -7120,46 +7143,46 @@
       <c r="X15" s="119"/>
       <c r="Y15" s="119"/>
       <c r="Z15" s="120"/>
-      <c r="AA15" s="121"/>
-      <c r="AB15" s="121"/>
-      <c r="AC15" s="121"/>
-      <c r="AD15" s="121"/>
-      <c r="AE15" s="121"/>
-      <c r="AF15" s="121"/>
-      <c r="AG15" s="121"/>
-      <c r="AH15" s="121"/>
-      <c r="AI15" s="121"/>
-      <c r="AJ15" s="121"/>
-      <c r="AK15" s="121"/>
-      <c r="AL15" s="121"/>
-      <c r="AM15" s="121"/>
-      <c r="AN15" s="121"/>
-      <c r="AO15" s="121"/>
-      <c r="AP15" s="121"/>
-      <c r="AQ15" s="121"/>
-      <c r="AR15" s="121"/>
-      <c r="AS15" s="121"/>
-      <c r="AT15" s="121"/>
-      <c r="AU15" s="121"/>
-      <c r="AV15" s="121"/>
-      <c r="AW15" s="121"/>
-      <c r="AX15" s="121"/>
-      <c r="AY15" s="121"/>
-      <c r="AZ15" s="121"/>
-      <c r="BA15" s="121"/>
-      <c r="BB15" s="121"/>
-    </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A16" s="110">
+      <c r="AA15" s="111"/>
+      <c r="AB15" s="111"/>
+      <c r="AC15" s="111"/>
+      <c r="AD15" s="111"/>
+      <c r="AE15" s="111"/>
+      <c r="AF15" s="111"/>
+      <c r="AG15" s="111"/>
+      <c r="AH15" s="111"/>
+      <c r="AI15" s="111"/>
+      <c r="AJ15" s="111"/>
+      <c r="AK15" s="111"/>
+      <c r="AL15" s="111"/>
+      <c r="AM15" s="111"/>
+      <c r="AN15" s="111"/>
+      <c r="AO15" s="111"/>
+      <c r="AP15" s="111"/>
+      <c r="AQ15" s="111"/>
+      <c r="AR15" s="111"/>
+      <c r="AS15" s="111"/>
+      <c r="AT15" s="111"/>
+      <c r="AU15" s="111"/>
+      <c r="AV15" s="111"/>
+      <c r="AW15" s="111"/>
+      <c r="AX15" s="111"/>
+      <c r="AY15" s="111"/>
+      <c r="AZ15" s="111"/>
+      <c r="BA15" s="111"/>
+      <c r="BB15" s="111"/>
+    </row>
+    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A16" s="121">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="110"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
       <c r="H16" s="115"/>
       <c r="I16" s="116"/>
       <c r="J16" s="116"/>
@@ -7179,46 +7202,46 @@
       <c r="X16" s="119"/>
       <c r="Y16" s="119"/>
       <c r="Z16" s="120"/>
-      <c r="AA16" s="121"/>
-      <c r="AB16" s="121"/>
-      <c r="AC16" s="121"/>
-      <c r="AD16" s="121"/>
-      <c r="AE16" s="121"/>
-      <c r="AF16" s="121"/>
-      <c r="AG16" s="121"/>
-      <c r="AH16" s="121"/>
-      <c r="AI16" s="121"/>
-      <c r="AJ16" s="121"/>
-      <c r="AK16" s="121"/>
-      <c r="AL16" s="121"/>
-      <c r="AM16" s="121"/>
-      <c r="AN16" s="121"/>
-      <c r="AO16" s="121"/>
-      <c r="AP16" s="121"/>
-      <c r="AQ16" s="121"/>
-      <c r="AR16" s="121"/>
-      <c r="AS16" s="121"/>
-      <c r="AT16" s="121"/>
-      <c r="AU16" s="121"/>
-      <c r="AV16" s="121"/>
-      <c r="AW16" s="121"/>
-      <c r="AX16" s="121"/>
-      <c r="AY16" s="121"/>
-      <c r="AZ16" s="121"/>
-      <c r="BA16" s="121"/>
-      <c r="BB16" s="121"/>
-    </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A17" s="110">
+      <c r="AA16" s="111"/>
+      <c r="AB16" s="111"/>
+      <c r="AC16" s="111"/>
+      <c r="AD16" s="111"/>
+      <c r="AE16" s="111"/>
+      <c r="AF16" s="111"/>
+      <c r="AG16" s="111"/>
+      <c r="AH16" s="111"/>
+      <c r="AI16" s="111"/>
+      <c r="AJ16" s="111"/>
+      <c r="AK16" s="111"/>
+      <c r="AL16" s="111"/>
+      <c r="AM16" s="111"/>
+      <c r="AN16" s="111"/>
+      <c r="AO16" s="111"/>
+      <c r="AP16" s="111"/>
+      <c r="AQ16" s="111"/>
+      <c r="AR16" s="111"/>
+      <c r="AS16" s="111"/>
+      <c r="AT16" s="111"/>
+      <c r="AU16" s="111"/>
+      <c r="AV16" s="111"/>
+      <c r="AW16" s="111"/>
+      <c r="AX16" s="111"/>
+      <c r="AY16" s="111"/>
+      <c r="AZ16" s="111"/>
+      <c r="BA16" s="111"/>
+      <c r="BB16" s="111"/>
+    </row>
+    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A17" s="121">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="110"/>
-      <c r="C17" s="114"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="114"/>
+      <c r="B17" s="121"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="122"/>
       <c r="H17" s="115"/>
       <c r="I17" s="116"/>
       <c r="J17" s="116"/>
@@ -7238,46 +7261,46 @@
       <c r="X17" s="119"/>
       <c r="Y17" s="119"/>
       <c r="Z17" s="120"/>
-      <c r="AA17" s="121"/>
-      <c r="AB17" s="121"/>
-      <c r="AC17" s="121"/>
-      <c r="AD17" s="121"/>
-      <c r="AE17" s="121"/>
-      <c r="AF17" s="121"/>
-      <c r="AG17" s="121"/>
-      <c r="AH17" s="121"/>
-      <c r="AI17" s="121"/>
-      <c r="AJ17" s="121"/>
-      <c r="AK17" s="121"/>
-      <c r="AL17" s="121"/>
-      <c r="AM17" s="121"/>
-      <c r="AN17" s="121"/>
-      <c r="AO17" s="121"/>
-      <c r="AP17" s="121"/>
-      <c r="AQ17" s="121"/>
-      <c r="AR17" s="121"/>
-      <c r="AS17" s="121"/>
-      <c r="AT17" s="121"/>
-      <c r="AU17" s="121"/>
-      <c r="AV17" s="121"/>
-      <c r="AW17" s="121"/>
-      <c r="AX17" s="121"/>
-      <c r="AY17" s="121"/>
-      <c r="AZ17" s="121"/>
-      <c r="BA17" s="121"/>
-      <c r="BB17" s="121"/>
-    </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A18" s="110">
+      <c r="AA17" s="111"/>
+      <c r="AB17" s="111"/>
+      <c r="AC17" s="111"/>
+      <c r="AD17" s="111"/>
+      <c r="AE17" s="111"/>
+      <c r="AF17" s="111"/>
+      <c r="AG17" s="111"/>
+      <c r="AH17" s="111"/>
+      <c r="AI17" s="111"/>
+      <c r="AJ17" s="111"/>
+      <c r="AK17" s="111"/>
+      <c r="AL17" s="111"/>
+      <c r="AM17" s="111"/>
+      <c r="AN17" s="111"/>
+      <c r="AO17" s="111"/>
+      <c r="AP17" s="111"/>
+      <c r="AQ17" s="111"/>
+      <c r="AR17" s="111"/>
+      <c r="AS17" s="111"/>
+      <c r="AT17" s="111"/>
+      <c r="AU17" s="111"/>
+      <c r="AV17" s="111"/>
+      <c r="AW17" s="111"/>
+      <c r="AX17" s="111"/>
+      <c r="AY17" s="111"/>
+      <c r="AZ17" s="111"/>
+      <c r="BA17" s="111"/>
+      <c r="BB17" s="111"/>
+    </row>
+    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A18" s="121">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="110"/>
-      <c r="C18" s="122"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="124"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="114"/>
       <c r="H18" s="115"/>
       <c r="I18" s="116"/>
       <c r="J18" s="116"/>
@@ -7326,17 +7349,17 @@
       <c r="BA18" s="119"/>
       <c r="BB18" s="120"/>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A19" s="110">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A19" s="121">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="110"/>
-      <c r="C19" s="122"/>
-      <c r="D19" s="123"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="124"/>
+      <c r="B19" s="121"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="114"/>
       <c r="H19" s="115"/>
       <c r="I19" s="116"/>
       <c r="J19" s="116"/>
@@ -7385,17 +7408,17 @@
       <c r="BA19" s="119"/>
       <c r="BB19" s="120"/>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A20" s="110">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A20" s="121">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="110"/>
-      <c r="C20" s="122"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="124"/>
+      <c r="B20" s="121"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="114"/>
       <c r="H20" s="115"/>
       <c r="I20" s="116"/>
       <c r="J20" s="116"/>
@@ -7444,17 +7467,17 @@
       <c r="BA20" s="119"/>
       <c r="BB20" s="120"/>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A21" s="110">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A21" s="121">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="110"/>
-      <c r="C21" s="122"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="124"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="114"/>
       <c r="H21" s="115"/>
       <c r="I21" s="116"/>
       <c r="J21" s="116"/>
@@ -7503,17 +7526,17 @@
       <c r="BA21" s="119"/>
       <c r="BB21" s="120"/>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A22" s="121">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A22" s="111">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="121"/>
-      <c r="C22" s="122"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="124"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="114"/>
       <c r="H22" s="115"/>
       <c r="I22" s="116"/>
       <c r="J22" s="116"/>
@@ -7564,6 +7587,96 @@
     </row>
   </sheetData>
   <mergeCells count="105">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="N2:Z2"/>
+    <mergeCell ref="AA2:BB2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="N3:Z3"/>
+    <mergeCell ref="AA3:BB3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:Z4"/>
+    <mergeCell ref="AA4:BB4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="N5:Z5"/>
+    <mergeCell ref="AA5:BB5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="N6:Z6"/>
+    <mergeCell ref="AA6:BB6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="N7:Z7"/>
+    <mergeCell ref="AA7:BB7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="N8:Z8"/>
+    <mergeCell ref="AA8:BB8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="N9:Z9"/>
+    <mergeCell ref="AA9:BB9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="N10:Z10"/>
+    <mergeCell ref="AA10:BB10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:Z11"/>
+    <mergeCell ref="AA11:BB11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="N12:Z12"/>
+    <mergeCell ref="AA12:BB12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="N13:Z13"/>
+    <mergeCell ref="AA13:BB13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="N14:Z14"/>
+    <mergeCell ref="AA14:BB14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="N15:Z15"/>
+    <mergeCell ref="AA15:BB15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="N16:Z16"/>
+    <mergeCell ref="AA16:BB16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="N17:Z17"/>
+    <mergeCell ref="AA17:BB17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="N18:Z18"/>
+    <mergeCell ref="AA18:BB18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="N19:Z19"/>
+    <mergeCell ref="AA19:BB19"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="H22:M22"/>
@@ -7579,96 +7692,6 @@
     <mergeCell ref="H21:M21"/>
     <mergeCell ref="N21:Z21"/>
     <mergeCell ref="AA21:BB21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="N18:Z18"/>
-    <mergeCell ref="AA18:BB18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="N19:Z19"/>
-    <mergeCell ref="AA19:BB19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="N16:Z16"/>
-    <mergeCell ref="AA16:BB16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="N17:Z17"/>
-    <mergeCell ref="AA17:BB17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="N14:Z14"/>
-    <mergeCell ref="AA14:BB14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="N15:Z15"/>
-    <mergeCell ref="AA15:BB15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="N12:Z12"/>
-    <mergeCell ref="AA12:BB12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="N13:Z13"/>
-    <mergeCell ref="AA13:BB13"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="N10:Z10"/>
-    <mergeCell ref="AA10:BB10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="N11:Z11"/>
-    <mergeCell ref="AA11:BB11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="N8:Z8"/>
-    <mergeCell ref="AA8:BB8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="N9:Z9"/>
-    <mergeCell ref="AA9:BB9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="N6:Z6"/>
-    <mergeCell ref="AA6:BB6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="N7:Z7"/>
-    <mergeCell ref="AA7:BB7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:Z4"/>
-    <mergeCell ref="AA4:BB4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="N5:Z5"/>
-    <mergeCell ref="AA5:BB5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="N2:Z2"/>
-    <mergeCell ref="AA2:BB2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="N3:Z3"/>
-    <mergeCell ref="AA3:BB3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7677,26 +7700,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="675b6bc6-fb4a-4724-a080-4fd9de868aa1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F3BD9A264D891E42A87CAED8E149BEE6" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="ca7c401e516c40050d0899be8bcf9780">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13" xmlns:ns3="675b6bc6-fb4a-4724-a080-4fd9de868aa1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66b658899a6e9f32da36e2c4c1c4c8de" ns2:_="" ns3:_="">
     <xsd:import namespace="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
@@ -7891,26 +7894,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C42BEBA-31D4-47B4-B77A-2909DE49451E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
-    <ds:schemaRef ds:uri="675b6bc6-fb4a-4724-a080-4fd9de868aa1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5E6D1CF-0629-4A7C-8AAA-0D707E5B03BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="675b6bc6-fb4a-4724-a080-4fd9de868aa1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2133B64-DA32-4DC9-AA11-AB3D5F719200}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7927,4 +7931,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5E6D1CF-0629-4A7C-8AAA-0D707E5B03BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C42BEBA-31D4-47B4-B77A-2909DE49451E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
+    <ds:schemaRef ds:uri="675b6bc6-fb4a-4724-a080-4fd9de868aa1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>